--- a/me/4.create-a-restful-api/5.authentication-using-access-tokens.xlsx
+++ b/me/4.create-a-restful-api/5.authentication-using-access-tokens.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\rest-api-php\me\4.create-a-restful-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78B0A85-8FC5-41A1-B679-FFB37095F98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00563FE6-06FD-4CF8-90E4-FC8F0936F5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="introduction" sheetId="1" r:id="rId1"/>
+    <sheet name="login endpoint and 400 status" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
   <si>
     <t>An introduction to authentication using access tokens</t>
   </si>
@@ -95,6 +96,190 @@
   </si>
   <si>
     <t>authentication server nên có thể dễ scale hơn.</t>
+  </si>
+  <si>
+    <t>Create the login script and return 400 if the username and password are missing</t>
+  </si>
+  <si>
+    <t>構成</t>
+  </si>
+  <si>
+    <t>rest-api-php</t>
+  </si>
+  <si>
+    <t>1.api-basics</t>
+  </si>
+  <si>
+    <t>2.http-basics</t>
+  </si>
+  <si>
+    <t>3.rest-and-restful-apis</t>
+  </si>
+  <si>
+    <t>1.access-a-restful-api</t>
+  </si>
+  <si>
+    <t>gists.php</t>
+  </si>
+  <si>
+    <t>index.php</t>
+  </si>
+  <si>
+    <t>2.guzzlehttp</t>
+  </si>
+  <si>
+    <t>3.use-an-sdk</t>
+  </si>
+  <si>
+    <t>4.create-a-restful-api</t>
+  </si>
+  <si>
+    <t>api</t>
+  </si>
+  <si>
+    <t>.htaccess</t>
+  </si>
+  <si>
+    <t>bootstrap.php</t>
+  </si>
+  <si>
+    <t>database</t>
+  </si>
+  <si>
+    <t>1.create_database.sql</t>
+  </si>
+  <si>
+    <t>2.create_task_table.sql</t>
+  </si>
+  <si>
+    <t>3.insert_task_table.sql</t>
+  </si>
+  <si>
+    <t>4.create_user_table.sql</t>
+  </si>
+  <si>
+    <t>5.link_tasks_to_users.sql</t>
+  </si>
+  <si>
+    <t>src</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Auth.php</t>
+  </si>
+  <si>
+    <t>Database.php</t>
+  </si>
+  <si>
+    <t>ErrorHandler.php</t>
+  </si>
+  <si>
+    <t>TaskController.php</t>
+  </si>
+  <si>
+    <t>TaskGateway.php</t>
+  </si>
+  <si>
+    <t>UserGateway.php</t>
+  </si>
+  <si>
+    <t>vendor</t>
+  </si>
+  <si>
+    <t>.env</t>
+  </si>
+  <si>
+    <t>composer.json</t>
+  </si>
+  <si>
+    <t>register.php</t>
+  </si>
+  <si>
+    <t>login.php</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>→</t>
+  </si>
+  <si>
+    <t>rest-api-php\4.create-a-restful-api\api\login.php</t>
+  </si>
+  <si>
+    <t>&lt;?php</t>
+  </si>
+  <si>
+    <t>declare(strict_types=1);</t>
+  </si>
+  <si>
+    <t>require __DIR__ . "/bootstrap.php";</t>
+  </si>
+  <si>
+    <t>if ($_SERVER["REQUEST_METHOD"] !== "POST") {</t>
+  </si>
+  <si>
+    <t>    http_response_code(405);</t>
+  </si>
+  <si>
+    <t>    header("Allow: POST");</t>
+  </si>
+  <si>
+    <t>    exit;</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>$data = (array) json_decode(file_get_contents("php://input"), true);</t>
+  </si>
+  <si>
+    <t>if (</t>
+  </si>
+  <si>
+    <t>    !array_key_exists("username", $data) ||</t>
+  </si>
+  <si>
+    <t>    !array_key_exists("password", $data)</t>
+  </si>
+  <si>
+    <t>) {</t>
+  </si>
+  <si>
+    <t>    http_response_code(400);</t>
+  </si>
+  <si>
+    <t>    echo json_encode(["message" =&gt; "missing login credentials"]);</t>
+  </si>
+  <si>
+    <t>echo json_encode($data);</t>
+  </si>
+  <si>
+    <t>login endpoint sẽ check thông tin user và trả về access token</t>
+  </si>
+  <si>
+    <t>ini_set("display_errors", "On");</t>
+  </si>
+  <si>
+    <t>login endpoint chỉ nhận request từ phương thức POST</t>
+  </si>
+  <si>
+    <t>Check by call api</t>
+  </si>
+  <si>
+    <t>Thông tin login phải có username và password mà mình đã đăng ký</t>
+  </si>
+  <si>
+    <t>Call api /login.php nhưng ko gửi thông tin login -&gt; api trả về 400 status</t>
+  </si>
+  <si>
+    <t>call api /index.php với phương thức GET -&gt; api trả về 405 status</t>
+  </si>
+  <si>
+    <t>Call api /login.php nhưng nhưng gửi thông tin login chỉ có username or password -&gt; api cũng trả về 400 status</t>
+  </si>
+  <si>
+    <t>Call api /login.php có gửi đầy đủ thông tin login username và password -&gt; api trả về 200 status</t>
   </si>
 </sst>
 </file>
@@ -303,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -322,6 +507,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1165,6 +1360,717 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>474990</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>94626</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3BDEE1D-BB01-383F-6BBE-1A4A034E4800}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="14154150"/>
+          <a:ext cx="10076190" cy="4990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA400A36-E31F-E081-4816-B8F140CE6C5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1409700" y="10248900"/>
+          <a:ext cx="47625" cy="6210300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83A4A86E-4D5F-1E8F-6D70-52E5BB28DB3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2171700" y="10067925"/>
+          <a:ext cx="6477000" cy="5895975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>436896</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>28031</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{794A78D2-EDA4-C413-56A6-7919EFAB9DB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771525" y="19869150"/>
+          <a:ext cx="10028571" cy="4352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{207809DA-D4CC-FC4F-214D-22FF399F2879}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2181225" y="12353925"/>
+          <a:ext cx="6810375" cy="10506075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CE5E13B-D447-DFDF-EBC8-C2959F2A8A82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2400300" y="12553950"/>
+          <a:ext cx="495300" cy="11210925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>274981</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>161390</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01DF4127-7E49-9114-2AFA-217D6DD2C9AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="25031700"/>
+          <a:ext cx="9952381" cy="4276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Straight Arrow Connector 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13E5F497-1BD8-985F-04D3-032CF229A98E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6515100" y="24917400"/>
+          <a:ext cx="2495550" cy="3086100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Straight Arrow Connector 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DFCEF95-1FE2-89AA-B1EF-F39B83F4F27C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1885950" y="24926925"/>
+          <a:ext cx="2209800" cy="1543050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F6353F2-CA9E-AED6-C2A9-94AE87C5997E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2276475" y="23860125"/>
+          <a:ext cx="38100" cy="5010150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>379749</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>142319</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{120586C2-99EF-6023-0A25-D631D2D1B0BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="30175200"/>
+          <a:ext cx="10009524" cy="4447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Straight Arrow Connector 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{124879B3-2D6C-0B36-7B09-8E2D958A3A16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5686425" y="30060900"/>
+          <a:ext cx="3762375" cy="3105150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Straight Arrow Connector 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A98DEB44-78B4-DD17-31A0-E430C6AD18C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1666875" y="30051375"/>
+          <a:ext cx="1847850" cy="1590675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Straight Arrow Connector 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{836218CF-109E-CFEF-16DC-1FC3FC54FB04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2066925" y="30051375"/>
+          <a:ext cx="2295525" cy="1724025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1430,7 +2336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:U122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H124" sqref="H124"/>
     </sheetView>
   </sheetViews>
@@ -4091,4 +4997,3147 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F824FAA5-79FE-4F16-B7CE-8AFE2300CCF6}">
+  <dimension ref="A2:S183"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="O68" sqref="O68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="22"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="24"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="24"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="24"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="24"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="24"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="24"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="24"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="24"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="24"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="24"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="24"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="24"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="24"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="24"/>
+      <c r="K22" t="s">
+        <v>47</v>
+      </c>
+      <c r="L22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="24"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="24"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="24"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="24"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="24"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="24"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="24"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="24"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="24"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="19"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="24"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="24"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="24"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="19"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="24"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="19"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="24"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="19"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="24"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="24"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="19"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="27"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="4"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="4"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="4"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="6"/>
+      <c r="I51" t="s">
+        <v>47</v>
+      </c>
+      <c r="J51" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="4"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="4"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="6"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="4"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="6"/>
+      <c r="I60" t="s">
+        <v>47</v>
+      </c>
+      <c r="J60" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="6"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="4"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="6"/>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="6"/>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B67" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B68" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B69" s="4"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="6"/>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B70" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="9"/>
+    </row>
+    <row r="72" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="11"/>
+      <c r="R73" s="11"/>
+      <c r="S73" s="12"/>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A74" s="13"/>
+      <c r="B74" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="14"/>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A75" s="13"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="14"/>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A76" s="13"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="5"/>
+      <c r="Q76" s="5"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="14"/>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A77" s="13"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="5"/>
+      <c r="N77" s="5"/>
+      <c r="O77" s="5"/>
+      <c r="P77" s="5"/>
+      <c r="Q77" s="5"/>
+      <c r="R77" s="6"/>
+      <c r="S77" s="14"/>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A78" s="13"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="5"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="5"/>
+      <c r="Q78" s="5"/>
+      <c r="R78" s="6"/>
+      <c r="S78" s="14"/>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A79" s="13"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="5"/>
+      <c r="N79" s="5"/>
+      <c r="O79" s="5"/>
+      <c r="P79" s="5"/>
+      <c r="Q79" s="5"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="14"/>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A80" s="13"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="5"/>
+      <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="5"/>
+      <c r="Q80" s="5"/>
+      <c r="R80" s="6"/>
+      <c r="S80" s="14"/>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A81" s="13"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="5"/>
+      <c r="N81" s="5"/>
+      <c r="O81" s="5"/>
+      <c r="P81" s="5"/>
+      <c r="Q81" s="5"/>
+      <c r="R81" s="6"/>
+      <c r="S81" s="14"/>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A82" s="13"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5"/>
+      <c r="M82" s="5"/>
+      <c r="N82" s="5"/>
+      <c r="O82" s="5"/>
+      <c r="P82" s="5"/>
+      <c r="Q82" s="5"/>
+      <c r="R82" s="6"/>
+      <c r="S82" s="14"/>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A83" s="13"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
+      <c r="N83" s="5"/>
+      <c r="O83" s="5"/>
+      <c r="P83" s="5"/>
+      <c r="Q83" s="5"/>
+      <c r="R83" s="6"/>
+      <c r="S83" s="14"/>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A84" s="13"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="5"/>
+      <c r="N84" s="5"/>
+      <c r="O84" s="5"/>
+      <c r="P84" s="5"/>
+      <c r="Q84" s="5"/>
+      <c r="R84" s="6"/>
+      <c r="S84" s="14"/>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A85" s="13"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+      <c r="L85" s="5"/>
+      <c r="M85" s="5"/>
+      <c r="N85" s="5"/>
+      <c r="O85" s="5"/>
+      <c r="P85" s="5"/>
+      <c r="Q85" s="5"/>
+      <c r="R85" s="6"/>
+      <c r="S85" s="14"/>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A86" s="13"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="5"/>
+      <c r="M86" s="5"/>
+      <c r="N86" s="5"/>
+      <c r="O86" s="5"/>
+      <c r="P86" s="5"/>
+      <c r="Q86" s="5"/>
+      <c r="R86" s="6"/>
+      <c r="S86" s="14"/>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A87" s="13"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="5"/>
+      <c r="M87" s="5"/>
+      <c r="N87" s="5"/>
+      <c r="O87" s="5"/>
+      <c r="P87" s="5"/>
+      <c r="Q87" s="5"/>
+      <c r="R87" s="6"/>
+      <c r="S87" s="14"/>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A88" s="13"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="5"/>
+      <c r="N88" s="5"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="5"/>
+      <c r="Q88" s="5"/>
+      <c r="R88" s="6"/>
+      <c r="S88" s="14"/>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A89" s="13"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5"/>
+      <c r="M89" s="5"/>
+      <c r="N89" s="5"/>
+      <c r="O89" s="5"/>
+      <c r="P89" s="5"/>
+      <c r="Q89" s="5"/>
+      <c r="R89" s="6"/>
+      <c r="S89" s="14"/>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A90" s="13"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+      <c r="M90" s="5"/>
+      <c r="N90" s="5"/>
+      <c r="O90" s="5"/>
+      <c r="P90" s="5"/>
+      <c r="Q90" s="5"/>
+      <c r="R90" s="6"/>
+      <c r="S90" s="14"/>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A91" s="13"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5"/>
+      <c r="M91" s="5"/>
+      <c r="N91" s="5"/>
+      <c r="O91" s="5"/>
+      <c r="P91" s="5"/>
+      <c r="Q91" s="5"/>
+      <c r="R91" s="6"/>
+      <c r="S91" s="14"/>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A92" s="13"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
+      <c r="M92" s="5"/>
+      <c r="N92" s="5"/>
+      <c r="O92" s="5"/>
+      <c r="P92" s="5"/>
+      <c r="Q92" s="5"/>
+      <c r="R92" s="6"/>
+      <c r="S92" s="14"/>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A93" s="13"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5"/>
+      <c r="M93" s="5"/>
+      <c r="N93" s="5"/>
+      <c r="O93" s="5"/>
+      <c r="P93" s="5"/>
+      <c r="Q93" s="5"/>
+      <c r="R93" s="6"/>
+      <c r="S93" s="14"/>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A94" s="13"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
+      <c r="M94" s="5"/>
+      <c r="N94" s="5"/>
+      <c r="O94" s="5"/>
+      <c r="P94" s="5"/>
+      <c r="Q94" s="5"/>
+      <c r="R94" s="6"/>
+      <c r="S94" s="14"/>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A95" s="13"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5"/>
+      <c r="M95" s="5"/>
+      <c r="N95" s="5"/>
+      <c r="O95" s="5"/>
+      <c r="P95" s="5"/>
+      <c r="Q95" s="5"/>
+      <c r="R95" s="6"/>
+      <c r="S95" s="14"/>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A96" s="13"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
+      <c r="M96" s="5"/>
+      <c r="N96" s="5"/>
+      <c r="O96" s="5"/>
+      <c r="P96" s="5"/>
+      <c r="Q96" s="5"/>
+      <c r="R96" s="6"/>
+      <c r="S96" s="14"/>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A97" s="13"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5"/>
+      <c r="M97" s="5"/>
+      <c r="N97" s="5"/>
+      <c r="O97" s="5"/>
+      <c r="P97" s="5"/>
+      <c r="Q97" s="5"/>
+      <c r="R97" s="6"/>
+      <c r="S97" s="14"/>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A98" s="13"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+      <c r="L98" s="5"/>
+      <c r="M98" s="5"/>
+      <c r="N98" s="5"/>
+      <c r="O98" s="5"/>
+      <c r="P98" s="5"/>
+      <c r="Q98" s="5"/>
+      <c r="R98" s="6"/>
+      <c r="S98" s="14"/>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A99" s="13"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
+      <c r="M99" s="5"/>
+      <c r="N99" s="5"/>
+      <c r="O99" s="5"/>
+      <c r="P99" s="5"/>
+      <c r="Q99" s="5"/>
+      <c r="R99" s="6"/>
+      <c r="S99" s="14"/>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A100" s="13"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+      <c r="L100" s="5"/>
+      <c r="M100" s="5"/>
+      <c r="N100" s="5"/>
+      <c r="O100" s="5"/>
+      <c r="P100" s="5"/>
+      <c r="Q100" s="5"/>
+      <c r="R100" s="6"/>
+      <c r="S100" s="14"/>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A101" s="13"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8"/>
+      <c r="J101" s="8"/>
+      <c r="K101" s="8"/>
+      <c r="L101" s="8"/>
+      <c r="M101" s="8"/>
+      <c r="N101" s="8"/>
+      <c r="O101" s="8"/>
+      <c r="P101" s="8"/>
+      <c r="Q101" s="8"/>
+      <c r="R101" s="9"/>
+      <c r="S101" s="14"/>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A102" s="13"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="5"/>
+      <c r="M102" s="5"/>
+      <c r="N102" s="5"/>
+      <c r="O102" s="5"/>
+      <c r="P102" s="5"/>
+      <c r="Q102" s="5"/>
+      <c r="R102" s="5"/>
+      <c r="S102" s="14"/>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A103" s="13"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="5"/>
+      <c r="M103" s="5"/>
+      <c r="N103" s="5"/>
+      <c r="O103" s="5"/>
+      <c r="P103" s="5"/>
+      <c r="Q103" s="5"/>
+      <c r="R103" s="5"/>
+      <c r="S103" s="14"/>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A104" s="13"/>
+      <c r="B104" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2"/>
+      <c r="P104" s="2"/>
+      <c r="Q104" s="2"/>
+      <c r="R104" s="3"/>
+      <c r="S104" s="14"/>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A105" s="13"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="5"/>
+      <c r="M105" s="5"/>
+      <c r="N105" s="5"/>
+      <c r="O105" s="5"/>
+      <c r="P105" s="5"/>
+      <c r="Q105" s="5"/>
+      <c r="R105" s="6"/>
+      <c r="S105" s="14"/>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A106" s="13"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
+      <c r="L106" s="5"/>
+      <c r="M106" s="5"/>
+      <c r="N106" s="5"/>
+      <c r="O106" s="5"/>
+      <c r="P106" s="5"/>
+      <c r="Q106" s="5"/>
+      <c r="R106" s="6"/>
+      <c r="S106" s="14"/>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A107" s="13"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5"/>
+      <c r="L107" s="5"/>
+      <c r="M107" s="5"/>
+      <c r="N107" s="5"/>
+      <c r="O107" s="5"/>
+      <c r="P107" s="5"/>
+      <c r="Q107" s="5"/>
+      <c r="R107" s="6"/>
+      <c r="S107" s="14"/>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A108" s="13"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="5"/>
+      <c r="L108" s="5"/>
+      <c r="M108" s="5"/>
+      <c r="N108" s="5"/>
+      <c r="O108" s="5"/>
+      <c r="P108" s="5"/>
+      <c r="Q108" s="5"/>
+      <c r="R108" s="6"/>
+      <c r="S108" s="14"/>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A109" s="13"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="5"/>
+      <c r="M109" s="5"/>
+      <c r="N109" s="5"/>
+      <c r="O109" s="5"/>
+      <c r="P109" s="5"/>
+      <c r="Q109" s="5"/>
+      <c r="R109" s="6"/>
+      <c r="S109" s="14"/>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A110" s="13"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="5"/>
+      <c r="L110" s="5"/>
+      <c r="M110" s="5"/>
+      <c r="N110" s="5"/>
+      <c r="O110" s="5"/>
+      <c r="P110" s="5"/>
+      <c r="Q110" s="5"/>
+      <c r="R110" s="6"/>
+      <c r="S110" s="14"/>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A111" s="13"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="5"/>
+      <c r="L111" s="5"/>
+      <c r="M111" s="5"/>
+      <c r="N111" s="5"/>
+      <c r="O111" s="5"/>
+      <c r="P111" s="5"/>
+      <c r="Q111" s="5"/>
+      <c r="R111" s="6"/>
+      <c r="S111" s="14"/>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A112" s="13"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="5"/>
+      <c r="L112" s="5"/>
+      <c r="M112" s="5"/>
+      <c r="N112" s="5"/>
+      <c r="O112" s="5"/>
+      <c r="P112" s="5"/>
+      <c r="Q112" s="5"/>
+      <c r="R112" s="6"/>
+      <c r="S112" s="14"/>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A113" s="13"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="5"/>
+      <c r="M113" s="5"/>
+      <c r="N113" s="5"/>
+      <c r="O113" s="5"/>
+      <c r="P113" s="5"/>
+      <c r="Q113" s="5"/>
+      <c r="R113" s="6"/>
+      <c r="S113" s="14"/>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A114" s="13"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="5"/>
+      <c r="L114" s="5"/>
+      <c r="M114" s="5"/>
+      <c r="N114" s="5"/>
+      <c r="O114" s="5"/>
+      <c r="P114" s="5"/>
+      <c r="Q114" s="5"/>
+      <c r="R114" s="6"/>
+      <c r="S114" s="14"/>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A115" s="13"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="5"/>
+      <c r="K115" s="5"/>
+      <c r="L115" s="5"/>
+      <c r="M115" s="5"/>
+      <c r="N115" s="5"/>
+      <c r="O115" s="5"/>
+      <c r="P115" s="5"/>
+      <c r="Q115" s="5"/>
+      <c r="R115" s="6"/>
+      <c r="S115" s="14"/>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A116" s="13"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="5"/>
+      <c r="K116" s="5"/>
+      <c r="L116" s="5"/>
+      <c r="M116" s="5"/>
+      <c r="N116" s="5"/>
+      <c r="O116" s="5"/>
+      <c r="P116" s="5"/>
+      <c r="Q116" s="5"/>
+      <c r="R116" s="6"/>
+      <c r="S116" s="14"/>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A117" s="13"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="5"/>
+      <c r="K117" s="5"/>
+      <c r="L117" s="5"/>
+      <c r="M117" s="5"/>
+      <c r="N117" s="5"/>
+      <c r="O117" s="5"/>
+      <c r="P117" s="5"/>
+      <c r="Q117" s="5"/>
+      <c r="R117" s="6"/>
+      <c r="S117" s="14"/>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A118" s="13"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
+      <c r="K118" s="5"/>
+      <c r="L118" s="5"/>
+      <c r="M118" s="5"/>
+      <c r="N118" s="5"/>
+      <c r="O118" s="5"/>
+      <c r="P118" s="5"/>
+      <c r="Q118" s="5"/>
+      <c r="R118" s="6"/>
+      <c r="S118" s="14"/>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A119" s="13"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="5"/>
+      <c r="L119" s="5"/>
+      <c r="M119" s="5"/>
+      <c r="N119" s="5"/>
+      <c r="O119" s="5"/>
+      <c r="P119" s="5"/>
+      <c r="Q119" s="5"/>
+      <c r="R119" s="6"/>
+      <c r="S119" s="14"/>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A120" s="13"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5"/>
+      <c r="K120" s="5"/>
+      <c r="L120" s="5"/>
+      <c r="M120" s="5"/>
+      <c r="N120" s="5"/>
+      <c r="O120" s="5"/>
+      <c r="P120" s="5"/>
+      <c r="Q120" s="5"/>
+      <c r="R120" s="6"/>
+      <c r="S120" s="14"/>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A121" s="13"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="5"/>
+      <c r="K121" s="5"/>
+      <c r="L121" s="5"/>
+      <c r="M121" s="5"/>
+      <c r="N121" s="5"/>
+      <c r="O121" s="5"/>
+      <c r="P121" s="5"/>
+      <c r="Q121" s="5"/>
+      <c r="R121" s="6"/>
+      <c r="S121" s="14"/>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A122" s="13"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="5"/>
+      <c r="K122" s="5"/>
+      <c r="L122" s="5"/>
+      <c r="M122" s="5"/>
+      <c r="N122" s="5"/>
+      <c r="O122" s="5"/>
+      <c r="P122" s="5"/>
+      <c r="Q122" s="5"/>
+      <c r="R122" s="6"/>
+      <c r="S122" s="14"/>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A123" s="13"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="5"/>
+      <c r="K123" s="5"/>
+      <c r="L123" s="5"/>
+      <c r="M123" s="5"/>
+      <c r="N123" s="5"/>
+      <c r="O123" s="5"/>
+      <c r="P123" s="5"/>
+      <c r="Q123" s="5"/>
+      <c r="R123" s="6"/>
+      <c r="S123" s="14"/>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A124" s="13"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="5"/>
+      <c r="K124" s="5"/>
+      <c r="L124" s="5"/>
+      <c r="M124" s="5"/>
+      <c r="N124" s="5"/>
+      <c r="O124" s="5"/>
+      <c r="P124" s="5"/>
+      <c r="Q124" s="5"/>
+      <c r="R124" s="6"/>
+      <c r="S124" s="14"/>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A125" s="13"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5"/>
+      <c r="K125" s="5"/>
+      <c r="L125" s="5"/>
+      <c r="M125" s="5"/>
+      <c r="N125" s="5"/>
+      <c r="O125" s="5"/>
+      <c r="P125" s="5"/>
+      <c r="Q125" s="5"/>
+      <c r="R125" s="6"/>
+      <c r="S125" s="14"/>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A126" s="13"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="5"/>
+      <c r="K126" s="5"/>
+      <c r="L126" s="5"/>
+      <c r="M126" s="5"/>
+      <c r="N126" s="5"/>
+      <c r="O126" s="5"/>
+      <c r="P126" s="5"/>
+      <c r="Q126" s="5"/>
+      <c r="R126" s="6"/>
+      <c r="S126" s="14"/>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A127" s="13"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
+      <c r="J127" s="5"/>
+      <c r="K127" s="5"/>
+      <c r="L127" s="5"/>
+      <c r="M127" s="5"/>
+      <c r="N127" s="5"/>
+      <c r="O127" s="5"/>
+      <c r="P127" s="5"/>
+      <c r="Q127" s="5"/>
+      <c r="R127" s="6"/>
+      <c r="S127" s="14"/>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A128" s="13"/>
+      <c r="B128" s="7"/>
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="8"/>
+      <c r="I128" s="8"/>
+      <c r="J128" s="8"/>
+      <c r="K128" s="8"/>
+      <c r="L128" s="8"/>
+      <c r="M128" s="8"/>
+      <c r="N128" s="8"/>
+      <c r="O128" s="8"/>
+      <c r="P128" s="8"/>
+      <c r="Q128" s="8"/>
+      <c r="R128" s="9"/>
+      <c r="S128" s="14"/>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A129" s="13"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="5"/>
+      <c r="J129" s="5"/>
+      <c r="K129" s="5"/>
+      <c r="L129" s="5"/>
+      <c r="M129" s="5"/>
+      <c r="N129" s="5"/>
+      <c r="O129" s="5"/>
+      <c r="P129" s="5"/>
+      <c r="Q129" s="5"/>
+      <c r="R129" s="5"/>
+      <c r="S129" s="14"/>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A130" s="13"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
+      <c r="I130" s="5"/>
+      <c r="J130" s="5"/>
+      <c r="K130" s="5"/>
+      <c r="L130" s="5"/>
+      <c r="M130" s="5"/>
+      <c r="N130" s="5"/>
+      <c r="O130" s="5"/>
+      <c r="P130" s="5"/>
+      <c r="Q130" s="5"/>
+      <c r="R130" s="5"/>
+      <c r="S130" s="14"/>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A131" s="13"/>
+      <c r="B131" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2"/>
+      <c r="K131" s="2"/>
+      <c r="L131" s="2"/>
+      <c r="M131" s="2"/>
+      <c r="N131" s="2"/>
+      <c r="O131" s="2"/>
+      <c r="P131" s="2"/>
+      <c r="Q131" s="2"/>
+      <c r="R131" s="3"/>
+      <c r="S131" s="14"/>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A132" s="13"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5"/>
+      <c r="I132" s="5"/>
+      <c r="J132" s="5"/>
+      <c r="K132" s="5"/>
+      <c r="L132" s="5"/>
+      <c r="M132" s="5"/>
+      <c r="N132" s="5"/>
+      <c r="O132" s="5"/>
+      <c r="P132" s="5"/>
+      <c r="Q132" s="5"/>
+      <c r="R132" s="6"/>
+      <c r="S132" s="14"/>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A133" s="13"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
+      <c r="J133" s="5"/>
+      <c r="K133" s="5"/>
+      <c r="L133" s="5"/>
+      <c r="M133" s="5"/>
+      <c r="N133" s="5"/>
+      <c r="O133" s="5"/>
+      <c r="P133" s="5"/>
+      <c r="Q133" s="5"/>
+      <c r="R133" s="6"/>
+      <c r="S133" s="14"/>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A134" s="13"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5"/>
+      <c r="I134" s="5"/>
+      <c r="J134" s="5"/>
+      <c r="K134" s="5"/>
+      <c r="L134" s="5"/>
+      <c r="M134" s="5"/>
+      <c r="N134" s="5"/>
+      <c r="O134" s="5"/>
+      <c r="P134" s="5"/>
+      <c r="Q134" s="5"/>
+      <c r="R134" s="6"/>
+      <c r="S134" s="14"/>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A135" s="13"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5"/>
+      <c r="I135" s="5"/>
+      <c r="J135" s="5"/>
+      <c r="K135" s="5"/>
+      <c r="L135" s="5"/>
+      <c r="M135" s="5"/>
+      <c r="N135" s="5"/>
+      <c r="O135" s="5"/>
+      <c r="P135" s="5"/>
+      <c r="Q135" s="5"/>
+      <c r="R135" s="6"/>
+      <c r="S135" s="14"/>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A136" s="13"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="5"/>
+      <c r="J136" s="5"/>
+      <c r="K136" s="5"/>
+      <c r="L136" s="5"/>
+      <c r="M136" s="5"/>
+      <c r="N136" s="5"/>
+      <c r="O136" s="5"/>
+      <c r="P136" s="5"/>
+      <c r="Q136" s="5"/>
+      <c r="R136" s="6"/>
+      <c r="S136" s="14"/>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A137" s="13"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
+      <c r="I137" s="5"/>
+      <c r="J137" s="5"/>
+      <c r="K137" s="5"/>
+      <c r="L137" s="5"/>
+      <c r="M137" s="5"/>
+      <c r="N137" s="5"/>
+      <c r="O137" s="5"/>
+      <c r="P137" s="5"/>
+      <c r="Q137" s="5"/>
+      <c r="R137" s="6"/>
+      <c r="S137" s="14"/>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A138" s="13"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="5"/>
+      <c r="J138" s="5"/>
+      <c r="K138" s="5"/>
+      <c r="L138" s="5"/>
+      <c r="M138" s="5"/>
+      <c r="N138" s="5"/>
+      <c r="O138" s="5"/>
+      <c r="P138" s="5"/>
+      <c r="Q138" s="5"/>
+      <c r="R138" s="6"/>
+      <c r="S138" s="14"/>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A139" s="13"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5"/>
+      <c r="J139" s="5"/>
+      <c r="K139" s="5"/>
+      <c r="L139" s="5"/>
+      <c r="M139" s="5"/>
+      <c r="N139" s="5"/>
+      <c r="O139" s="5"/>
+      <c r="P139" s="5"/>
+      <c r="Q139" s="5"/>
+      <c r="R139" s="6"/>
+      <c r="S139" s="14"/>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A140" s="13"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="5"/>
+      <c r="I140" s="5"/>
+      <c r="J140" s="5"/>
+      <c r="K140" s="5"/>
+      <c r="L140" s="5"/>
+      <c r="M140" s="5"/>
+      <c r="N140" s="5"/>
+      <c r="O140" s="5"/>
+      <c r="P140" s="5"/>
+      <c r="Q140" s="5"/>
+      <c r="R140" s="6"/>
+      <c r="S140" s="14"/>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A141" s="13"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5"/>
+      <c r="I141" s="5"/>
+      <c r="J141" s="5"/>
+      <c r="K141" s="5"/>
+      <c r="L141" s="5"/>
+      <c r="M141" s="5"/>
+      <c r="N141" s="5"/>
+      <c r="O141" s="5"/>
+      <c r="P141" s="5"/>
+      <c r="Q141" s="5"/>
+      <c r="R141" s="6"/>
+      <c r="S141" s="14"/>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A142" s="13"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="5"/>
+      <c r="K142" s="5"/>
+      <c r="L142" s="5"/>
+      <c r="M142" s="5"/>
+      <c r="N142" s="5"/>
+      <c r="O142" s="5"/>
+      <c r="P142" s="5"/>
+      <c r="Q142" s="5"/>
+      <c r="R142" s="6"/>
+      <c r="S142" s="14"/>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A143" s="13"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="5"/>
+      <c r="I143" s="5"/>
+      <c r="J143" s="5"/>
+      <c r="K143" s="5"/>
+      <c r="L143" s="5"/>
+      <c r="M143" s="5"/>
+      <c r="N143" s="5"/>
+      <c r="O143" s="5"/>
+      <c r="P143" s="5"/>
+      <c r="Q143" s="5"/>
+      <c r="R143" s="6"/>
+      <c r="S143" s="14"/>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A144" s="13"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="5"/>
+      <c r="I144" s="5"/>
+      <c r="J144" s="5"/>
+      <c r="K144" s="5"/>
+      <c r="L144" s="5"/>
+      <c r="M144" s="5"/>
+      <c r="N144" s="5"/>
+      <c r="O144" s="5"/>
+      <c r="P144" s="5"/>
+      <c r="Q144" s="5"/>
+      <c r="R144" s="6"/>
+      <c r="S144" s="14"/>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A145" s="13"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="5"/>
+      <c r="K145" s="5"/>
+      <c r="L145" s="5"/>
+      <c r="M145" s="5"/>
+      <c r="N145" s="5"/>
+      <c r="O145" s="5"/>
+      <c r="P145" s="5"/>
+      <c r="Q145" s="5"/>
+      <c r="R145" s="6"/>
+      <c r="S145" s="14"/>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A146" s="13"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="5"/>
+      <c r="I146" s="5"/>
+      <c r="J146" s="5"/>
+      <c r="K146" s="5"/>
+      <c r="L146" s="5"/>
+      <c r="M146" s="5"/>
+      <c r="N146" s="5"/>
+      <c r="O146" s="5"/>
+      <c r="P146" s="5"/>
+      <c r="Q146" s="5"/>
+      <c r="R146" s="6"/>
+      <c r="S146" s="14"/>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A147" s="13"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="5"/>
+      <c r="I147" s="5"/>
+      <c r="J147" s="5"/>
+      <c r="K147" s="5"/>
+      <c r="L147" s="5"/>
+      <c r="M147" s="5"/>
+      <c r="N147" s="5"/>
+      <c r="O147" s="5"/>
+      <c r="P147" s="5"/>
+      <c r="Q147" s="5"/>
+      <c r="R147" s="6"/>
+      <c r="S147" s="14"/>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A148" s="13"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="5"/>
+      <c r="I148" s="5"/>
+      <c r="J148" s="5"/>
+      <c r="K148" s="5"/>
+      <c r="L148" s="5"/>
+      <c r="M148" s="5"/>
+      <c r="N148" s="5"/>
+      <c r="O148" s="5"/>
+      <c r="P148" s="5"/>
+      <c r="Q148" s="5"/>
+      <c r="R148" s="6"/>
+      <c r="S148" s="14"/>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A149" s="13"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="5"/>
+      <c r="I149" s="5"/>
+      <c r="J149" s="5"/>
+      <c r="K149" s="5"/>
+      <c r="L149" s="5"/>
+      <c r="M149" s="5"/>
+      <c r="N149" s="5"/>
+      <c r="O149" s="5"/>
+      <c r="P149" s="5"/>
+      <c r="Q149" s="5"/>
+      <c r="R149" s="6"/>
+      <c r="S149" s="14"/>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A150" s="13"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="5"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="5"/>
+      <c r="K150" s="5"/>
+      <c r="L150" s="5"/>
+      <c r="M150" s="5"/>
+      <c r="N150" s="5"/>
+      <c r="O150" s="5"/>
+      <c r="P150" s="5"/>
+      <c r="Q150" s="5"/>
+      <c r="R150" s="6"/>
+      <c r="S150" s="14"/>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A151" s="13"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
+      <c r="H151" s="5"/>
+      <c r="I151" s="5"/>
+      <c r="J151" s="5"/>
+      <c r="K151" s="5"/>
+      <c r="L151" s="5"/>
+      <c r="M151" s="5"/>
+      <c r="N151" s="5"/>
+      <c r="O151" s="5"/>
+      <c r="P151" s="5"/>
+      <c r="Q151" s="5"/>
+      <c r="R151" s="6"/>
+      <c r="S151" s="14"/>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A152" s="13"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="5"/>
+      <c r="J152" s="5"/>
+      <c r="K152" s="5"/>
+      <c r="L152" s="5"/>
+      <c r="M152" s="5"/>
+      <c r="N152" s="5"/>
+      <c r="O152" s="5"/>
+      <c r="P152" s="5"/>
+      <c r="Q152" s="5"/>
+      <c r="R152" s="6"/>
+      <c r="S152" s="14"/>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A153" s="13"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
+      <c r="H153" s="5"/>
+      <c r="I153" s="5"/>
+      <c r="J153" s="5"/>
+      <c r="K153" s="5"/>
+      <c r="L153" s="5"/>
+      <c r="M153" s="5"/>
+      <c r="N153" s="5"/>
+      <c r="O153" s="5"/>
+      <c r="P153" s="5"/>
+      <c r="Q153" s="5"/>
+      <c r="R153" s="6"/>
+      <c r="S153" s="14"/>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A154" s="13"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="5"/>
+      <c r="I154" s="5"/>
+      <c r="J154" s="5"/>
+      <c r="K154" s="5"/>
+      <c r="L154" s="5"/>
+      <c r="M154" s="5"/>
+      <c r="N154" s="5"/>
+      <c r="O154" s="5"/>
+      <c r="P154" s="5"/>
+      <c r="Q154" s="5"/>
+      <c r="R154" s="6"/>
+      <c r="S154" s="14"/>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A155" s="13"/>
+      <c r="B155" s="7"/>
+      <c r="C155" s="8"/>
+      <c r="D155" s="8"/>
+      <c r="E155" s="8"/>
+      <c r="F155" s="8"/>
+      <c r="G155" s="8"/>
+      <c r="H155" s="8"/>
+      <c r="I155" s="8"/>
+      <c r="J155" s="8"/>
+      <c r="K155" s="8"/>
+      <c r="L155" s="8"/>
+      <c r="M155" s="8"/>
+      <c r="N155" s="8"/>
+      <c r="O155" s="8"/>
+      <c r="P155" s="8"/>
+      <c r="Q155" s="8"/>
+      <c r="R155" s="9"/>
+      <c r="S155" s="14"/>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A156" s="13"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="5"/>
+      <c r="I156" s="5"/>
+      <c r="J156" s="5"/>
+      <c r="K156" s="5"/>
+      <c r="L156" s="5"/>
+      <c r="M156" s="5"/>
+      <c r="N156" s="5"/>
+      <c r="O156" s="5"/>
+      <c r="P156" s="5"/>
+      <c r="Q156" s="5"/>
+      <c r="R156" s="5"/>
+      <c r="S156" s="14"/>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A157" s="13"/>
+      <c r="B157" s="5"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="5"/>
+      <c r="I157" s="5"/>
+      <c r="J157" s="5"/>
+      <c r="K157" s="5"/>
+      <c r="L157" s="5"/>
+      <c r="M157" s="5"/>
+      <c r="N157" s="5"/>
+      <c r="O157" s="5"/>
+      <c r="P157" s="5"/>
+      <c r="Q157" s="5"/>
+      <c r="R157" s="5"/>
+      <c r="S157" s="14"/>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A158" s="13"/>
+      <c r="B158" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2"/>
+      <c r="H158" s="2"/>
+      <c r="I158" s="2"/>
+      <c r="J158" s="2"/>
+      <c r="K158" s="2"/>
+      <c r="L158" s="2"/>
+      <c r="M158" s="2"/>
+      <c r="N158" s="2"/>
+      <c r="O158" s="2"/>
+      <c r="P158" s="2"/>
+      <c r="Q158" s="2"/>
+      <c r="R158" s="3"/>
+      <c r="S158" s="14"/>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A159" s="13"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5"/>
+      <c r="H159" s="5"/>
+      <c r="I159" s="5"/>
+      <c r="J159" s="5"/>
+      <c r="K159" s="5"/>
+      <c r="L159" s="5"/>
+      <c r="M159" s="5"/>
+      <c r="N159" s="5"/>
+      <c r="O159" s="5"/>
+      <c r="P159" s="5"/>
+      <c r="Q159" s="5"/>
+      <c r="R159" s="6"/>
+      <c r="S159" s="14"/>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A160" s="13"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5"/>
+      <c r="H160" s="5"/>
+      <c r="I160" s="5"/>
+      <c r="J160" s="5"/>
+      <c r="K160" s="5"/>
+      <c r="L160" s="5"/>
+      <c r="M160" s="5"/>
+      <c r="N160" s="5"/>
+      <c r="O160" s="5"/>
+      <c r="P160" s="5"/>
+      <c r="Q160" s="5"/>
+      <c r="R160" s="6"/>
+      <c r="S160" s="14"/>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A161" s="13"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
+      <c r="H161" s="5"/>
+      <c r="I161" s="5"/>
+      <c r="J161" s="5"/>
+      <c r="K161" s="5"/>
+      <c r="L161" s="5"/>
+      <c r="M161" s="5"/>
+      <c r="N161" s="5"/>
+      <c r="O161" s="5"/>
+      <c r="P161" s="5"/>
+      <c r="Q161" s="5"/>
+      <c r="R161" s="6"/>
+      <c r="S161" s="14"/>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A162" s="13"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5"/>
+      <c r="H162" s="5"/>
+      <c r="I162" s="5"/>
+      <c r="J162" s="5"/>
+      <c r="K162" s="5"/>
+      <c r="L162" s="5"/>
+      <c r="M162" s="5"/>
+      <c r="N162" s="5"/>
+      <c r="O162" s="5"/>
+      <c r="P162" s="5"/>
+      <c r="Q162" s="5"/>
+      <c r="R162" s="6"/>
+      <c r="S162" s="14"/>
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A163" s="13"/>
+      <c r="B163" s="4"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5"/>
+      <c r="H163" s="5"/>
+      <c r="I163" s="5"/>
+      <c r="J163" s="5"/>
+      <c r="K163" s="5"/>
+      <c r="L163" s="5"/>
+      <c r="M163" s="5"/>
+      <c r="N163" s="5"/>
+      <c r="O163" s="5"/>
+      <c r="P163" s="5"/>
+      <c r="Q163" s="5"/>
+      <c r="R163" s="6"/>
+      <c r="S163" s="14"/>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A164" s="13"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5"/>
+      <c r="H164" s="5"/>
+      <c r="I164" s="5"/>
+      <c r="J164" s="5"/>
+      <c r="K164" s="5"/>
+      <c r="L164" s="5"/>
+      <c r="M164" s="5"/>
+      <c r="N164" s="5"/>
+      <c r="O164" s="5"/>
+      <c r="P164" s="5"/>
+      <c r="Q164" s="5"/>
+      <c r="R164" s="6"/>
+      <c r="S164" s="14"/>
+    </row>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A165" s="13"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5"/>
+      <c r="H165" s="5"/>
+      <c r="I165" s="5"/>
+      <c r="J165" s="5"/>
+      <c r="K165" s="5"/>
+      <c r="L165" s="5"/>
+      <c r="M165" s="5"/>
+      <c r="N165" s="5"/>
+      <c r="O165" s="5"/>
+      <c r="P165" s="5"/>
+      <c r="Q165" s="5"/>
+      <c r="R165" s="6"/>
+      <c r="S165" s="14"/>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A166" s="13"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="5"/>
+      <c r="I166" s="5"/>
+      <c r="J166" s="5"/>
+      <c r="K166" s="5"/>
+      <c r="L166" s="5"/>
+      <c r="M166" s="5"/>
+      <c r="N166" s="5"/>
+      <c r="O166" s="5"/>
+      <c r="P166" s="5"/>
+      <c r="Q166" s="5"/>
+      <c r="R166" s="6"/>
+      <c r="S166" s="14"/>
+    </row>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A167" s="13"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="5"/>
+      <c r="G167" s="5"/>
+      <c r="H167" s="5"/>
+      <c r="I167" s="5"/>
+      <c r="J167" s="5"/>
+      <c r="K167" s="5"/>
+      <c r="L167" s="5"/>
+      <c r="M167" s="5"/>
+      <c r="N167" s="5"/>
+      <c r="O167" s="5"/>
+      <c r="P167" s="5"/>
+      <c r="Q167" s="5"/>
+      <c r="R167" s="6"/>
+      <c r="S167" s="14"/>
+    </row>
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A168" s="13"/>
+      <c r="B168" s="4"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+      <c r="G168" s="5"/>
+      <c r="H168" s="5"/>
+      <c r="I168" s="5"/>
+      <c r="J168" s="5"/>
+      <c r="K168" s="5"/>
+      <c r="L168" s="5"/>
+      <c r="M168" s="5"/>
+      <c r="N168" s="5"/>
+      <c r="O168" s="5"/>
+      <c r="P168" s="5"/>
+      <c r="Q168" s="5"/>
+      <c r="R168" s="6"/>
+      <c r="S168" s="14"/>
+    </row>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A169" s="13"/>
+      <c r="B169" s="4"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
+      <c r="G169" s="5"/>
+      <c r="H169" s="5"/>
+      <c r="I169" s="5"/>
+      <c r="J169" s="5"/>
+      <c r="K169" s="5"/>
+      <c r="L169" s="5"/>
+      <c r="M169" s="5"/>
+      <c r="N169" s="5"/>
+      <c r="O169" s="5"/>
+      <c r="P169" s="5"/>
+      <c r="Q169" s="5"/>
+      <c r="R169" s="6"/>
+      <c r="S169" s="14"/>
+    </row>
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A170" s="13"/>
+      <c r="B170" s="4"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+      <c r="G170" s="5"/>
+      <c r="H170" s="5"/>
+      <c r="I170" s="5"/>
+      <c r="J170" s="5"/>
+      <c r="K170" s="5"/>
+      <c r="L170" s="5"/>
+      <c r="M170" s="5"/>
+      <c r="N170" s="5"/>
+      <c r="O170" s="5"/>
+      <c r="P170" s="5"/>
+      <c r="Q170" s="5"/>
+      <c r="R170" s="6"/>
+      <c r="S170" s="14"/>
+    </row>
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A171" s="13"/>
+      <c r="B171" s="4"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5"/>
+      <c r="F171" s="5"/>
+      <c r="G171" s="5"/>
+      <c r="H171" s="5"/>
+      <c r="I171" s="5"/>
+      <c r="J171" s="5"/>
+      <c r="K171" s="5"/>
+      <c r="L171" s="5"/>
+      <c r="M171" s="5"/>
+      <c r="N171" s="5"/>
+      <c r="O171" s="5"/>
+      <c r="P171" s="5"/>
+      <c r="Q171" s="5"/>
+      <c r="R171" s="6"/>
+      <c r="S171" s="14"/>
+    </row>
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A172" s="13"/>
+      <c r="B172" s="4"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="5"/>
+      <c r="F172" s="5"/>
+      <c r="G172" s="5"/>
+      <c r="H172" s="5"/>
+      <c r="I172" s="5"/>
+      <c r="J172" s="5"/>
+      <c r="K172" s="5"/>
+      <c r="L172" s="5"/>
+      <c r="M172" s="5"/>
+      <c r="N172" s="5"/>
+      <c r="O172" s="5"/>
+      <c r="P172" s="5"/>
+      <c r="Q172" s="5"/>
+      <c r="R172" s="6"/>
+      <c r="S172" s="14"/>
+    </row>
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A173" s="13"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
+      <c r="F173" s="5"/>
+      <c r="G173" s="5"/>
+      <c r="H173" s="5"/>
+      <c r="I173" s="5"/>
+      <c r="J173" s="5"/>
+      <c r="K173" s="5"/>
+      <c r="L173" s="5"/>
+      <c r="M173" s="5"/>
+      <c r="N173" s="5"/>
+      <c r="O173" s="5"/>
+      <c r="P173" s="5"/>
+      <c r="Q173" s="5"/>
+      <c r="R173" s="6"/>
+      <c r="S173" s="14"/>
+    </row>
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A174" s="13"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="5"/>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
+      <c r="F174" s="5"/>
+      <c r="G174" s="5"/>
+      <c r="H174" s="5"/>
+      <c r="I174" s="5"/>
+      <c r="J174" s="5"/>
+      <c r="K174" s="5"/>
+      <c r="L174" s="5"/>
+      <c r="M174" s="5"/>
+      <c r="N174" s="5"/>
+      <c r="O174" s="5"/>
+      <c r="P174" s="5"/>
+      <c r="Q174" s="5"/>
+      <c r="R174" s="6"/>
+      <c r="S174" s="14"/>
+    </row>
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A175" s="13"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="5"/>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
+      <c r="G175" s="5"/>
+      <c r="H175" s="5"/>
+      <c r="I175" s="5"/>
+      <c r="J175" s="5"/>
+      <c r="K175" s="5"/>
+      <c r="L175" s="5"/>
+      <c r="M175" s="5"/>
+      <c r="N175" s="5"/>
+      <c r="O175" s="5"/>
+      <c r="P175" s="5"/>
+      <c r="Q175" s="5"/>
+      <c r="R175" s="6"/>
+      <c r="S175" s="14"/>
+    </row>
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A176" s="13"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5"/>
+      <c r="F176" s="5"/>
+      <c r="G176" s="5"/>
+      <c r="H176" s="5"/>
+      <c r="I176" s="5"/>
+      <c r="J176" s="5"/>
+      <c r="K176" s="5"/>
+      <c r="L176" s="5"/>
+      <c r="M176" s="5"/>
+      <c r="N176" s="5"/>
+      <c r="O176" s="5"/>
+      <c r="P176" s="5"/>
+      <c r="Q176" s="5"/>
+      <c r="R176" s="6"/>
+      <c r="S176" s="14"/>
+    </row>
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A177" s="13"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5"/>
+      <c r="F177" s="5"/>
+      <c r="G177" s="5"/>
+      <c r="H177" s="5"/>
+      <c r="I177" s="5"/>
+      <c r="J177" s="5"/>
+      <c r="K177" s="5"/>
+      <c r="L177" s="5"/>
+      <c r="M177" s="5"/>
+      <c r="N177" s="5"/>
+      <c r="O177" s="5"/>
+      <c r="P177" s="5"/>
+      <c r="Q177" s="5"/>
+      <c r="R177" s="6"/>
+      <c r="S177" s="14"/>
+    </row>
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A178" s="13"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="5"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5"/>
+      <c r="F178" s="5"/>
+      <c r="G178" s="5"/>
+      <c r="H178" s="5"/>
+      <c r="I178" s="5"/>
+      <c r="J178" s="5"/>
+      <c r="K178" s="5"/>
+      <c r="L178" s="5"/>
+      <c r="M178" s="5"/>
+      <c r="N178" s="5"/>
+      <c r="O178" s="5"/>
+      <c r="P178" s="5"/>
+      <c r="Q178" s="5"/>
+      <c r="R178" s="6"/>
+      <c r="S178" s="14"/>
+    </row>
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A179" s="13"/>
+      <c r="B179" s="4"/>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
+      <c r="F179" s="5"/>
+      <c r="G179" s="5"/>
+      <c r="H179" s="5"/>
+      <c r="I179" s="5"/>
+      <c r="J179" s="5"/>
+      <c r="K179" s="5"/>
+      <c r="L179" s="5"/>
+      <c r="M179" s="5"/>
+      <c r="N179" s="5"/>
+      <c r="O179" s="5"/>
+      <c r="P179" s="5"/>
+      <c r="Q179" s="5"/>
+      <c r="R179" s="6"/>
+      <c r="S179" s="14"/>
+    </row>
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A180" s="13"/>
+      <c r="B180" s="4"/>
+      <c r="C180" s="5"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
+      <c r="F180" s="5"/>
+      <c r="G180" s="5"/>
+      <c r="H180" s="5"/>
+      <c r="I180" s="5"/>
+      <c r="J180" s="5"/>
+      <c r="K180" s="5"/>
+      <c r="L180" s="5"/>
+      <c r="M180" s="5"/>
+      <c r="N180" s="5"/>
+      <c r="O180" s="5"/>
+      <c r="P180" s="5"/>
+      <c r="Q180" s="5"/>
+      <c r="R180" s="6"/>
+      <c r="S180" s="14"/>
+    </row>
+    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A181" s="13"/>
+      <c r="B181" s="4"/>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5"/>
+      <c r="F181" s="5"/>
+      <c r="G181" s="5"/>
+      <c r="H181" s="5"/>
+      <c r="I181" s="5"/>
+      <c r="J181" s="5"/>
+      <c r="K181" s="5"/>
+      <c r="L181" s="5"/>
+      <c r="M181" s="5"/>
+      <c r="N181" s="5"/>
+      <c r="O181" s="5"/>
+      <c r="P181" s="5"/>
+      <c r="Q181" s="5"/>
+      <c r="R181" s="6"/>
+      <c r="S181" s="14"/>
+    </row>
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A182" s="13"/>
+      <c r="B182" s="7"/>
+      <c r="C182" s="8"/>
+      <c r="D182" s="8"/>
+      <c r="E182" s="8"/>
+      <c r="F182" s="8"/>
+      <c r="G182" s="8"/>
+      <c r="H182" s="8"/>
+      <c r="I182" s="8"/>
+      <c r="J182" s="8"/>
+      <c r="K182" s="8"/>
+      <c r="L182" s="8"/>
+      <c r="M182" s="8"/>
+      <c r="N182" s="8"/>
+      <c r="O182" s="8"/>
+      <c r="P182" s="8"/>
+      <c r="Q182" s="8"/>
+      <c r="R182" s="9"/>
+      <c r="S182" s="14"/>
+    </row>
+    <row r="183" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="15"/>
+      <c r="B183" s="16"/>
+      <c r="C183" s="16"/>
+      <c r="D183" s="16"/>
+      <c r="E183" s="16"/>
+      <c r="F183" s="16"/>
+      <c r="G183" s="16"/>
+      <c r="H183" s="16"/>
+      <c r="I183" s="16"/>
+      <c r="J183" s="16"/>
+      <c r="K183" s="16"/>
+      <c r="L183" s="16"/>
+      <c r="M183" s="16"/>
+      <c r="N183" s="16"/>
+      <c r="O183" s="16"/>
+      <c r="P183" s="16"/>
+      <c r="Q183" s="16"/>
+      <c r="R183" s="16"/>
+      <c r="S183" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/4.create-a-restful-api/5.authentication-using-access-tokens.xlsx
+++ b/me/4.create-a-restful-api/5.authentication-using-access-tokens.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\rest-api-php\me\4.create-a-restful-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00563FE6-06FD-4CF8-90E4-FC8F0936F5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110DA9B7-310F-43E9-8310-D641939833F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="introduction" sheetId="1" r:id="rId1"/>
     <sheet name="login endpoint and 400 status" sheetId="2" r:id="rId2"/>
+    <sheet name="Select the user record" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="113">
   <si>
     <t>An introduction to authentication using access tokens</t>
   </si>
@@ -281,6 +282,123 @@
   <si>
     <t>Call api /login.php có gửi đầy đủ thông tin login username và password -&gt; api trả về 200 status</t>
   </si>
+  <si>
+    <t>Select the user record based on the username in the request</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>rest-api-php\4.create-a-restful-api\src\UserGateway.php</t>
+  </si>
+  <si>
+    <t>Mình đã có thông tin username và password được request đến khi call api /login.php nên mình có thể authenticate thông tin login đó</t>
+  </si>
+  <si>
+    <t>class UserGateway</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>    private $conn;</t>
+  </si>
+  <si>
+    <t>    public function __construct(Database $database)</t>
+  </si>
+  <si>
+    <t>    {</t>
+  </si>
+  <si>
+    <t>        $this-&gt;conn = $database-&gt;getConnection();</t>
+  </si>
+  <si>
+    <t>    }</t>
+  </si>
+  <si>
+    <t>    public function getByAPIKey(string $key): array</t>
+  </si>
+  <si>
+    <t>        $sql = "SELECT *</t>
+  </si>
+  <si>
+    <t>                FROM user</t>
+  </si>
+  <si>
+    <t>                WHERE api_key = :api_key";</t>
+  </si>
+  <si>
+    <t>        $stmt = $this-&gt;conn-&gt;prepare($sql);</t>
+  </si>
+  <si>
+    <t>        $stmt-&gt;bindValue(":api_key", $key, PDO::PARAM_STR);</t>
+  </si>
+  <si>
+    <t>        $stmt-&gt;execute();</t>
+  </si>
+  <si>
+    <t>        $data = $stmt-&gt;fetch(PDO::FETCH_ASSOC);</t>
+  </si>
+  <si>
+    <t>        if ($data == false) {</t>
+  </si>
+  <si>
+    <t>            return [];</t>
+  </si>
+  <si>
+    <t>        }</t>
+  </si>
+  <si>
+    <t>        return $data;</t>
+  </si>
+  <si>
+    <t>    public function getByUsername(string $username): array</t>
+  </si>
+  <si>
+    <t>                WHERE username = :username";</t>
+  </si>
+  <si>
+    <t>        $stmt-&gt;bindValue(":username", $username, PDO::PARAM_STR);</t>
+  </si>
+  <si>
+    <t>$database = new Database(</t>
+  </si>
+  <si>
+    <t>    $_ENV["DB_HOST"],</t>
+  </si>
+  <si>
+    <t>    $_ENV["DB_NAME"],</t>
+  </si>
+  <si>
+    <t>    $_ENV["DB_USER"],</t>
+  </si>
+  <si>
+    <t>    $_ENV["DB_PASS"]</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>$user_gateway = new UserGateway($database);</t>
+  </si>
+  <si>
+    <t>$user = $user_gateway-&gt;getByUsername($data["username"]);</t>
+  </si>
+  <si>
+    <t>echo json_encode($user);</t>
+  </si>
+  <si>
+    <t>Chuẩn nhất thì cần cả password nữa nhưng ở đây mình chỉ authentication bằng username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bảng user hiện tại có 2 user </t>
+  </si>
+  <si>
+    <t>call api /login.php với thông tin login request là username và password nhưng thông tin ko đúng -&gt; ko có thông tin user được trả về</t>
+  </si>
+  <si>
+    <t>Mình sẽ call api /login.php với thông tin login request là username và password của user quang -&gt; response trả về thông tin của user đó</t>
+  </si>
 </sst>
 </file>
 
@@ -488,7 +606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -517,6 +635,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1366,13 +1486,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>474990</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>94626</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1410,13 +1530,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1463,13 +1583,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1516,13 +1636,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>436896</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>28031</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1560,13 +1680,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1613,13 +1733,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1666,13 +1786,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>274981</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>161390</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1710,13 +1830,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1763,13 +1883,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1816,13 +1936,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1869,13 +1989,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>379749</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>142319</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1913,13 +2033,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1966,13 +2086,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2019,13 +2139,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2043,6 +2163,302 @@
         <a:xfrm flipH="1">
           <a:off x="2066925" y="30051375"/>
           <a:ext cx="2295525" cy="1724025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>275368</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>28171</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{675AD64D-5945-8E25-E6C3-B8EDD96FE2AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="26898600"/>
+          <a:ext cx="6857143" cy="3228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>417845</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>180365</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{537D447B-9B5E-A1D2-6BCD-C950B3212138}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="30927675"/>
+          <a:ext cx="10038095" cy="4876190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16BB167F-9FC1-C6DD-5905-AF16A17E0BCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2105025" y="29613225"/>
+          <a:ext cx="257175" cy="2771775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{932D244D-BAAA-4906-B5D0-091A6B9691A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1981200" y="30832425"/>
+          <a:ext cx="5524500" cy="3867150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>341650</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>113790</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F57362E-741B-4B71-85B2-763D5277F48A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="36614100"/>
+          <a:ext cx="10000000" cy="4076190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D231411C-37E3-3F0E-02CB-48045CC23EE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1295400" y="36537900"/>
+          <a:ext cx="5191125" cy="3790950"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5001,10 +5417,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F824FAA5-79FE-4F16-B7CE-8AFE2300CCF6}">
-  <dimension ref="A2:S183"/>
+  <dimension ref="A2:S182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="O68" sqref="O68"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5019,39 +5435,53 @@
         <v>65</v>
       </c>
     </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+    </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
-      <c r="B8" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="24"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="23"/>
       <c r="C9" s="19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
@@ -5065,7 +5495,7 @@
       <c r="A10" s="19"/>
       <c r="B10" s="23"/>
       <c r="C10" s="19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
@@ -5078,10 +5508,10 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="23"/>
-      <c r="C11" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
@@ -5093,10 +5523,10 @@
       <c r="A12" s="19"/>
       <c r="B12" s="23"/>
       <c r="C12" s="19"/>
-      <c r="D12" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19" t="s">
+        <v>20</v>
+      </c>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
@@ -5109,7 +5539,7 @@
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
@@ -5121,10 +5551,10 @@
       <c r="A14" s="19"/>
       <c r="B14" s="23"/>
       <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19" t="s">
-        <v>21</v>
-      </c>
+      <c r="D14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="19"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
@@ -5136,7 +5566,7 @@
       <c r="B15" s="23"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
@@ -5150,7 +5580,7 @@
       <c r="B16" s="23"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
@@ -5163,10 +5593,10 @@
       <c r="A17" s="19"/>
       <c r="B17" s="23"/>
       <c r="C17" s="19"/>
-      <c r="D17" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
@@ -5178,10 +5608,10 @@
       <c r="B18" s="23"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
-      <c r="E18" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19" t="s">
+        <v>26</v>
+      </c>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -5194,7 +5624,7 @@
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
@@ -5208,7 +5638,7 @@
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
       <c r="F20" s="19" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
@@ -5221,43 +5651,43 @@
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
-      <c r="F21" s="19" t="s">
-        <v>21</v>
+      <c r="F21" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="24"/>
+      <c r="K21" t="s">
+        <v>47</v>
+      </c>
+      <c r="L21" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="23"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="18" t="s">
-        <v>45</v>
-      </c>
+      <c r="E22" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="19"/>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="24"/>
-      <c r="K22" t="s">
-        <v>47</v>
-      </c>
-      <c r="L22" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="23"/>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
-      <c r="E23" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19" t="s">
+        <v>29</v>
+      </c>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -5270,7 +5700,7 @@
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
       <c r="F24" s="19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
@@ -5284,7 +5714,7 @@
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
       <c r="F25" s="19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
@@ -5298,7 +5728,7 @@
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
       <c r="F26" s="19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
@@ -5312,7 +5742,7 @@
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
       <c r="F27" s="19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G27" s="19"/>
       <c r="H27" s="19"/>
@@ -5324,10 +5754,10 @@
       <c r="B28" s="23"/>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19" t="s">
-        <v>33</v>
-      </c>
+      <c r="E28" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="19"/>
       <c r="G28" s="19"/>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -5338,10 +5768,10 @@
       <c r="B29" s="23"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
-      <c r="E29" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19" t="s">
+        <v>35</v>
+      </c>
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -5354,7 +5784,7 @@
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
       <c r="F30" s="19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G30" s="19"/>
       <c r="H30" s="19"/>
@@ -5368,7 +5798,7 @@
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
       <c r="F31" s="19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G31" s="19"/>
       <c r="H31" s="19"/>
@@ -5382,7 +5812,7 @@
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G32" s="19"/>
       <c r="H32" s="19"/>
@@ -5396,7 +5826,7 @@
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
       <c r="F33" s="19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G33" s="19"/>
       <c r="H33" s="19"/>
@@ -5410,7 +5840,7 @@
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
       <c r="F34" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G34" s="19"/>
       <c r="H34" s="19"/>
@@ -5422,10 +5852,10 @@
       <c r="B35" s="23"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19" t="s">
-        <v>40</v>
-      </c>
+      <c r="E35" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="19"/>
       <c r="G35" s="19"/>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -5437,7 +5867,7 @@
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
       <c r="E36" s="19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F36" s="19"/>
       <c r="G36" s="19"/>
@@ -5451,7 +5881,7 @@
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
       <c r="E37" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F37" s="19"/>
       <c r="G37" s="19"/>
@@ -5461,50 +5891,47 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="19"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="24"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="19"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26" t="s">
+      <c r="B38" s="25"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="27"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="27"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>48</v>
-      </c>
+      <c r="B42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="3"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="4"/>
+      <c r="B44" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -5513,9 +5940,7 @@
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="B45" s="4"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -5524,7 +5949,9 @@
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="4"/>
+      <c r="B46" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -5533,9 +5960,7 @@
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="B47" s="4"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -5544,7 +5969,9 @@
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="4"/>
+      <c r="B48" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -5553,9 +5980,7 @@
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B49" s="4"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -5564,33 +5989,35 @@
       <c r="H49" s="6"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="4"/>
+      <c r="B50" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="6"/>
+      <c r="I50" t="s">
+        <v>47</v>
+      </c>
+      <c r="J50" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="B51" s="4"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="6"/>
-      <c r="I51" t="s">
-        <v>47</v>
-      </c>
-      <c r="J51" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="4"/>
+      <c r="B52" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -5600,7 +6027,7 @@
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -5611,7 +6038,7 @@
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -5622,7 +6049,7 @@
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -5632,9 +6059,7 @@
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="B56" s="4"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -5643,7 +6068,9 @@
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="4"/>
+      <c r="B57" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -5652,9 +6079,7 @@
       <c r="H57" s="6"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="B58" s="4"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -5663,17 +6088,25 @@
       <c r="H58" s="6"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="4"/>
+      <c r="B59" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="6"/>
+      <c r="I59" t="s">
+        <v>47</v>
+      </c>
+      <c r="J59" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -5681,16 +6114,10 @@
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="6"/>
-      <c r="I60" t="s">
-        <v>47</v>
-      </c>
-      <c r="J60" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -5701,7 +6128,7 @@
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
@@ -5711,9 +6138,7 @@
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="4" t="s">
-        <v>61</v>
-      </c>
+      <c r="B63" s="4"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -5722,7 +6147,9 @@
       <c r="H63" s="6"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" s="4"/>
+      <c r="B64" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -5732,7 +6159,7 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
@@ -5743,7 +6170,7 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B66" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
@@ -5754,7 +6181,7 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B67" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -5764,9 +6191,7 @@
       <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B68" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="B68" s="4"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
@@ -5775,70 +6200,82 @@
       <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B69" s="4"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="6"/>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B70" s="7" t="s">
+      <c r="B69" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="9"/>
-    </row>
-    <row r="72" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="9"/>
+    </row>
+    <row r="71" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A72" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="11"/>
+      <c r="R72" s="11"/>
+      <c r="S72" s="12"/>
+    </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="11"/>
-      <c r="K73" s="11"/>
-      <c r="L73" s="11"/>
-      <c r="M73" s="11"/>
-      <c r="N73" s="11"/>
-      <c r="O73" s="11"/>
-      <c r="P73" s="11"/>
-      <c r="Q73" s="11"/>
-      <c r="R73" s="11"/>
-      <c r="S73" s="12"/>
+      <c r="A73" s="13"/>
+      <c r="B73" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="14"/>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="13"/>
-      <c r="B74" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" s="2"/>
-      <c r="Q74" s="2"/>
-      <c r="R74" s="3"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="5"/>
+      <c r="R74" s="6"/>
       <c r="S74" s="14"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
@@ -6368,44 +6805,44 @@
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="13"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5"/>
-      <c r="K100" s="5"/>
-      <c r="L100" s="5"/>
-      <c r="M100" s="5"/>
-      <c r="N100" s="5"/>
-      <c r="O100" s="5"/>
-      <c r="P100" s="5"/>
-      <c r="Q100" s="5"/>
-      <c r="R100" s="6"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="8"/>
+      <c r="J100" s="8"/>
+      <c r="K100" s="8"/>
+      <c r="L100" s="8"/>
+      <c r="M100" s="8"/>
+      <c r="N100" s="8"/>
+      <c r="O100" s="8"/>
+      <c r="P100" s="8"/>
+      <c r="Q100" s="8"/>
+      <c r="R100" s="9"/>
       <c r="S100" s="14"/>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="13"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="8"/>
-      <c r="J101" s="8"/>
-      <c r="K101" s="8"/>
-      <c r="L101" s="8"/>
-      <c r="M101" s="8"/>
-      <c r="N101" s="8"/>
-      <c r="O101" s="8"/>
-      <c r="P101" s="8"/>
-      <c r="Q101" s="8"/>
-      <c r="R101" s="9"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
+      <c r="L101" s="5"/>
+      <c r="M101" s="5"/>
+      <c r="N101" s="5"/>
+      <c r="O101" s="5"/>
+      <c r="P101" s="5"/>
+      <c r="Q101" s="5"/>
+      <c r="R101" s="5"/>
       <c r="S101" s="14"/>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
@@ -6431,46 +6868,46 @@
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="13"/>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
-      <c r="I103" s="5"/>
-      <c r="J103" s="5"/>
-      <c r="K103" s="5"/>
-      <c r="L103" s="5"/>
-      <c r="M103" s="5"/>
-      <c r="N103" s="5"/>
-      <c r="O103" s="5"/>
-      <c r="P103" s="5"/>
-      <c r="Q103" s="5"/>
-      <c r="R103" s="5"/>
+      <c r="B103" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+      <c r="P103" s="2"/>
+      <c r="Q103" s="2"/>
+      <c r="R103" s="3"/>
       <c r="S103" s="14"/>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="13"/>
-      <c r="B104" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
-      <c r="K104" s="2"/>
-      <c r="L104" s="2"/>
-      <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
-      <c r="O104" s="2"/>
-      <c r="P104" s="2"/>
-      <c r="Q104" s="2"/>
-      <c r="R104" s="3"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="5"/>
+      <c r="M104" s="5"/>
+      <c r="N104" s="5"/>
+      <c r="O104" s="5"/>
+      <c r="P104" s="5"/>
+      <c r="Q104" s="5"/>
+      <c r="R104" s="6"/>
       <c r="S104" s="14"/>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
@@ -6937,44 +7374,44 @@
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" s="13"/>
-      <c r="B127" s="4"/>
-      <c r="C127" s="5"/>
-      <c r="D127" s="5"/>
-      <c r="E127" s="5"/>
-      <c r="F127" s="5"/>
-      <c r="G127" s="5"/>
-      <c r="H127" s="5"/>
-      <c r="I127" s="5"/>
-      <c r="J127" s="5"/>
-      <c r="K127" s="5"/>
-      <c r="L127" s="5"/>
-      <c r="M127" s="5"/>
-      <c r="N127" s="5"/>
-      <c r="O127" s="5"/>
-      <c r="P127" s="5"/>
-      <c r="Q127" s="5"/>
-      <c r="R127" s="6"/>
+      <c r="B127" s="7"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="8"/>
+      <c r="I127" s="8"/>
+      <c r="J127" s="8"/>
+      <c r="K127" s="8"/>
+      <c r="L127" s="8"/>
+      <c r="M127" s="8"/>
+      <c r="N127" s="8"/>
+      <c r="O127" s="8"/>
+      <c r="P127" s="8"/>
+      <c r="Q127" s="8"/>
+      <c r="R127" s="9"/>
       <c r="S127" s="14"/>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" s="13"/>
-      <c r="B128" s="7"/>
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
-      <c r="E128" s="8"/>
-      <c r="F128" s="8"/>
-      <c r="G128" s="8"/>
-      <c r="H128" s="8"/>
-      <c r="I128" s="8"/>
-      <c r="J128" s="8"/>
-      <c r="K128" s="8"/>
-      <c r="L128" s="8"/>
-      <c r="M128" s="8"/>
-      <c r="N128" s="8"/>
-      <c r="O128" s="8"/>
-      <c r="P128" s="8"/>
-      <c r="Q128" s="8"/>
-      <c r="R128" s="9"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
+      <c r="J128" s="5"/>
+      <c r="K128" s="5"/>
+      <c r="L128" s="5"/>
+      <c r="M128" s="5"/>
+      <c r="N128" s="5"/>
+      <c r="O128" s="5"/>
+      <c r="P128" s="5"/>
+      <c r="Q128" s="5"/>
+      <c r="R128" s="5"/>
       <c r="S128" s="14"/>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
@@ -7000,46 +7437,46 @@
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" s="13"/>
-      <c r="B130" s="5"/>
-      <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
-      <c r="F130" s="5"/>
-      <c r="G130" s="5"/>
-      <c r="H130" s="5"/>
-      <c r="I130" s="5"/>
-      <c r="J130" s="5"/>
-      <c r="K130" s="5"/>
-      <c r="L130" s="5"/>
-      <c r="M130" s="5"/>
-      <c r="N130" s="5"/>
-      <c r="O130" s="5"/>
-      <c r="P130" s="5"/>
-      <c r="Q130" s="5"/>
-      <c r="R130" s="5"/>
+      <c r="B130" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
+      <c r="J130" s="2"/>
+      <c r="K130" s="2"/>
+      <c r="L130" s="2"/>
+      <c r="M130" s="2"/>
+      <c r="N130" s="2"/>
+      <c r="O130" s="2"/>
+      <c r="P130" s="2"/>
+      <c r="Q130" s="2"/>
+      <c r="R130" s="3"/>
       <c r="S130" s="14"/>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" s="13"/>
-      <c r="B131" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
-      <c r="G131" s="2"/>
-      <c r="H131" s="2"/>
-      <c r="I131" s="2"/>
-      <c r="J131" s="2"/>
-      <c r="K131" s="2"/>
-      <c r="L131" s="2"/>
-      <c r="M131" s="2"/>
-      <c r="N131" s="2"/>
-      <c r="O131" s="2"/>
-      <c r="P131" s="2"/>
-      <c r="Q131" s="2"/>
-      <c r="R131" s="3"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
+      <c r="I131" s="5"/>
+      <c r="J131" s="5"/>
+      <c r="K131" s="5"/>
+      <c r="L131" s="5"/>
+      <c r="M131" s="5"/>
+      <c r="N131" s="5"/>
+      <c r="O131" s="5"/>
+      <c r="P131" s="5"/>
+      <c r="Q131" s="5"/>
+      <c r="R131" s="6"/>
       <c r="S131" s="14"/>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
@@ -7506,44 +7943,44 @@
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" s="13"/>
-      <c r="B154" s="4"/>
-      <c r="C154" s="5"/>
-      <c r="D154" s="5"/>
-      <c r="E154" s="5"/>
-      <c r="F154" s="5"/>
-      <c r="G154" s="5"/>
-      <c r="H154" s="5"/>
-      <c r="I154" s="5"/>
-      <c r="J154" s="5"/>
-      <c r="K154" s="5"/>
-      <c r="L154" s="5"/>
-      <c r="M154" s="5"/>
-      <c r="N154" s="5"/>
-      <c r="O154" s="5"/>
-      <c r="P154" s="5"/>
-      <c r="Q154" s="5"/>
-      <c r="R154" s="6"/>
+      <c r="B154" s="7"/>
+      <c r="C154" s="8"/>
+      <c r="D154" s="8"/>
+      <c r="E154" s="8"/>
+      <c r="F154" s="8"/>
+      <c r="G154" s="8"/>
+      <c r="H154" s="8"/>
+      <c r="I154" s="8"/>
+      <c r="J154" s="8"/>
+      <c r="K154" s="8"/>
+      <c r="L154" s="8"/>
+      <c r="M154" s="8"/>
+      <c r="N154" s="8"/>
+      <c r="O154" s="8"/>
+      <c r="P154" s="8"/>
+      <c r="Q154" s="8"/>
+      <c r="R154" s="9"/>
       <c r="S154" s="14"/>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" s="13"/>
-      <c r="B155" s="7"/>
-      <c r="C155" s="8"/>
-      <c r="D155" s="8"/>
-      <c r="E155" s="8"/>
-      <c r="F155" s="8"/>
-      <c r="G155" s="8"/>
-      <c r="H155" s="8"/>
-      <c r="I155" s="8"/>
-      <c r="J155" s="8"/>
-      <c r="K155" s="8"/>
-      <c r="L155" s="8"/>
-      <c r="M155" s="8"/>
-      <c r="N155" s="8"/>
-      <c r="O155" s="8"/>
-      <c r="P155" s="8"/>
-      <c r="Q155" s="8"/>
-      <c r="R155" s="9"/>
+      <c r="B155" s="5"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
+      <c r="H155" s="5"/>
+      <c r="I155" s="5"/>
+      <c r="J155" s="5"/>
+      <c r="K155" s="5"/>
+      <c r="L155" s="5"/>
+      <c r="M155" s="5"/>
+      <c r="N155" s="5"/>
+      <c r="O155" s="5"/>
+      <c r="P155" s="5"/>
+      <c r="Q155" s="5"/>
+      <c r="R155" s="5"/>
       <c r="S155" s="14"/>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
@@ -7569,46 +8006,46 @@
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" s="13"/>
-      <c r="B157" s="5"/>
-      <c r="C157" s="5"/>
-      <c r="D157" s="5"/>
-      <c r="E157" s="5"/>
-      <c r="F157" s="5"/>
-      <c r="G157" s="5"/>
-      <c r="H157" s="5"/>
-      <c r="I157" s="5"/>
-      <c r="J157" s="5"/>
-      <c r="K157" s="5"/>
-      <c r="L157" s="5"/>
-      <c r="M157" s="5"/>
-      <c r="N157" s="5"/>
-      <c r="O157" s="5"/>
-      <c r="P157" s="5"/>
-      <c r="Q157" s="5"/>
-      <c r="R157" s="5"/>
+      <c r="B157" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+      <c r="H157" s="2"/>
+      <c r="I157" s="2"/>
+      <c r="J157" s="2"/>
+      <c r="K157" s="2"/>
+      <c r="L157" s="2"/>
+      <c r="M157" s="2"/>
+      <c r="N157" s="2"/>
+      <c r="O157" s="2"/>
+      <c r="P157" s="2"/>
+      <c r="Q157" s="2"/>
+      <c r="R157" s="3"/>
       <c r="S157" s="14"/>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" s="13"/>
-      <c r="B158" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
-      <c r="E158" s="2"/>
-      <c r="F158" s="2"/>
-      <c r="G158" s="2"/>
-      <c r="H158" s="2"/>
-      <c r="I158" s="2"/>
-      <c r="J158" s="2"/>
-      <c r="K158" s="2"/>
-      <c r="L158" s="2"/>
-      <c r="M158" s="2"/>
-      <c r="N158" s="2"/>
-      <c r="O158" s="2"/>
-      <c r="P158" s="2"/>
-      <c r="Q158" s="2"/>
-      <c r="R158" s="3"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5"/>
+      <c r="H158" s="5"/>
+      <c r="I158" s="5"/>
+      <c r="J158" s="5"/>
+      <c r="K158" s="5"/>
+      <c r="L158" s="5"/>
+      <c r="M158" s="5"/>
+      <c r="N158" s="5"/>
+      <c r="O158" s="5"/>
+      <c r="P158" s="5"/>
+      <c r="Q158" s="5"/>
+      <c r="R158" s="6"/>
       <c r="S158" s="14"/>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
@@ -8075,6 +8512,2461 @@
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A181" s="13"/>
+      <c r="B181" s="7"/>
+      <c r="C181" s="8"/>
+      <c r="D181" s="8"/>
+      <c r="E181" s="8"/>
+      <c r="F181" s="8"/>
+      <c r="G181" s="8"/>
+      <c r="H181" s="8"/>
+      <c r="I181" s="8"/>
+      <c r="J181" s="8"/>
+      <c r="K181" s="8"/>
+      <c r="L181" s="8"/>
+      <c r="M181" s="8"/>
+      <c r="N181" s="8"/>
+      <c r="O181" s="8"/>
+      <c r="P181" s="8"/>
+      <c r="Q181" s="8"/>
+      <c r="R181" s="9"/>
+      <c r="S181" s="14"/>
+    </row>
+    <row r="182" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="15"/>
+      <c r="B182" s="16"/>
+      <c r="C182" s="16"/>
+      <c r="D182" s="16"/>
+      <c r="E182" s="16"/>
+      <c r="F182" s="16"/>
+      <c r="G182" s="16"/>
+      <c r="H182" s="16"/>
+      <c r="I182" s="16"/>
+      <c r="J182" s="16"/>
+      <c r="K182" s="16"/>
+      <c r="L182" s="16"/>
+      <c r="M182" s="16"/>
+      <c r="N182" s="16"/>
+      <c r="O182" s="16"/>
+      <c r="P182" s="16"/>
+      <c r="Q182" s="16"/>
+      <c r="R182" s="16"/>
+      <c r="S182" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6770037E-5C9D-4EB8-9E14-AC9B4042BCB4}">
+  <dimension ref="A2:S215"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="R158" sqref="R157:R158"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="24"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="24"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="24"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="24"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="24"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="24"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="24"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="24"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="24"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="24"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="24"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="24"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="24"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="24"/>
+      <c r="K20" t="s">
+        <v>47</v>
+      </c>
+      <c r="L20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="24"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="24"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="24"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="24"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="24"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="24"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="24"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="24"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="24"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="24"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="24"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="19"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="24"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="24"/>
+      <c r="K33" t="s">
+        <v>47</v>
+      </c>
+      <c r="L33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="24"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="19"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="24"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="19"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="24"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="19"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="27"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="4"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="4"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="4"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="4"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="6"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="4"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="6"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="6"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="4"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="6"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="6"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65" s="4"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="6"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="6"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" s="4"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="6"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="6"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="6"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70" s="4"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="6"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B71" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="6"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B72" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="6"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73" s="4"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="6"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B74" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="6"/>
+      <c r="J74" t="s">
+        <v>47</v>
+      </c>
+      <c r="K74" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="6"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B76" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="6"/>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B77" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="6"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B78" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="6"/>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B79" s="28"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="6"/>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B80" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="6"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B81" s="28"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="6"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B82" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="6"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B83" s="28"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="6"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B84" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="6"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B85" s="28"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="6"/>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B86" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="6"/>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B87" s="28"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="6"/>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B88" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="6"/>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B89" s="28"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="6"/>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B90" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="6"/>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B91" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="6"/>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B92" s="28"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="6"/>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B93" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="6"/>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B94" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="6"/>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B95" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="9"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="3"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B100" s="4"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="6"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B101" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="6"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B102" s="4"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="6"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B103" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="6"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B104" s="4"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="6"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B105" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="6"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B106" s="4"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="6"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B107" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="6"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B108" s="4"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="6"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B109" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="6"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B110" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="6"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B111" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="6"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B112" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="6"/>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B113" s="4"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="6"/>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B114" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="6"/>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B115" s="4"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="6"/>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B116" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="6"/>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B117" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="6"/>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B118" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="6"/>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B119" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="6"/>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B120" s="4"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="6"/>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B121" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="6"/>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B122" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="6"/>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B123" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="6"/>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B124" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="6"/>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B125" s="4"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="6"/>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B126" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="6"/>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B127" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="6"/>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B128" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="6"/>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B129" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="6"/>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B130" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="6"/>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B131" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="6"/>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B132" s="28"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="6"/>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B133" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="6"/>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B134" s="28"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="6"/>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B135" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="6"/>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B136" s="28"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="6"/>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B137" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C137" s="8"/>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c r="H137" s="9"/>
+    </row>
+    <row r="139" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A140" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B140" s="11"/>
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="11"/>
+      <c r="G140" s="11"/>
+      <c r="H140" s="11"/>
+      <c r="I140" s="11"/>
+      <c r="J140" s="11"/>
+      <c r="K140" s="11"/>
+      <c r="L140" s="11"/>
+      <c r="M140" s="11"/>
+      <c r="N140" s="11"/>
+      <c r="O140" s="11"/>
+      <c r="P140" s="11"/>
+      <c r="Q140" s="11"/>
+      <c r="R140" s="11"/>
+      <c r="S140" s="12"/>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A141" s="13"/>
+      <c r="B141" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
+      <c r="J141" s="2"/>
+      <c r="K141" s="2"/>
+      <c r="L141" s="2"/>
+      <c r="M141" s="3"/>
+      <c r="N141" s="5"/>
+      <c r="O141" s="5"/>
+      <c r="P141" s="5"/>
+      <c r="Q141" s="5"/>
+      <c r="R141" s="5"/>
+      <c r="S141" s="14"/>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A142" s="13"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="5"/>
+      <c r="K142" s="5"/>
+      <c r="L142" s="5"/>
+      <c r="M142" s="6"/>
+      <c r="N142" s="5"/>
+      <c r="O142" s="5"/>
+      <c r="P142" s="5"/>
+      <c r="Q142" s="5"/>
+      <c r="R142" s="5"/>
+      <c r="S142" s="14"/>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A143" s="13"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="5"/>
+      <c r="I143" s="5"/>
+      <c r="J143" s="5"/>
+      <c r="K143" s="5"/>
+      <c r="L143" s="5"/>
+      <c r="M143" s="6"/>
+      <c r="N143" s="5"/>
+      <c r="O143" s="5"/>
+      <c r="P143" s="5"/>
+      <c r="Q143" s="5"/>
+      <c r="R143" s="5"/>
+      <c r="S143" s="14"/>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A144" s="13"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="5"/>
+      <c r="I144" s="5"/>
+      <c r="J144" s="5"/>
+      <c r="K144" s="5"/>
+      <c r="L144" s="5"/>
+      <c r="M144" s="6"/>
+      <c r="N144" s="5"/>
+      <c r="O144" s="5"/>
+      <c r="P144" s="5"/>
+      <c r="Q144" s="5"/>
+      <c r="R144" s="5"/>
+      <c r="S144" s="14"/>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A145" s="13"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="5"/>
+      <c r="K145" s="5"/>
+      <c r="L145" s="5"/>
+      <c r="M145" s="6"/>
+      <c r="N145" s="5"/>
+      <c r="O145" s="5"/>
+      <c r="P145" s="5"/>
+      <c r="Q145" s="5"/>
+      <c r="R145" s="5"/>
+      <c r="S145" s="14"/>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A146" s="13"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="5"/>
+      <c r="I146" s="5"/>
+      <c r="J146" s="5"/>
+      <c r="K146" s="5"/>
+      <c r="L146" s="5"/>
+      <c r="M146" s="6"/>
+      <c r="N146" s="5"/>
+      <c r="O146" s="5"/>
+      <c r="P146" s="5"/>
+      <c r="Q146" s="5"/>
+      <c r="R146" s="5"/>
+      <c r="S146" s="14"/>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A147" s="13"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="5"/>
+      <c r="I147" s="5"/>
+      <c r="J147" s="5"/>
+      <c r="K147" s="5"/>
+      <c r="L147" s="5"/>
+      <c r="M147" s="6"/>
+      <c r="N147" s="5"/>
+      <c r="O147" s="5"/>
+      <c r="P147" s="5"/>
+      <c r="Q147" s="5"/>
+      <c r="R147" s="5"/>
+      <c r="S147" s="14"/>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A148" s="13"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="5"/>
+      <c r="I148" s="5"/>
+      <c r="J148" s="5"/>
+      <c r="K148" s="5"/>
+      <c r="L148" s="5"/>
+      <c r="M148" s="6"/>
+      <c r="N148" s="5"/>
+      <c r="O148" s="5"/>
+      <c r="P148" s="5"/>
+      <c r="Q148" s="5"/>
+      <c r="R148" s="5"/>
+      <c r="S148" s="14"/>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A149" s="13"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="5"/>
+      <c r="I149" s="5"/>
+      <c r="J149" s="5"/>
+      <c r="K149" s="5"/>
+      <c r="L149" s="5"/>
+      <c r="M149" s="6"/>
+      <c r="N149" s="5"/>
+      <c r="O149" s="5"/>
+      <c r="P149" s="5"/>
+      <c r="Q149" s="5"/>
+      <c r="R149" s="5"/>
+      <c r="S149" s="14"/>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A150" s="13"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="5"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="5"/>
+      <c r="K150" s="5"/>
+      <c r="L150" s="5"/>
+      <c r="M150" s="6"/>
+      <c r="N150" s="5"/>
+      <c r="O150" s="5"/>
+      <c r="P150" s="5"/>
+      <c r="Q150" s="5"/>
+      <c r="R150" s="5"/>
+      <c r="S150" s="14"/>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A151" s="13"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
+      <c r="H151" s="5"/>
+      <c r="I151" s="5"/>
+      <c r="J151" s="5"/>
+      <c r="K151" s="5"/>
+      <c r="L151" s="5"/>
+      <c r="M151" s="6"/>
+      <c r="N151" s="5"/>
+      <c r="O151" s="5"/>
+      <c r="P151" s="5"/>
+      <c r="Q151" s="5"/>
+      <c r="R151" s="5"/>
+      <c r="S151" s="14"/>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A152" s="13"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="5"/>
+      <c r="J152" s="5"/>
+      <c r="K152" s="5"/>
+      <c r="L152" s="5"/>
+      <c r="M152" s="6"/>
+      <c r="N152" s="5"/>
+      <c r="O152" s="5"/>
+      <c r="P152" s="5"/>
+      <c r="Q152" s="5"/>
+      <c r="R152" s="5"/>
+      <c r="S152" s="14"/>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A153" s="13"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
+      <c r="H153" s="5"/>
+      <c r="I153" s="5"/>
+      <c r="J153" s="5"/>
+      <c r="K153" s="5"/>
+      <c r="L153" s="5"/>
+      <c r="M153" s="6"/>
+      <c r="N153" s="5"/>
+      <c r="O153" s="5"/>
+      <c r="P153" s="5"/>
+      <c r="Q153" s="5"/>
+      <c r="R153" s="5"/>
+      <c r="S153" s="14"/>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A154" s="13"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="5"/>
+      <c r="I154" s="5"/>
+      <c r="J154" s="5"/>
+      <c r="K154" s="5"/>
+      <c r="L154" s="5"/>
+      <c r="M154" s="6"/>
+      <c r="N154" s="5"/>
+      <c r="O154" s="5"/>
+      <c r="P154" s="5"/>
+      <c r="Q154" s="5"/>
+      <c r="R154" s="5"/>
+      <c r="S154" s="14"/>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A155" s="13"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
+      <c r="H155" s="5"/>
+      <c r="I155" s="5"/>
+      <c r="J155" s="5"/>
+      <c r="K155" s="5"/>
+      <c r="L155" s="5"/>
+      <c r="M155" s="6"/>
+      <c r="N155" s="5"/>
+      <c r="O155" s="5"/>
+      <c r="P155" s="5"/>
+      <c r="Q155" s="5"/>
+      <c r="R155" s="5"/>
+      <c r="S155" s="14"/>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A156" s="13"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="5"/>
+      <c r="I156" s="5"/>
+      <c r="J156" s="5"/>
+      <c r="K156" s="5"/>
+      <c r="L156" s="5"/>
+      <c r="M156" s="6"/>
+      <c r="N156" s="5"/>
+      <c r="O156" s="5"/>
+      <c r="P156" s="5"/>
+      <c r="Q156" s="5"/>
+      <c r="R156" s="5"/>
+      <c r="S156" s="14"/>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A157" s="13"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="5"/>
+      <c r="I157" s="5"/>
+      <c r="J157" s="5"/>
+      <c r="K157" s="5"/>
+      <c r="L157" s="5"/>
+      <c r="M157" s="6"/>
+      <c r="N157" s="5"/>
+      <c r="O157" s="5"/>
+      <c r="P157" s="5"/>
+      <c r="Q157" s="5"/>
+      <c r="R157" s="5"/>
+      <c r="S157" s="14"/>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A158" s="13"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5"/>
+      <c r="H158" s="5"/>
+      <c r="I158" s="5"/>
+      <c r="J158" s="5"/>
+      <c r="K158" s="5"/>
+      <c r="L158" s="5"/>
+      <c r="M158" s="6"/>
+      <c r="N158" s="5"/>
+      <c r="O158" s="5"/>
+      <c r="P158" s="5"/>
+      <c r="Q158" s="5"/>
+      <c r="R158" s="5"/>
+      <c r="S158" s="14"/>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A159" s="13"/>
+      <c r="B159" s="7"/>
+      <c r="C159" s="8"/>
+      <c r="D159" s="8"/>
+      <c r="E159" s="8"/>
+      <c r="F159" s="8"/>
+      <c r="G159" s="8"/>
+      <c r="H159" s="8"/>
+      <c r="I159" s="8"/>
+      <c r="J159" s="8"/>
+      <c r="K159" s="8"/>
+      <c r="L159" s="8"/>
+      <c r="M159" s="9"/>
+      <c r="N159" s="5"/>
+      <c r="O159" s="5"/>
+      <c r="P159" s="5"/>
+      <c r="Q159" s="5"/>
+      <c r="R159" s="5"/>
+      <c r="S159" s="14"/>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A160" s="13"/>
+      <c r="B160" s="5"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5"/>
+      <c r="H160" s="5"/>
+      <c r="I160" s="5"/>
+      <c r="J160" s="5"/>
+      <c r="K160" s="5"/>
+      <c r="L160" s="5"/>
+      <c r="M160" s="5"/>
+      <c r="N160" s="5"/>
+      <c r="O160" s="5"/>
+      <c r="P160" s="5"/>
+      <c r="Q160" s="5"/>
+      <c r="R160" s="5"/>
+      <c r="S160" s="14"/>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A161" s="13"/>
+      <c r="B161" s="5"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
+      <c r="H161" s="5"/>
+      <c r="I161" s="5"/>
+      <c r="J161" s="5"/>
+      <c r="K161" s="5"/>
+      <c r="L161" s="5"/>
+      <c r="M161" s="5"/>
+      <c r="N161" s="5"/>
+      <c r="O161" s="5"/>
+      <c r="P161" s="5"/>
+      <c r="Q161" s="5"/>
+      <c r="R161" s="5"/>
+      <c r="S161" s="14"/>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A162" s="13"/>
+      <c r="B162" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="2"/>
+      <c r="H162" s="2"/>
+      <c r="I162" s="2"/>
+      <c r="J162" s="2"/>
+      <c r="K162" s="2"/>
+      <c r="L162" s="2"/>
+      <c r="M162" s="2"/>
+      <c r="N162" s="2"/>
+      <c r="O162" s="2"/>
+      <c r="P162" s="2"/>
+      <c r="Q162" s="2"/>
+      <c r="R162" s="3"/>
+      <c r="S162" s="14"/>
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A163" s="13"/>
+      <c r="B163" s="4"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5"/>
+      <c r="H163" s="5"/>
+      <c r="I163" s="5"/>
+      <c r="J163" s="5"/>
+      <c r="K163" s="5"/>
+      <c r="L163" s="5"/>
+      <c r="M163" s="5"/>
+      <c r="N163" s="5"/>
+      <c r="O163" s="5"/>
+      <c r="P163" s="5"/>
+      <c r="Q163" s="5"/>
+      <c r="R163" s="6"/>
+      <c r="S163" s="14"/>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A164" s="13"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5"/>
+      <c r="H164" s="5"/>
+      <c r="I164" s="5"/>
+      <c r="J164" s="5"/>
+      <c r="K164" s="5"/>
+      <c r="L164" s="5"/>
+      <c r="M164" s="5"/>
+      <c r="N164" s="5"/>
+      <c r="O164" s="5"/>
+      <c r="P164" s="5"/>
+      <c r="Q164" s="5"/>
+      <c r="R164" s="6"/>
+      <c r="S164" s="14"/>
+    </row>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A165" s="13"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5"/>
+      <c r="H165" s="5"/>
+      <c r="I165" s="5"/>
+      <c r="J165" s="5"/>
+      <c r="K165" s="5"/>
+      <c r="L165" s="5"/>
+      <c r="M165" s="5"/>
+      <c r="N165" s="5"/>
+      <c r="O165" s="5"/>
+      <c r="P165" s="5"/>
+      <c r="Q165" s="5"/>
+      <c r="R165" s="6"/>
+      <c r="S165" s="14"/>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A166" s="13"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="5"/>
+      <c r="I166" s="5"/>
+      <c r="J166" s="5"/>
+      <c r="K166" s="5"/>
+      <c r="L166" s="5"/>
+      <c r="M166" s="5"/>
+      <c r="N166" s="5"/>
+      <c r="O166" s="5"/>
+      <c r="P166" s="5"/>
+      <c r="Q166" s="5"/>
+      <c r="R166" s="6"/>
+      <c r="S166" s="14"/>
+    </row>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A167" s="13"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="5"/>
+      <c r="G167" s="5"/>
+      <c r="H167" s="5"/>
+      <c r="I167" s="5"/>
+      <c r="J167" s="5"/>
+      <c r="K167" s="5"/>
+      <c r="L167" s="5"/>
+      <c r="M167" s="5"/>
+      <c r="N167" s="5"/>
+      <c r="O167" s="5"/>
+      <c r="P167" s="5"/>
+      <c r="Q167" s="5"/>
+      <c r="R167" s="6"/>
+      <c r="S167" s="14"/>
+    </row>
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A168" s="13"/>
+      <c r="B168" s="4"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+      <c r="G168" s="5"/>
+      <c r="H168" s="5"/>
+      <c r="I168" s="5"/>
+      <c r="J168" s="5"/>
+      <c r="K168" s="5"/>
+      <c r="L168" s="5"/>
+      <c r="M168" s="5"/>
+      <c r="N168" s="5"/>
+      <c r="O168" s="5"/>
+      <c r="P168" s="5"/>
+      <c r="Q168" s="5"/>
+      <c r="R168" s="6"/>
+      <c r="S168" s="14"/>
+    </row>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A169" s="13"/>
+      <c r="B169" s="4"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
+      <c r="G169" s="5"/>
+      <c r="H169" s="5"/>
+      <c r="I169" s="5"/>
+      <c r="J169" s="5"/>
+      <c r="K169" s="5"/>
+      <c r="L169" s="5"/>
+      <c r="M169" s="5"/>
+      <c r="N169" s="5"/>
+      <c r="O169" s="5"/>
+      <c r="P169" s="5"/>
+      <c r="Q169" s="5"/>
+      <c r="R169" s="6"/>
+      <c r="S169" s="14"/>
+    </row>
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A170" s="13"/>
+      <c r="B170" s="4"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+      <c r="G170" s="5"/>
+      <c r="H170" s="5"/>
+      <c r="I170" s="5"/>
+      <c r="J170" s="5"/>
+      <c r="K170" s="5"/>
+      <c r="L170" s="5"/>
+      <c r="M170" s="5"/>
+      <c r="N170" s="5"/>
+      <c r="O170" s="5"/>
+      <c r="P170" s="5"/>
+      <c r="Q170" s="5"/>
+      <c r="R170" s="6"/>
+      <c r="S170" s="14"/>
+    </row>
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A171" s="13"/>
+      <c r="B171" s="4"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5"/>
+      <c r="F171" s="5"/>
+      <c r="G171" s="5"/>
+      <c r="H171" s="5"/>
+      <c r="I171" s="5"/>
+      <c r="J171" s="5"/>
+      <c r="K171" s="5"/>
+      <c r="L171" s="5"/>
+      <c r="M171" s="5"/>
+      <c r="N171" s="5"/>
+      <c r="O171" s="5"/>
+      <c r="P171" s="5"/>
+      <c r="Q171" s="5"/>
+      <c r="R171" s="6"/>
+      <c r="S171" s="14"/>
+    </row>
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A172" s="13"/>
+      <c r="B172" s="4"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="5"/>
+      <c r="F172" s="5"/>
+      <c r="G172" s="5"/>
+      <c r="H172" s="5"/>
+      <c r="I172" s="5"/>
+      <c r="J172" s="5"/>
+      <c r="K172" s="5"/>
+      <c r="L172" s="5"/>
+      <c r="M172" s="5"/>
+      <c r="N172" s="5"/>
+      <c r="O172" s="5"/>
+      <c r="P172" s="5"/>
+      <c r="Q172" s="5"/>
+      <c r="R172" s="6"/>
+      <c r="S172" s="14"/>
+    </row>
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A173" s="13"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
+      <c r="F173" s="5"/>
+      <c r="G173" s="5"/>
+      <c r="H173" s="5"/>
+      <c r="I173" s="5"/>
+      <c r="J173" s="5"/>
+      <c r="K173" s="5"/>
+      <c r="L173" s="5"/>
+      <c r="M173" s="5"/>
+      <c r="N173" s="5"/>
+      <c r="O173" s="5"/>
+      <c r="P173" s="5"/>
+      <c r="Q173" s="5"/>
+      <c r="R173" s="6"/>
+      <c r="S173" s="14"/>
+    </row>
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A174" s="13"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="5"/>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
+      <c r="F174" s="5"/>
+      <c r="G174" s="5"/>
+      <c r="H174" s="5"/>
+      <c r="I174" s="5"/>
+      <c r="J174" s="5"/>
+      <c r="K174" s="5"/>
+      <c r="L174" s="5"/>
+      <c r="M174" s="5"/>
+      <c r="N174" s="5"/>
+      <c r="O174" s="5"/>
+      <c r="P174" s="5"/>
+      <c r="Q174" s="5"/>
+      <c r="R174" s="6"/>
+      <c r="S174" s="14"/>
+    </row>
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A175" s="13"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="5"/>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
+      <c r="G175" s="5"/>
+      <c r="H175" s="5"/>
+      <c r="I175" s="5"/>
+      <c r="J175" s="5"/>
+      <c r="K175" s="5"/>
+      <c r="L175" s="5"/>
+      <c r="M175" s="5"/>
+      <c r="N175" s="5"/>
+      <c r="O175" s="5"/>
+      <c r="P175" s="5"/>
+      <c r="Q175" s="5"/>
+      <c r="R175" s="6"/>
+      <c r="S175" s="14"/>
+    </row>
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A176" s="13"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5"/>
+      <c r="F176" s="5"/>
+      <c r="G176" s="5"/>
+      <c r="H176" s="5"/>
+      <c r="I176" s="5"/>
+      <c r="J176" s="5"/>
+      <c r="K176" s="5"/>
+      <c r="L176" s="5"/>
+      <c r="M176" s="5"/>
+      <c r="N176" s="5"/>
+      <c r="O176" s="5"/>
+      <c r="P176" s="5"/>
+      <c r="Q176" s="5"/>
+      <c r="R176" s="6"/>
+      <c r="S176" s="14"/>
+    </row>
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A177" s="13"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5"/>
+      <c r="F177" s="5"/>
+      <c r="G177" s="5"/>
+      <c r="H177" s="5"/>
+      <c r="I177" s="5"/>
+      <c r="J177" s="5"/>
+      <c r="K177" s="5"/>
+      <c r="L177" s="5"/>
+      <c r="M177" s="5"/>
+      <c r="N177" s="5"/>
+      <c r="O177" s="5"/>
+      <c r="P177" s="5"/>
+      <c r="Q177" s="5"/>
+      <c r="R177" s="6"/>
+      <c r="S177" s="14"/>
+    </row>
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A178" s="13"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="5"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5"/>
+      <c r="F178" s="5"/>
+      <c r="G178" s="5"/>
+      <c r="H178" s="5"/>
+      <c r="I178" s="5"/>
+      <c r="J178" s="5"/>
+      <c r="K178" s="5"/>
+      <c r="L178" s="5"/>
+      <c r="M178" s="5"/>
+      <c r="N178" s="5"/>
+      <c r="O178" s="5"/>
+      <c r="P178" s="5"/>
+      <c r="Q178" s="5"/>
+      <c r="R178" s="6"/>
+      <c r="S178" s="14"/>
+    </row>
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A179" s="13"/>
+      <c r="B179" s="4"/>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
+      <c r="F179" s="5"/>
+      <c r="G179" s="5"/>
+      <c r="H179" s="5"/>
+      <c r="I179" s="5"/>
+      <c r="J179" s="5"/>
+      <c r="K179" s="5"/>
+      <c r="L179" s="5"/>
+      <c r="M179" s="5"/>
+      <c r="N179" s="5"/>
+      <c r="O179" s="5"/>
+      <c r="P179" s="5"/>
+      <c r="Q179" s="5"/>
+      <c r="R179" s="6"/>
+      <c r="S179" s="14"/>
+    </row>
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A180" s="13"/>
+      <c r="B180" s="4"/>
+      <c r="C180" s="5"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
+      <c r="F180" s="5"/>
+      <c r="G180" s="5"/>
+      <c r="H180" s="5"/>
+      <c r="I180" s="5"/>
+      <c r="J180" s="5"/>
+      <c r="K180" s="5"/>
+      <c r="L180" s="5"/>
+      <c r="M180" s="5"/>
+      <c r="N180" s="5"/>
+      <c r="O180" s="5"/>
+      <c r="P180" s="5"/>
+      <c r="Q180" s="5"/>
+      <c r="R180" s="6"/>
+      <c r="S180" s="14"/>
+    </row>
+    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A181" s="13"/>
       <c r="B181" s="4"/>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
@@ -8096,48 +10988,723 @@
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182" s="13"/>
-      <c r="B182" s="7"/>
-      <c r="C182" s="8"/>
-      <c r="D182" s="8"/>
-      <c r="E182" s="8"/>
-      <c r="F182" s="8"/>
-      <c r="G182" s="8"/>
-      <c r="H182" s="8"/>
-      <c r="I182" s="8"/>
-      <c r="J182" s="8"/>
-      <c r="K182" s="8"/>
-      <c r="L182" s="8"/>
-      <c r="M182" s="8"/>
-      <c r="N182" s="8"/>
-      <c r="O182" s="8"/>
-      <c r="P182" s="8"/>
-      <c r="Q182" s="8"/>
-      <c r="R182" s="9"/>
+      <c r="B182" s="4"/>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5"/>
+      <c r="F182" s="5"/>
+      <c r="G182" s="5"/>
+      <c r="H182" s="5"/>
+      <c r="I182" s="5"/>
+      <c r="J182" s="5"/>
+      <c r="K182" s="5"/>
+      <c r="L182" s="5"/>
+      <c r="M182" s="5"/>
+      <c r="N182" s="5"/>
+      <c r="O182" s="5"/>
+      <c r="P182" s="5"/>
+      <c r="Q182" s="5"/>
+      <c r="R182" s="6"/>
       <c r="S182" s="14"/>
     </row>
-    <row r="183" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="15"/>
-      <c r="B183" s="16"/>
-      <c r="C183" s="16"/>
-      <c r="D183" s="16"/>
-      <c r="E183" s="16"/>
-      <c r="F183" s="16"/>
-      <c r="G183" s="16"/>
-      <c r="H183" s="16"/>
-      <c r="I183" s="16"/>
-      <c r="J183" s="16"/>
-      <c r="K183" s="16"/>
-      <c r="L183" s="16"/>
-      <c r="M183" s="16"/>
-      <c r="N183" s="16"/>
-      <c r="O183" s="16"/>
-      <c r="P183" s="16"/>
-      <c r="Q183" s="16"/>
-      <c r="R183" s="16"/>
-      <c r="S183" s="17"/>
+    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A183" s="13"/>
+      <c r="B183" s="4"/>
+      <c r="C183" s="5"/>
+      <c r="D183" s="5"/>
+      <c r="E183" s="5"/>
+      <c r="F183" s="5"/>
+      <c r="G183" s="5"/>
+      <c r="H183" s="5"/>
+      <c r="I183" s="5"/>
+      <c r="J183" s="5"/>
+      <c r="K183" s="5"/>
+      <c r="L183" s="5"/>
+      <c r="M183" s="5"/>
+      <c r="N183" s="5"/>
+      <c r="O183" s="5"/>
+      <c r="P183" s="5"/>
+      <c r="Q183" s="5"/>
+      <c r="R183" s="6"/>
+      <c r="S183" s="14"/>
+    </row>
+    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A184" s="13"/>
+      <c r="B184" s="4"/>
+      <c r="C184" s="5"/>
+      <c r="D184" s="5"/>
+      <c r="E184" s="5"/>
+      <c r="F184" s="5"/>
+      <c r="G184" s="5"/>
+      <c r="H184" s="5"/>
+      <c r="I184" s="5"/>
+      <c r="J184" s="5"/>
+      <c r="K184" s="5"/>
+      <c r="L184" s="5"/>
+      <c r="M184" s="5"/>
+      <c r="N184" s="5"/>
+      <c r="O184" s="5"/>
+      <c r="P184" s="5"/>
+      <c r="Q184" s="5"/>
+      <c r="R184" s="6"/>
+      <c r="S184" s="14"/>
+    </row>
+    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A185" s="13"/>
+      <c r="B185" s="4"/>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
+      <c r="E185" s="5"/>
+      <c r="F185" s="5"/>
+      <c r="G185" s="5"/>
+      <c r="H185" s="5"/>
+      <c r="I185" s="5"/>
+      <c r="J185" s="5"/>
+      <c r="K185" s="5"/>
+      <c r="L185" s="5"/>
+      <c r="M185" s="5"/>
+      <c r="N185" s="5"/>
+      <c r="O185" s="5"/>
+      <c r="P185" s="5"/>
+      <c r="Q185" s="5"/>
+      <c r="R185" s="6"/>
+      <c r="S185" s="14"/>
+    </row>
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A186" s="13"/>
+      <c r="B186" s="4"/>
+      <c r="C186" s="5"/>
+      <c r="D186" s="5"/>
+      <c r="E186" s="5"/>
+      <c r="F186" s="5"/>
+      <c r="G186" s="5"/>
+      <c r="H186" s="5"/>
+      <c r="I186" s="5"/>
+      <c r="J186" s="5"/>
+      <c r="K186" s="5"/>
+      <c r="L186" s="5"/>
+      <c r="M186" s="5"/>
+      <c r="N186" s="5"/>
+      <c r="O186" s="5"/>
+      <c r="P186" s="5"/>
+      <c r="Q186" s="5"/>
+      <c r="R186" s="6"/>
+      <c r="S186" s="14"/>
+    </row>
+    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A187" s="13"/>
+      <c r="B187" s="4"/>
+      <c r="C187" s="5"/>
+      <c r="D187" s="5"/>
+      <c r="E187" s="5"/>
+      <c r="F187" s="5"/>
+      <c r="G187" s="5"/>
+      <c r="H187" s="5"/>
+      <c r="I187" s="5"/>
+      <c r="J187" s="5"/>
+      <c r="K187" s="5"/>
+      <c r="L187" s="5"/>
+      <c r="M187" s="5"/>
+      <c r="N187" s="5"/>
+      <c r="O187" s="5"/>
+      <c r="P187" s="5"/>
+      <c r="Q187" s="5"/>
+      <c r="R187" s="6"/>
+      <c r="S187" s="14"/>
+    </row>
+    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A188" s="13"/>
+      <c r="B188" s="4"/>
+      <c r="C188" s="5"/>
+      <c r="D188" s="5"/>
+      <c r="E188" s="5"/>
+      <c r="F188" s="5"/>
+      <c r="G188" s="5"/>
+      <c r="H188" s="5"/>
+      <c r="I188" s="5"/>
+      <c r="J188" s="5"/>
+      <c r="K188" s="5"/>
+      <c r="L188" s="5"/>
+      <c r="M188" s="5"/>
+      <c r="N188" s="5"/>
+      <c r="O188" s="5"/>
+      <c r="P188" s="5"/>
+      <c r="Q188" s="5"/>
+      <c r="R188" s="6"/>
+      <c r="S188" s="14"/>
+    </row>
+    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A189" s="13"/>
+      <c r="B189" s="7"/>
+      <c r="C189" s="8"/>
+      <c r="D189" s="8"/>
+      <c r="E189" s="8"/>
+      <c r="F189" s="8"/>
+      <c r="G189" s="8"/>
+      <c r="H189" s="8"/>
+      <c r="I189" s="8"/>
+      <c r="J189" s="8"/>
+      <c r="K189" s="8"/>
+      <c r="L189" s="8"/>
+      <c r="M189" s="8"/>
+      <c r="N189" s="8"/>
+      <c r="O189" s="8"/>
+      <c r="P189" s="8"/>
+      <c r="Q189" s="8"/>
+      <c r="R189" s="9"/>
+      <c r="S189" s="14"/>
+    </row>
+    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A190" s="13"/>
+      <c r="B190" s="5"/>
+      <c r="C190" s="5"/>
+      <c r="D190" s="5"/>
+      <c r="E190" s="5"/>
+      <c r="F190" s="5"/>
+      <c r="G190" s="5"/>
+      <c r="H190" s="5"/>
+      <c r="I190" s="5"/>
+      <c r="J190" s="5"/>
+      <c r="K190" s="5"/>
+      <c r="L190" s="5"/>
+      <c r="M190" s="5"/>
+      <c r="N190" s="5"/>
+      <c r="O190" s="5"/>
+      <c r="P190" s="5"/>
+      <c r="Q190" s="5"/>
+      <c r="R190" s="5"/>
+      <c r="S190" s="14"/>
+    </row>
+    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A191" s="13"/>
+      <c r="B191" s="5"/>
+      <c r="C191" s="5"/>
+      <c r="D191" s="5"/>
+      <c r="E191" s="5"/>
+      <c r="F191" s="5"/>
+      <c r="G191" s="5"/>
+      <c r="H191" s="5"/>
+      <c r="I191" s="5"/>
+      <c r="J191" s="5"/>
+      <c r="K191" s="5"/>
+      <c r="L191" s="5"/>
+      <c r="M191" s="5"/>
+      <c r="N191" s="5"/>
+      <c r="O191" s="5"/>
+      <c r="P191" s="5"/>
+      <c r="Q191" s="5"/>
+      <c r="R191" s="5"/>
+      <c r="S191" s="14"/>
+    </row>
+    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A192" s="13"/>
+      <c r="B192" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C192" s="2"/>
+      <c r="D192" s="2"/>
+      <c r="E192" s="2"/>
+      <c r="F192" s="2"/>
+      <c r="G192" s="2"/>
+      <c r="H192" s="2"/>
+      <c r="I192" s="2"/>
+      <c r="J192" s="2"/>
+      <c r="K192" s="2"/>
+      <c r="L192" s="2"/>
+      <c r="M192" s="2"/>
+      <c r="N192" s="2"/>
+      <c r="O192" s="2"/>
+      <c r="P192" s="2"/>
+      <c r="Q192" s="2"/>
+      <c r="R192" s="3"/>
+      <c r="S192" s="14"/>
+    </row>
+    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A193" s="13"/>
+      <c r="B193" s="4"/>
+      <c r="C193" s="5"/>
+      <c r="D193" s="5"/>
+      <c r="E193" s="5"/>
+      <c r="F193" s="5"/>
+      <c r="G193" s="5"/>
+      <c r="H193" s="5"/>
+      <c r="I193" s="5"/>
+      <c r="J193" s="5"/>
+      <c r="K193" s="5"/>
+      <c r="L193" s="5"/>
+      <c r="M193" s="5"/>
+      <c r="N193" s="5"/>
+      <c r="O193" s="5"/>
+      <c r="P193" s="5"/>
+      <c r="Q193" s="5"/>
+      <c r="R193" s="6"/>
+      <c r="S193" s="14"/>
+    </row>
+    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A194" s="13"/>
+      <c r="B194" s="4"/>
+      <c r="C194" s="5"/>
+      <c r="D194" s="5"/>
+      <c r="E194" s="5"/>
+      <c r="F194" s="5"/>
+      <c r="G194" s="5"/>
+      <c r="H194" s="5"/>
+      <c r="I194" s="5"/>
+      <c r="J194" s="5"/>
+      <c r="K194" s="5"/>
+      <c r="L194" s="5"/>
+      <c r="M194" s="5"/>
+      <c r="N194" s="5"/>
+      <c r="O194" s="5"/>
+      <c r="P194" s="5"/>
+      <c r="Q194" s="5"/>
+      <c r="R194" s="6"/>
+      <c r="S194" s="14"/>
+    </row>
+    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A195" s="13"/>
+      <c r="B195" s="4"/>
+      <c r="C195" s="5"/>
+      <c r="D195" s="5"/>
+      <c r="E195" s="5"/>
+      <c r="F195" s="5"/>
+      <c r="G195" s="5"/>
+      <c r="H195" s="5"/>
+      <c r="I195" s="5"/>
+      <c r="J195" s="5"/>
+      <c r="K195" s="5"/>
+      <c r="L195" s="5"/>
+      <c r="M195" s="5"/>
+      <c r="N195" s="5"/>
+      <c r="O195" s="5"/>
+      <c r="P195" s="5"/>
+      <c r="Q195" s="5"/>
+      <c r="R195" s="6"/>
+      <c r="S195" s="14"/>
+    </row>
+    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A196" s="13"/>
+      <c r="B196" s="4"/>
+      <c r="C196" s="5"/>
+      <c r="D196" s="5"/>
+      <c r="E196" s="5"/>
+      <c r="F196" s="5"/>
+      <c r="G196" s="5"/>
+      <c r="H196" s="5"/>
+      <c r="I196" s="5"/>
+      <c r="J196" s="5"/>
+      <c r="K196" s="5"/>
+      <c r="L196" s="5"/>
+      <c r="M196" s="5"/>
+      <c r="N196" s="5"/>
+      <c r="O196" s="5"/>
+      <c r="P196" s="5"/>
+      <c r="Q196" s="5"/>
+      <c r="R196" s="6"/>
+      <c r="S196" s="14"/>
+    </row>
+    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A197" s="13"/>
+      <c r="B197" s="4"/>
+      <c r="C197" s="5"/>
+      <c r="D197" s="5"/>
+      <c r="E197" s="5"/>
+      <c r="F197" s="5"/>
+      <c r="G197" s="5"/>
+      <c r="H197" s="5"/>
+      <c r="I197" s="5"/>
+      <c r="J197" s="5"/>
+      <c r="K197" s="5"/>
+      <c r="L197" s="5"/>
+      <c r="M197" s="5"/>
+      <c r="N197" s="5"/>
+      <c r="O197" s="5"/>
+      <c r="P197" s="5"/>
+      <c r="Q197" s="5"/>
+      <c r="R197" s="6"/>
+      <c r="S197" s="14"/>
+    </row>
+    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A198" s="13"/>
+      <c r="B198" s="4"/>
+      <c r="C198" s="5"/>
+      <c r="D198" s="5"/>
+      <c r="E198" s="5"/>
+      <c r="F198" s="5"/>
+      <c r="G198" s="5"/>
+      <c r="H198" s="5"/>
+      <c r="I198" s="5"/>
+      <c r="J198" s="5"/>
+      <c r="K198" s="5"/>
+      <c r="L198" s="5"/>
+      <c r="M198" s="5"/>
+      <c r="N198" s="5"/>
+      <c r="O198" s="5"/>
+      <c r="P198" s="5"/>
+      <c r="Q198" s="5"/>
+      <c r="R198" s="6"/>
+      <c r="S198" s="14"/>
+    </row>
+    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A199" s="13"/>
+      <c r="B199" s="4"/>
+      <c r="C199" s="5"/>
+      <c r="D199" s="5"/>
+      <c r="E199" s="5"/>
+      <c r="F199" s="5"/>
+      <c r="G199" s="5"/>
+      <c r="H199" s="5"/>
+      <c r="I199" s="5"/>
+      <c r="J199" s="5"/>
+      <c r="K199" s="5"/>
+      <c r="L199" s="5"/>
+      <c r="M199" s="5"/>
+      <c r="N199" s="5"/>
+      <c r="O199" s="5"/>
+      <c r="P199" s="5"/>
+      <c r="Q199" s="5"/>
+      <c r="R199" s="6"/>
+      <c r="S199" s="14"/>
+    </row>
+    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A200" s="13"/>
+      <c r="B200" s="4"/>
+      <c r="C200" s="5"/>
+      <c r="D200" s="5"/>
+      <c r="E200" s="5"/>
+      <c r="F200" s="5"/>
+      <c r="G200" s="5"/>
+      <c r="H200" s="5"/>
+      <c r="I200" s="5"/>
+      <c r="J200" s="5"/>
+      <c r="K200" s="5"/>
+      <c r="L200" s="5"/>
+      <c r="M200" s="5"/>
+      <c r="N200" s="5"/>
+      <c r="O200" s="5"/>
+      <c r="P200" s="5"/>
+      <c r="Q200" s="5"/>
+      <c r="R200" s="6"/>
+      <c r="S200" s="14"/>
+    </row>
+    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A201" s="13"/>
+      <c r="B201" s="4"/>
+      <c r="C201" s="5"/>
+      <c r="D201" s="5"/>
+      <c r="E201" s="5"/>
+      <c r="F201" s="5"/>
+      <c r="G201" s="5"/>
+      <c r="H201" s="5"/>
+      <c r="I201" s="5"/>
+      <c r="J201" s="5"/>
+      <c r="K201" s="5"/>
+      <c r="L201" s="5"/>
+      <c r="M201" s="5"/>
+      <c r="N201" s="5"/>
+      <c r="O201" s="5"/>
+      <c r="P201" s="5"/>
+      <c r="Q201" s="5"/>
+      <c r="R201" s="6"/>
+      <c r="S201" s="14"/>
+    </row>
+    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A202" s="13"/>
+      <c r="B202" s="4"/>
+      <c r="C202" s="5"/>
+      <c r="D202" s="5"/>
+      <c r="E202" s="5"/>
+      <c r="F202" s="5"/>
+      <c r="G202" s="5"/>
+      <c r="H202" s="5"/>
+      <c r="I202" s="5"/>
+      <c r="J202" s="5"/>
+      <c r="K202" s="5"/>
+      <c r="L202" s="5"/>
+      <c r="M202" s="5"/>
+      <c r="N202" s="5"/>
+      <c r="O202" s="5"/>
+      <c r="P202" s="5"/>
+      <c r="Q202" s="5"/>
+      <c r="R202" s="6"/>
+      <c r="S202" s="14"/>
+    </row>
+    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A203" s="13"/>
+      <c r="B203" s="4"/>
+      <c r="C203" s="5"/>
+      <c r="D203" s="5"/>
+      <c r="E203" s="5"/>
+      <c r="F203" s="5"/>
+      <c r="G203" s="5"/>
+      <c r="H203" s="5"/>
+      <c r="I203" s="5"/>
+      <c r="J203" s="5"/>
+      <c r="K203" s="5"/>
+      <c r="L203" s="5"/>
+      <c r="M203" s="5"/>
+      <c r="N203" s="5"/>
+      <c r="O203" s="5"/>
+      <c r="P203" s="5"/>
+      <c r="Q203" s="5"/>
+      <c r="R203" s="6"/>
+      <c r="S203" s="14"/>
+    </row>
+    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A204" s="13"/>
+      <c r="B204" s="4"/>
+      <c r="C204" s="5"/>
+      <c r="D204" s="5"/>
+      <c r="E204" s="5"/>
+      <c r="F204" s="5"/>
+      <c r="G204" s="5"/>
+      <c r="H204" s="5"/>
+      <c r="I204" s="5"/>
+      <c r="J204" s="5"/>
+      <c r="K204" s="5"/>
+      <c r="L204" s="5"/>
+      <c r="M204" s="5"/>
+      <c r="N204" s="5"/>
+      <c r="O204" s="5"/>
+      <c r="P204" s="5"/>
+      <c r="Q204" s="5"/>
+      <c r="R204" s="6"/>
+      <c r="S204" s="14"/>
+    </row>
+    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A205" s="13"/>
+      <c r="B205" s="4"/>
+      <c r="C205" s="5"/>
+      <c r="D205" s="5"/>
+      <c r="E205" s="5"/>
+      <c r="F205" s="5"/>
+      <c r="G205" s="5"/>
+      <c r="H205" s="5"/>
+      <c r="I205" s="5"/>
+      <c r="J205" s="5"/>
+      <c r="K205" s="5"/>
+      <c r="L205" s="5"/>
+      <c r="M205" s="5"/>
+      <c r="N205" s="5"/>
+      <c r="O205" s="5"/>
+      <c r="P205" s="5"/>
+      <c r="Q205" s="5"/>
+      <c r="R205" s="6"/>
+      <c r="S205" s="14"/>
+    </row>
+    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A206" s="13"/>
+      <c r="B206" s="4"/>
+      <c r="C206" s="5"/>
+      <c r="D206" s="5"/>
+      <c r="E206" s="5"/>
+      <c r="F206" s="5"/>
+      <c r="G206" s="5"/>
+      <c r="H206" s="5"/>
+      <c r="I206" s="5"/>
+      <c r="J206" s="5"/>
+      <c r="K206" s="5"/>
+      <c r="L206" s="5"/>
+      <c r="M206" s="5"/>
+      <c r="N206" s="5"/>
+      <c r="O206" s="5"/>
+      <c r="P206" s="5"/>
+      <c r="Q206" s="5"/>
+      <c r="R206" s="6"/>
+      <c r="S206" s="14"/>
+    </row>
+    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A207" s="13"/>
+      <c r="B207" s="4"/>
+      <c r="C207" s="5"/>
+      <c r="D207" s="5"/>
+      <c r="E207" s="5"/>
+      <c r="F207" s="5"/>
+      <c r="G207" s="5"/>
+      <c r="H207" s="5"/>
+      <c r="I207" s="5"/>
+      <c r="J207" s="5"/>
+      <c r="K207" s="5"/>
+      <c r="L207" s="5"/>
+      <c r="M207" s="5"/>
+      <c r="N207" s="5"/>
+      <c r="O207" s="5"/>
+      <c r="P207" s="5"/>
+      <c r="Q207" s="5"/>
+      <c r="R207" s="6"/>
+      <c r="S207" s="14"/>
+    </row>
+    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A208" s="13"/>
+      <c r="B208" s="4"/>
+      <c r="C208" s="5"/>
+      <c r="D208" s="5"/>
+      <c r="E208" s="5"/>
+      <c r="F208" s="5"/>
+      <c r="G208" s="5"/>
+      <c r="H208" s="5"/>
+      <c r="I208" s="5"/>
+      <c r="J208" s="5"/>
+      <c r="K208" s="5"/>
+      <c r="L208" s="5"/>
+      <c r="M208" s="5"/>
+      <c r="N208" s="5"/>
+      <c r="O208" s="5"/>
+      <c r="P208" s="5"/>
+      <c r="Q208" s="5"/>
+      <c r="R208" s="6"/>
+      <c r="S208" s="14"/>
+    </row>
+    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A209" s="13"/>
+      <c r="B209" s="4"/>
+      <c r="C209" s="5"/>
+      <c r="D209" s="5"/>
+      <c r="E209" s="5"/>
+      <c r="F209" s="5"/>
+      <c r="G209" s="5"/>
+      <c r="H209" s="5"/>
+      <c r="I209" s="5"/>
+      <c r="J209" s="5"/>
+      <c r="K209" s="5"/>
+      <c r="L209" s="5"/>
+      <c r="M209" s="5"/>
+      <c r="N209" s="5"/>
+      <c r="O209" s="5"/>
+      <c r="P209" s="5"/>
+      <c r="Q209" s="5"/>
+      <c r="R209" s="6"/>
+      <c r="S209" s="14"/>
+    </row>
+    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A210" s="13"/>
+      <c r="B210" s="4"/>
+      <c r="C210" s="5"/>
+      <c r="D210" s="5"/>
+      <c r="E210" s="5"/>
+      <c r="F210" s="5"/>
+      <c r="G210" s="5"/>
+      <c r="H210" s="5"/>
+      <c r="I210" s="5"/>
+      <c r="J210" s="5"/>
+      <c r="K210" s="5"/>
+      <c r="L210" s="5"/>
+      <c r="M210" s="5"/>
+      <c r="N210" s="5"/>
+      <c r="O210" s="5"/>
+      <c r="P210" s="5"/>
+      <c r="Q210" s="5"/>
+      <c r="R210" s="6"/>
+      <c r="S210" s="14"/>
+    </row>
+    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A211" s="13"/>
+      <c r="B211" s="4"/>
+      <c r="C211" s="5"/>
+      <c r="D211" s="5"/>
+      <c r="E211" s="5"/>
+      <c r="F211" s="5"/>
+      <c r="G211" s="5"/>
+      <c r="H211" s="5"/>
+      <c r="I211" s="5"/>
+      <c r="J211" s="5"/>
+      <c r="K211" s="5"/>
+      <c r="L211" s="5"/>
+      <c r="M211" s="5"/>
+      <c r="N211" s="5"/>
+      <c r="O211" s="5"/>
+      <c r="P211" s="5"/>
+      <c r="Q211" s="5"/>
+      <c r="R211" s="6"/>
+      <c r="S211" s="14"/>
+    </row>
+    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A212" s="13"/>
+      <c r="B212" s="4"/>
+      <c r="C212" s="5"/>
+      <c r="D212" s="5"/>
+      <c r="E212" s="5"/>
+      <c r="F212" s="5"/>
+      <c r="G212" s="5"/>
+      <c r="H212" s="5"/>
+      <c r="I212" s="5"/>
+      <c r="J212" s="5"/>
+      <c r="K212" s="5"/>
+      <c r="L212" s="5"/>
+      <c r="M212" s="5"/>
+      <c r="N212" s="5"/>
+      <c r="O212" s="5"/>
+      <c r="P212" s="5"/>
+      <c r="Q212" s="5"/>
+      <c r="R212" s="6"/>
+      <c r="S212" s="14"/>
+    </row>
+    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A213" s="13"/>
+      <c r="B213" s="4"/>
+      <c r="C213" s="5"/>
+      <c r="D213" s="5"/>
+      <c r="E213" s="5"/>
+      <c r="F213" s="5"/>
+      <c r="G213" s="5"/>
+      <c r="H213" s="5"/>
+      <c r="I213" s="5"/>
+      <c r="J213" s="5"/>
+      <c r="K213" s="5"/>
+      <c r="L213" s="5"/>
+      <c r="M213" s="5"/>
+      <c r="N213" s="5"/>
+      <c r="O213" s="5"/>
+      <c r="P213" s="5"/>
+      <c r="Q213" s="5"/>
+      <c r="R213" s="6"/>
+      <c r="S213" s="14"/>
+    </row>
+    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A214" s="13"/>
+      <c r="B214" s="7"/>
+      <c r="C214" s="8"/>
+      <c r="D214" s="8"/>
+      <c r="E214" s="8"/>
+      <c r="F214" s="8"/>
+      <c r="G214" s="8"/>
+      <c r="H214" s="8"/>
+      <c r="I214" s="8"/>
+      <c r="J214" s="8"/>
+      <c r="K214" s="8"/>
+      <c r="L214" s="8"/>
+      <c r="M214" s="8"/>
+      <c r="N214" s="8"/>
+      <c r="O214" s="8"/>
+      <c r="P214" s="8"/>
+      <c r="Q214" s="8"/>
+      <c r="R214" s="9"/>
+      <c r="S214" s="14"/>
+    </row>
+    <row r="215" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="15"/>
+      <c r="B215" s="16"/>
+      <c r="C215" s="16"/>
+      <c r="D215" s="16"/>
+      <c r="E215" s="16"/>
+      <c r="F215" s="16"/>
+      <c r="G215" s="16"/>
+      <c r="H215" s="16"/>
+      <c r="I215" s="16"/>
+      <c r="J215" s="16"/>
+      <c r="K215" s="16"/>
+      <c r="L215" s="16"/>
+      <c r="M215" s="16"/>
+      <c r="N215" s="16"/>
+      <c r="O215" s="16"/>
+      <c r="P215" s="16"/>
+      <c r="Q215" s="16"/>
+      <c r="R215" s="16"/>
+      <c r="S215" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/me/4.create-a-restful-api/5.authentication-using-access-tokens.xlsx
+++ b/me/4.create-a-restful-api/5.authentication-using-access-tokens.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\rest-api-php\me\4.create-a-restful-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110DA9B7-310F-43E9-8310-D641939833F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD327A38-516D-4CCF-92DF-FAD513142A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="introduction" sheetId="1" r:id="rId1"/>
     <sheet name="login endpoint and 400 status" sheetId="2" r:id="rId2"/>
     <sheet name="Select the user record" sheetId="3" r:id="rId3"/>
+    <sheet name="Check username and pwd 401 code" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="126">
   <si>
     <t>An introduction to authentication using access tokens</t>
   </si>
@@ -292,9 +293,6 @@
     <t>rest-api-php\4.create-a-restful-api\src\UserGateway.php</t>
   </si>
   <si>
-    <t>Mình đã có thông tin username và password được request đến khi call api /login.php nên mình có thể authenticate thông tin login đó</t>
-  </si>
-  <si>
     <t>class UserGateway</t>
   </si>
   <si>
@@ -388,9 +386,6 @@
     <t>echo json_encode($user);</t>
   </si>
   <si>
-    <t>Chuẩn nhất thì cần cả password nữa nhưng ở đây mình chỉ authentication bằng username</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bảng user hiện tại có 2 user </t>
   </si>
   <si>
@@ -398,6 +393,51 @@
   </si>
   <si>
     <t>Mình sẽ call api /login.php với thông tin login request là username và password của user quang -&gt; response trả về thông tin của user đó</t>
+  </si>
+  <si>
+    <t>Check the username and password and return a 401 status code if invalid</t>
+  </si>
+  <si>
+    <t>Mình đã có thông tin username và password được request đến khi call api /login.php nên mình có thể authenticate thông tin login đó, đầu tiên là lấy thông tin user đó trong DB</t>
+  </si>
+  <si>
+    <t>dựa vào giá trị username</t>
+  </si>
+  <si>
+    <t>Mình đã lấy được thông tin user trong DB dựa và giá trị username được truyền đến cùng request, giờ mình sẽ check password được truyền đến đó có đúng ko</t>
+  </si>
+  <si>
+    <t>if ($user === []) {</t>
+  </si>
+  <si>
+    <t>    http_response_code(401);</t>
+  </si>
+  <si>
+    <t>    echo json_encode(["message" =&gt; "invalid authentication"]);</t>
+  </si>
+  <si>
+    <t>if (!password_verify($data["password"], $user["password_hash"])) {</t>
+  </si>
+  <si>
+    <t>echo json_encode("Successful authentication");</t>
+  </si>
+  <si>
+    <t>call api /login.php với thông tin login request là username và password nhưng thông tin username ko đúng -&gt;  status code là 401</t>
+  </si>
+  <si>
+    <t>Dùng hàm password_verify() để check giá trị password đã được hash bằng password_hash()</t>
+  </si>
+  <si>
+    <t>call api /login.php với thông tin login request là username và password với thông tin username đúng nhưng password sai -&gt;  status code cũng là 401 giống trường hợp trên</t>
+  </si>
+  <si>
+    <t>Việc xử lý trả về message giống nhau của trường hợp sai username hoặc password như này sẽ</t>
+  </si>
+  <si>
+    <t>giúp cho việc hacker có ít thông tin hơn về user và giảm thiểu được hệ thống bị tấn công</t>
+  </si>
+  <si>
+    <t>call api /login.php với thông tin login request là username và password với thông tin username đúng  -&gt;  status code là 200</t>
   </si>
 </sst>
 </file>
@@ -2197,13 +2237,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>275368</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>28171</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2241,13 +2281,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>417845</xdr:colOff>
-      <xdr:row>187</xdr:row>
+      <xdr:row>188</xdr:row>
       <xdr:rowOff>180365</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2285,13 +2325,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2338,13 +2378,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2391,13 +2431,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>341650</xdr:colOff>
-      <xdr:row>213</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>113790</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2435,13 +2475,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>211</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2459,6 +2499,823 @@
         <a:xfrm flipH="1">
           <a:off x="1295400" y="36537900"/>
           <a:ext cx="5191125" cy="3790950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>275368</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>28171</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF180F6A-26CA-453B-A03E-53112BF87D2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="27098625"/>
+          <a:ext cx="6857143" cy="3228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>303559</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>113718</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52DF4339-9FB4-02D9-8CB9-B07B997DE401}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="22698075"/>
+          <a:ext cx="9923809" cy="4657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DAE05F4-0A08-4168-1EE3-47A603EBD792}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7439025" y="22621875"/>
+          <a:ext cx="1485900" cy="3419475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2897A942-71D0-2F13-397A-411551C1189B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2295525" y="15801975"/>
+          <a:ext cx="552450" cy="11172825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>427364</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>37559</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F4DCB47-B699-DA6F-1D33-D9CDE447BFDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="28098750"/>
+          <a:ext cx="10085714" cy="4323809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF419EAF-8CF5-53FD-D2CA-4B62C10F3AD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8067675" y="22621875"/>
+          <a:ext cx="2295525" cy="5219700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCFAB7A2-D74D-B1F4-D4B0-DB3A693B093C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8963025" y="27946350"/>
+          <a:ext cx="123825" cy="3124200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C041A74C-3B32-5F85-5DB5-F9084B83BC54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="21421725"/>
+          <a:ext cx="4114800" cy="6448425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F75FCD8D-EDB5-AD46-1EBF-DF1FC2BB8BC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2476500" y="27984450"/>
+          <a:ext cx="3771900" cy="1581150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73E211A7-06D2-F4E3-D047-50E7EB9EA398}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2800350" y="27955875"/>
+          <a:ext cx="4838700" cy="1704975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2191623-CEB1-F142-C0DE-F5F8F73DB4A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4076700" y="15811500"/>
+          <a:ext cx="3581400" cy="1200150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{821A2CD5-3680-9BEE-128E-E49FF59B6C79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4076700" y="17116425"/>
+          <a:ext cx="3571875" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>341656</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>56629</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F3C1B57-823E-31D9-B20F-E9D399D44836}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752475" y="33223200"/>
+          <a:ext cx="9952381" cy="4171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Straight Arrow Connector 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C28CCDD-B797-30A6-1DB5-54CBB5548B7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7629525" y="33127950"/>
+          <a:ext cx="1752600" cy="3048000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Straight Arrow Connector 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19015123-32C5-E5D3-8D72-68FF5B0D7154}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2495550" y="33118425"/>
+          <a:ext cx="3781425" cy="1552575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Straight Arrow Connector 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1B003B4-5842-41AB-2B55-B78670AAE1C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2124075" y="21412200"/>
+          <a:ext cx="4181475" cy="11572875"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8560,10 +9417,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6770037E-5C9D-4EB8-9E14-AC9B4042BCB4}">
-  <dimension ref="A2:S215"/>
+  <dimension ref="A2:S216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="R158" sqref="R157:R158"/>
+    <sheetView topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="B193" sqref="B193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8575,56 +9432,47 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="22"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="24"/>
+      <c r="B7" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="23"/>
       <c r="C8" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
@@ -8638,7 +9486,7 @@
       <c r="A9" s="19"/>
       <c r="B9" s="23"/>
       <c r="C9" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
@@ -8651,10 +9499,10 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="23"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19" t="s">
-        <v>19</v>
-      </c>
+      <c r="C10" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="19"/>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
@@ -8666,10 +9514,10 @@
       <c r="A11" s="19"/>
       <c r="B11" s="23"/>
       <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19" t="s">
-        <v>20</v>
-      </c>
+      <c r="D11" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="19"/>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
@@ -8682,7 +9530,7 @@
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
@@ -8694,10 +9542,10 @@
       <c r="A13" s="19"/>
       <c r="B13" s="23"/>
       <c r="C13" s="19"/>
-      <c r="D13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
@@ -8709,7 +9557,7 @@
       <c r="B14" s="23"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
@@ -8723,7 +9571,7 @@
       <c r="B15" s="23"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
@@ -8736,10 +9584,10 @@
       <c r="A16" s="19"/>
       <c r="B16" s="23"/>
       <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19" t="s">
-        <v>25</v>
-      </c>
+      <c r="D16" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
@@ -8751,10 +9599,10 @@
       <c r="B17" s="23"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19" t="s">
-        <v>26</v>
-      </c>
+      <c r="E17" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="19"/>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -8767,7 +9615,7 @@
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
@@ -8781,7 +9629,7 @@
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
@@ -8794,43 +9642,43 @@
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
-      <c r="F20" s="18" t="s">
-        <v>45</v>
+      <c r="F20" s="19" t="s">
+        <v>21</v>
       </c>
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="24"/>
-      <c r="K20" t="s">
-        <v>47</v>
-      </c>
-      <c r="L20" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="23"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
-      <c r="E21" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="18" t="s">
+        <v>45</v>
+      </c>
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="24"/>
+      <c r="K21" t="s">
+        <v>47</v>
+      </c>
+      <c r="L21" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="23"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19" t="s">
-        <v>29</v>
-      </c>
+      <c r="E22" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="19"/>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -8843,7 +9691,7 @@
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
@@ -8857,7 +9705,7 @@
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
       <c r="F24" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
@@ -8871,7 +9719,7 @@
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
       <c r="F25" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
@@ -8885,7 +9733,7 @@
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
       <c r="F26" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
@@ -8897,10 +9745,10 @@
       <c r="B27" s="23"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
-      <c r="E27" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19" t="s">
+        <v>33</v>
+      </c>
       <c r="G27" s="19"/>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -8911,10 +9759,10 @@
       <c r="B28" s="23"/>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19" t="s">
-        <v>35</v>
-      </c>
+      <c r="E28" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="19"/>
       <c r="G28" s="19"/>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -8927,7 +9775,7 @@
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
@@ -8941,7 +9789,7 @@
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
       <c r="F30" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G30" s="19"/>
       <c r="H30" s="19"/>
@@ -8955,7 +9803,7 @@
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
       <c r="F31" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G31" s="19"/>
       <c r="H31" s="19"/>
@@ -8969,7 +9817,7 @@
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G32" s="19"/>
       <c r="H32" s="19"/>
@@ -8982,33 +9830,33 @@
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
-      <c r="F33" s="18" t="s">
-        <v>40</v>
+      <c r="F33" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="G33" s="19"/>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
       <c r="J33" s="24"/>
-      <c r="K33" t="s">
-        <v>47</v>
-      </c>
-      <c r="L33" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="19"/>
       <c r="B34" s="23"/>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
-      <c r="E34" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="18" t="s">
+        <v>40</v>
+      </c>
       <c r="G34" s="19"/>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="24"/>
+      <c r="K34" t="s">
+        <v>47</v>
+      </c>
+      <c r="L34" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="19"/>
@@ -9016,7 +9864,7 @@
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
       <c r="E35" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
@@ -9030,7 +9878,7 @@
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
       <c r="E36" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F36" s="19"/>
       <c r="G36" s="19"/>
@@ -9040,49 +9888,51 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="19"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26" t="s">
+      <c r="B37" s="23"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="24"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="27"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="27"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="3"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="6"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="3"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="4" t="s">
-        <v>78</v>
-      </c>
+      <c r="B43" s="4"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -9093,7 +9943,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -9105,7 +9955,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -9116,7 +9966,9 @@
       <c r="I45" s="6"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B46" s="4"/>
+      <c r="B46" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -9126,9 +9978,7 @@
       <c r="I46" s="6"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="4" t="s">
-        <v>81</v>
-      </c>
+      <c r="B47" s="4"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -9139,7 +9989,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -9151,7 +10001,7 @@
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -9163,7 +10013,7 @@
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -9174,7 +10024,9 @@
       <c r="I50" s="6"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="4"/>
+      <c r="B51" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -9184,9 +10036,7 @@
       <c r="I51" s="6"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="4" t="s">
-        <v>85</v>
-      </c>
+      <c r="B52" s="4"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -9197,7 +10047,7 @@
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -9209,7 +10059,7 @@
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -9221,7 +10071,7 @@
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -9233,7 +10083,7 @@
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -9244,7 +10094,9 @@
       <c r="I56" s="6"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="4"/>
+      <c r="B57" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -9254,9 +10106,7 @@
       <c r="I57" s="6"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="B58" s="4"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -9266,7 +10116,9 @@
       <c r="I58" s="6"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="4"/>
+      <c r="B59" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -9276,9 +10128,7 @@
       <c r="I59" s="6"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="4" t="s">
-        <v>90</v>
-      </c>
+      <c r="B60" s="4"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -9288,7 +10138,9 @@
       <c r="I60" s="6"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="4"/>
+      <c r="B61" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -9298,9 +10150,7 @@
       <c r="I61" s="6"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="4" t="s">
-        <v>91</v>
-      </c>
+      <c r="B62" s="4"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -9310,7 +10160,9 @@
       <c r="I62" s="6"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="4"/>
+      <c r="B63" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -9320,9 +10172,7 @@
       <c r="I63" s="6"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="B64" s="4"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -9331,8 +10181,10 @@
       <c r="H64" s="5"/>
       <c r="I64" s="6"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B65" s="4"/>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
@@ -9341,10 +10193,8 @@
       <c r="H65" s="5"/>
       <c r="I65" s="6"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B66" s="4" t="s">
-        <v>93</v>
-      </c>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="4"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
@@ -9353,8 +10203,10 @@
       <c r="H66" s="5"/>
       <c r="I66" s="6"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" s="4"/>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
@@ -9363,10 +10215,8 @@
       <c r="H67" s="5"/>
       <c r="I67" s="6"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B68" s="4" t="s">
-        <v>94</v>
-      </c>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="4"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
@@ -9375,9 +10225,9 @@
       <c r="H68" s="5"/>
       <c r="I68" s="6"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -9387,8 +10237,10 @@
       <c r="H69" s="5"/>
       <c r="I69" s="6"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B70" s="4"/>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -9397,10 +10249,8 @@
       <c r="H70" s="5"/>
       <c r="I70" s="6"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B71" s="4" t="s">
-        <v>96</v>
-      </c>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="4"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
@@ -9409,9 +10259,9 @@
       <c r="H71" s="5"/>
       <c r="I71" s="6"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="4" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
@@ -9421,8 +10271,10 @@
       <c r="H72" s="5"/>
       <c r="I72" s="6"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B73" s="4"/>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -9431,10 +10283,8 @@
       <c r="H73" s="5"/>
       <c r="I73" s="6"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B74" s="28" t="s">
-        <v>97</v>
-      </c>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="4"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -9442,16 +10292,10 @@
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
       <c r="I74" s="6"/>
-      <c r="J74" t="s">
-        <v>47</v>
-      </c>
-      <c r="K74" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="28" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
@@ -9461,9 +10305,9 @@
       <c r="H75" s="5"/>
       <c r="I75" s="6"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="28" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
@@ -9473,9 +10317,9 @@
       <c r="H76" s="5"/>
       <c r="I76" s="6"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
@@ -9485,9 +10329,9 @@
       <c r="H77" s="5"/>
       <c r="I77" s="6"/>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="28" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
@@ -9497,8 +10341,10 @@
       <c r="H78" s="5"/>
       <c r="I78" s="6"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B79" s="28"/>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="28" t="s">
+        <v>97</v>
+      </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
@@ -9507,10 +10353,8 @@
       <c r="H79" s="5"/>
       <c r="I79" s="6"/>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B80" s="28" t="s">
-        <v>89</v>
-      </c>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80" s="28"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
@@ -9520,7 +10364,9 @@
       <c r="I80" s="6"/>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="28"/>
+      <c r="B81" s="28" t="s">
+        <v>88</v>
+      </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -9530,9 +10376,7 @@
       <c r="I81" s="6"/>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="28" t="s">
-        <v>99</v>
-      </c>
+      <c r="B82" s="28"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
@@ -9542,7 +10386,9 @@
       <c r="I82" s="6"/>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="28"/>
+      <c r="B83" s="28" t="s">
+        <v>98</v>
+      </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
@@ -9552,9 +10398,7 @@
       <c r="I83" s="6"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="28" t="s">
-        <v>91</v>
-      </c>
+      <c r="B84" s="28"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -9564,7 +10408,9 @@
       <c r="I84" s="6"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="28"/>
+      <c r="B85" s="28" t="s">
+        <v>90</v>
+      </c>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -9574,9 +10420,7 @@
       <c r="I85" s="6"/>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="28" t="s">
-        <v>92</v>
-      </c>
+      <c r="B86" s="28"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -9586,7 +10430,9 @@
       <c r="I86" s="6"/>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="28"/>
+      <c r="B87" s="28" t="s">
+        <v>91</v>
+      </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -9596,9 +10442,7 @@
       <c r="I87" s="6"/>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="28" t="s">
-        <v>93</v>
-      </c>
+      <c r="B88" s="28"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -9608,7 +10452,9 @@
       <c r="I88" s="6"/>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B89" s="28"/>
+      <c r="B89" s="28" t="s">
+        <v>92</v>
+      </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -9618,9 +10464,7 @@
       <c r="I89" s="6"/>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="28" t="s">
-        <v>94</v>
-      </c>
+      <c r="B90" s="28"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -9631,7 +10475,7 @@
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
@@ -9642,7 +10486,9 @@
       <c r="I91" s="6"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B92" s="28"/>
+      <c r="B92" s="28" t="s">
+        <v>94</v>
+      </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -9652,9 +10498,7 @@
       <c r="I92" s="6"/>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="28" t="s">
-        <v>96</v>
-      </c>
+      <c r="B93" s="28"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -9665,7 +10509,7 @@
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="28" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
@@ -9676,46 +10520,47 @@
       <c r="I94" s="6"/>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="6"/>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B96" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="9"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="9"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="1" t="s">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B100" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="3"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="4"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="6"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="3"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="B101" s="4"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
@@ -9724,7 +10569,9 @@
       <c r="H101" s="6"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="4"/>
+      <c r="B102" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
@@ -9733,9 +10580,7 @@
       <c r="H102" s="6"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="B103" s="4"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
@@ -9744,7 +10589,9 @@
       <c r="H103" s="6"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B104" s="4"/>
+      <c r="B104" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -9753,9 +10600,7 @@
       <c r="H104" s="6"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B105" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B105" s="4"/>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
@@ -9764,7 +10609,9 @@
       <c r="H105" s="6"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B106" s="4"/>
+      <c r="B106" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -9773,9 +10620,7 @@
       <c r="H106" s="6"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B107" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="B107" s="4"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
@@ -9784,7 +10629,9 @@
       <c r="H107" s="6"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B108" s="4"/>
+      <c r="B108" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
@@ -9793,9 +10640,7 @@
       <c r="H108" s="6"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B109" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="B109" s="4"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -9805,7 +10650,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B110" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
@@ -9816,7 +10661,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B111" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
@@ -9827,7 +10672,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B112" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
@@ -9837,7 +10682,9 @@
       <c r="H112" s="6"/>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="4"/>
+      <c r="B113" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
@@ -9846,9 +10693,7 @@
       <c r="H113" s="6"/>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B114" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="B114" s="4"/>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
@@ -9857,7 +10702,9 @@
       <c r="H114" s="6"/>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B115" s="4"/>
+      <c r="B115" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
@@ -9866,9 +10713,7 @@
       <c r="H115" s="6"/>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B116" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="B116" s="4"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
@@ -9878,7 +10723,7 @@
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
@@ -9889,7 +10734,7 @@
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B118" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
@@ -9900,7 +10745,7 @@
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
@@ -9910,7 +10755,9 @@
       <c r="H119" s="6"/>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B120" s="4"/>
+      <c r="B120" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
@@ -9919,9 +10766,7 @@
       <c r="H120" s="6"/>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B121" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="B121" s="4"/>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
@@ -9931,7 +10776,7 @@
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B122" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
@@ -9942,7 +10787,7 @@
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B123" s="4" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
@@ -9953,7 +10798,7 @@
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B124" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
@@ -9963,7 +10808,9 @@
       <c r="H124" s="6"/>
     </row>
     <row r="125" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B125" s="4"/>
+      <c r="B125" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
@@ -9972,9 +10819,7 @@
       <c r="H125" s="6"/>
     </row>
     <row r="126" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B126" s="28" t="s">
-        <v>100</v>
-      </c>
+      <c r="B126" s="4"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
@@ -9984,7 +10829,7 @@
     </row>
     <row r="127" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B127" s="28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
@@ -9995,7 +10840,7 @@
     </row>
     <row r="128" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B128" s="28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
@@ -10006,7 +10851,7 @@
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B129" s="28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
@@ -10017,7 +10862,7 @@
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B130" s="28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
@@ -10028,7 +10873,7 @@
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B131" s="28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
@@ -10038,7 +10883,9 @@
       <c r="H131" s="6"/>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B132" s="28"/>
+      <c r="B132" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -10047,9 +10894,7 @@
       <c r="H132" s="6"/>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B133" s="28" t="s">
-        <v>106</v>
-      </c>
+      <c r="B133" s="28"/>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
@@ -10058,7 +10903,9 @@
       <c r="H133" s="6"/>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B134" s="28"/>
+      <c r="B134" s="28" t="s">
+        <v>105</v>
+      </c>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
@@ -10067,9 +10914,7 @@
       <c r="H134" s="6"/>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B135" s="28" t="s">
-        <v>107</v>
-      </c>
+      <c r="B135" s="28"/>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
@@ -10078,7 +10923,9 @@
       <c r="H135" s="6"/>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B136" s="28"/>
+      <c r="B136" s="28" t="s">
+        <v>106</v>
+      </c>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
@@ -10087,77 +10934,65 @@
       <c r="H136" s="6"/>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B137" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="C137" s="8"/>
-      <c r="D137" s="8"/>
-      <c r="E137" s="8"/>
-      <c r="F137" s="8"/>
-      <c r="G137" s="8"/>
-      <c r="H137" s="9"/>
-    </row>
-    <row r="139" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A140" s="10" t="s">
+      <c r="B137" s="28"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="6"/>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B138" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C138" s="8"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c r="H138" s="9"/>
+    </row>
+    <row r="140" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A141" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B140" s="11"/>
-      <c r="C140" s="11"/>
-      <c r="D140" s="11"/>
-      <c r="E140" s="11"/>
-      <c r="F140" s="11"/>
-      <c r="G140" s="11"/>
-      <c r="H140" s="11"/>
-      <c r="I140" s="11"/>
-      <c r="J140" s="11"/>
-      <c r="K140" s="11"/>
-      <c r="L140" s="11"/>
-      <c r="M140" s="11"/>
-      <c r="N140" s="11"/>
-      <c r="O140" s="11"/>
-      <c r="P140" s="11"/>
-      <c r="Q140" s="11"/>
-      <c r="R140" s="11"/>
-      <c r="S140" s="12"/>
-    </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A141" s="13"/>
-      <c r="B141" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
-      <c r="F141" s="2"/>
-      <c r="G141" s="2"/>
-      <c r="H141" s="2"/>
-      <c r="I141" s="2"/>
-      <c r="J141" s="2"/>
-      <c r="K141" s="2"/>
-      <c r="L141" s="2"/>
-      <c r="M141" s="3"/>
-      <c r="N141" s="5"/>
-      <c r="O141" s="5"/>
-      <c r="P141" s="5"/>
-      <c r="Q141" s="5"/>
-      <c r="R141" s="5"/>
-      <c r="S141" s="14"/>
+      <c r="B141" s="11"/>
+      <c r="C141" s="11"/>
+      <c r="D141" s="11"/>
+      <c r="E141" s="11"/>
+      <c r="F141" s="11"/>
+      <c r="G141" s="11"/>
+      <c r="H141" s="11"/>
+      <c r="I141" s="11"/>
+      <c r="J141" s="11"/>
+      <c r="K141" s="11"/>
+      <c r="L141" s="11"/>
+      <c r="M141" s="11"/>
+      <c r="N141" s="11"/>
+      <c r="O141" s="11"/>
+      <c r="P141" s="11"/>
+      <c r="Q141" s="11"/>
+      <c r="R141" s="11"/>
+      <c r="S141" s="12"/>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" s="13"/>
-      <c r="B142" s="4"/>
-      <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
-      <c r="E142" s="5"/>
-      <c r="F142" s="5"/>
-      <c r="G142" s="5"/>
-      <c r="H142" s="5"/>
-      <c r="I142" s="5"/>
-      <c r="J142" s="5"/>
-      <c r="K142" s="5"/>
-      <c r="L142" s="5"/>
-      <c r="M142" s="6"/>
+      <c r="B142" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2"/>
+      <c r="J142" s="2"/>
+      <c r="K142" s="2"/>
+      <c r="L142" s="2"/>
+      <c r="M142" s="3"/>
       <c r="N142" s="5"/>
       <c r="O142" s="5"/>
       <c r="P142" s="5"/>
@@ -10503,18 +11338,18 @@
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" s="13"/>
-      <c r="B159" s="7"/>
-      <c r="C159" s="8"/>
-      <c r="D159" s="8"/>
-      <c r="E159" s="8"/>
-      <c r="F159" s="8"/>
-      <c r="G159" s="8"/>
-      <c r="H159" s="8"/>
-      <c r="I159" s="8"/>
-      <c r="J159" s="8"/>
-      <c r="K159" s="8"/>
-      <c r="L159" s="8"/>
-      <c r="M159" s="9"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5"/>
+      <c r="H159" s="5"/>
+      <c r="I159" s="5"/>
+      <c r="J159" s="5"/>
+      <c r="K159" s="5"/>
+      <c r="L159" s="5"/>
+      <c r="M159" s="6"/>
       <c r="N159" s="5"/>
       <c r="O159" s="5"/>
       <c r="P159" s="5"/>
@@ -10524,18 +11359,18 @@
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" s="13"/>
-      <c r="B160" s="5"/>
-      <c r="C160" s="5"/>
-      <c r="D160" s="5"/>
-      <c r="E160" s="5"/>
-      <c r="F160" s="5"/>
-      <c r="G160" s="5"/>
-      <c r="H160" s="5"/>
-      <c r="I160" s="5"/>
-      <c r="J160" s="5"/>
-      <c r="K160" s="5"/>
-      <c r="L160" s="5"/>
-      <c r="M160" s="5"/>
+      <c r="B160" s="7"/>
+      <c r="C160" s="8"/>
+      <c r="D160" s="8"/>
+      <c r="E160" s="8"/>
+      <c r="F160" s="8"/>
+      <c r="G160" s="8"/>
+      <c r="H160" s="8"/>
+      <c r="I160" s="8"/>
+      <c r="J160" s="8"/>
+      <c r="K160" s="8"/>
+      <c r="L160" s="8"/>
+      <c r="M160" s="9"/>
       <c r="N160" s="5"/>
       <c r="O160" s="5"/>
       <c r="P160" s="5"/>
@@ -10566,25 +11401,3675 @@
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" s="13"/>
-      <c r="B162" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
-      <c r="E162" s="2"/>
-      <c r="F162" s="2"/>
-      <c r="G162" s="2"/>
-      <c r="H162" s="2"/>
-      <c r="I162" s="2"/>
-      <c r="J162" s="2"/>
-      <c r="K162" s="2"/>
-      <c r="L162" s="2"/>
-      <c r="M162" s="2"/>
-      <c r="N162" s="2"/>
-      <c r="O162" s="2"/>
-      <c r="P162" s="2"/>
-      <c r="Q162" s="2"/>
-      <c r="R162" s="3"/>
+      <c r="B162" s="5"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5"/>
+      <c r="H162" s="5"/>
+      <c r="I162" s="5"/>
+      <c r="J162" s="5"/>
+      <c r="K162" s="5"/>
+      <c r="L162" s="5"/>
+      <c r="M162" s="5"/>
+      <c r="N162" s="5"/>
+      <c r="O162" s="5"/>
+      <c r="P162" s="5"/>
+      <c r="Q162" s="5"/>
+      <c r="R162" s="5"/>
+      <c r="S162" s="14"/>
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A163" s="13"/>
+      <c r="B163" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
+      <c r="H163" s="2"/>
+      <c r="I163" s="2"/>
+      <c r="J163" s="2"/>
+      <c r="K163" s="2"/>
+      <c r="L163" s="2"/>
+      <c r="M163" s="2"/>
+      <c r="N163" s="2"/>
+      <c r="O163" s="2"/>
+      <c r="P163" s="2"/>
+      <c r="Q163" s="2"/>
+      <c r="R163" s="3"/>
+      <c r="S163" s="14"/>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A164" s="13"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5"/>
+      <c r="H164" s="5"/>
+      <c r="I164" s="5"/>
+      <c r="J164" s="5"/>
+      <c r="K164" s="5"/>
+      <c r="L164" s="5"/>
+      <c r="M164" s="5"/>
+      <c r="N164" s="5"/>
+      <c r="O164" s="5"/>
+      <c r="P164" s="5"/>
+      <c r="Q164" s="5"/>
+      <c r="R164" s="6"/>
+      <c r="S164" s="14"/>
+    </row>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A165" s="13"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5"/>
+      <c r="H165" s="5"/>
+      <c r="I165" s="5"/>
+      <c r="J165" s="5"/>
+      <c r="K165" s="5"/>
+      <c r="L165" s="5"/>
+      <c r="M165" s="5"/>
+      <c r="N165" s="5"/>
+      <c r="O165" s="5"/>
+      <c r="P165" s="5"/>
+      <c r="Q165" s="5"/>
+      <c r="R165" s="6"/>
+      <c r="S165" s="14"/>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A166" s="13"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="5"/>
+      <c r="I166" s="5"/>
+      <c r="J166" s="5"/>
+      <c r="K166" s="5"/>
+      <c r="L166" s="5"/>
+      <c r="M166" s="5"/>
+      <c r="N166" s="5"/>
+      <c r="O166" s="5"/>
+      <c r="P166" s="5"/>
+      <c r="Q166" s="5"/>
+      <c r="R166" s="6"/>
+      <c r="S166" s="14"/>
+    </row>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A167" s="13"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="5"/>
+      <c r="G167" s="5"/>
+      <c r="H167" s="5"/>
+      <c r="I167" s="5"/>
+      <c r="J167" s="5"/>
+      <c r="K167" s="5"/>
+      <c r="L167" s="5"/>
+      <c r="M167" s="5"/>
+      <c r="N167" s="5"/>
+      <c r="O167" s="5"/>
+      <c r="P167" s="5"/>
+      <c r="Q167" s="5"/>
+      <c r="R167" s="6"/>
+      <c r="S167" s="14"/>
+    </row>
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A168" s="13"/>
+      <c r="B168" s="4"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+      <c r="G168" s="5"/>
+      <c r="H168" s="5"/>
+      <c r="I168" s="5"/>
+      <c r="J168" s="5"/>
+      <c r="K168" s="5"/>
+      <c r="L168" s="5"/>
+      <c r="M168" s="5"/>
+      <c r="N168" s="5"/>
+      <c r="O168" s="5"/>
+      <c r="P168" s="5"/>
+      <c r="Q168" s="5"/>
+      <c r="R168" s="6"/>
+      <c r="S168" s="14"/>
+    </row>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A169" s="13"/>
+      <c r="B169" s="4"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
+      <c r="G169" s="5"/>
+      <c r="H169" s="5"/>
+      <c r="I169" s="5"/>
+      <c r="J169" s="5"/>
+      <c r="K169" s="5"/>
+      <c r="L169" s="5"/>
+      <c r="M169" s="5"/>
+      <c r="N169" s="5"/>
+      <c r="O169" s="5"/>
+      <c r="P169" s="5"/>
+      <c r="Q169" s="5"/>
+      <c r="R169" s="6"/>
+      <c r="S169" s="14"/>
+    </row>
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A170" s="13"/>
+      <c r="B170" s="4"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+      <c r="G170" s="5"/>
+      <c r="H170" s="5"/>
+      <c r="I170" s="5"/>
+      <c r="J170" s="5"/>
+      <c r="K170" s="5"/>
+      <c r="L170" s="5"/>
+      <c r="M170" s="5"/>
+      <c r="N170" s="5"/>
+      <c r="O170" s="5"/>
+      <c r="P170" s="5"/>
+      <c r="Q170" s="5"/>
+      <c r="R170" s="6"/>
+      <c r="S170" s="14"/>
+    </row>
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A171" s="13"/>
+      <c r="B171" s="4"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5"/>
+      <c r="F171" s="5"/>
+      <c r="G171" s="5"/>
+      <c r="H171" s="5"/>
+      <c r="I171" s="5"/>
+      <c r="J171" s="5"/>
+      <c r="K171" s="5"/>
+      <c r="L171" s="5"/>
+      <c r="M171" s="5"/>
+      <c r="N171" s="5"/>
+      <c r="O171" s="5"/>
+      <c r="P171" s="5"/>
+      <c r="Q171" s="5"/>
+      <c r="R171" s="6"/>
+      <c r="S171" s="14"/>
+    </row>
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A172" s="13"/>
+      <c r="B172" s="4"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="5"/>
+      <c r="F172" s="5"/>
+      <c r="G172" s="5"/>
+      <c r="H172" s="5"/>
+      <c r="I172" s="5"/>
+      <c r="J172" s="5"/>
+      <c r="K172" s="5"/>
+      <c r="L172" s="5"/>
+      <c r="M172" s="5"/>
+      <c r="N172" s="5"/>
+      <c r="O172" s="5"/>
+      <c r="P172" s="5"/>
+      <c r="Q172" s="5"/>
+      <c r="R172" s="6"/>
+      <c r="S172" s="14"/>
+    </row>
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A173" s="13"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
+      <c r="F173" s="5"/>
+      <c r="G173" s="5"/>
+      <c r="H173" s="5"/>
+      <c r="I173" s="5"/>
+      <c r="J173" s="5"/>
+      <c r="K173" s="5"/>
+      <c r="L173" s="5"/>
+      <c r="M173" s="5"/>
+      <c r="N173" s="5"/>
+      <c r="O173" s="5"/>
+      <c r="P173" s="5"/>
+      <c r="Q173" s="5"/>
+      <c r="R173" s="6"/>
+      <c r="S173" s="14"/>
+    </row>
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A174" s="13"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="5"/>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
+      <c r="F174" s="5"/>
+      <c r="G174" s="5"/>
+      <c r="H174" s="5"/>
+      <c r="I174" s="5"/>
+      <c r="J174" s="5"/>
+      <c r="K174" s="5"/>
+      <c r="L174" s="5"/>
+      <c r="M174" s="5"/>
+      <c r="N174" s="5"/>
+      <c r="O174" s="5"/>
+      <c r="P174" s="5"/>
+      <c r="Q174" s="5"/>
+      <c r="R174" s="6"/>
+      <c r="S174" s="14"/>
+    </row>
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A175" s="13"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="5"/>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
+      <c r="G175" s="5"/>
+      <c r="H175" s="5"/>
+      <c r="I175" s="5"/>
+      <c r="J175" s="5"/>
+      <c r="K175" s="5"/>
+      <c r="L175" s="5"/>
+      <c r="M175" s="5"/>
+      <c r="N175" s="5"/>
+      <c r="O175" s="5"/>
+      <c r="P175" s="5"/>
+      <c r="Q175" s="5"/>
+      <c r="R175" s="6"/>
+      <c r="S175" s="14"/>
+    </row>
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A176" s="13"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5"/>
+      <c r="F176" s="5"/>
+      <c r="G176" s="5"/>
+      <c r="H176" s="5"/>
+      <c r="I176" s="5"/>
+      <c r="J176" s="5"/>
+      <c r="K176" s="5"/>
+      <c r="L176" s="5"/>
+      <c r="M176" s="5"/>
+      <c r="N176" s="5"/>
+      <c r="O176" s="5"/>
+      <c r="P176" s="5"/>
+      <c r="Q176" s="5"/>
+      <c r="R176" s="6"/>
+      <c r="S176" s="14"/>
+    </row>
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A177" s="13"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5"/>
+      <c r="F177" s="5"/>
+      <c r="G177" s="5"/>
+      <c r="H177" s="5"/>
+      <c r="I177" s="5"/>
+      <c r="J177" s="5"/>
+      <c r="K177" s="5"/>
+      <c r="L177" s="5"/>
+      <c r="M177" s="5"/>
+      <c r="N177" s="5"/>
+      <c r="O177" s="5"/>
+      <c r="P177" s="5"/>
+      <c r="Q177" s="5"/>
+      <c r="R177" s="6"/>
+      <c r="S177" s="14"/>
+    </row>
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A178" s="13"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="5"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5"/>
+      <c r="F178" s="5"/>
+      <c r="G178" s="5"/>
+      <c r="H178" s="5"/>
+      <c r="I178" s="5"/>
+      <c r="J178" s="5"/>
+      <c r="K178" s="5"/>
+      <c r="L178" s="5"/>
+      <c r="M178" s="5"/>
+      <c r="N178" s="5"/>
+      <c r="O178" s="5"/>
+      <c r="P178" s="5"/>
+      <c r="Q178" s="5"/>
+      <c r="R178" s="6"/>
+      <c r="S178" s="14"/>
+    </row>
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A179" s="13"/>
+      <c r="B179" s="4"/>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
+      <c r="F179" s="5"/>
+      <c r="G179" s="5"/>
+      <c r="H179" s="5"/>
+      <c r="I179" s="5"/>
+      <c r="J179" s="5"/>
+      <c r="K179" s="5"/>
+      <c r="L179" s="5"/>
+      <c r="M179" s="5"/>
+      <c r="N179" s="5"/>
+      <c r="O179" s="5"/>
+      <c r="P179" s="5"/>
+      <c r="Q179" s="5"/>
+      <c r="R179" s="6"/>
+      <c r="S179" s="14"/>
+    </row>
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A180" s="13"/>
+      <c r="B180" s="4"/>
+      <c r="C180" s="5"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
+      <c r="F180" s="5"/>
+      <c r="G180" s="5"/>
+      <c r="H180" s="5"/>
+      <c r="I180" s="5"/>
+      <c r="J180" s="5"/>
+      <c r="K180" s="5"/>
+      <c r="L180" s="5"/>
+      <c r="M180" s="5"/>
+      <c r="N180" s="5"/>
+      <c r="O180" s="5"/>
+      <c r="P180" s="5"/>
+      <c r="Q180" s="5"/>
+      <c r="R180" s="6"/>
+      <c r="S180" s="14"/>
+    </row>
+    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A181" s="13"/>
+      <c r="B181" s="4"/>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5"/>
+      <c r="F181" s="5"/>
+      <c r="G181" s="5"/>
+      <c r="H181" s="5"/>
+      <c r="I181" s="5"/>
+      <c r="J181" s="5"/>
+      <c r="K181" s="5"/>
+      <c r="L181" s="5"/>
+      <c r="M181" s="5"/>
+      <c r="N181" s="5"/>
+      <c r="O181" s="5"/>
+      <c r="P181" s="5"/>
+      <c r="Q181" s="5"/>
+      <c r="R181" s="6"/>
+      <c r="S181" s="14"/>
+    </row>
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A182" s="13"/>
+      <c r="B182" s="4"/>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5"/>
+      <c r="F182" s="5"/>
+      <c r="G182" s="5"/>
+      <c r="H182" s="5"/>
+      <c r="I182" s="5"/>
+      <c r="J182" s="5"/>
+      <c r="K182" s="5"/>
+      <c r="L182" s="5"/>
+      <c r="M182" s="5"/>
+      <c r="N182" s="5"/>
+      <c r="O182" s="5"/>
+      <c r="P182" s="5"/>
+      <c r="Q182" s="5"/>
+      <c r="R182" s="6"/>
+      <c r="S182" s="14"/>
+    </row>
+    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A183" s="13"/>
+      <c r="B183" s="4"/>
+      <c r="C183" s="5"/>
+      <c r="D183" s="5"/>
+      <c r="E183" s="5"/>
+      <c r="F183" s="5"/>
+      <c r="G183" s="5"/>
+      <c r="H183" s="5"/>
+      <c r="I183" s="5"/>
+      <c r="J183" s="5"/>
+      <c r="K183" s="5"/>
+      <c r="L183" s="5"/>
+      <c r="M183" s="5"/>
+      <c r="N183" s="5"/>
+      <c r="O183" s="5"/>
+      <c r="P183" s="5"/>
+      <c r="Q183" s="5"/>
+      <c r="R183" s="6"/>
+      <c r="S183" s="14"/>
+    </row>
+    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A184" s="13"/>
+      <c r="B184" s="4"/>
+      <c r="C184" s="5"/>
+      <c r="D184" s="5"/>
+      <c r="E184" s="5"/>
+      <c r="F184" s="5"/>
+      <c r="G184" s="5"/>
+      <c r="H184" s="5"/>
+      <c r="I184" s="5"/>
+      <c r="J184" s="5"/>
+      <c r="K184" s="5"/>
+      <c r="L184" s="5"/>
+      <c r="M184" s="5"/>
+      <c r="N184" s="5"/>
+      <c r="O184" s="5"/>
+      <c r="P184" s="5"/>
+      <c r="Q184" s="5"/>
+      <c r="R184" s="6"/>
+      <c r="S184" s="14"/>
+    </row>
+    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A185" s="13"/>
+      <c r="B185" s="4"/>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
+      <c r="E185" s="5"/>
+      <c r="F185" s="5"/>
+      <c r="G185" s="5"/>
+      <c r="H185" s="5"/>
+      <c r="I185" s="5"/>
+      <c r="J185" s="5"/>
+      <c r="K185" s="5"/>
+      <c r="L185" s="5"/>
+      <c r="M185" s="5"/>
+      <c r="N185" s="5"/>
+      <c r="O185" s="5"/>
+      <c r="P185" s="5"/>
+      <c r="Q185" s="5"/>
+      <c r="R185" s="6"/>
+      <c r="S185" s="14"/>
+    </row>
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A186" s="13"/>
+      <c r="B186" s="4"/>
+      <c r="C186" s="5"/>
+      <c r="D186" s="5"/>
+      <c r="E186" s="5"/>
+      <c r="F186" s="5"/>
+      <c r="G186" s="5"/>
+      <c r="H186" s="5"/>
+      <c r="I186" s="5"/>
+      <c r="J186" s="5"/>
+      <c r="K186" s="5"/>
+      <c r="L186" s="5"/>
+      <c r="M186" s="5"/>
+      <c r="N186" s="5"/>
+      <c r="O186" s="5"/>
+      <c r="P186" s="5"/>
+      <c r="Q186" s="5"/>
+      <c r="R186" s="6"/>
+      <c r="S186" s="14"/>
+    </row>
+    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A187" s="13"/>
+      <c r="B187" s="4"/>
+      <c r="C187" s="5"/>
+      <c r="D187" s="5"/>
+      <c r="E187" s="5"/>
+      <c r="F187" s="5"/>
+      <c r="G187" s="5"/>
+      <c r="H187" s="5"/>
+      <c r="I187" s="5"/>
+      <c r="J187" s="5"/>
+      <c r="K187" s="5"/>
+      <c r="L187" s="5"/>
+      <c r="M187" s="5"/>
+      <c r="N187" s="5"/>
+      <c r="O187" s="5"/>
+      <c r="P187" s="5"/>
+      <c r="Q187" s="5"/>
+      <c r="R187" s="6"/>
+      <c r="S187" s="14"/>
+    </row>
+    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A188" s="13"/>
+      <c r="B188" s="4"/>
+      <c r="C188" s="5"/>
+      <c r="D188" s="5"/>
+      <c r="E188" s="5"/>
+      <c r="F188" s="5"/>
+      <c r="G188" s="5"/>
+      <c r="H188" s="5"/>
+      <c r="I188" s="5"/>
+      <c r="J188" s="5"/>
+      <c r="K188" s="5"/>
+      <c r="L188" s="5"/>
+      <c r="M188" s="5"/>
+      <c r="N188" s="5"/>
+      <c r="O188" s="5"/>
+      <c r="P188" s="5"/>
+      <c r="Q188" s="5"/>
+      <c r="R188" s="6"/>
+      <c r="S188" s="14"/>
+    </row>
+    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A189" s="13"/>
+      <c r="B189" s="4"/>
+      <c r="C189" s="5"/>
+      <c r="D189" s="5"/>
+      <c r="E189" s="5"/>
+      <c r="F189" s="5"/>
+      <c r="G189" s="5"/>
+      <c r="H189" s="5"/>
+      <c r="I189" s="5"/>
+      <c r="J189" s="5"/>
+      <c r="K189" s="5"/>
+      <c r="L189" s="5"/>
+      <c r="M189" s="5"/>
+      <c r="N189" s="5"/>
+      <c r="O189" s="5"/>
+      <c r="P189" s="5"/>
+      <c r="Q189" s="5"/>
+      <c r="R189" s="6"/>
+      <c r="S189" s="14"/>
+    </row>
+    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A190" s="13"/>
+      <c r="B190" s="7"/>
+      <c r="C190" s="8"/>
+      <c r="D190" s="8"/>
+      <c r="E190" s="8"/>
+      <c r="F190" s="8"/>
+      <c r="G190" s="8"/>
+      <c r="H190" s="8"/>
+      <c r="I190" s="8"/>
+      <c r="J190" s="8"/>
+      <c r="K190" s="8"/>
+      <c r="L190" s="8"/>
+      <c r="M190" s="8"/>
+      <c r="N190" s="8"/>
+      <c r="O190" s="8"/>
+      <c r="P190" s="8"/>
+      <c r="Q190" s="8"/>
+      <c r="R190" s="9"/>
+      <c r="S190" s="14"/>
+    </row>
+    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A191" s="13"/>
+      <c r="B191" s="5"/>
+      <c r="C191" s="5"/>
+      <c r="D191" s="5"/>
+      <c r="E191" s="5"/>
+      <c r="F191" s="5"/>
+      <c r="G191" s="5"/>
+      <c r="H191" s="5"/>
+      <c r="I191" s="5"/>
+      <c r="J191" s="5"/>
+      <c r="K191" s="5"/>
+      <c r="L191" s="5"/>
+      <c r="M191" s="5"/>
+      <c r="N191" s="5"/>
+      <c r="O191" s="5"/>
+      <c r="P191" s="5"/>
+      <c r="Q191" s="5"/>
+      <c r="R191" s="5"/>
+      <c r="S191" s="14"/>
+    </row>
+    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A192" s="13"/>
+      <c r="B192" s="5"/>
+      <c r="C192" s="5"/>
+      <c r="D192" s="5"/>
+      <c r="E192" s="5"/>
+      <c r="F192" s="5"/>
+      <c r="G192" s="5"/>
+      <c r="H192" s="5"/>
+      <c r="I192" s="5"/>
+      <c r="J192" s="5"/>
+      <c r="K192" s="5"/>
+      <c r="L192" s="5"/>
+      <c r="M192" s="5"/>
+      <c r="N192" s="5"/>
+      <c r="O192" s="5"/>
+      <c r="P192" s="5"/>
+      <c r="Q192" s="5"/>
+      <c r="R192" s="5"/>
+      <c r="S192" s="14"/>
+    </row>
+    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A193" s="13"/>
+      <c r="B193" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C193" s="2"/>
+      <c r="D193" s="2"/>
+      <c r="E193" s="2"/>
+      <c r="F193" s="2"/>
+      <c r="G193" s="2"/>
+      <c r="H193" s="2"/>
+      <c r="I193" s="2"/>
+      <c r="J193" s="2"/>
+      <c r="K193" s="2"/>
+      <c r="L193" s="2"/>
+      <c r="M193" s="2"/>
+      <c r="N193" s="2"/>
+      <c r="O193" s="2"/>
+      <c r="P193" s="2"/>
+      <c r="Q193" s="2"/>
+      <c r="R193" s="3"/>
+      <c r="S193" s="14"/>
+    </row>
+    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A194" s="13"/>
+      <c r="B194" s="4"/>
+      <c r="C194" s="5"/>
+      <c r="D194" s="5"/>
+      <c r="E194" s="5"/>
+      <c r="F194" s="5"/>
+      <c r="G194" s="5"/>
+      <c r="H194" s="5"/>
+      <c r="I194" s="5"/>
+      <c r="J194" s="5"/>
+      <c r="K194" s="5"/>
+      <c r="L194" s="5"/>
+      <c r="M194" s="5"/>
+      <c r="N194" s="5"/>
+      <c r="O194" s="5"/>
+      <c r="P194" s="5"/>
+      <c r="Q194" s="5"/>
+      <c r="R194" s="6"/>
+      <c r="S194" s="14"/>
+    </row>
+    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A195" s="13"/>
+      <c r="B195" s="4"/>
+      <c r="C195" s="5"/>
+      <c r="D195" s="5"/>
+      <c r="E195" s="5"/>
+      <c r="F195" s="5"/>
+      <c r="G195" s="5"/>
+      <c r="H195" s="5"/>
+      <c r="I195" s="5"/>
+      <c r="J195" s="5"/>
+      <c r="K195" s="5"/>
+      <c r="L195" s="5"/>
+      <c r="M195" s="5"/>
+      <c r="N195" s="5"/>
+      <c r="O195" s="5"/>
+      <c r="P195" s="5"/>
+      <c r="Q195" s="5"/>
+      <c r="R195" s="6"/>
+      <c r="S195" s="14"/>
+    </row>
+    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A196" s="13"/>
+      <c r="B196" s="4"/>
+      <c r="C196" s="5"/>
+      <c r="D196" s="5"/>
+      <c r="E196" s="5"/>
+      <c r="F196" s="5"/>
+      <c r="G196" s="5"/>
+      <c r="H196" s="5"/>
+      <c r="I196" s="5"/>
+      <c r="J196" s="5"/>
+      <c r="K196" s="5"/>
+      <c r="L196" s="5"/>
+      <c r="M196" s="5"/>
+      <c r="N196" s="5"/>
+      <c r="O196" s="5"/>
+      <c r="P196" s="5"/>
+      <c r="Q196" s="5"/>
+      <c r="R196" s="6"/>
+      <c r="S196" s="14"/>
+    </row>
+    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A197" s="13"/>
+      <c r="B197" s="4"/>
+      <c r="C197" s="5"/>
+      <c r="D197" s="5"/>
+      <c r="E197" s="5"/>
+      <c r="F197" s="5"/>
+      <c r="G197" s="5"/>
+      <c r="H197" s="5"/>
+      <c r="I197" s="5"/>
+      <c r="J197" s="5"/>
+      <c r="K197" s="5"/>
+      <c r="L197" s="5"/>
+      <c r="M197" s="5"/>
+      <c r="N197" s="5"/>
+      <c r="O197" s="5"/>
+      <c r="P197" s="5"/>
+      <c r="Q197" s="5"/>
+      <c r="R197" s="6"/>
+      <c r="S197" s="14"/>
+    </row>
+    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A198" s="13"/>
+      <c r="B198" s="4"/>
+      <c r="C198" s="5"/>
+      <c r="D198" s="5"/>
+      <c r="E198" s="5"/>
+      <c r="F198" s="5"/>
+      <c r="G198" s="5"/>
+      <c r="H198" s="5"/>
+      <c r="I198" s="5"/>
+      <c r="J198" s="5"/>
+      <c r="K198" s="5"/>
+      <c r="L198" s="5"/>
+      <c r="M198" s="5"/>
+      <c r="N198" s="5"/>
+      <c r="O198" s="5"/>
+      <c r="P198" s="5"/>
+      <c r="Q198" s="5"/>
+      <c r="R198" s="6"/>
+      <c r="S198" s="14"/>
+    </row>
+    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A199" s="13"/>
+      <c r="B199" s="4"/>
+      <c r="C199" s="5"/>
+      <c r="D199" s="5"/>
+      <c r="E199" s="5"/>
+      <c r="F199" s="5"/>
+      <c r="G199" s="5"/>
+      <c r="H199" s="5"/>
+      <c r="I199" s="5"/>
+      <c r="J199" s="5"/>
+      <c r="K199" s="5"/>
+      <c r="L199" s="5"/>
+      <c r="M199" s="5"/>
+      <c r="N199" s="5"/>
+      <c r="O199" s="5"/>
+      <c r="P199" s="5"/>
+      <c r="Q199" s="5"/>
+      <c r="R199" s="6"/>
+      <c r="S199" s="14"/>
+    </row>
+    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A200" s="13"/>
+      <c r="B200" s="4"/>
+      <c r="C200" s="5"/>
+      <c r="D200" s="5"/>
+      <c r="E200" s="5"/>
+      <c r="F200" s="5"/>
+      <c r="G200" s="5"/>
+      <c r="H200" s="5"/>
+      <c r="I200" s="5"/>
+      <c r="J200" s="5"/>
+      <c r="K200" s="5"/>
+      <c r="L200" s="5"/>
+      <c r="M200" s="5"/>
+      <c r="N200" s="5"/>
+      <c r="O200" s="5"/>
+      <c r="P200" s="5"/>
+      <c r="Q200" s="5"/>
+      <c r="R200" s="6"/>
+      <c r="S200" s="14"/>
+    </row>
+    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A201" s="13"/>
+      <c r="B201" s="4"/>
+      <c r="C201" s="5"/>
+      <c r="D201" s="5"/>
+      <c r="E201" s="5"/>
+      <c r="F201" s="5"/>
+      <c r="G201" s="5"/>
+      <c r="H201" s="5"/>
+      <c r="I201" s="5"/>
+      <c r="J201" s="5"/>
+      <c r="K201" s="5"/>
+      <c r="L201" s="5"/>
+      <c r="M201" s="5"/>
+      <c r="N201" s="5"/>
+      <c r="O201" s="5"/>
+      <c r="P201" s="5"/>
+      <c r="Q201" s="5"/>
+      <c r="R201" s="6"/>
+      <c r="S201" s="14"/>
+    </row>
+    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A202" s="13"/>
+      <c r="B202" s="4"/>
+      <c r="C202" s="5"/>
+      <c r="D202" s="5"/>
+      <c r="E202" s="5"/>
+      <c r="F202" s="5"/>
+      <c r="G202" s="5"/>
+      <c r="H202" s="5"/>
+      <c r="I202" s="5"/>
+      <c r="J202" s="5"/>
+      <c r="K202" s="5"/>
+      <c r="L202" s="5"/>
+      <c r="M202" s="5"/>
+      <c r="N202" s="5"/>
+      <c r="O202" s="5"/>
+      <c r="P202" s="5"/>
+      <c r="Q202" s="5"/>
+      <c r="R202" s="6"/>
+      <c r="S202" s="14"/>
+    </row>
+    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A203" s="13"/>
+      <c r="B203" s="4"/>
+      <c r="C203" s="5"/>
+      <c r="D203" s="5"/>
+      <c r="E203" s="5"/>
+      <c r="F203" s="5"/>
+      <c r="G203" s="5"/>
+      <c r="H203" s="5"/>
+      <c r="I203" s="5"/>
+      <c r="J203" s="5"/>
+      <c r="K203" s="5"/>
+      <c r="L203" s="5"/>
+      <c r="M203" s="5"/>
+      <c r="N203" s="5"/>
+      <c r="O203" s="5"/>
+      <c r="P203" s="5"/>
+      <c r="Q203" s="5"/>
+      <c r="R203" s="6"/>
+      <c r="S203" s="14"/>
+    </row>
+    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A204" s="13"/>
+      <c r="B204" s="4"/>
+      <c r="C204" s="5"/>
+      <c r="D204" s="5"/>
+      <c r="E204" s="5"/>
+      <c r="F204" s="5"/>
+      <c r="G204" s="5"/>
+      <c r="H204" s="5"/>
+      <c r="I204" s="5"/>
+      <c r="J204" s="5"/>
+      <c r="K204" s="5"/>
+      <c r="L204" s="5"/>
+      <c r="M204" s="5"/>
+      <c r="N204" s="5"/>
+      <c r="O204" s="5"/>
+      <c r="P204" s="5"/>
+      <c r="Q204" s="5"/>
+      <c r="R204" s="6"/>
+      <c r="S204" s="14"/>
+    </row>
+    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A205" s="13"/>
+      <c r="B205" s="4"/>
+      <c r="C205" s="5"/>
+      <c r="D205" s="5"/>
+      <c r="E205" s="5"/>
+      <c r="F205" s="5"/>
+      <c r="G205" s="5"/>
+      <c r="H205" s="5"/>
+      <c r="I205" s="5"/>
+      <c r="J205" s="5"/>
+      <c r="K205" s="5"/>
+      <c r="L205" s="5"/>
+      <c r="M205" s="5"/>
+      <c r="N205" s="5"/>
+      <c r="O205" s="5"/>
+      <c r="P205" s="5"/>
+      <c r="Q205" s="5"/>
+      <c r="R205" s="6"/>
+      <c r="S205" s="14"/>
+    </row>
+    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A206" s="13"/>
+      <c r="B206" s="4"/>
+      <c r="C206" s="5"/>
+      <c r="D206" s="5"/>
+      <c r="E206" s="5"/>
+      <c r="F206" s="5"/>
+      <c r="G206" s="5"/>
+      <c r="H206" s="5"/>
+      <c r="I206" s="5"/>
+      <c r="J206" s="5"/>
+      <c r="K206" s="5"/>
+      <c r="L206" s="5"/>
+      <c r="M206" s="5"/>
+      <c r="N206" s="5"/>
+      <c r="O206" s="5"/>
+      <c r="P206" s="5"/>
+      <c r="Q206" s="5"/>
+      <c r="R206" s="6"/>
+      <c r="S206" s="14"/>
+    </row>
+    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A207" s="13"/>
+      <c r="B207" s="4"/>
+      <c r="C207" s="5"/>
+      <c r="D207" s="5"/>
+      <c r="E207" s="5"/>
+      <c r="F207" s="5"/>
+      <c r="G207" s="5"/>
+      <c r="H207" s="5"/>
+      <c r="I207" s="5"/>
+      <c r="J207" s="5"/>
+      <c r="K207" s="5"/>
+      <c r="L207" s="5"/>
+      <c r="M207" s="5"/>
+      <c r="N207" s="5"/>
+      <c r="O207" s="5"/>
+      <c r="P207" s="5"/>
+      <c r="Q207" s="5"/>
+      <c r="R207" s="6"/>
+      <c r="S207" s="14"/>
+    </row>
+    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A208" s="13"/>
+      <c r="B208" s="4"/>
+      <c r="C208" s="5"/>
+      <c r="D208" s="5"/>
+      <c r="E208" s="5"/>
+      <c r="F208" s="5"/>
+      <c r="G208" s="5"/>
+      <c r="H208" s="5"/>
+      <c r="I208" s="5"/>
+      <c r="J208" s="5"/>
+      <c r="K208" s="5"/>
+      <c r="L208" s="5"/>
+      <c r="M208" s="5"/>
+      <c r="N208" s="5"/>
+      <c r="O208" s="5"/>
+      <c r="P208" s="5"/>
+      <c r="Q208" s="5"/>
+      <c r="R208" s="6"/>
+      <c r="S208" s="14"/>
+    </row>
+    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A209" s="13"/>
+      <c r="B209" s="4"/>
+      <c r="C209" s="5"/>
+      <c r="D209" s="5"/>
+      <c r="E209" s="5"/>
+      <c r="F209" s="5"/>
+      <c r="G209" s="5"/>
+      <c r="H209" s="5"/>
+      <c r="I209" s="5"/>
+      <c r="J209" s="5"/>
+      <c r="K209" s="5"/>
+      <c r="L209" s="5"/>
+      <c r="M209" s="5"/>
+      <c r="N209" s="5"/>
+      <c r="O209" s="5"/>
+      <c r="P209" s="5"/>
+      <c r="Q209" s="5"/>
+      <c r="R209" s="6"/>
+      <c r="S209" s="14"/>
+    </row>
+    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A210" s="13"/>
+      <c r="B210" s="4"/>
+      <c r="C210" s="5"/>
+      <c r="D210" s="5"/>
+      <c r="E210" s="5"/>
+      <c r="F210" s="5"/>
+      <c r="G210" s="5"/>
+      <c r="H210" s="5"/>
+      <c r="I210" s="5"/>
+      <c r="J210" s="5"/>
+      <c r="K210" s="5"/>
+      <c r="L210" s="5"/>
+      <c r="M210" s="5"/>
+      <c r="N210" s="5"/>
+      <c r="O210" s="5"/>
+      <c r="P210" s="5"/>
+      <c r="Q210" s="5"/>
+      <c r="R210" s="6"/>
+      <c r="S210" s="14"/>
+    </row>
+    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A211" s="13"/>
+      <c r="B211" s="4"/>
+      <c r="C211" s="5"/>
+      <c r="D211" s="5"/>
+      <c r="E211" s="5"/>
+      <c r="F211" s="5"/>
+      <c r="G211" s="5"/>
+      <c r="H211" s="5"/>
+      <c r="I211" s="5"/>
+      <c r="J211" s="5"/>
+      <c r="K211" s="5"/>
+      <c r="L211" s="5"/>
+      <c r="M211" s="5"/>
+      <c r="N211" s="5"/>
+      <c r="O211" s="5"/>
+      <c r="P211" s="5"/>
+      <c r="Q211" s="5"/>
+      <c r="R211" s="6"/>
+      <c r="S211" s="14"/>
+    </row>
+    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A212" s="13"/>
+      <c r="B212" s="4"/>
+      <c r="C212" s="5"/>
+      <c r="D212" s="5"/>
+      <c r="E212" s="5"/>
+      <c r="F212" s="5"/>
+      <c r="G212" s="5"/>
+      <c r="H212" s="5"/>
+      <c r="I212" s="5"/>
+      <c r="J212" s="5"/>
+      <c r="K212" s="5"/>
+      <c r="L212" s="5"/>
+      <c r="M212" s="5"/>
+      <c r="N212" s="5"/>
+      <c r="O212" s="5"/>
+      <c r="P212" s="5"/>
+      <c r="Q212" s="5"/>
+      <c r="R212" s="6"/>
+      <c r="S212" s="14"/>
+    </row>
+    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A213" s="13"/>
+      <c r="B213" s="4"/>
+      <c r="C213" s="5"/>
+      <c r="D213" s="5"/>
+      <c r="E213" s="5"/>
+      <c r="F213" s="5"/>
+      <c r="G213" s="5"/>
+      <c r="H213" s="5"/>
+      <c r="I213" s="5"/>
+      <c r="J213" s="5"/>
+      <c r="K213" s="5"/>
+      <c r="L213" s="5"/>
+      <c r="M213" s="5"/>
+      <c r="N213" s="5"/>
+      <c r="O213" s="5"/>
+      <c r="P213" s="5"/>
+      <c r="Q213" s="5"/>
+      <c r="R213" s="6"/>
+      <c r="S213" s="14"/>
+    </row>
+    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A214" s="13"/>
+      <c r="B214" s="4"/>
+      <c r="C214" s="5"/>
+      <c r="D214" s="5"/>
+      <c r="E214" s="5"/>
+      <c r="F214" s="5"/>
+      <c r="G214" s="5"/>
+      <c r="H214" s="5"/>
+      <c r="I214" s="5"/>
+      <c r="J214" s="5"/>
+      <c r="K214" s="5"/>
+      <c r="L214" s="5"/>
+      <c r="M214" s="5"/>
+      <c r="N214" s="5"/>
+      <c r="O214" s="5"/>
+      <c r="P214" s="5"/>
+      <c r="Q214" s="5"/>
+      <c r="R214" s="6"/>
+      <c r="S214" s="14"/>
+    </row>
+    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A215" s="13"/>
+      <c r="B215" s="7"/>
+      <c r="C215" s="8"/>
+      <c r="D215" s="8"/>
+      <c r="E215" s="8"/>
+      <c r="F215" s="8"/>
+      <c r="G215" s="8"/>
+      <c r="H215" s="8"/>
+      <c r="I215" s="8"/>
+      <c r="J215" s="8"/>
+      <c r="K215" s="8"/>
+      <c r="L215" s="8"/>
+      <c r="M215" s="8"/>
+      <c r="N215" s="8"/>
+      <c r="O215" s="8"/>
+      <c r="P215" s="8"/>
+      <c r="Q215" s="8"/>
+      <c r="R215" s="9"/>
+      <c r="S215" s="14"/>
+    </row>
+    <row r="216" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="15"/>
+      <c r="B216" s="16"/>
+      <c r="C216" s="16"/>
+      <c r="D216" s="16"/>
+      <c r="E216" s="16"/>
+      <c r="F216" s="16"/>
+      <c r="G216" s="16"/>
+      <c r="H216" s="16"/>
+      <c r="I216" s="16"/>
+      <c r="J216" s="16"/>
+      <c r="K216" s="16"/>
+      <c r="L216" s="16"/>
+      <c r="M216" s="16"/>
+      <c r="N216" s="16"/>
+      <c r="O216" s="16"/>
+      <c r="P216" s="16"/>
+      <c r="Q216" s="16"/>
+      <c r="R216" s="16"/>
+      <c r="S216" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9DD791-CAFA-459E-BB7B-B2DEB3048E8F}">
+  <dimension ref="A2:S198"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="L94" sqref="L94"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="24"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="24"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="24"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="24"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="24"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="24"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="24"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="24"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="24"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="24"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="24"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="24"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="24"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="24"/>
+      <c r="K21" t="s">
+        <v>47</v>
+      </c>
+      <c r="L21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="24"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="24"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="24"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="24"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="24"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="24"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="24"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="24"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="24"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="24"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="19"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="24"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="24"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="24"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="19"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="24"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="19"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="24"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="19"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="24"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="27"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="4"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="4"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="4"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="4"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="4"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="4"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="6"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="6"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="6"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="4"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="6"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="6"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="6"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="6"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="6"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="4"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="6"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="6"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="6"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="6"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="6"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="6"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="6"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="4"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="6"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="6"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="4"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="6"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="6"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="4"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="6"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="6"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B81" s="28"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="6"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B82" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="6"/>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B83" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="6"/>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B84" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="6"/>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B85" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="6"/>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B86" s="28"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="6"/>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B87" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="6"/>
+      <c r="J87" t="s">
+        <v>47</v>
+      </c>
+      <c r="K87" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B88" s="28"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="6"/>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B89" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="6"/>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B90" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="6"/>
+      <c r="J90" t="s">
+        <v>47</v>
+      </c>
+      <c r="K90" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B91" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="6"/>
+      <c r="K91" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B92" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="6"/>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B93" s="28"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="6"/>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B94" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="9"/>
+    </row>
+    <row r="96" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A97" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="11"/>
+      <c r="L97" s="11"/>
+      <c r="M97" s="11"/>
+      <c r="N97" s="11"/>
+      <c r="O97" s="11"/>
+      <c r="P97" s="11"/>
+      <c r="Q97" s="11"/>
+      <c r="R97" s="11"/>
+      <c r="S97" s="12"/>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A98" s="13"/>
+      <c r="B98" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="3"/>
+      <c r="N98" s="5"/>
+      <c r="O98" s="5"/>
+      <c r="P98" s="5"/>
+      <c r="Q98" s="5"/>
+      <c r="R98" s="5"/>
+      <c r="S98" s="14"/>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A99" s="13"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
+      <c r="M99" s="6"/>
+      <c r="N99" s="5"/>
+      <c r="O99" s="5"/>
+      <c r="P99" s="5"/>
+      <c r="Q99" s="5"/>
+      <c r="R99" s="5"/>
+      <c r="S99" s="14"/>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A100" s="13"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+      <c r="L100" s="5"/>
+      <c r="M100" s="6"/>
+      <c r="N100" s="5"/>
+      <c r="O100" s="5"/>
+      <c r="P100" s="5"/>
+      <c r="Q100" s="5"/>
+      <c r="R100" s="5"/>
+      <c r="S100" s="14"/>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A101" s="13"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
+      <c r="L101" s="5"/>
+      <c r="M101" s="6"/>
+      <c r="N101" s="5"/>
+      <c r="O101" s="5"/>
+      <c r="P101" s="5"/>
+      <c r="Q101" s="5"/>
+      <c r="R101" s="5"/>
+      <c r="S101" s="14"/>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A102" s="13"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="5"/>
+      <c r="M102" s="6"/>
+      <c r="N102" s="5"/>
+      <c r="O102" s="5"/>
+      <c r="P102" s="5"/>
+      <c r="Q102" s="5"/>
+      <c r="R102" s="5"/>
+      <c r="S102" s="14"/>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A103" s="13"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="5"/>
+      <c r="M103" s="6"/>
+      <c r="N103" s="5"/>
+      <c r="O103" s="5"/>
+      <c r="P103" s="5"/>
+      <c r="Q103" s="5"/>
+      <c r="R103" s="5"/>
+      <c r="S103" s="14"/>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A104" s="13"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="5"/>
+      <c r="M104" s="6"/>
+      <c r="N104" s="5"/>
+      <c r="O104" s="5"/>
+      <c r="P104" s="5"/>
+      <c r="Q104" s="5"/>
+      <c r="R104" s="5"/>
+      <c r="S104" s="14"/>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A105" s="13"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="5"/>
+      <c r="M105" s="6"/>
+      <c r="N105" s="5"/>
+      <c r="O105" s="5"/>
+      <c r="P105" s="5"/>
+      <c r="Q105" s="5"/>
+      <c r="R105" s="5"/>
+      <c r="S105" s="14"/>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A106" s="13"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
+      <c r="L106" s="5"/>
+      <c r="M106" s="6"/>
+      <c r="N106" s="5"/>
+      <c r="O106" s="5"/>
+      <c r="P106" s="5"/>
+      <c r="Q106" s="5"/>
+      <c r="R106" s="5"/>
+      <c r="S106" s="14"/>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A107" s="13"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5"/>
+      <c r="L107" s="5"/>
+      <c r="M107" s="6"/>
+      <c r="N107" s="5"/>
+      <c r="O107" s="5"/>
+      <c r="P107" s="5"/>
+      <c r="Q107" s="5"/>
+      <c r="R107" s="5"/>
+      <c r="S107" s="14"/>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A108" s="13"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="5"/>
+      <c r="L108" s="5"/>
+      <c r="M108" s="6"/>
+      <c r="N108" s="5"/>
+      <c r="O108" s="5"/>
+      <c r="P108" s="5"/>
+      <c r="Q108" s="5"/>
+      <c r="R108" s="5"/>
+      <c r="S108" s="14"/>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A109" s="13"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="5"/>
+      <c r="M109" s="6"/>
+      <c r="N109" s="5"/>
+      <c r="O109" s="5"/>
+      <c r="P109" s="5"/>
+      <c r="Q109" s="5"/>
+      <c r="R109" s="5"/>
+      <c r="S109" s="14"/>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A110" s="13"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="5"/>
+      <c r="L110" s="5"/>
+      <c r="M110" s="6"/>
+      <c r="N110" s="5"/>
+      <c r="O110" s="5"/>
+      <c r="P110" s="5"/>
+      <c r="Q110" s="5"/>
+      <c r="R110" s="5"/>
+      <c r="S110" s="14"/>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A111" s="13"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="5"/>
+      <c r="L111" s="5"/>
+      <c r="M111" s="6"/>
+      <c r="N111" s="5"/>
+      <c r="O111" s="5"/>
+      <c r="P111" s="5"/>
+      <c r="Q111" s="5"/>
+      <c r="R111" s="5"/>
+      <c r="S111" s="14"/>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A112" s="13"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="5"/>
+      <c r="L112" s="5"/>
+      <c r="M112" s="6"/>
+      <c r="N112" s="5"/>
+      <c r="O112" s="5"/>
+      <c r="P112" s="5"/>
+      <c r="Q112" s="5"/>
+      <c r="R112" s="5"/>
+      <c r="S112" s="14"/>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A113" s="13"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="5"/>
+      <c r="M113" s="6"/>
+      <c r="N113" s="5"/>
+      <c r="O113" s="5"/>
+      <c r="P113" s="5"/>
+      <c r="Q113" s="5"/>
+      <c r="R113" s="5"/>
+      <c r="S113" s="14"/>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A114" s="13"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="5"/>
+      <c r="L114" s="5"/>
+      <c r="M114" s="6"/>
+      <c r="N114" s="5"/>
+      <c r="O114" s="5"/>
+      <c r="P114" s="5"/>
+      <c r="Q114" s="5"/>
+      <c r="R114" s="5"/>
+      <c r="S114" s="14"/>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A115" s="13"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="5"/>
+      <c r="K115" s="5"/>
+      <c r="L115" s="5"/>
+      <c r="M115" s="6"/>
+      <c r="N115" s="5"/>
+      <c r="O115" s="5"/>
+      <c r="P115" s="5"/>
+      <c r="Q115" s="5"/>
+      <c r="R115" s="5"/>
+      <c r="S115" s="14"/>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A116" s="13"/>
+      <c r="B116" s="7"/>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="8"/>
+      <c r="J116" s="8"/>
+      <c r="K116" s="8"/>
+      <c r="L116" s="8"/>
+      <c r="M116" s="9"/>
+      <c r="N116" s="5"/>
+      <c r="O116" s="5"/>
+      <c r="P116" s="5"/>
+      <c r="Q116" s="5"/>
+      <c r="R116" s="5"/>
+      <c r="S116" s="14"/>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A117" s="13"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="5"/>
+      <c r="K117" s="5"/>
+      <c r="L117" s="5"/>
+      <c r="M117" s="5"/>
+      <c r="N117" s="5"/>
+      <c r="O117" s="5"/>
+      <c r="P117" s="5"/>
+      <c r="Q117" s="5"/>
+      <c r="R117" s="5"/>
+      <c r="S117" s="14"/>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A118" s="13"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
+      <c r="K118" s="5"/>
+      <c r="L118" s="5"/>
+      <c r="M118" s="5"/>
+      <c r="N118" s="5"/>
+      <c r="O118" s="5"/>
+      <c r="P118" s="5"/>
+      <c r="Q118" s="5"/>
+      <c r="R118" s="5"/>
+      <c r="S118" s="14"/>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A119" s="13"/>
+      <c r="B119" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
+      <c r="K119" s="2"/>
+      <c r="L119" s="2"/>
+      <c r="M119" s="2"/>
+      <c r="N119" s="2"/>
+      <c r="O119" s="2"/>
+      <c r="P119" s="2"/>
+      <c r="Q119" s="2"/>
+      <c r="R119" s="3"/>
+      <c r="S119" s="14"/>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A120" s="13"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5"/>
+      <c r="K120" s="5"/>
+      <c r="L120" s="5"/>
+      <c r="M120" s="5"/>
+      <c r="N120" s="5"/>
+      <c r="O120" s="5"/>
+      <c r="P120" s="5"/>
+      <c r="Q120" s="5"/>
+      <c r="R120" s="6"/>
+      <c r="S120" s="14"/>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A121" s="13"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="5"/>
+      <c r="K121" s="5"/>
+      <c r="L121" s="5"/>
+      <c r="M121" s="5"/>
+      <c r="N121" s="5"/>
+      <c r="O121" s="5"/>
+      <c r="P121" s="5"/>
+      <c r="Q121" s="5"/>
+      <c r="R121" s="6"/>
+      <c r="S121" s="14"/>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A122" s="13"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="5"/>
+      <c r="K122" s="5"/>
+      <c r="L122" s="5"/>
+      <c r="M122" s="5"/>
+      <c r="N122" s="5"/>
+      <c r="O122" s="5"/>
+      <c r="P122" s="5"/>
+      <c r="Q122" s="5"/>
+      <c r="R122" s="6"/>
+      <c r="S122" s="14"/>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A123" s="13"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="5"/>
+      <c r="K123" s="5"/>
+      <c r="L123" s="5"/>
+      <c r="M123" s="5"/>
+      <c r="N123" s="5"/>
+      <c r="O123" s="5"/>
+      <c r="P123" s="5"/>
+      <c r="Q123" s="5"/>
+      <c r="R123" s="6"/>
+      <c r="S123" s="14"/>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A124" s="13"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="5"/>
+      <c r="K124" s="5"/>
+      <c r="L124" s="5"/>
+      <c r="M124" s="5"/>
+      <c r="N124" s="5"/>
+      <c r="O124" s="5"/>
+      <c r="P124" s="5"/>
+      <c r="Q124" s="5"/>
+      <c r="R124" s="6"/>
+      <c r="S124" s="14"/>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A125" s="13"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5"/>
+      <c r="K125" s="5"/>
+      <c r="L125" s="5"/>
+      <c r="M125" s="5"/>
+      <c r="N125" s="5"/>
+      <c r="O125" s="5"/>
+      <c r="P125" s="5"/>
+      <c r="Q125" s="5"/>
+      <c r="R125" s="6"/>
+      <c r="S125" s="14"/>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A126" s="13"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="5"/>
+      <c r="K126" s="5"/>
+      <c r="L126" s="5"/>
+      <c r="M126" s="5"/>
+      <c r="N126" s="5"/>
+      <c r="O126" s="5"/>
+      <c r="P126" s="5"/>
+      <c r="Q126" s="5"/>
+      <c r="R126" s="6"/>
+      <c r="S126" s="14"/>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A127" s="13"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
+      <c r="J127" s="5"/>
+      <c r="K127" s="5"/>
+      <c r="L127" s="5"/>
+      <c r="M127" s="5"/>
+      <c r="N127" s="5"/>
+      <c r="O127" s="5"/>
+      <c r="P127" s="5"/>
+      <c r="Q127" s="5"/>
+      <c r="R127" s="6"/>
+      <c r="S127" s="14"/>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A128" s="13"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
+      <c r="J128" s="5"/>
+      <c r="K128" s="5"/>
+      <c r="L128" s="5"/>
+      <c r="M128" s="5"/>
+      <c r="N128" s="5"/>
+      <c r="O128" s="5"/>
+      <c r="P128" s="5"/>
+      <c r="Q128" s="5"/>
+      <c r="R128" s="6"/>
+      <c r="S128" s="14"/>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A129" s="13"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="5"/>
+      <c r="J129" s="5"/>
+      <c r="K129" s="5"/>
+      <c r="L129" s="5"/>
+      <c r="M129" s="5"/>
+      <c r="N129" s="5"/>
+      <c r="O129" s="5"/>
+      <c r="P129" s="5"/>
+      <c r="Q129" s="5"/>
+      <c r="R129" s="6"/>
+      <c r="S129" s="14"/>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A130" s="13"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
+      <c r="I130" s="5"/>
+      <c r="J130" s="5"/>
+      <c r="K130" s="5"/>
+      <c r="L130" s="5"/>
+      <c r="M130" s="5"/>
+      <c r="N130" s="5"/>
+      <c r="O130" s="5"/>
+      <c r="P130" s="5"/>
+      <c r="Q130" s="5"/>
+      <c r="R130" s="6"/>
+      <c r="S130" s="14"/>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A131" s="13"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
+      <c r="I131" s="5"/>
+      <c r="J131" s="5"/>
+      <c r="K131" s="5"/>
+      <c r="L131" s="5"/>
+      <c r="M131" s="5"/>
+      <c r="N131" s="5"/>
+      <c r="O131" s="5"/>
+      <c r="P131" s="5"/>
+      <c r="Q131" s="5"/>
+      <c r="R131" s="6"/>
+      <c r="S131" s="14"/>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A132" s="13"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5"/>
+      <c r="I132" s="5"/>
+      <c r="J132" s="5"/>
+      <c r="K132" s="5"/>
+      <c r="L132" s="5"/>
+      <c r="M132" s="5"/>
+      <c r="N132" s="5"/>
+      <c r="O132" s="5"/>
+      <c r="P132" s="5"/>
+      <c r="Q132" s="5"/>
+      <c r="R132" s="6"/>
+      <c r="S132" s="14"/>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A133" s="13"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
+      <c r="J133" s="5"/>
+      <c r="K133" s="5"/>
+      <c r="L133" s="5"/>
+      <c r="M133" s="5"/>
+      <c r="N133" s="5"/>
+      <c r="O133" s="5"/>
+      <c r="P133" s="5"/>
+      <c r="Q133" s="5"/>
+      <c r="R133" s="6"/>
+      <c r="S133" s="14"/>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A134" s="13"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5"/>
+      <c r="I134" s="5"/>
+      <c r="J134" s="5"/>
+      <c r="K134" s="5"/>
+      <c r="L134" s="5"/>
+      <c r="M134" s="5"/>
+      <c r="N134" s="5"/>
+      <c r="O134" s="5"/>
+      <c r="P134" s="5"/>
+      <c r="Q134" s="5"/>
+      <c r="R134" s="6"/>
+      <c r="S134" s="14"/>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A135" s="13"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5"/>
+      <c r="I135" s="5"/>
+      <c r="J135" s="5"/>
+      <c r="K135" s="5"/>
+      <c r="L135" s="5"/>
+      <c r="M135" s="5"/>
+      <c r="N135" s="5"/>
+      <c r="O135" s="5"/>
+      <c r="P135" s="5"/>
+      <c r="Q135" s="5"/>
+      <c r="R135" s="6"/>
+      <c r="S135" s="14"/>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A136" s="13"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="5"/>
+      <c r="J136" s="5"/>
+      <c r="K136" s="5"/>
+      <c r="L136" s="5"/>
+      <c r="M136" s="5"/>
+      <c r="N136" s="5"/>
+      <c r="O136" s="5"/>
+      <c r="P136" s="5"/>
+      <c r="Q136" s="5"/>
+      <c r="R136" s="6"/>
+      <c r="S136" s="14"/>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A137" s="13"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
+      <c r="I137" s="5"/>
+      <c r="J137" s="5"/>
+      <c r="K137" s="5"/>
+      <c r="L137" s="5"/>
+      <c r="M137" s="5"/>
+      <c r="N137" s="5"/>
+      <c r="O137" s="5"/>
+      <c r="P137" s="5"/>
+      <c r="Q137" s="5"/>
+      <c r="R137" s="6"/>
+      <c r="S137" s="14"/>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A138" s="13"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="5"/>
+      <c r="J138" s="5"/>
+      <c r="K138" s="5"/>
+      <c r="L138" s="5"/>
+      <c r="M138" s="5"/>
+      <c r="N138" s="5"/>
+      <c r="O138" s="5"/>
+      <c r="P138" s="5"/>
+      <c r="Q138" s="5"/>
+      <c r="R138" s="6"/>
+      <c r="S138" s="14"/>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A139" s="13"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5"/>
+      <c r="J139" s="5"/>
+      <c r="K139" s="5"/>
+      <c r="L139" s="5"/>
+      <c r="M139" s="5"/>
+      <c r="N139" s="5"/>
+      <c r="O139" s="5"/>
+      <c r="P139" s="5"/>
+      <c r="Q139" s="5"/>
+      <c r="R139" s="6"/>
+      <c r="S139" s="14"/>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A140" s="13"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="5"/>
+      <c r="I140" s="5"/>
+      <c r="J140" s="5"/>
+      <c r="K140" s="5"/>
+      <c r="L140" s="5"/>
+      <c r="M140" s="5"/>
+      <c r="N140" s="5"/>
+      <c r="O140" s="5"/>
+      <c r="P140" s="5"/>
+      <c r="Q140" s="5"/>
+      <c r="R140" s="6"/>
+      <c r="S140" s="14"/>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A141" s="13"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5"/>
+      <c r="I141" s="5"/>
+      <c r="J141" s="5"/>
+      <c r="K141" s="5"/>
+      <c r="L141" s="5"/>
+      <c r="M141" s="5"/>
+      <c r="N141" s="5"/>
+      <c r="O141" s="5"/>
+      <c r="P141" s="5"/>
+      <c r="Q141" s="5"/>
+      <c r="R141" s="6"/>
+      <c r="S141" s="14"/>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A142" s="13"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="5"/>
+      <c r="K142" s="5"/>
+      <c r="L142" s="5"/>
+      <c r="M142" s="5"/>
+      <c r="N142" s="5"/>
+      <c r="O142" s="5"/>
+      <c r="P142" s="5"/>
+      <c r="Q142" s="5"/>
+      <c r="R142" s="6"/>
+      <c r="S142" s="14"/>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A143" s="13"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="5"/>
+      <c r="I143" s="5"/>
+      <c r="J143" s="5"/>
+      <c r="K143" s="5"/>
+      <c r="L143" s="5"/>
+      <c r="M143" s="5"/>
+      <c r="N143" s="5"/>
+      <c r="O143" s="5"/>
+      <c r="P143" s="5"/>
+      <c r="Q143" s="5"/>
+      <c r="R143" s="6"/>
+      <c r="S143" s="14"/>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A144" s="13"/>
+      <c r="B144" s="7"/>
+      <c r="C144" s="8"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c r="H144" s="8"/>
+      <c r="I144" s="8"/>
+      <c r="J144" s="8"/>
+      <c r="K144" s="8"/>
+      <c r="L144" s="8"/>
+      <c r="M144" s="8"/>
+      <c r="N144" s="8"/>
+      <c r="O144" s="8"/>
+      <c r="P144" s="8"/>
+      <c r="Q144" s="8"/>
+      <c r="R144" s="9"/>
+      <c r="S144" s="14"/>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A145" s="13"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="5"/>
+      <c r="K145" s="5"/>
+      <c r="L145" s="5"/>
+      <c r="M145" s="5"/>
+      <c r="N145" s="5"/>
+      <c r="O145" s="5"/>
+      <c r="P145" s="5"/>
+      <c r="Q145" s="5"/>
+      <c r="R145" s="5"/>
+      <c r="S145" s="14"/>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A146" s="13"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="5"/>
+      <c r="I146" s="5"/>
+      <c r="J146" s="5"/>
+      <c r="K146" s="5"/>
+      <c r="L146" s="5"/>
+      <c r="M146" s="5"/>
+      <c r="N146" s="5"/>
+      <c r="O146" s="5"/>
+      <c r="P146" s="5"/>
+      <c r="Q146" s="5"/>
+      <c r="R146" s="5"/>
+      <c r="S146" s="14"/>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A147" s="13"/>
+      <c r="B147" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
+      <c r="I147" s="2"/>
+      <c r="J147" s="2"/>
+      <c r="K147" s="2"/>
+      <c r="L147" s="2"/>
+      <c r="M147" s="2"/>
+      <c r="N147" s="2"/>
+      <c r="O147" s="2"/>
+      <c r="P147" s="2"/>
+      <c r="Q147" s="2"/>
+      <c r="R147" s="3"/>
+      <c r="S147" s="14"/>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A148" s="13"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="5"/>
+      <c r="I148" s="5"/>
+      <c r="J148" s="5"/>
+      <c r="K148" s="5"/>
+      <c r="L148" s="5"/>
+      <c r="M148" s="5"/>
+      <c r="N148" s="5"/>
+      <c r="O148" s="5"/>
+      <c r="P148" s="5"/>
+      <c r="Q148" s="5"/>
+      <c r="R148" s="6"/>
+      <c r="S148" s="14"/>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A149" s="13"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="5"/>
+      <c r="I149" s="5"/>
+      <c r="J149" s="5"/>
+      <c r="K149" s="5"/>
+      <c r="L149" s="5"/>
+      <c r="M149" s="5"/>
+      <c r="N149" s="5"/>
+      <c r="O149" s="5"/>
+      <c r="P149" s="5"/>
+      <c r="Q149" s="5"/>
+      <c r="R149" s="6"/>
+      <c r="S149" s="14"/>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A150" s="13"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="5"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="5"/>
+      <c r="K150" s="5"/>
+      <c r="L150" s="5"/>
+      <c r="M150" s="5"/>
+      <c r="N150" s="5"/>
+      <c r="O150" s="5"/>
+      <c r="P150" s="5"/>
+      <c r="Q150" s="5"/>
+      <c r="R150" s="6"/>
+      <c r="S150" s="14"/>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A151" s="13"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
+      <c r="H151" s="5"/>
+      <c r="I151" s="5"/>
+      <c r="J151" s="5"/>
+      <c r="K151" s="5"/>
+      <c r="L151" s="5"/>
+      <c r="M151" s="5"/>
+      <c r="N151" s="5"/>
+      <c r="O151" s="5"/>
+      <c r="P151" s="5"/>
+      <c r="Q151" s="5"/>
+      <c r="R151" s="6"/>
+      <c r="S151" s="14"/>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A152" s="13"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="5"/>
+      <c r="J152" s="5"/>
+      <c r="K152" s="5"/>
+      <c r="L152" s="5"/>
+      <c r="M152" s="5"/>
+      <c r="N152" s="5"/>
+      <c r="O152" s="5"/>
+      <c r="P152" s="5"/>
+      <c r="Q152" s="5"/>
+      <c r="R152" s="6"/>
+      <c r="S152" s="14"/>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A153" s="13"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
+      <c r="H153" s="5"/>
+      <c r="I153" s="5"/>
+      <c r="J153" s="5"/>
+      <c r="K153" s="5"/>
+      <c r="L153" s="5"/>
+      <c r="M153" s="5"/>
+      <c r="N153" s="5"/>
+      <c r="O153" s="5"/>
+      <c r="P153" s="5"/>
+      <c r="Q153" s="5"/>
+      <c r="R153" s="6"/>
+      <c r="S153" s="14"/>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A154" s="13"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="5"/>
+      <c r="I154" s="5"/>
+      <c r="J154" s="5"/>
+      <c r="K154" s="5"/>
+      <c r="L154" s="5"/>
+      <c r="M154" s="5"/>
+      <c r="N154" s="5"/>
+      <c r="O154" s="5"/>
+      <c r="P154" s="5"/>
+      <c r="Q154" s="5"/>
+      <c r="R154" s="6"/>
+      <c r="S154" s="14"/>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A155" s="13"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
+      <c r="H155" s="5"/>
+      <c r="I155" s="5"/>
+      <c r="J155" s="5"/>
+      <c r="K155" s="5"/>
+      <c r="L155" s="5"/>
+      <c r="M155" s="5"/>
+      <c r="N155" s="5"/>
+      <c r="O155" s="5"/>
+      <c r="P155" s="5"/>
+      <c r="Q155" s="5"/>
+      <c r="R155" s="6"/>
+      <c r="S155" s="14"/>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A156" s="13"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="5"/>
+      <c r="I156" s="5"/>
+      <c r="J156" s="5"/>
+      <c r="K156" s="5"/>
+      <c r="L156" s="5"/>
+      <c r="M156" s="5"/>
+      <c r="N156" s="5"/>
+      <c r="O156" s="5"/>
+      <c r="P156" s="5"/>
+      <c r="Q156" s="5"/>
+      <c r="R156" s="6"/>
+      <c r="S156" s="14"/>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A157" s="13"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="5"/>
+      <c r="I157" s="5"/>
+      <c r="J157" s="5"/>
+      <c r="K157" s="5"/>
+      <c r="L157" s="5"/>
+      <c r="M157" s="5"/>
+      <c r="N157" s="5"/>
+      <c r="O157" s="5"/>
+      <c r="P157" s="5"/>
+      <c r="Q157" s="5"/>
+      <c r="R157" s="6"/>
+      <c r="S157" s="14"/>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A158" s="13"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5"/>
+      <c r="H158" s="5"/>
+      <c r="I158" s="5"/>
+      <c r="J158" s="5"/>
+      <c r="K158" s="5"/>
+      <c r="L158" s="5"/>
+      <c r="M158" s="5"/>
+      <c r="N158" s="5"/>
+      <c r="O158" s="5"/>
+      <c r="P158" s="5"/>
+      <c r="Q158" s="5"/>
+      <c r="R158" s="6"/>
+      <c r="S158" s="14"/>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A159" s="13"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5"/>
+      <c r="H159" s="5"/>
+      <c r="I159" s="5"/>
+      <c r="J159" s="5"/>
+      <c r="K159" s="5"/>
+      <c r="L159" s="5"/>
+      <c r="M159" s="5"/>
+      <c r="N159" s="5"/>
+      <c r="O159" s="5"/>
+      <c r="P159" s="5"/>
+      <c r="Q159" s="5"/>
+      <c r="R159" s="6"/>
+      <c r="S159" s="14"/>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A160" s="13"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5"/>
+      <c r="H160" s="5"/>
+      <c r="I160" s="5"/>
+      <c r="J160" s="5"/>
+      <c r="K160" s="5"/>
+      <c r="L160" s="5"/>
+      <c r="M160" s="5"/>
+      <c r="N160" s="5"/>
+      <c r="O160" s="5"/>
+      <c r="P160" s="5"/>
+      <c r="Q160" s="5"/>
+      <c r="R160" s="6"/>
+      <c r="S160" s="14"/>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A161" s="13"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
+      <c r="H161" s="5"/>
+      <c r="I161" s="5"/>
+      <c r="J161" s="5"/>
+      <c r="K161" s="5"/>
+      <c r="L161" s="5"/>
+      <c r="M161" s="5"/>
+      <c r="N161" s="5"/>
+      <c r="O161" s="5"/>
+      <c r="P161" s="5"/>
+      <c r="Q161" s="5"/>
+      <c r="R161" s="6"/>
+      <c r="S161" s="14"/>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A162" s="13"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5"/>
+      <c r="H162" s="5"/>
+      <c r="I162" s="5"/>
+      <c r="J162" s="5"/>
+      <c r="K162" s="5"/>
+      <c r="L162" s="5"/>
+      <c r="M162" s="5"/>
+      <c r="N162" s="5"/>
+      <c r="O162" s="5"/>
+      <c r="P162" s="5"/>
+      <c r="Q162" s="5"/>
+      <c r="R162" s="6"/>
       <c r="S162" s="14"/>
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.25">
@@ -10757,28 +15242,28 @@
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" s="13"/>
-      <c r="B171" s="4"/>
-      <c r="C171" s="5"/>
-      <c r="D171" s="5"/>
-      <c r="E171" s="5"/>
-      <c r="F171" s="5"/>
-      <c r="G171" s="5"/>
-      <c r="H171" s="5"/>
-      <c r="I171" s="5"/>
-      <c r="J171" s="5"/>
-      <c r="K171" s="5"/>
-      <c r="L171" s="5"/>
-      <c r="M171" s="5"/>
-      <c r="N171" s="5"/>
-      <c r="O171" s="5"/>
-      <c r="P171" s="5"/>
-      <c r="Q171" s="5"/>
-      <c r="R171" s="6"/>
+      <c r="B171" s="7"/>
+      <c r="C171" s="8"/>
+      <c r="D171" s="8"/>
+      <c r="E171" s="8"/>
+      <c r="F171" s="8"/>
+      <c r="G171" s="8"/>
+      <c r="H171" s="8"/>
+      <c r="I171" s="8"/>
+      <c r="J171" s="8"/>
+      <c r="K171" s="8"/>
+      <c r="L171" s="8"/>
+      <c r="M171" s="8"/>
+      <c r="N171" s="8"/>
+      <c r="O171" s="8"/>
+      <c r="P171" s="8"/>
+      <c r="Q171" s="8"/>
+      <c r="R171" s="9"/>
       <c r="S171" s="14"/>
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" s="13"/>
-      <c r="B172" s="4"/>
+      <c r="B172" s="5"/>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
@@ -10794,12 +15279,12 @@
       <c r="O172" s="5"/>
       <c r="P172" s="5"/>
       <c r="Q172" s="5"/>
-      <c r="R172" s="6"/>
+      <c r="R172" s="5"/>
       <c r="S172" s="14"/>
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173" s="13"/>
-      <c r="B173" s="4"/>
+      <c r="B173" s="5"/>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
@@ -10815,28 +15300,30 @@
       <c r="O173" s="5"/>
       <c r="P173" s="5"/>
       <c r="Q173" s="5"/>
-      <c r="R173" s="6"/>
+      <c r="R173" s="5"/>
       <c r="S173" s="14"/>
     </row>
     <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174" s="13"/>
-      <c r="B174" s="4"/>
-      <c r="C174" s="5"/>
-      <c r="D174" s="5"/>
-      <c r="E174" s="5"/>
-      <c r="F174" s="5"/>
-      <c r="G174" s="5"/>
-      <c r="H174" s="5"/>
-      <c r="I174" s="5"/>
-      <c r="J174" s="5"/>
-      <c r="K174" s="5"/>
-      <c r="L174" s="5"/>
-      <c r="M174" s="5"/>
-      <c r="N174" s="5"/>
-      <c r="O174" s="5"/>
-      <c r="P174" s="5"/>
-      <c r="Q174" s="5"/>
-      <c r="R174" s="6"/>
+      <c r="B174" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
+      <c r="F174" s="2"/>
+      <c r="G174" s="2"/>
+      <c r="H174" s="2"/>
+      <c r="I174" s="2"/>
+      <c r="J174" s="2"/>
+      <c r="K174" s="2"/>
+      <c r="L174" s="2"/>
+      <c r="M174" s="2"/>
+      <c r="N174" s="2"/>
+      <c r="O174" s="2"/>
+      <c r="P174" s="2"/>
+      <c r="Q174" s="2"/>
+      <c r="R174" s="3"/>
       <c r="S174" s="14"/>
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.25">
@@ -11135,28 +15622,28 @@
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A189" s="13"/>
-      <c r="B189" s="7"/>
-      <c r="C189" s="8"/>
-      <c r="D189" s="8"/>
-      <c r="E189" s="8"/>
-      <c r="F189" s="8"/>
-      <c r="G189" s="8"/>
-      <c r="H189" s="8"/>
-      <c r="I189" s="8"/>
-      <c r="J189" s="8"/>
-      <c r="K189" s="8"/>
-      <c r="L189" s="8"/>
-      <c r="M189" s="8"/>
-      <c r="N189" s="8"/>
-      <c r="O189" s="8"/>
-      <c r="P189" s="8"/>
-      <c r="Q189" s="8"/>
-      <c r="R189" s="9"/>
+      <c r="B189" s="4"/>
+      <c r="C189" s="5"/>
+      <c r="D189" s="5"/>
+      <c r="E189" s="5"/>
+      <c r="F189" s="5"/>
+      <c r="G189" s="5"/>
+      <c r="H189" s="5"/>
+      <c r="I189" s="5"/>
+      <c r="J189" s="5"/>
+      <c r="K189" s="5"/>
+      <c r="L189" s="5"/>
+      <c r="M189" s="5"/>
+      <c r="N189" s="5"/>
+      <c r="O189" s="5"/>
+      <c r="P189" s="5"/>
+      <c r="Q189" s="5"/>
+      <c r="R189" s="6"/>
       <c r="S189" s="14"/>
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A190" s="13"/>
-      <c r="B190" s="5"/>
+      <c r="B190" s="4"/>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
@@ -11172,12 +15659,12 @@
       <c r="O190" s="5"/>
       <c r="P190" s="5"/>
       <c r="Q190" s="5"/>
-      <c r="R190" s="5"/>
+      <c r="R190" s="6"/>
       <c r="S190" s="14"/>
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A191" s="13"/>
-      <c r="B191" s="5"/>
+      <c r="B191" s="4"/>
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
@@ -11193,30 +15680,28 @@
       <c r="O191" s="5"/>
       <c r="P191" s="5"/>
       <c r="Q191" s="5"/>
-      <c r="R191" s="5"/>
+      <c r="R191" s="6"/>
       <c r="S191" s="14"/>
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A192" s="13"/>
-      <c r="B192" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C192" s="2"/>
-      <c r="D192" s="2"/>
-      <c r="E192" s="2"/>
-      <c r="F192" s="2"/>
-      <c r="G192" s="2"/>
-      <c r="H192" s="2"/>
-      <c r="I192" s="2"/>
-      <c r="J192" s="2"/>
-      <c r="K192" s="2"/>
-      <c r="L192" s="2"/>
-      <c r="M192" s="2"/>
-      <c r="N192" s="2"/>
-      <c r="O192" s="2"/>
-      <c r="P192" s="2"/>
-      <c r="Q192" s="2"/>
-      <c r="R192" s="3"/>
+      <c r="B192" s="4"/>
+      <c r="C192" s="5"/>
+      <c r="D192" s="5"/>
+      <c r="E192" s="5"/>
+      <c r="F192" s="5"/>
+      <c r="G192" s="5"/>
+      <c r="H192" s="5"/>
+      <c r="I192" s="5"/>
+      <c r="J192" s="5"/>
+      <c r="K192" s="5"/>
+      <c r="L192" s="5"/>
+      <c r="M192" s="5"/>
+      <c r="N192" s="5"/>
+      <c r="O192" s="5"/>
+      <c r="P192" s="5"/>
+      <c r="Q192" s="5"/>
+      <c r="R192" s="6"/>
       <c r="S192" s="14"/>
     </row>
     <row r="193" spans="1:19" x14ac:dyDescent="0.25">
@@ -11305,406 +15790,48 @@
     </row>
     <row r="197" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A197" s="13"/>
-      <c r="B197" s="4"/>
-      <c r="C197" s="5"/>
-      <c r="D197" s="5"/>
-      <c r="E197" s="5"/>
-      <c r="F197" s="5"/>
-      <c r="G197" s="5"/>
-      <c r="H197" s="5"/>
-      <c r="I197" s="5"/>
-      <c r="J197" s="5"/>
-      <c r="K197" s="5"/>
-      <c r="L197" s="5"/>
-      <c r="M197" s="5"/>
-      <c r="N197" s="5"/>
-      <c r="O197" s="5"/>
-      <c r="P197" s="5"/>
-      <c r="Q197" s="5"/>
-      <c r="R197" s="6"/>
+      <c r="B197" s="7"/>
+      <c r="C197" s="8"/>
+      <c r="D197" s="8"/>
+      <c r="E197" s="8"/>
+      <c r="F197" s="8"/>
+      <c r="G197" s="8"/>
+      <c r="H197" s="8"/>
+      <c r="I197" s="8"/>
+      <c r="J197" s="8"/>
+      <c r="K197" s="8"/>
+      <c r="L197" s="8"/>
+      <c r="M197" s="8"/>
+      <c r="N197" s="8"/>
+      <c r="O197" s="8"/>
+      <c r="P197" s="8"/>
+      <c r="Q197" s="8"/>
+      <c r="R197" s="9"/>
       <c r="S197" s="14"/>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A198" s="13"/>
-      <c r="B198" s="4"/>
-      <c r="C198" s="5"/>
-      <c r="D198" s="5"/>
-      <c r="E198" s="5"/>
-      <c r="F198" s="5"/>
-      <c r="G198" s="5"/>
-      <c r="H198" s="5"/>
-      <c r="I198" s="5"/>
-      <c r="J198" s="5"/>
-      <c r="K198" s="5"/>
-      <c r="L198" s="5"/>
-      <c r="M198" s="5"/>
-      <c r="N198" s="5"/>
-      <c r="O198" s="5"/>
-      <c r="P198" s="5"/>
-      <c r="Q198" s="5"/>
-      <c r="R198" s="6"/>
-      <c r="S198" s="14"/>
-    </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A199" s="13"/>
-      <c r="B199" s="4"/>
-      <c r="C199" s="5"/>
-      <c r="D199" s="5"/>
-      <c r="E199" s="5"/>
-      <c r="F199" s="5"/>
-      <c r="G199" s="5"/>
-      <c r="H199" s="5"/>
-      <c r="I199" s="5"/>
-      <c r="J199" s="5"/>
-      <c r="K199" s="5"/>
-      <c r="L199" s="5"/>
-      <c r="M199" s="5"/>
-      <c r="N199" s="5"/>
-      <c r="O199" s="5"/>
-      <c r="P199" s="5"/>
-      <c r="Q199" s="5"/>
-      <c r="R199" s="6"/>
-      <c r="S199" s="14"/>
-    </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A200" s="13"/>
-      <c r="B200" s="4"/>
-      <c r="C200" s="5"/>
-      <c r="D200" s="5"/>
-      <c r="E200" s="5"/>
-      <c r="F200" s="5"/>
-      <c r="G200" s="5"/>
-      <c r="H200" s="5"/>
-      <c r="I200" s="5"/>
-      <c r="J200" s="5"/>
-      <c r="K200" s="5"/>
-      <c r="L200" s="5"/>
-      <c r="M200" s="5"/>
-      <c r="N200" s="5"/>
-      <c r="O200" s="5"/>
-      <c r="P200" s="5"/>
-      <c r="Q200" s="5"/>
-      <c r="R200" s="6"/>
-      <c r="S200" s="14"/>
-    </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A201" s="13"/>
-      <c r="B201" s="4"/>
-      <c r="C201" s="5"/>
-      <c r="D201" s="5"/>
-      <c r="E201" s="5"/>
-      <c r="F201" s="5"/>
-      <c r="G201" s="5"/>
-      <c r="H201" s="5"/>
-      <c r="I201" s="5"/>
-      <c r="J201" s="5"/>
-      <c r="K201" s="5"/>
-      <c r="L201" s="5"/>
-      <c r="M201" s="5"/>
-      <c r="N201" s="5"/>
-      <c r="O201" s="5"/>
-      <c r="P201" s="5"/>
-      <c r="Q201" s="5"/>
-      <c r="R201" s="6"/>
-      <c r="S201" s="14"/>
-    </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A202" s="13"/>
-      <c r="B202" s="4"/>
-      <c r="C202" s="5"/>
-      <c r="D202" s="5"/>
-      <c r="E202" s="5"/>
-      <c r="F202" s="5"/>
-      <c r="G202" s="5"/>
-      <c r="H202" s="5"/>
-      <c r="I202" s="5"/>
-      <c r="J202" s="5"/>
-      <c r="K202" s="5"/>
-      <c r="L202" s="5"/>
-      <c r="M202" s="5"/>
-      <c r="N202" s="5"/>
-      <c r="O202" s="5"/>
-      <c r="P202" s="5"/>
-      <c r="Q202" s="5"/>
-      <c r="R202" s="6"/>
-      <c r="S202" s="14"/>
-    </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A203" s="13"/>
-      <c r="B203" s="4"/>
-      <c r="C203" s="5"/>
-      <c r="D203" s="5"/>
-      <c r="E203" s="5"/>
-      <c r="F203" s="5"/>
-      <c r="G203" s="5"/>
-      <c r="H203" s="5"/>
-      <c r="I203" s="5"/>
-      <c r="J203" s="5"/>
-      <c r="K203" s="5"/>
-      <c r="L203" s="5"/>
-      <c r="M203" s="5"/>
-      <c r="N203" s="5"/>
-      <c r="O203" s="5"/>
-      <c r="P203" s="5"/>
-      <c r="Q203" s="5"/>
-      <c r="R203" s="6"/>
-      <c r="S203" s="14"/>
-    </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A204" s="13"/>
-      <c r="B204" s="4"/>
-      <c r="C204" s="5"/>
-      <c r="D204" s="5"/>
-      <c r="E204" s="5"/>
-      <c r="F204" s="5"/>
-      <c r="G204" s="5"/>
-      <c r="H204" s="5"/>
-      <c r="I204" s="5"/>
-      <c r="J204" s="5"/>
-      <c r="K204" s="5"/>
-      <c r="L204" s="5"/>
-      <c r="M204" s="5"/>
-      <c r="N204" s="5"/>
-      <c r="O204" s="5"/>
-      <c r="P204" s="5"/>
-      <c r="Q204" s="5"/>
-      <c r="R204" s="6"/>
-      <c r="S204" s="14"/>
-    </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A205" s="13"/>
-      <c r="B205" s="4"/>
-      <c r="C205" s="5"/>
-      <c r="D205" s="5"/>
-      <c r="E205" s="5"/>
-      <c r="F205" s="5"/>
-      <c r="G205" s="5"/>
-      <c r="H205" s="5"/>
-      <c r="I205" s="5"/>
-      <c r="J205" s="5"/>
-      <c r="K205" s="5"/>
-      <c r="L205" s="5"/>
-      <c r="M205" s="5"/>
-      <c r="N205" s="5"/>
-      <c r="O205" s="5"/>
-      <c r="P205" s="5"/>
-      <c r="Q205" s="5"/>
-      <c r="R205" s="6"/>
-      <c r="S205" s="14"/>
-    </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A206" s="13"/>
-      <c r="B206" s="4"/>
-      <c r="C206" s="5"/>
-      <c r="D206" s="5"/>
-      <c r="E206" s="5"/>
-      <c r="F206" s="5"/>
-      <c r="G206" s="5"/>
-      <c r="H206" s="5"/>
-      <c r="I206" s="5"/>
-      <c r="J206" s="5"/>
-      <c r="K206" s="5"/>
-      <c r="L206" s="5"/>
-      <c r="M206" s="5"/>
-      <c r="N206" s="5"/>
-      <c r="O206" s="5"/>
-      <c r="P206" s="5"/>
-      <c r="Q206" s="5"/>
-      <c r="R206" s="6"/>
-      <c r="S206" s="14"/>
-    </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A207" s="13"/>
-      <c r="B207" s="4"/>
-      <c r="C207" s="5"/>
-      <c r="D207" s="5"/>
-      <c r="E207" s="5"/>
-      <c r="F207" s="5"/>
-      <c r="G207" s="5"/>
-      <c r="H207" s="5"/>
-      <c r="I207" s="5"/>
-      <c r="J207" s="5"/>
-      <c r="K207" s="5"/>
-      <c r="L207" s="5"/>
-      <c r="M207" s="5"/>
-      <c r="N207" s="5"/>
-      <c r="O207" s="5"/>
-      <c r="P207" s="5"/>
-      <c r="Q207" s="5"/>
-      <c r="R207" s="6"/>
-      <c r="S207" s="14"/>
-    </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A208" s="13"/>
-      <c r="B208" s="4"/>
-      <c r="C208" s="5"/>
-      <c r="D208" s="5"/>
-      <c r="E208" s="5"/>
-      <c r="F208" s="5"/>
-      <c r="G208" s="5"/>
-      <c r="H208" s="5"/>
-      <c r="I208" s="5"/>
-      <c r="J208" s="5"/>
-      <c r="K208" s="5"/>
-      <c r="L208" s="5"/>
-      <c r="M208" s="5"/>
-      <c r="N208" s="5"/>
-      <c r="O208" s="5"/>
-      <c r="P208" s="5"/>
-      <c r="Q208" s="5"/>
-      <c r="R208" s="6"/>
-      <c r="S208" s="14"/>
-    </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A209" s="13"/>
-      <c r="B209" s="4"/>
-      <c r="C209" s="5"/>
-      <c r="D209" s="5"/>
-      <c r="E209" s="5"/>
-      <c r="F209" s="5"/>
-      <c r="G209" s="5"/>
-      <c r="H209" s="5"/>
-      <c r="I209" s="5"/>
-      <c r="J209" s="5"/>
-      <c r="K209" s="5"/>
-      <c r="L209" s="5"/>
-      <c r="M209" s="5"/>
-      <c r="N209" s="5"/>
-      <c r="O209" s="5"/>
-      <c r="P209" s="5"/>
-      <c r="Q209" s="5"/>
-      <c r="R209" s="6"/>
-      <c r="S209" s="14"/>
-    </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A210" s="13"/>
-      <c r="B210" s="4"/>
-      <c r="C210" s="5"/>
-      <c r="D210" s="5"/>
-      <c r="E210" s="5"/>
-      <c r="F210" s="5"/>
-      <c r="G210" s="5"/>
-      <c r="H210" s="5"/>
-      <c r="I210" s="5"/>
-      <c r="J210" s="5"/>
-      <c r="K210" s="5"/>
-      <c r="L210" s="5"/>
-      <c r="M210" s="5"/>
-      <c r="N210" s="5"/>
-      <c r="O210" s="5"/>
-      <c r="P210" s="5"/>
-      <c r="Q210" s="5"/>
-      <c r="R210" s="6"/>
-      <c r="S210" s="14"/>
-    </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A211" s="13"/>
-      <c r="B211" s="4"/>
-      <c r="C211" s="5"/>
-      <c r="D211" s="5"/>
-      <c r="E211" s="5"/>
-      <c r="F211" s="5"/>
-      <c r="G211" s="5"/>
-      <c r="H211" s="5"/>
-      <c r="I211" s="5"/>
-      <c r="J211" s="5"/>
-      <c r="K211" s="5"/>
-      <c r="L211" s="5"/>
-      <c r="M211" s="5"/>
-      <c r="N211" s="5"/>
-      <c r="O211" s="5"/>
-      <c r="P211" s="5"/>
-      <c r="Q211" s="5"/>
-      <c r="R211" s="6"/>
-      <c r="S211" s="14"/>
-    </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A212" s="13"/>
-      <c r="B212" s="4"/>
-      <c r="C212" s="5"/>
-      <c r="D212" s="5"/>
-      <c r="E212" s="5"/>
-      <c r="F212" s="5"/>
-      <c r="G212" s="5"/>
-      <c r="H212" s="5"/>
-      <c r="I212" s="5"/>
-      <c r="J212" s="5"/>
-      <c r="K212" s="5"/>
-      <c r="L212" s="5"/>
-      <c r="M212" s="5"/>
-      <c r="N212" s="5"/>
-      <c r="O212" s="5"/>
-      <c r="P212" s="5"/>
-      <c r="Q212" s="5"/>
-      <c r="R212" s="6"/>
-      <c r="S212" s="14"/>
-    </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A213" s="13"/>
-      <c r="B213" s="4"/>
-      <c r="C213" s="5"/>
-      <c r="D213" s="5"/>
-      <c r="E213" s="5"/>
-      <c r="F213" s="5"/>
-      <c r="G213" s="5"/>
-      <c r="H213" s="5"/>
-      <c r="I213" s="5"/>
-      <c r="J213" s="5"/>
-      <c r="K213" s="5"/>
-      <c r="L213" s="5"/>
-      <c r="M213" s="5"/>
-      <c r="N213" s="5"/>
-      <c r="O213" s="5"/>
-      <c r="P213" s="5"/>
-      <c r="Q213" s="5"/>
-      <c r="R213" s="6"/>
-      <c r="S213" s="14"/>
-    </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A214" s="13"/>
-      <c r="B214" s="7"/>
-      <c r="C214" s="8"/>
-      <c r="D214" s="8"/>
-      <c r="E214" s="8"/>
-      <c r="F214" s="8"/>
-      <c r="G214" s="8"/>
-      <c r="H214" s="8"/>
-      <c r="I214" s="8"/>
-      <c r="J214" s="8"/>
-      <c r="K214" s="8"/>
-      <c r="L214" s="8"/>
-      <c r="M214" s="8"/>
-      <c r="N214" s="8"/>
-      <c r="O214" s="8"/>
-      <c r="P214" s="8"/>
-      <c r="Q214" s="8"/>
-      <c r="R214" s="9"/>
-      <c r="S214" s="14"/>
-    </row>
-    <row r="215" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="15"/>
-      <c r="B215" s="16"/>
-      <c r="C215" s="16"/>
-      <c r="D215" s="16"/>
-      <c r="E215" s="16"/>
-      <c r="F215" s="16"/>
-      <c r="G215" s="16"/>
-      <c r="H215" s="16"/>
-      <c r="I215" s="16"/>
-      <c r="J215" s="16"/>
-      <c r="K215" s="16"/>
-      <c r="L215" s="16"/>
-      <c r="M215" s="16"/>
-      <c r="N215" s="16"/>
-      <c r="O215" s="16"/>
-      <c r="P215" s="16"/>
-      <c r="Q215" s="16"/>
-      <c r="R215" s="16"/>
-      <c r="S215" s="17"/>
+    <row r="198" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="15"/>
+      <c r="B198" s="16"/>
+      <c r="C198" s="16"/>
+      <c r="D198" s="16"/>
+      <c r="E198" s="16"/>
+      <c r="F198" s="16"/>
+      <c r="G198" s="16"/>
+      <c r="H198" s="16"/>
+      <c r="I198" s="16"/>
+      <c r="J198" s="16"/>
+      <c r="K198" s="16"/>
+      <c r="L198" s="16"/>
+      <c r="M198" s="16"/>
+      <c r="N198" s="16"/>
+      <c r="O198" s="16"/>
+      <c r="P198" s="16"/>
+      <c r="Q198" s="16"/>
+      <c r="R198" s="16"/>
+      <c r="S198" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/me/4.create-a-restful-api/5.authentication-using-access-tokens.xlsx
+++ b/me/4.create-a-restful-api/5.authentication-using-access-tokens.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\rest-api-php\me\4.create-a-restful-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD327A38-516D-4CCF-92DF-FAD513142A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4422277A-7522-48D8-8DB2-4C9F43C010E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="introduction" sheetId="1" r:id="rId1"/>
     <sheet name="login endpoint and 400 status" sheetId="2" r:id="rId2"/>
     <sheet name="Select the user record" sheetId="3" r:id="rId3"/>
     <sheet name="Check username and pwd 401 code" sheetId="4" r:id="rId4"/>
+    <sheet name="Generate encoded access token" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="144">
   <si>
     <t>An introduction to authentication using access tokens</t>
   </si>
@@ -439,6 +440,60 @@
   <si>
     <t>call api /login.php với thông tin login request là username và password với thông tin username đúng  -&gt;  status code là 200</t>
   </si>
+  <si>
+    <t>Generate an encoded access token containing the user details</t>
+  </si>
+  <si>
+    <t>$payload = [</t>
+  </si>
+  <si>
+    <t>    "id" =&gt; $user["id"],</t>
+  </si>
+  <si>
+    <t>    "name" =&gt; $user["name"]</t>
+  </si>
+  <si>
+    <t>];</t>
+  </si>
+  <si>
+    <t>$access_token = base64_encode(json_encode($payload));</t>
+  </si>
+  <si>
+    <t>echo json_encode([</t>
+  </si>
+  <si>
+    <t>    "access_token" =&gt; $access_token</t>
+  </si>
+  <si>
+    <t>]);</t>
+  </si>
+  <si>
+    <t>Sau khi authenticatin thông tin login xong mình sẽ dùng thông tin login sau khi authentication xong tạo ra chuỗi access token dùng để authentication cho api mà ko cần thực hiện truy vấn</t>
+  </si>
+  <si>
+    <t>đến DB(giống như api key) để authentication mỗi khi có request đến api</t>
+  </si>
+  <si>
+    <t>Mình sẽ dùng id và name của user đã login đó để tạo ra access token, access token cũng giống như api key nó là 1 chuỗi được request đi trong header giống như api key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Để mình họa thì mình sẽ dùng hàm mã hóa base64_encode(). base64_encode() thường dùng để mã hóa sang các ký tự ASCII để gửi qua email hay url và được dùng kết hợp với base64_decode() </t>
+  </si>
+  <si>
+    <t>json_encode() để được 1 chuỗi rồi dùng chuỗi đó mã hóa thành access token bằng base64_encode()</t>
+  </si>
+  <si>
+    <t>base64_encode</t>
+  </si>
+  <si>
+    <t>https://www.php.net/manual/en/function.base64-encode.php</t>
+  </si>
+  <si>
+    <t>để decode các ký tự mã hóa đó về chuỗi ban đầu</t>
+  </si>
+  <si>
+    <t>call /login.php api</t>
+  </si>
 </sst>
 </file>
 
@@ -646,7 +701,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -677,6 +732,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3344,6 +3401,205 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>127438</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AD15768-005D-E899-44E4-F2B4D9A3A3D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="2009775"/>
+          <a:ext cx="11315700" cy="4785163"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{574B622F-2E18-246C-3D7E-04020E590856}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1762125" y="3381375"/>
+          <a:ext cx="19050" cy="21869400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>417848</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>18501</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B2E3102-3A27-EF57-6C7D-226E3FA6A532}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="26870025"/>
+          <a:ext cx="10019048" cy="4390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E720E7A1-C219-444D-A425-6C2F7876AA02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2152650" y="25879425"/>
+          <a:ext cx="533400" cy="4895850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -12569,8 +12825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9DD791-CAFA-459E-BB7B-B2DEB3048E8F}">
   <dimension ref="A2:S198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="L94" sqref="L94"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15834,4 +16090,2375 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055F4B0F-C6EE-49FA-94E8-152DEDCB144F}">
+  <dimension ref="A2:T165"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="M136" sqref="M136"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="3"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="6"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="6"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="6"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="6"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="6"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="6"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="6"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="6"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="6"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="6"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="6"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="6"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="6"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="6"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="6"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="6"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="6"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="6"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="6"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="6"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="6"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="6"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="6"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="6"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="6"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="6"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="6"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="9"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="19"/>
+      <c r="B41" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="22"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="19"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="24"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="19"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="24"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="19"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="24"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="19"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="24"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="19"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="24"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="19"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="24"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="19"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="24"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="19"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="24"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="24"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="19"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="24"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="19"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="24"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="19"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="24"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="19"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="24"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="19"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="24"/>
+      <c r="K55" t="s">
+        <v>47</v>
+      </c>
+      <c r="L55" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="19"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="24"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="19"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="24"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="19"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="24"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="19"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="24"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="19"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="24"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="19"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="24"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="19"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="24"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="19"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="24"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="19"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="24"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="19"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="24"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="19"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="24"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="19"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="24"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="19"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="24"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="19"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="24"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="19"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="24"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="19"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="24"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="19"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" s="26"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="26"/>
+      <c r="J72" s="27"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="3"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B77" s="4"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="6"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B78" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="6"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B79" s="4"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="6"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B80" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="6"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B81" s="4"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="6"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B82" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="6"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B83" s="4"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="6"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B84" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="6"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B85" s="4"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="6"/>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B86" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="6"/>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B87" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="6"/>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B88" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="6"/>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B89" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="6"/>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B90" s="4"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="6"/>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B91" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="6"/>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B92" s="4"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="6"/>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B93" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="6"/>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B94" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="6"/>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B95" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="6"/>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B96" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="6"/>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B97" s="4"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="6"/>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B98" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="6"/>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B99" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="6"/>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B100" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="6"/>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B101" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="6"/>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B102" s="4"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="6"/>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B103" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="6"/>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B104" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="6"/>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B105" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="6"/>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B106" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="6"/>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B107" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="6"/>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B108" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="6"/>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B109" s="4"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="6"/>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B110" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="6"/>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B111" s="4"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="6"/>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B112" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="6"/>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B113" s="4"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="6"/>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B114" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="6"/>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B115" s="4"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="6"/>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B116" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="6"/>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B117" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="6"/>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B118" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="6"/>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B119" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="6"/>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B120" s="4"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="6"/>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B121" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="6"/>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B122" s="4"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="6"/>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B123" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="6"/>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B124" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="6"/>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B125" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="6"/>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B126" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="6"/>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B127" s="4"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="6"/>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B128" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="6"/>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B129" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="6"/>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B130" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
+      <c r="I130" s="6"/>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B131" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
+      <c r="I131" s="6"/>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B132" s="28"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5"/>
+      <c r="I132" s="6"/>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B133" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="6"/>
+      <c r="J133" t="s">
+        <v>47</v>
+      </c>
+      <c r="K133" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B134" s="28"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5"/>
+      <c r="I134" s="6"/>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B135" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5"/>
+      <c r="I135" s="6"/>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B136" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="6"/>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B137" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C137" s="8"/>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c r="H137" s="8"/>
+      <c r="I137" s="9"/>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A140" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2"/>
+      <c r="J140" s="2"/>
+      <c r="K140" s="2"/>
+      <c r="L140" s="2"/>
+      <c r="M140" s="2"/>
+      <c r="N140" s="2"/>
+      <c r="O140" s="2"/>
+      <c r="P140" s="2"/>
+      <c r="Q140" s="2"/>
+      <c r="R140" s="3"/>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A141" s="4"/>
+      <c r="B141" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5"/>
+      <c r="I141" s="5"/>
+      <c r="J141" s="5"/>
+      <c r="K141" s="5"/>
+      <c r="L141" s="5"/>
+      <c r="M141" s="5"/>
+      <c r="N141" s="5"/>
+      <c r="O141" s="5"/>
+      <c r="P141" s="5"/>
+      <c r="Q141" s="5"/>
+      <c r="R141" s="6"/>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A142" s="4"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="5"/>
+      <c r="K142" s="5"/>
+      <c r="L142" s="5"/>
+      <c r="M142" s="5"/>
+      <c r="N142" s="5"/>
+      <c r="O142" s="5"/>
+      <c r="P142" s="5"/>
+      <c r="Q142" s="5"/>
+      <c r="R142" s="6"/>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A143" s="4"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="5"/>
+      <c r="I143" s="5"/>
+      <c r="J143" s="5"/>
+      <c r="K143" s="5"/>
+      <c r="L143" s="5"/>
+      <c r="M143" s="5"/>
+      <c r="N143" s="5"/>
+      <c r="O143" s="5"/>
+      <c r="P143" s="5"/>
+      <c r="Q143" s="5"/>
+      <c r="R143" s="6"/>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A144" s="4"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="5"/>
+      <c r="I144" s="5"/>
+      <c r="J144" s="5"/>
+      <c r="K144" s="5"/>
+      <c r="L144" s="5"/>
+      <c r="M144" s="5"/>
+      <c r="N144" s="5"/>
+      <c r="O144" s="5"/>
+      <c r="P144" s="5"/>
+      <c r="Q144" s="5"/>
+      <c r="R144" s="6"/>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A145" s="4"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="5"/>
+      <c r="K145" s="5"/>
+      <c r="L145" s="5"/>
+      <c r="M145" s="5"/>
+      <c r="N145" s="5"/>
+      <c r="O145" s="5"/>
+      <c r="P145" s="5"/>
+      <c r="Q145" s="5"/>
+      <c r="R145" s="6"/>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A146" s="4"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="5"/>
+      <c r="I146" s="5"/>
+      <c r="J146" s="5"/>
+      <c r="K146" s="5"/>
+      <c r="L146" s="5"/>
+      <c r="M146" s="5"/>
+      <c r="N146" s="5"/>
+      <c r="O146" s="5"/>
+      <c r="P146" s="5"/>
+      <c r="Q146" s="5"/>
+      <c r="R146" s="6"/>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A147" s="4"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="5"/>
+      <c r="I147" s="5"/>
+      <c r="J147" s="5"/>
+      <c r="K147" s="5"/>
+      <c r="L147" s="5"/>
+      <c r="M147" s="5"/>
+      <c r="N147" s="5"/>
+      <c r="O147" s="5"/>
+      <c r="P147" s="5"/>
+      <c r="Q147" s="5"/>
+      <c r="R147" s="6"/>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A148" s="4"/>
+      <c r="B148" s="5"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="5"/>
+      <c r="I148" s="5"/>
+      <c r="J148" s="5"/>
+      <c r="K148" s="5"/>
+      <c r="L148" s="5"/>
+      <c r="M148" s="5"/>
+      <c r="N148" s="5"/>
+      <c r="O148" s="5"/>
+      <c r="P148" s="5"/>
+      <c r="Q148" s="5"/>
+      <c r="R148" s="6"/>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A149" s="4"/>
+      <c r="B149" s="5"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="5"/>
+      <c r="I149" s="5"/>
+      <c r="J149" s="5"/>
+      <c r="K149" s="5"/>
+      <c r="L149" s="5"/>
+      <c r="M149" s="5"/>
+      <c r="N149" s="5"/>
+      <c r="O149" s="5"/>
+      <c r="P149" s="5"/>
+      <c r="Q149" s="5"/>
+      <c r="R149" s="6"/>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A150" s="4"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="5"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="5"/>
+      <c r="K150" s="5"/>
+      <c r="L150" s="5"/>
+      <c r="M150" s="5"/>
+      <c r="N150" s="5"/>
+      <c r="O150" s="5"/>
+      <c r="P150" s="5"/>
+      <c r="Q150" s="5"/>
+      <c r="R150" s="6"/>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A151" s="4"/>
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
+      <c r="H151" s="5"/>
+      <c r="I151" s="5"/>
+      <c r="J151" s="5"/>
+      <c r="K151" s="5"/>
+      <c r="L151" s="5"/>
+      <c r="M151" s="5"/>
+      <c r="N151" s="5"/>
+      <c r="O151" s="5"/>
+      <c r="P151" s="5"/>
+      <c r="Q151" s="5"/>
+      <c r="R151" s="6"/>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A152" s="4"/>
+      <c r="B152" s="5"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="5"/>
+      <c r="J152" s="5"/>
+      <c r="K152" s="5"/>
+      <c r="L152" s="5"/>
+      <c r="M152" s="5"/>
+      <c r="N152" s="5"/>
+      <c r="O152" s="5"/>
+      <c r="P152" s="5"/>
+      <c r="Q152" s="5"/>
+      <c r="R152" s="6"/>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A153" s="4"/>
+      <c r="B153" s="5"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
+      <c r="H153" s="5"/>
+      <c r="I153" s="5"/>
+      <c r="J153" s="5"/>
+      <c r="K153" s="5"/>
+      <c r="L153" s="5"/>
+      <c r="M153" s="5"/>
+      <c r="N153" s="5"/>
+      <c r="O153" s="5"/>
+      <c r="P153" s="5"/>
+      <c r="Q153" s="5"/>
+      <c r="R153" s="6"/>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A154" s="4"/>
+      <c r="B154" s="5"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="5"/>
+      <c r="I154" s="5"/>
+      <c r="J154" s="5"/>
+      <c r="K154" s="5"/>
+      <c r="L154" s="5"/>
+      <c r="M154" s="5"/>
+      <c r="N154" s="5"/>
+      <c r="O154" s="5"/>
+      <c r="P154" s="5"/>
+      <c r="Q154" s="5"/>
+      <c r="R154" s="6"/>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A155" s="4"/>
+      <c r="B155" s="5"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
+      <c r="H155" s="5"/>
+      <c r="I155" s="5"/>
+      <c r="J155" s="5"/>
+      <c r="K155" s="5"/>
+      <c r="L155" s="5"/>
+      <c r="M155" s="5"/>
+      <c r="N155" s="5"/>
+      <c r="O155" s="5"/>
+      <c r="P155" s="5"/>
+      <c r="Q155" s="5"/>
+      <c r="R155" s="6"/>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A156" s="4"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="5"/>
+      <c r="I156" s="5"/>
+      <c r="J156" s="5"/>
+      <c r="K156" s="5"/>
+      <c r="L156" s="5"/>
+      <c r="M156" s="5"/>
+      <c r="N156" s="5"/>
+      <c r="O156" s="5"/>
+      <c r="P156" s="5"/>
+      <c r="Q156" s="5"/>
+      <c r="R156" s="6"/>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A157" s="4"/>
+      <c r="B157" s="5"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="5"/>
+      <c r="I157" s="5"/>
+      <c r="J157" s="5"/>
+      <c r="K157" s="5"/>
+      <c r="L157" s="5"/>
+      <c r="M157" s="5"/>
+      <c r="N157" s="5"/>
+      <c r="O157" s="5"/>
+      <c r="P157" s="5"/>
+      <c r="Q157" s="5"/>
+      <c r="R157" s="6"/>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A158" s="4"/>
+      <c r="B158" s="5"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5"/>
+      <c r="H158" s="5"/>
+      <c r="I158" s="5"/>
+      <c r="J158" s="5"/>
+      <c r="K158" s="5"/>
+      <c r="L158" s="5"/>
+      <c r="M158" s="5"/>
+      <c r="N158" s="5"/>
+      <c r="O158" s="5"/>
+      <c r="P158" s="5"/>
+      <c r="Q158" s="5"/>
+      <c r="R158" s="6"/>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A159" s="4"/>
+      <c r="B159" s="5"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5"/>
+      <c r="H159" s="5"/>
+      <c r="I159" s="5"/>
+      <c r="J159" s="5"/>
+      <c r="K159" s="5"/>
+      <c r="L159" s="5"/>
+      <c r="M159" s="5"/>
+      <c r="N159" s="5"/>
+      <c r="O159" s="5"/>
+      <c r="P159" s="5"/>
+      <c r="Q159" s="5"/>
+      <c r="R159" s="6"/>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A160" s="4"/>
+      <c r="B160" s="5"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5"/>
+      <c r="H160" s="5"/>
+      <c r="I160" s="5"/>
+      <c r="J160" s="5"/>
+      <c r="K160" s="5"/>
+      <c r="L160" s="5"/>
+      <c r="M160" s="5"/>
+      <c r="N160" s="5"/>
+      <c r="O160" s="5"/>
+      <c r="P160" s="5"/>
+      <c r="Q160" s="5"/>
+      <c r="R160" s="6"/>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A161" s="4"/>
+      <c r="B161" s="5"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
+      <c r="H161" s="5"/>
+      <c r="I161" s="5"/>
+      <c r="J161" s="5"/>
+      <c r="K161" s="5"/>
+      <c r="L161" s="5"/>
+      <c r="M161" s="5"/>
+      <c r="N161" s="5"/>
+      <c r="O161" s="5"/>
+      <c r="P161" s="5"/>
+      <c r="Q161" s="5"/>
+      <c r="R161" s="6"/>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A162" s="4"/>
+      <c r="B162" s="5"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5"/>
+      <c r="H162" s="5"/>
+      <c r="I162" s="5"/>
+      <c r="J162" s="5"/>
+      <c r="K162" s="5"/>
+      <c r="L162" s="5"/>
+      <c r="M162" s="5"/>
+      <c r="N162" s="5"/>
+      <c r="O162" s="5"/>
+      <c r="P162" s="5"/>
+      <c r="Q162" s="5"/>
+      <c r="R162" s="6"/>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A163" s="4"/>
+      <c r="B163" s="5"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5"/>
+      <c r="H163" s="5"/>
+      <c r="I163" s="5"/>
+      <c r="J163" s="5"/>
+      <c r="K163" s="5"/>
+      <c r="L163" s="5"/>
+      <c r="M163" s="5"/>
+      <c r="N163" s="5"/>
+      <c r="O163" s="5"/>
+      <c r="P163" s="5"/>
+      <c r="Q163" s="5"/>
+      <c r="R163" s="6"/>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A164" s="4"/>
+      <c r="B164" s="5"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5"/>
+      <c r="H164" s="5"/>
+      <c r="I164" s="5"/>
+      <c r="J164" s="5"/>
+      <c r="K164" s="5"/>
+      <c r="L164" s="5"/>
+      <c r="M164" s="5"/>
+      <c r="N164" s="5"/>
+      <c r="O164" s="5"/>
+      <c r="P164" s="5"/>
+      <c r="Q164" s="5"/>
+      <c r="R164" s="6"/>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A165" s="7"/>
+      <c r="B165" s="8"/>
+      <c r="C165" s="8"/>
+      <c r="D165" s="8"/>
+      <c r="E165" s="8"/>
+      <c r="F165" s="8"/>
+      <c r="G165" s="8"/>
+      <c r="H165" s="8"/>
+      <c r="I165" s="8"/>
+      <c r="J165" s="8"/>
+      <c r="K165" s="8"/>
+      <c r="L165" s="8"/>
+      <c r="M165" s="8"/>
+      <c r="N165" s="8"/>
+      <c r="O165" s="8"/>
+      <c r="P165" s="8"/>
+      <c r="Q165" s="8"/>
+      <c r="R165" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/me/4.create-a-restful-api/5.authentication-using-access-tokens.xlsx
+++ b/me/4.create-a-restful-api/5.authentication-using-access-tokens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\rest-api-php\me\4.create-a-restful-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B1CAFA-B1EC-46B6-9506-9FE5AE2D6EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E3A372-8DF1-45BC-9B1E-2D7C207365EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="introduction" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Check username and pwd 401 code" sheetId="4" r:id="rId4"/>
     <sheet name="Generate encoded access token" sheetId="5" r:id="rId5"/>
     <sheet name="Pass the access token" sheetId="6" r:id="rId6"/>
+    <sheet name="Validate the access token" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="252">
   <si>
     <t>An introduction to authentication using access tokens</t>
   </si>
@@ -725,6 +726,208 @@
   <si>
     <t>Call api /tasks ta cũng nhận được giá trị của Authorization request header như trên thông qua $_SERVER["HTTP_AUTHORIZATION"]</t>
   </si>
+  <si>
+    <t>Validate the access token and decode its contents</t>
+  </si>
+  <si>
+    <t>Mình đã lấy được giá trị access token từ request nên có thể lấy được nội dung của nó bằng cách decode giá trị access token đó</t>
+  </si>
+  <si>
+    <t>rest-api-php\4.create-a-restful-api\src\Auth.php</t>
+  </si>
+  <si>
+    <t>class Auth</t>
+  </si>
+  <si>
+    <t>    private $user_gateway;</t>
+  </si>
+  <si>
+    <t>    private $user_id;</t>
+  </si>
+  <si>
+    <t>    public function __construct(UserGateway $user_gateway)</t>
+  </si>
+  <si>
+    <t>        $this-&gt;user_gateway = $user_gateway;</t>
+  </si>
+  <si>
+    <t>    public function authenticateAPIKey(): bool</t>
+  </si>
+  <si>
+    <t>        if (empty($_SERVER["HTTP_X_API_KEY"])) {</t>
+  </si>
+  <si>
+    <t>            http_response_code(400);</t>
+  </si>
+  <si>
+    <t>            echo json_encode(["message" =&gt; "missing API key"]);</t>
+  </si>
+  <si>
+    <t>            return false;</t>
+  </si>
+  <si>
+    <t>        $api_key = $_SERVER["HTTP_X_API_KEY"];</t>
+  </si>
+  <si>
+    <t>        $user = $this-&gt;user_gateway-&gt;getByAPIKey($api_key);</t>
+  </si>
+  <si>
+    <t>        if ($user === []) {</t>
+  </si>
+  <si>
+    <t>            http_response_code(401);</t>
+  </si>
+  <si>
+    <t>            echo json_encode(["message" =&gt; "invalid API key"]);</t>
+  </si>
+  <si>
+    <t>        $this-&gt;user_id = $user["id"];</t>
+  </si>
+  <si>
+    <t>        return true;</t>
+  </si>
+  <si>
+    <t>    public function getUserID(): int</t>
+  </si>
+  <si>
+    <t>        return $this-&gt;user_id;</t>
+  </si>
+  <si>
+    <t>    public function authenticateAccessToken(): bool</t>
+  </si>
+  <si>
+    <t>        if (!preg_match("/^Bearer\s+(.*)$/", $_SERVER["HTTP_AUTHORIZATION"], $matches)) {</t>
+  </si>
+  <si>
+    <t>            echo json_encode(["message" =&gt; "incomplete authorization header"]);</t>
+  </si>
+  <si>
+    <t>        $plain_text = base64_decode($matches[1], true);</t>
+  </si>
+  <si>
+    <t>        if ($plain_text === false) {</t>
+  </si>
+  <si>
+    <t>            echo json_encode(["message" =&gt; "invalid authorization header"]);</t>
+  </si>
+  <si>
+    <t>        $data = json_decode($plain_text, true);</t>
+  </si>
+  <si>
+    <t>        if ($data === null) {</t>
+  </si>
+  <si>
+    <t>            echo json_encode(["message" =&gt; "invalid JSON"]);</t>
+  </si>
+  <si>
+    <t>Đối với cách dùng api key thì mình đã có method authenticateAPIKey để authentication api key</t>
+  </si>
+  <si>
+    <t>còn đối với cách dùng access token thì mình sẽ xây dựng phương thức authenticateAccessToken() để authentication</t>
+  </si>
+  <si>
+    <t>Mình cần sẽ validate giá trị access token được gửi đến đó là authentication scheme đã dùng là Bearer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nếu expression "/^Bearer\s+(.*)$/" này match với giá trị header request access token thì mảng </t>
+  </si>
+  <si>
+    <t>$matches sẽ chứa giá trị của token (.*)</t>
+  </si>
+  <si>
+    <t>if (!$auth-&gt;authenticateAccessToken()) {</t>
+  </si>
+  <si>
+    <t>echo json_encode("valid authentication");</t>
+  </si>
+  <si>
+    <t>call api /tasks và ko có Authorization</t>
+  </si>
+  <si>
+    <t>Tham số argument thứ 2 là true để nếu decode mà fail thì thì sẽ trả về giá trị false</t>
+  </si>
+  <si>
+    <t>base64_decode</t>
+  </si>
+  <si>
+    <t>https://www.php.net/manual/en/function.base64-decode.php</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Base64</t>
+  </si>
+  <si>
+    <t>Base64 table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khi chuỗi truyền vào base64_decode() chứa các ký tự ko nằm trong bảng Base64 </t>
+  </si>
+  <si>
+    <t>call api /tasks với giá trị access token truyền lên chứa các ký tự ko nằm trong bảng Base64 (trường hợp này mình thêm dấu "-" ở cuối)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">json_decode() ra được mảng chứa thông tin user mà mình đã dùng để encode ra chuỗi json, trả về </t>
+  </si>
+  <si>
+    <t>null có nghĩa là giá trị đầu vào ko được encode từ 1 chuỗi json</t>
+  </si>
+  <si>
+    <t>Có nghĩa là là access token được gửi đến là chuỗi base64 nhưng nó ko phải là đã được encode</t>
+  </si>
+  <si>
+    <t>từ 1 chuỗi json</t>
+  </si>
+  <si>
+    <t>call api /tasks với giá trị access token truyền lên là chuỗi base64 nhưng ko phải là đã được encode từ chuỗi json. Ở đây từ chuỗi access token được trả về sau khi call</t>
+  </si>
+  <si>
+    <t>api /login.php mình cố tình sửa đi ký tự cuối "=" thành "X"</t>
+  </si>
+  <si>
+    <t>http://localhost/api/login.php</t>
+  </si>
+  <si>
+    <r>
+      <t>acces trả về là eyJpZCI6MSwibmFtZSI6IlF1YW5nIn0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>sửa đi ký tự cuối eyJpZCI6MSwibmFtZSI6IlF1YW5nIn0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">X </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rồi dùng để request api</t>
+    </r>
+  </si>
+  <si>
+    <t>call api /tasks sử dụng đúng giá trị access token</t>
+  </si>
 </sst>
 </file>
 
@@ -983,7 +1186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1026,6 +1229,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5088,6 +5293,1716 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FF3A510-A41F-DA76-EF47-8E7BFDB46624}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1790700" y="13315950"/>
+          <a:ext cx="7829550" cy="5619750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44C7A636-47C2-44F5-D54D-BCF6FD3A596B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2438400" y="19421475"/>
+          <a:ext cx="5219700" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD492154-07E5-F42D-314B-620AE3E9F300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5095875" y="19440525"/>
+          <a:ext cx="5153025" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD6CF08F-D88E-BE50-971C-730457C09F8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2752725" y="19326225"/>
+          <a:ext cx="6029325" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>86286</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>408572</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>37756</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61DF5B74-970E-5481-C647-B4CEED46A937}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7952815" y="29098875"/>
+          <a:ext cx="12424639" cy="2752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA8D9032-C685-1803-63C4-165816E44562}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3148853" y="30390353"/>
+          <a:ext cx="10981765" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>427444</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>9058</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFF195C6-A219-78EC-90E6-7A3056829A11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="33804225"/>
+          <a:ext cx="9447619" cy="3733333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A4C1BD0-DB63-3A9C-43B0-D89DCA25FAC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1762125" y="33718500"/>
+          <a:ext cx="657225" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85DFC4DB-121B-B7BB-4DCF-BD21E400BD0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2219325" y="19821525"/>
+          <a:ext cx="857250" cy="17192625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Straight Arrow Connector 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23F3C305-B630-FAD3-9DDF-323FDAD25668}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2752725" y="19354800"/>
+          <a:ext cx="76200" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Straight Arrow Connector 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{170AA9BC-5413-6DDA-0B15-D6D445AB748A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2209800" y="20526375"/>
+          <a:ext cx="9048750" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>217928</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>103968</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Picture 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86B8BF3A-F20D-A187-DE4B-10777BE6BBC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="1266825"/>
+          <a:ext cx="9171428" cy="6457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>484744</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>75386</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Picture 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{114E1448-B385-84C2-6BB0-116A90BC6A54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771525" y="8610600"/>
+          <a:ext cx="8247619" cy="6514286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Straight Arrow Connector 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F7F8E7E-29AC-2CA1-2C5C-C9A8966F02DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8277225" y="7696200"/>
+          <a:ext cx="3048000" cy="18440400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>75386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>18535</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Straight Arrow Connector 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCF60D75-3DCE-9816-2A42-CCD51DB0ACCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="57" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2114550" y="15124886"/>
+          <a:ext cx="2780785" cy="17298214"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="Straight Arrow Connector 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98F8A30C-30EC-E056-5348-0493AC56393B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6981825" y="32137350"/>
+          <a:ext cx="2790825" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>322680</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>85567</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="Picture 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA6C5062-9F48-4246-9B45-F3C78AD986E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="50063400"/>
+          <a:ext cx="9361905" cy="1266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="Straight Arrow Connector 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41B94463-25F7-7C9C-83D1-E5744693879A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7848600" y="49882425"/>
+          <a:ext cx="552450" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>360782</xdr:colOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>94783</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="Picture 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47E69556-FA75-3AC3-C4F9-A8B32DF1094E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771525" y="51415950"/>
+          <a:ext cx="9342857" cy="3733333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>286</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Straight Arrow Connector 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE58E35E-5B7E-C25C-6311-F233F435EFE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2190750" y="21507450"/>
+          <a:ext cx="971550" cy="21497925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="Straight Arrow Connector 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D6F7E9B-CAE1-BF73-2BB9-FA1B8DDF0747}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1990725" y="33909000"/>
+          <a:ext cx="14030325" cy="5391150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="101" name="Straight Arrow Connector 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D5E798D-0AFA-79E0-5691-B9AC007EA12E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10915650" y="33880425"/>
+          <a:ext cx="3238500" cy="4514850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>296</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>370301</xdr:colOff>
+      <xdr:row>316</xdr:row>
+      <xdr:rowOff>18576</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="105" name="Picture 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3994841E-4E61-F3E3-1AD7-C272B588B99D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1343025" y="56426100"/>
+          <a:ext cx="9390476" cy="3790476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>294</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>313</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="107" name="Straight Arrow Connector 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64348D29-675B-06D4-9056-948D8E095B73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1076325" y="56026050"/>
+          <a:ext cx="1990725" cy="3629025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>313</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>318</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="110" name="Straight Arrow Connector 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48794AEA-621C-2022-9DD9-EADFABEF98AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3600450" y="59693175"/>
+          <a:ext cx="161925" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>318</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>319</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="112" name="Straight Arrow Connector 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EF5CA46-5853-2983-09AD-9B604C03E345}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4238625" y="60712350"/>
+          <a:ext cx="123825" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>321</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>475053</xdr:colOff>
+      <xdr:row>329</xdr:row>
+      <xdr:rowOff>76010</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="113" name="Picture 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D7F4EAF-C4EB-71FA-5765-BA7333C27C96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1266825" y="61226700"/>
+          <a:ext cx="9571428" cy="1523810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>319</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>325</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="115" name="Straight Arrow Connector 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A17837BE-DA34-B026-19F3-1A784EC4DE36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4410075" y="60931425"/>
+          <a:ext cx="4476750" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>330</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>379830</xdr:colOff>
+      <xdr:row>352</xdr:row>
+      <xdr:rowOff>85212</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="116" name="Picture 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8D9692A-E147-CBE3-E529-2F750314FC38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1381125" y="63036450"/>
+          <a:ext cx="9361905" cy="4104762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>349</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="118" name="Straight Arrow Connector 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F8C760F-B31E-9947-413D-2F03AA1C5449}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3019425" y="34832925"/>
+          <a:ext cx="600075" cy="31765875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>356</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>398877</xdr:colOff>
+      <xdr:row>363</xdr:row>
+      <xdr:rowOff>9368</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="132" name="Picture 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23DB2FB6-48A0-C124-05A5-CB70E08929D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771525" y="67913250"/>
+          <a:ext cx="9380952" cy="1257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>313</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>360</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="134" name="Straight Arrow Connector 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E570EE4-1A1D-6686-3BCB-7B5081007B09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4695825" y="59750325"/>
+          <a:ext cx="2324100" cy="8877300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>364</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>494112</xdr:colOff>
+      <xdr:row>382</xdr:row>
+      <xdr:rowOff>9102</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="138" name="Picture 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{463D52EE-18F2-FF32-2BD2-96677B13DBD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="69408675"/>
+          <a:ext cx="9504762" cy="3380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>380</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="140" name="Straight Arrow Connector 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34C4F65B-56F2-9692-7703-BA5B41C4D425}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1495425" y="42862500"/>
+          <a:ext cx="371475" cy="29594175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -17584,8 +19499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055F4B0F-C6EE-49FA-94E8-152DEDCB144F}">
   <dimension ref="A2:T165"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:L72"/>
+    <sheetView topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19955,8 +21870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C8196A-ED43-4C4A-80F8-F4C686F6B655}">
   <dimension ref="A2:T427"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A302" workbookViewId="0">
-      <selection activeCell="O403" sqref="O403"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="L246" sqref="L246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28379,4 +30294,7142 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79FFB60-165F-4C13-BA80-04E4B06CD91C}">
+  <dimension ref="A2:AD384"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A364" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S235" sqref="S235"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="6"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="31"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="6"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="31"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="31"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="31"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="31"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="31"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="31"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="6"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="31"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="31"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="31"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="6"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="31"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="6"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="31"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="6"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="31"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="6"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="31"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="6"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="31"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="6"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="31"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="6"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="31"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="6"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="31"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="6"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="31"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="6"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="31"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="6"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="31"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="6"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="31"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="6"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="31"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="6"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="31"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="6"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B31" s="31"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="6"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B32" s="31"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="6"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B33" s="31"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="6"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B34" s="31"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="6"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B35" s="31"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="6"/>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B36" s="31"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="6"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="6"/>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="6"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="6"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="6"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B41" s="7"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="9"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B44" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B45" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B46" s="31"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B47" s="31"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B48" s="31"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B49" s="31"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B50" s="31"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B51" s="31"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B52" s="31"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B53" s="31"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B54" s="31"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B55" s="31"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B56" s="31"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B57" s="31"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B58" s="31"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B59" s="31"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B60" s="31"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B61" s="31"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B62" s="31"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B63" s="31"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B64" s="31"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5"/>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B65" s="31"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B66" s="31"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B67" s="31"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B68" s="31"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B69" s="31"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B70" s="31"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B71" s="4"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B72" s="4"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="5"/>
+      <c r="Q72" s="5"/>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B73" s="4"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="6"/>
+      <c r="P73" s="5"/>
+      <c r="Q73" s="5"/>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B74" s="4"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="5"/>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B75" s="4"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B76" s="4"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="6"/>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B77" s="4"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="5"/>
+      <c r="N77" s="5"/>
+      <c r="O77" s="6"/>
+    </row>
+    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B78" s="4"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="5"/>
+      <c r="O78" s="6"/>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B79" s="4"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="5"/>
+      <c r="N79" s="5"/>
+      <c r="O79" s="6"/>
+    </row>
+    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B80" s="7"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="8"/>
+      <c r="N80" s="8"/>
+      <c r="O80" s="9"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="B83" s="40"/>
+      <c r="C83" s="40"/>
+      <c r="D83" s="40"/>
+      <c r="E83" s="40"/>
+      <c r="F83" s="40"/>
+      <c r="G83" s="40"/>
+      <c r="H83" s="40"/>
+      <c r="I83" s="40"/>
+      <c r="J83" s="40"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="39"/>
+      <c r="B84" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="21"/>
+      <c r="J84" s="22"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="39"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" s="40"/>
+      <c r="E85" s="40"/>
+      <c r="F85" s="40"/>
+      <c r="G85" s="40"/>
+      <c r="H85" s="40"/>
+      <c r="I85" s="40"/>
+      <c r="J85" s="24"/>
+      <c r="K85" s="5"/>
+      <c r="L85" s="5"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="39"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="24"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="5"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="39"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" s="40"/>
+      <c r="E87" s="40"/>
+      <c r="F87" s="40"/>
+      <c r="G87" s="40"/>
+      <c r="H87" s="40"/>
+      <c r="I87" s="40"/>
+      <c r="J87" s="24"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="5"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="39"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="40"/>
+      <c r="D88" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E88" s="40"/>
+      <c r="F88" s="40"/>
+      <c r="G88" s="40"/>
+      <c r="H88" s="40"/>
+      <c r="I88" s="40"/>
+      <c r="J88" s="24"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="39"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="40"/>
+      <c r="D89" s="40"/>
+      <c r="E89" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F89" s="40"/>
+      <c r="G89" s="40"/>
+      <c r="H89" s="40"/>
+      <c r="I89" s="40"/>
+      <c r="J89" s="24"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="39"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="40"/>
+      <c r="D90" s="40"/>
+      <c r="E90" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F90" s="40"/>
+      <c r="G90" s="40"/>
+      <c r="H90" s="40"/>
+      <c r="I90" s="40"/>
+      <c r="J90" s="24"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="39"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="40"/>
+      <c r="D91" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E91" s="40"/>
+      <c r="F91" s="40"/>
+      <c r="G91" s="40"/>
+      <c r="H91" s="40"/>
+      <c r="I91" s="40"/>
+      <c r="J91" s="24"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="39"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="40"/>
+      <c r="D92" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E92" s="40"/>
+      <c r="F92" s="40"/>
+      <c r="G92" s="40"/>
+      <c r="H92" s="40"/>
+      <c r="I92" s="40"/>
+      <c r="J92" s="24"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="39"/>
+      <c r="B93" s="23"/>
+      <c r="C93" s="40"/>
+      <c r="D93" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E93" s="40"/>
+      <c r="F93" s="40"/>
+      <c r="G93" s="40"/>
+      <c r="H93" s="40"/>
+      <c r="I93" s="40"/>
+      <c r="J93" s="24"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="39"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="40"/>
+      <c r="D94" s="40"/>
+      <c r="E94" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F94" s="40"/>
+      <c r="G94" s="40"/>
+      <c r="H94" s="40"/>
+      <c r="I94" s="40"/>
+      <c r="J94" s="24"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="39"/>
+      <c r="B95" s="23"/>
+      <c r="C95" s="40"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G95" s="40"/>
+      <c r="H95" s="40"/>
+      <c r="I95" s="40"/>
+      <c r="J95" s="24"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="39"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="40"/>
+      <c r="D96" s="40"/>
+      <c r="E96" s="40"/>
+      <c r="F96" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G96" s="40"/>
+      <c r="H96" s="40"/>
+      <c r="I96" s="40"/>
+      <c r="J96" s="24"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="39"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="40"/>
+      <c r="D97" s="40"/>
+      <c r="E97" s="40"/>
+      <c r="F97" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G97" s="40"/>
+      <c r="H97" s="40"/>
+      <c r="I97" s="40"/>
+      <c r="J97" s="24"/>
+      <c r="K97" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L97" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="39"/>
+      <c r="B98" s="23"/>
+      <c r="C98" s="40"/>
+      <c r="D98" s="40"/>
+      <c r="E98" s="40"/>
+      <c r="F98" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="G98" s="40"/>
+      <c r="H98" s="40"/>
+      <c r="I98" s="40"/>
+      <c r="J98" s="24"/>
+      <c r="K98" s="5"/>
+      <c r="L98" s="5"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="39"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="40"/>
+      <c r="D99" s="40"/>
+      <c r="E99" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="F99" s="40"/>
+      <c r="G99" s="40"/>
+      <c r="H99" s="40"/>
+      <c r="I99" s="40"/>
+      <c r="J99" s="24"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="39"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="40"/>
+      <c r="D100" s="40"/>
+      <c r="E100" s="40"/>
+      <c r="F100" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="G100" s="40"/>
+      <c r="H100" s="40"/>
+      <c r="I100" s="40"/>
+      <c r="J100" s="24"/>
+      <c r="K100" s="5"/>
+      <c r="L100" s="5"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="39"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="40"/>
+      <c r="D101" s="40"/>
+      <c r="E101" s="40"/>
+      <c r="F101" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G101" s="40"/>
+      <c r="H101" s="40"/>
+      <c r="I101" s="40"/>
+      <c r="J101" s="24"/>
+      <c r="K101" s="5"/>
+      <c r="L101" s="5"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="39"/>
+      <c r="B102" s="23"/>
+      <c r="C102" s="40"/>
+      <c r="D102" s="40"/>
+      <c r="E102" s="40"/>
+      <c r="F102" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="G102" s="40"/>
+      <c r="H102" s="40"/>
+      <c r="I102" s="40"/>
+      <c r="J102" s="24"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="5"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="39"/>
+      <c r="B103" s="23"/>
+      <c r="C103" s="40"/>
+      <c r="D103" s="40"/>
+      <c r="E103" s="40"/>
+      <c r="F103" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G103" s="40"/>
+      <c r="H103" s="40"/>
+      <c r="I103" s="40"/>
+      <c r="J103" s="24"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="5"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="39"/>
+      <c r="B104" s="23"/>
+      <c r="C104" s="40"/>
+      <c r="D104" s="40"/>
+      <c r="E104" s="40"/>
+      <c r="F104" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="G104" s="40"/>
+      <c r="H104" s="40"/>
+      <c r="I104" s="40"/>
+      <c r="J104" s="24"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="5"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="39"/>
+      <c r="B105" s="23"/>
+      <c r="C105" s="40"/>
+      <c r="D105" s="40"/>
+      <c r="E105" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="F105" s="40"/>
+      <c r="G105" s="40"/>
+      <c r="H105" s="40"/>
+      <c r="I105" s="40"/>
+      <c r="J105" s="24"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="5"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="39"/>
+      <c r="B106" s="23"/>
+      <c r="C106" s="40"/>
+      <c r="D106" s="40"/>
+      <c r="E106" s="40"/>
+      <c r="F106" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="G106" s="40"/>
+      <c r="H106" s="40"/>
+      <c r="I106" s="40"/>
+      <c r="J106" s="24"/>
+      <c r="K106" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L106" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="39"/>
+      <c r="B107" s="23"/>
+      <c r="C107" s="40"/>
+      <c r="D107" s="40"/>
+      <c r="E107" s="40"/>
+      <c r="F107" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="G107" s="40"/>
+      <c r="H107" s="40"/>
+      <c r="I107" s="40"/>
+      <c r="J107" s="24"/>
+      <c r="K107" s="5"/>
+      <c r="L107" s="5"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="39"/>
+      <c r="B108" s="23"/>
+      <c r="C108" s="40"/>
+      <c r="D108" s="40"/>
+      <c r="E108" s="40"/>
+      <c r="F108" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="G108" s="40"/>
+      <c r="H108" s="40"/>
+      <c r="I108" s="40"/>
+      <c r="J108" s="24"/>
+      <c r="K108" s="5"/>
+      <c r="L108" s="5"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="39"/>
+      <c r="B109" s="23"/>
+      <c r="C109" s="40"/>
+      <c r="D109" s="40"/>
+      <c r="E109" s="40"/>
+      <c r="F109" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G109" s="40"/>
+      <c r="H109" s="40"/>
+      <c r="I109" s="40"/>
+      <c r="J109" s="24"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="5"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="39"/>
+      <c r="B110" s="23"/>
+      <c r="C110" s="40"/>
+      <c r="D110" s="40"/>
+      <c r="E110" s="40"/>
+      <c r="F110" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="G110" s="40"/>
+      <c r="H110" s="40"/>
+      <c r="I110" s="40"/>
+      <c r="J110" s="24"/>
+      <c r="K110" s="5"/>
+      <c r="L110" s="5"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="39"/>
+      <c r="B111" s="23"/>
+      <c r="C111" s="40"/>
+      <c r="D111" s="40"/>
+      <c r="E111" s="40"/>
+      <c r="F111" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="G111" s="40"/>
+      <c r="H111" s="40"/>
+      <c r="I111" s="40"/>
+      <c r="J111" s="24"/>
+      <c r="K111" s="5"/>
+      <c r="L111" s="5"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="39"/>
+      <c r="B112" s="23"/>
+      <c r="C112" s="40"/>
+      <c r="D112" s="40"/>
+      <c r="E112" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="F112" s="40"/>
+      <c r="G112" s="40"/>
+      <c r="H112" s="40"/>
+      <c r="I112" s="40"/>
+      <c r="J112" s="24"/>
+      <c r="K112" s="5"/>
+      <c r="L112" s="5"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="39"/>
+      <c r="B113" s="23"/>
+      <c r="C113" s="40"/>
+      <c r="D113" s="40"/>
+      <c r="E113" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="F113" s="40"/>
+      <c r="G113" s="40"/>
+      <c r="H113" s="40"/>
+      <c r="I113" s="40"/>
+      <c r="J113" s="24"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="5"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="39"/>
+      <c r="B114" s="23"/>
+      <c r="C114" s="40"/>
+      <c r="D114" s="40"/>
+      <c r="E114" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F114" s="40"/>
+      <c r="G114" s="40"/>
+      <c r="H114" s="40"/>
+      <c r="I114" s="40"/>
+      <c r="J114" s="24"/>
+      <c r="K114" s="5"/>
+      <c r="L114" s="5"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="39"/>
+      <c r="B115" s="25"/>
+      <c r="C115" s="26"/>
+      <c r="D115" s="26"/>
+      <c r="E115" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F115" s="26"/>
+      <c r="G115" s="26"/>
+      <c r="H115" s="26"/>
+      <c r="I115" s="26"/>
+      <c r="J115" s="27"/>
+      <c r="K115" s="5"/>
+      <c r="L115" s="5"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B119" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="3"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B120" s="4"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="6"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B121" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="6"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B122" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="6"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B123" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="6"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B124" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="6"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B125" s="4"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="6"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B126" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="6"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B127" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
+      <c r="J127" s="6"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B128" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
+      <c r="J128" s="6"/>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B129" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="5"/>
+      <c r="J129" s="6"/>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B130" s="4"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
+      <c r="I130" s="5"/>
+      <c r="J130" s="6"/>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B131" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
+      <c r="I131" s="5"/>
+      <c r="J131" s="6"/>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B132" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5"/>
+      <c r="I132" s="5"/>
+      <c r="J132" s="6"/>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B133" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
+      <c r="J133" s="6"/>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B134" s="4"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5"/>
+      <c r="I134" s="5"/>
+      <c r="J134" s="6"/>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B135" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5"/>
+      <c r="I135" s="5"/>
+      <c r="J135" s="6"/>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B136" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="5"/>
+      <c r="J136" s="6"/>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B137" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
+      <c r="I137" s="5"/>
+      <c r="J137" s="6"/>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B138" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="5"/>
+      <c r="J138" s="6"/>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B139" s="4"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5"/>
+      <c r="J139" s="6"/>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B140" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="5"/>
+      <c r="I140" s="5"/>
+      <c r="J140" s="6"/>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B141" s="4"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5"/>
+      <c r="I141" s="5"/>
+      <c r="J141" s="6"/>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B142" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="6"/>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B143" s="4"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="5"/>
+      <c r="I143" s="5"/>
+      <c r="J143" s="6"/>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B144" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="5"/>
+      <c r="I144" s="5"/>
+      <c r="J144" s="6"/>
+    </row>
+    <row r="145" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B145" s="4"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="6"/>
+    </row>
+    <row r="146" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B146" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="5"/>
+      <c r="I146" s="5"/>
+      <c r="J146" s="6"/>
+    </row>
+    <row r="147" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B147" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="5"/>
+      <c r="I147" s="5"/>
+      <c r="J147" s="6"/>
+    </row>
+    <row r="148" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B148" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="5"/>
+      <c r="I148" s="5"/>
+      <c r="J148" s="6"/>
+    </row>
+    <row r="149" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B149" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="5"/>
+      <c r="I149" s="5"/>
+      <c r="J149" s="6"/>
+      <c r="X149" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="150" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B150" s="4"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="5"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="6"/>
+      <c r="X150" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y150" s="2"/>
+      <c r="Z150" s="2"/>
+      <c r="AA150" s="2"/>
+      <c r="AB150" s="2"/>
+      <c r="AC150" s="2"/>
+      <c r="AD150" s="3"/>
+    </row>
+    <row r="151" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B151" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
+      <c r="H151" s="5"/>
+      <c r="I151" s="5"/>
+      <c r="J151" s="6"/>
+      <c r="X151" s="4"/>
+      <c r="Y151" s="5"/>
+      <c r="Z151" s="5"/>
+      <c r="AA151" s="5"/>
+      <c r="AB151" s="5"/>
+      <c r="AC151" s="5"/>
+      <c r="AD151" s="6"/>
+    </row>
+    <row r="152" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B152" s="4"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="5"/>
+      <c r="J152" s="6"/>
+      <c r="X152" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y152" s="5"/>
+      <c r="Z152" s="5"/>
+      <c r="AA152" s="5"/>
+      <c r="AB152" s="5"/>
+      <c r="AC152" s="5"/>
+      <c r="AD152" s="6"/>
+    </row>
+    <row r="153" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B153" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
+      <c r="H153" s="5"/>
+      <c r="I153" s="5"/>
+      <c r="J153" s="6"/>
+      <c r="X153" s="4"/>
+      <c r="Y153" s="5"/>
+      <c r="Z153" s="5"/>
+      <c r="AA153" s="5"/>
+      <c r="AB153" s="5"/>
+      <c r="AC153" s="5"/>
+      <c r="AD153" s="6"/>
+    </row>
+    <row r="154" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B154" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="5"/>
+      <c r="I154" s="5"/>
+      <c r="J154" s="6"/>
+      <c r="X154" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y154" s="5"/>
+      <c r="Z154" s="5"/>
+      <c r="AA154" s="5"/>
+      <c r="AB154" s="5"/>
+      <c r="AC154" s="5"/>
+      <c r="AD154" s="6"/>
+    </row>
+    <row r="155" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B155" s="4"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
+      <c r="H155" s="5"/>
+      <c r="I155" s="5"/>
+      <c r="J155" s="6"/>
+      <c r="X155" s="4"/>
+      <c r="Y155" s="5"/>
+      <c r="Z155" s="5"/>
+      <c r="AA155" s="5"/>
+      <c r="AB155" s="5"/>
+      <c r="AC155" s="5"/>
+      <c r="AD155" s="6"/>
+    </row>
+    <row r="156" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B156" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="5"/>
+      <c r="I156" s="5"/>
+      <c r="J156" s="6"/>
+      <c r="X156" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y156" s="5"/>
+      <c r="Z156" s="5"/>
+      <c r="AA156" s="5"/>
+      <c r="AB156" s="5"/>
+      <c r="AC156" s="5"/>
+      <c r="AD156" s="6"/>
+    </row>
+    <row r="157" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B157" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="5"/>
+      <c r="I157" s="5"/>
+      <c r="J157" s="6"/>
+      <c r="X157" s="4"/>
+      <c r="Y157" s="5"/>
+      <c r="Z157" s="5"/>
+      <c r="AA157" s="5"/>
+      <c r="AB157" s="5"/>
+      <c r="AC157" s="5"/>
+      <c r="AD157" s="6"/>
+    </row>
+    <row r="158" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B158" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5"/>
+      <c r="H158" s="5"/>
+      <c r="I158" s="5"/>
+      <c r="J158" s="6"/>
+      <c r="X158" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y158" s="5"/>
+      <c r="Z158" s="5"/>
+      <c r="AA158" s="5"/>
+      <c r="AB158" s="5"/>
+      <c r="AC158" s="5"/>
+      <c r="AD158" s="6"/>
+    </row>
+    <row r="159" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B159" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5"/>
+      <c r="H159" s="5"/>
+      <c r="I159" s="5"/>
+      <c r="J159" s="6"/>
+      <c r="X159" s="4"/>
+      <c r="Y159" s="5"/>
+      <c r="Z159" s="5"/>
+      <c r="AA159" s="5"/>
+      <c r="AB159" s="5"/>
+      <c r="AC159" s="5"/>
+      <c r="AD159" s="6"/>
+    </row>
+    <row r="160" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B160" s="4"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5"/>
+      <c r="H160" s="5"/>
+      <c r="I160" s="5"/>
+      <c r="J160" s="6"/>
+      <c r="X160" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y160" s="5"/>
+      <c r="Z160" s="5"/>
+      <c r="AA160" s="5"/>
+      <c r="AB160" s="5"/>
+      <c r="AC160" s="5"/>
+      <c r="AD160" s="6"/>
+    </row>
+    <row r="161" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B161" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
+      <c r="H161" s="5"/>
+      <c r="I161" s="5"/>
+      <c r="J161" s="6"/>
+      <c r="K161" t="s">
+        <v>47</v>
+      </c>
+      <c r="L161" t="s">
+        <v>227</v>
+      </c>
+      <c r="X161" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y161" s="5"/>
+      <c r="Z161" s="5"/>
+      <c r="AA161" s="5"/>
+      <c r="AB161" s="5"/>
+      <c r="AC161" s="5"/>
+      <c r="AD161" s="6"/>
+    </row>
+    <row r="162" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B162" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5"/>
+      <c r="H162" s="5"/>
+      <c r="I162" s="5"/>
+      <c r="J162" s="6"/>
+      <c r="L162" t="s">
+        <v>228</v>
+      </c>
+      <c r="X162" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y162" s="5"/>
+      <c r="Z162" s="5"/>
+      <c r="AA162" s="5"/>
+      <c r="AB162" s="5"/>
+      <c r="AC162" s="5"/>
+      <c r="AD162" s="6"/>
+    </row>
+    <row r="163" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B163" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5"/>
+      <c r="H163" s="5"/>
+      <c r="I163" s="5"/>
+      <c r="J163" s="6"/>
+      <c r="K163" t="s">
+        <v>47</v>
+      </c>
+      <c r="L163" t="s">
+        <v>229</v>
+      </c>
+      <c r="X163" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y163" s="5"/>
+      <c r="Z163" s="5"/>
+      <c r="AA163" s="5"/>
+      <c r="AB163" s="5"/>
+      <c r="AC163" s="5"/>
+      <c r="AD163" s="6"/>
+    </row>
+    <row r="164" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B164" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5"/>
+      <c r="H164" s="5"/>
+      <c r="I164" s="5"/>
+      <c r="J164" s="6"/>
+      <c r="X164" s="4"/>
+      <c r="Y164" s="5"/>
+      <c r="Z164" s="5"/>
+      <c r="AA164" s="5"/>
+      <c r="AB164" s="5"/>
+      <c r="AC164" s="5"/>
+      <c r="AD164" s="6"/>
+    </row>
+    <row r="165" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B165" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5"/>
+      <c r="H165" s="5"/>
+      <c r="I165" s="5"/>
+      <c r="J165" s="6"/>
+      <c r="L165" t="s">
+        <v>230</v>
+      </c>
+      <c r="X165" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y165" s="5"/>
+      <c r="Z165" s="5"/>
+      <c r="AA165" s="5"/>
+      <c r="AB165" s="5"/>
+      <c r="AC165" s="5"/>
+      <c r="AD165" s="6"/>
+    </row>
+    <row r="166" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B166" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="5"/>
+      <c r="I166" s="5"/>
+      <c r="J166" s="6"/>
+      <c r="L166" t="s">
+        <v>231</v>
+      </c>
+      <c r="X166" s="4"/>
+      <c r="Y166" s="5"/>
+      <c r="Z166" s="5"/>
+      <c r="AA166" s="5"/>
+      <c r="AB166" s="5"/>
+      <c r="AC166" s="5"/>
+      <c r="AD166" s="6"/>
+    </row>
+    <row r="167" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B167" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="5"/>
+      <c r="G167" s="5"/>
+      <c r="H167" s="5"/>
+      <c r="I167" s="5"/>
+      <c r="J167" s="6"/>
+      <c r="X167" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y167" s="5"/>
+      <c r="Z167" s="5"/>
+      <c r="AA167" s="5"/>
+      <c r="AB167" s="5"/>
+      <c r="AC167" s="5"/>
+      <c r="AD167" s="6"/>
+    </row>
+    <row r="168" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B168" s="28"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+      <c r="G168" s="5"/>
+      <c r="H168" s="5"/>
+      <c r="I168" s="5"/>
+      <c r="J168" s="6"/>
+      <c r="X168" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y168" s="5"/>
+      <c r="Z168" s="5"/>
+      <c r="AA168" s="5"/>
+      <c r="AB168" s="5"/>
+      <c r="AC168" s="5"/>
+      <c r="AD168" s="6"/>
+    </row>
+    <row r="169" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B169" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
+      <c r="G169" s="5"/>
+      <c r="H169" s="5"/>
+      <c r="I169" s="5"/>
+      <c r="J169" s="6"/>
+      <c r="K169" t="s">
+        <v>47</v>
+      </c>
+      <c r="L169" t="s">
+        <v>235</v>
+      </c>
+      <c r="X169" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y169" s="5"/>
+      <c r="Z169" s="5"/>
+      <c r="AA169" s="5"/>
+      <c r="AB169" s="5"/>
+      <c r="AC169" s="5"/>
+      <c r="AD169" s="6"/>
+    </row>
+    <row r="170" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B170" s="28"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+      <c r="G170" s="5"/>
+      <c r="H170" s="5"/>
+      <c r="I170" s="5"/>
+      <c r="J170" s="6"/>
+      <c r="X170" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y170" s="5"/>
+      <c r="Z170" s="5"/>
+      <c r="AA170" s="5"/>
+      <c r="AB170" s="5"/>
+      <c r="AC170" s="5"/>
+      <c r="AD170" s="6"/>
+    </row>
+    <row r="171" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B171" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5"/>
+      <c r="F171" s="5"/>
+      <c r="G171" s="5"/>
+      <c r="H171" s="5"/>
+      <c r="I171" s="5"/>
+      <c r="J171" s="6"/>
+      <c r="K171" t="s">
+        <v>47</v>
+      </c>
+      <c r="L171" t="s">
+        <v>240</v>
+      </c>
+      <c r="X171" s="4"/>
+      <c r="Y171" s="5"/>
+      <c r="Z171" s="5"/>
+      <c r="AA171" s="5"/>
+      <c r="AB171" s="5"/>
+      <c r="AC171" s="5"/>
+      <c r="AD171" s="6"/>
+    </row>
+    <row r="172" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B172" s="28"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="5"/>
+      <c r="F172" s="5"/>
+      <c r="G172" s="5"/>
+      <c r="H172" s="5"/>
+      <c r="I172" s="5"/>
+      <c r="J172" s="6"/>
+      <c r="X172" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y172" s="5"/>
+      <c r="Z172" s="5"/>
+      <c r="AA172" s="5"/>
+      <c r="AB172" s="5"/>
+      <c r="AC172" s="5"/>
+      <c r="AD172" s="6"/>
+    </row>
+    <row r="173" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B173" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
+      <c r="F173" s="5"/>
+      <c r="G173" s="5"/>
+      <c r="H173" s="5"/>
+      <c r="I173" s="5"/>
+      <c r="J173" s="6"/>
+      <c r="X173" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y173" s="5"/>
+      <c r="Z173" s="5"/>
+      <c r="AA173" s="5"/>
+      <c r="AB173" s="5"/>
+      <c r="AC173" s="5"/>
+      <c r="AD173" s="6"/>
+    </row>
+    <row r="174" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B174" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="C174" s="5"/>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
+      <c r="F174" s="5"/>
+      <c r="G174" s="5"/>
+      <c r="H174" s="5"/>
+      <c r="I174" s="5"/>
+      <c r="J174" s="6"/>
+      <c r="X174" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y174" s="5"/>
+      <c r="Z174" s="5"/>
+      <c r="AA174" s="5"/>
+      <c r="AB174" s="5"/>
+      <c r="AC174" s="5"/>
+      <c r="AD174" s="6"/>
+    </row>
+    <row r="175" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B175" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="C175" s="5"/>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
+      <c r="G175" s="5"/>
+      <c r="H175" s="5"/>
+      <c r="I175" s="5"/>
+      <c r="J175" s="6"/>
+      <c r="X175" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y175" s="5"/>
+      <c r="Z175" s="5"/>
+      <c r="AA175" s="5"/>
+      <c r="AB175" s="5"/>
+      <c r="AC175" s="5"/>
+      <c r="AD175" s="6"/>
+    </row>
+    <row r="176" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B176" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5"/>
+      <c r="F176" s="5"/>
+      <c r="G176" s="5"/>
+      <c r="H176" s="5"/>
+      <c r="I176" s="5"/>
+      <c r="J176" s="6"/>
+      <c r="X176" s="4"/>
+      <c r="Y176" s="5"/>
+      <c r="Z176" s="5"/>
+      <c r="AA176" s="5"/>
+      <c r="AB176" s="5"/>
+      <c r="AC176" s="5"/>
+      <c r="AD176" s="6"/>
+    </row>
+    <row r="177" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B177" s="28"/>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5"/>
+      <c r="F177" s="5"/>
+      <c r="G177" s="5"/>
+      <c r="H177" s="5"/>
+      <c r="I177" s="5"/>
+      <c r="J177" s="6"/>
+      <c r="X177" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y177" s="5"/>
+      <c r="Z177" s="5"/>
+      <c r="AA177" s="5"/>
+      <c r="AB177" s="5"/>
+      <c r="AC177" s="5"/>
+      <c r="AD177" s="6"/>
+    </row>
+    <row r="178" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B178" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="C178" s="5"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5"/>
+      <c r="F178" s="5"/>
+      <c r="G178" s="5"/>
+      <c r="H178" s="5"/>
+      <c r="I178" s="5"/>
+      <c r="J178" s="6"/>
+      <c r="K178" t="s">
+        <v>47</v>
+      </c>
+      <c r="L178" t="s">
+        <v>242</v>
+      </c>
+      <c r="X178" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y178" s="5"/>
+      <c r="Z178" s="5"/>
+      <c r="AA178" s="5"/>
+      <c r="AB178" s="5"/>
+      <c r="AC178" s="5"/>
+      <c r="AD178" s="6"/>
+    </row>
+    <row r="179" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B179" s="28"/>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
+      <c r="F179" s="5"/>
+      <c r="G179" s="5"/>
+      <c r="H179" s="5"/>
+      <c r="I179" s="5"/>
+      <c r="J179" s="6"/>
+      <c r="L179" t="s">
+        <v>243</v>
+      </c>
+      <c r="X179" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y179" s="5"/>
+      <c r="Z179" s="5"/>
+      <c r="AA179" s="5"/>
+      <c r="AB179" s="5"/>
+      <c r="AC179" s="5"/>
+      <c r="AD179" s="6"/>
+    </row>
+    <row r="180" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B180" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="C180" s="5"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
+      <c r="F180" s="5"/>
+      <c r="G180" s="5"/>
+      <c r="H180" s="5"/>
+      <c r="I180" s="5"/>
+      <c r="J180" s="6"/>
+      <c r="K180" t="s">
+        <v>47</v>
+      </c>
+      <c r="L180" t="s">
+        <v>244</v>
+      </c>
+      <c r="X180" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y180" s="5"/>
+      <c r="Z180" s="5"/>
+      <c r="AA180" s="5"/>
+      <c r="AB180" s="5"/>
+      <c r="AC180" s="5"/>
+      <c r="AD180" s="6"/>
+    </row>
+    <row r="181" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B181" s="28"/>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5"/>
+      <c r="F181" s="5"/>
+      <c r="G181" s="5"/>
+      <c r="H181" s="5"/>
+      <c r="I181" s="5"/>
+      <c r="J181" s="6"/>
+      <c r="L181" t="s">
+        <v>245</v>
+      </c>
+      <c r="X181" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y181" s="5"/>
+      <c r="Z181" s="5"/>
+      <c r="AA181" s="5"/>
+      <c r="AB181" s="5"/>
+      <c r="AC181" s="5"/>
+      <c r="AD181" s="6"/>
+    </row>
+    <row r="182" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B182" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5"/>
+      <c r="F182" s="5"/>
+      <c r="G182" s="5"/>
+      <c r="H182" s="5"/>
+      <c r="I182" s="5"/>
+      <c r="J182" s="6"/>
+      <c r="X182" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y182" s="5"/>
+      <c r="Z182" s="5"/>
+      <c r="AA182" s="5"/>
+      <c r="AB182" s="5"/>
+      <c r="AC182" s="5"/>
+      <c r="AD182" s="6"/>
+    </row>
+    <row r="183" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B183" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="C183" s="5"/>
+      <c r="D183" s="5"/>
+      <c r="E183" s="5"/>
+      <c r="F183" s="5"/>
+      <c r="G183" s="5"/>
+      <c r="H183" s="5"/>
+      <c r="I183" s="5"/>
+      <c r="J183" s="6"/>
+      <c r="X183" s="4"/>
+      <c r="Y183" s="5"/>
+      <c r="Z183" s="5"/>
+      <c r="AA183" s="5"/>
+      <c r="AB183" s="5"/>
+      <c r="AC183" s="5"/>
+      <c r="AD183" s="6"/>
+    </row>
+    <row r="184" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B184" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="C184" s="5"/>
+      <c r="D184" s="5"/>
+      <c r="E184" s="5"/>
+      <c r="F184" s="5"/>
+      <c r="G184" s="5"/>
+      <c r="H184" s="5"/>
+      <c r="I184" s="5"/>
+      <c r="J184" s="6"/>
+      <c r="X184" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y184" s="5"/>
+      <c r="Z184" s="5"/>
+      <c r="AA184" s="5"/>
+      <c r="AB184" s="5"/>
+      <c r="AC184" s="5"/>
+      <c r="AD184" s="6"/>
+    </row>
+    <row r="185" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B185" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
+      <c r="E185" s="5"/>
+      <c r="F185" s="5"/>
+      <c r="G185" s="5"/>
+      <c r="H185" s="5"/>
+      <c r="I185" s="5"/>
+      <c r="J185" s="6"/>
+      <c r="X185" s="4"/>
+      <c r="Y185" s="5"/>
+      <c r="Z185" s="5"/>
+      <c r="AA185" s="5"/>
+      <c r="AB185" s="5"/>
+      <c r="AC185" s="5"/>
+      <c r="AD185" s="6"/>
+    </row>
+    <row r="186" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B186" s="28"/>
+      <c r="C186" s="5"/>
+      <c r="D186" s="5"/>
+      <c r="E186" s="5"/>
+      <c r="F186" s="5"/>
+      <c r="G186" s="5"/>
+      <c r="H186" s="5"/>
+      <c r="I186" s="5"/>
+      <c r="J186" s="6"/>
+      <c r="X186" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y186" s="5"/>
+      <c r="Z186" s="5"/>
+      <c r="AA186" s="5"/>
+      <c r="AB186" s="5"/>
+      <c r="AC186" s="5"/>
+      <c r="AD186" s="6"/>
+    </row>
+    <row r="187" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B187" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="C187" s="5"/>
+      <c r="D187" s="5"/>
+      <c r="E187" s="5"/>
+      <c r="F187" s="5"/>
+      <c r="G187" s="5"/>
+      <c r="H187" s="5"/>
+      <c r="I187" s="5"/>
+      <c r="J187" s="6"/>
+      <c r="X187" s="4"/>
+      <c r="Y187" s="5"/>
+      <c r="Z187" s="5"/>
+      <c r="AA187" s="5"/>
+      <c r="AB187" s="5"/>
+      <c r="AC187" s="5"/>
+      <c r="AD187" s="6"/>
+    </row>
+    <row r="188" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B188" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C188" s="5"/>
+      <c r="D188" s="5"/>
+      <c r="E188" s="5"/>
+      <c r="F188" s="5"/>
+      <c r="G188" s="5"/>
+      <c r="H188" s="5"/>
+      <c r="I188" s="5"/>
+      <c r="J188" s="6"/>
+      <c r="X188" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y188" s="5"/>
+      <c r="Z188" s="5"/>
+      <c r="AA188" s="5"/>
+      <c r="AB188" s="5"/>
+      <c r="AC188" s="5"/>
+      <c r="AD188" s="6"/>
+    </row>
+    <row r="189" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B189" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C189" s="8"/>
+      <c r="D189" s="8"/>
+      <c r="E189" s="8"/>
+      <c r="F189" s="8"/>
+      <c r="G189" s="8"/>
+      <c r="H189" s="8"/>
+      <c r="I189" s="8"/>
+      <c r="J189" s="9"/>
+      <c r="X189" s="4"/>
+      <c r="Y189" s="5"/>
+      <c r="Z189" s="5"/>
+      <c r="AA189" s="5"/>
+      <c r="AB189" s="5"/>
+      <c r="AC189" s="5"/>
+      <c r="AD189" s="6"/>
+    </row>
+    <row r="190" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="X190" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y190" s="5"/>
+      <c r="Z190" s="5"/>
+      <c r="AA190" s="5"/>
+      <c r="AB190" s="5"/>
+      <c r="AC190" s="5"/>
+      <c r="AD190" s="6"/>
+    </row>
+    <row r="191" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="X191" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y191" s="5"/>
+      <c r="Z191" s="5"/>
+      <c r="AA191" s="5"/>
+      <c r="AB191" s="5"/>
+      <c r="AC191" s="5"/>
+      <c r="AD191" s="6"/>
+    </row>
+    <row r="192" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>166</v>
+      </c>
+      <c r="X192" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y192" s="5"/>
+      <c r="Z192" s="5"/>
+      <c r="AA192" s="5"/>
+      <c r="AB192" s="5"/>
+      <c r="AC192" s="5"/>
+      <c r="AD192" s="6"/>
+    </row>
+    <row r="193" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B193" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C193" s="2"/>
+      <c r="D193" s="2"/>
+      <c r="E193" s="2"/>
+      <c r="F193" s="2"/>
+      <c r="G193" s="2"/>
+      <c r="H193" s="2"/>
+      <c r="I193" s="2"/>
+      <c r="J193" s="2"/>
+      <c r="K193" s="2"/>
+      <c r="L193" s="3"/>
+      <c r="X193" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y193" s="5"/>
+      <c r="Z193" s="5"/>
+      <c r="AA193" s="5"/>
+      <c r="AB193" s="5"/>
+      <c r="AC193" s="5"/>
+      <c r="AD193" s="6"/>
+    </row>
+    <row r="194" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B194" s="4"/>
+      <c r="C194" s="5"/>
+      <c r="D194" s="5"/>
+      <c r="E194" s="5"/>
+      <c r="F194" s="5"/>
+      <c r="G194" s="5"/>
+      <c r="H194" s="5"/>
+      <c r="I194" s="5"/>
+      <c r="J194" s="5"/>
+      <c r="K194" s="5"/>
+      <c r="L194" s="6"/>
+      <c r="X194" s="4"/>
+      <c r="Y194" s="5"/>
+      <c r="Z194" s="5"/>
+      <c r="AA194" s="5"/>
+      <c r="AB194" s="5"/>
+      <c r="AC194" s="5"/>
+      <c r="AD194" s="6"/>
+    </row>
+    <row r="195" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B195" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C195" s="5"/>
+      <c r="D195" s="5"/>
+      <c r="E195" s="5"/>
+      <c r="F195" s="5"/>
+      <c r="G195" s="5"/>
+      <c r="H195" s="5"/>
+      <c r="I195" s="5"/>
+      <c r="J195" s="5"/>
+      <c r="K195" s="5"/>
+      <c r="L195" s="6"/>
+      <c r="X195" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y195" s="5"/>
+      <c r="Z195" s="5"/>
+      <c r="AA195" s="5"/>
+      <c r="AB195" s="5"/>
+      <c r="AC195" s="5"/>
+      <c r="AD195" s="6"/>
+    </row>
+    <row r="196" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B196" s="4"/>
+      <c r="C196" s="5"/>
+      <c r="D196" s="5"/>
+      <c r="E196" s="5"/>
+      <c r="F196" s="5"/>
+      <c r="G196" s="5"/>
+      <c r="H196" s="5"/>
+      <c r="I196" s="5"/>
+      <c r="J196" s="5"/>
+      <c r="K196" s="5"/>
+      <c r="L196" s="6"/>
+      <c r="X196" s="4"/>
+      <c r="Y196" s="5"/>
+      <c r="Z196" s="5"/>
+      <c r="AA196" s="5"/>
+      <c r="AB196" s="5"/>
+      <c r="AC196" s="5"/>
+      <c r="AD196" s="6"/>
+    </row>
+    <row r="197" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B197" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C197" s="5"/>
+      <c r="D197" s="5"/>
+      <c r="E197" s="5"/>
+      <c r="F197" s="5"/>
+      <c r="G197" s="5"/>
+      <c r="H197" s="5"/>
+      <c r="I197" s="5"/>
+      <c r="J197" s="5"/>
+      <c r="K197" s="5"/>
+      <c r="L197" s="6"/>
+      <c r="X197" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y197" s="5"/>
+      <c r="Z197" s="5"/>
+      <c r="AA197" s="5"/>
+      <c r="AB197" s="5"/>
+      <c r="AC197" s="5"/>
+      <c r="AD197" s="6"/>
+    </row>
+    <row r="198" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B198" s="4"/>
+      <c r="C198" s="5"/>
+      <c r="D198" s="5"/>
+      <c r="E198" s="5"/>
+      <c r="F198" s="5"/>
+      <c r="G198" s="5"/>
+      <c r="H198" s="5"/>
+      <c r="I198" s="5"/>
+      <c r="J198" s="5"/>
+      <c r="K198" s="5"/>
+      <c r="L198" s="6"/>
+      <c r="X198" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y198" s="5"/>
+      <c r="Z198" s="5"/>
+      <c r="AA198" s="5"/>
+      <c r="AB198" s="5"/>
+      <c r="AC198" s="5"/>
+      <c r="AD198" s="6"/>
+    </row>
+    <row r="199" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B199" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C199" s="5"/>
+      <c r="D199" s="5"/>
+      <c r="E199" s="5"/>
+      <c r="F199" s="5"/>
+      <c r="G199" s="5"/>
+      <c r="H199" s="5"/>
+      <c r="I199" s="5"/>
+      <c r="J199" s="5"/>
+      <c r="K199" s="5"/>
+      <c r="L199" s="6"/>
+      <c r="X199" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y199" s="5"/>
+      <c r="Z199" s="5"/>
+      <c r="AA199" s="5"/>
+      <c r="AB199" s="5"/>
+      <c r="AC199" s="5"/>
+      <c r="AD199" s="6"/>
+    </row>
+    <row r="200" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B200" s="4"/>
+      <c r="C200" s="5"/>
+      <c r="D200" s="5"/>
+      <c r="E200" s="5"/>
+      <c r="F200" s="5"/>
+      <c r="G200" s="5"/>
+      <c r="H200" s="5"/>
+      <c r="I200" s="5"/>
+      <c r="J200" s="5"/>
+      <c r="K200" s="5"/>
+      <c r="L200" s="6"/>
+      <c r="X200" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y200" s="5"/>
+      <c r="Z200" s="5"/>
+      <c r="AA200" s="5"/>
+      <c r="AB200" s="5"/>
+      <c r="AC200" s="5"/>
+      <c r="AD200" s="6"/>
+    </row>
+    <row r="201" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B201" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C201" s="5"/>
+      <c r="D201" s="5"/>
+      <c r="E201" s="5"/>
+      <c r="F201" s="5"/>
+      <c r="G201" s="5"/>
+      <c r="H201" s="5"/>
+      <c r="I201" s="5"/>
+      <c r="J201" s="5"/>
+      <c r="K201" s="5"/>
+      <c r="L201" s="6"/>
+      <c r="X201" s="4"/>
+      <c r="Y201" s="5"/>
+      <c r="Z201" s="5"/>
+      <c r="AA201" s="5"/>
+      <c r="AB201" s="5"/>
+      <c r="AC201" s="5"/>
+      <c r="AD201" s="6"/>
+    </row>
+    <row r="202" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B202" s="4"/>
+      <c r="C202" s="5"/>
+      <c r="D202" s="5"/>
+      <c r="E202" s="5"/>
+      <c r="F202" s="5"/>
+      <c r="G202" s="5"/>
+      <c r="H202" s="5"/>
+      <c r="I202" s="5"/>
+      <c r="J202" s="5"/>
+      <c r="K202" s="5"/>
+      <c r="L202" s="6"/>
+      <c r="X202" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y202" s="5"/>
+      <c r="Z202" s="5"/>
+      <c r="AA202" s="5"/>
+      <c r="AB202" s="5"/>
+      <c r="AC202" s="5"/>
+      <c r="AD202" s="6"/>
+    </row>
+    <row r="203" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B203" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C203" s="5"/>
+      <c r="D203" s="5"/>
+      <c r="E203" s="5"/>
+      <c r="F203" s="5"/>
+      <c r="G203" s="5"/>
+      <c r="H203" s="5"/>
+      <c r="I203" s="5"/>
+      <c r="J203" s="5"/>
+      <c r="K203" s="5"/>
+      <c r="L203" s="6"/>
+      <c r="X203" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y203" s="5"/>
+      <c r="Z203" s="5"/>
+      <c r="AA203" s="5"/>
+      <c r="AB203" s="5"/>
+      <c r="AC203" s="5"/>
+      <c r="AD203" s="6"/>
+    </row>
+    <row r="204" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B204" s="4"/>
+      <c r="C204" s="5"/>
+      <c r="D204" s="5"/>
+      <c r="E204" s="5"/>
+      <c r="F204" s="5"/>
+      <c r="G204" s="5"/>
+      <c r="H204" s="5"/>
+      <c r="I204" s="5"/>
+      <c r="J204" s="5"/>
+      <c r="K204" s="5"/>
+      <c r="L204" s="6"/>
+      <c r="X204" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y204" s="5"/>
+      <c r="Z204" s="5"/>
+      <c r="AA204" s="5"/>
+      <c r="AB204" s="5"/>
+      <c r="AC204" s="5"/>
+      <c r="AD204" s="6"/>
+    </row>
+    <row r="205" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B205" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C205" s="5"/>
+      <c r="D205" s="5"/>
+      <c r="E205" s="5"/>
+      <c r="F205" s="5"/>
+      <c r="G205" s="5"/>
+      <c r="H205" s="5"/>
+      <c r="I205" s="5"/>
+      <c r="J205" s="5"/>
+      <c r="K205" s="5"/>
+      <c r="L205" s="6"/>
+      <c r="X205" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y205" s="5"/>
+      <c r="Z205" s="5"/>
+      <c r="AA205" s="5"/>
+      <c r="AB205" s="5"/>
+      <c r="AC205" s="5"/>
+      <c r="AD205" s="6"/>
+    </row>
+    <row r="206" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B206" s="4"/>
+      <c r="C206" s="5"/>
+      <c r="D206" s="5"/>
+      <c r="E206" s="5"/>
+      <c r="F206" s="5"/>
+      <c r="G206" s="5"/>
+      <c r="H206" s="5"/>
+      <c r="I206" s="5"/>
+      <c r="J206" s="5"/>
+      <c r="K206" s="5"/>
+      <c r="L206" s="6"/>
+      <c r="X206" s="4"/>
+      <c r="Y206" s="5"/>
+      <c r="Z206" s="5"/>
+      <c r="AA206" s="5"/>
+      <c r="AB206" s="5"/>
+      <c r="AC206" s="5"/>
+      <c r="AD206" s="6"/>
+    </row>
+    <row r="207" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B207" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C207" s="5"/>
+      <c r="D207" s="5"/>
+      <c r="E207" s="5"/>
+      <c r="F207" s="5"/>
+      <c r="G207" s="5"/>
+      <c r="H207" s="5"/>
+      <c r="I207" s="5"/>
+      <c r="J207" s="5"/>
+      <c r="K207" s="5"/>
+      <c r="L207" s="6"/>
+      <c r="X207" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y207" s="5"/>
+      <c r="Z207" s="5"/>
+      <c r="AA207" s="5"/>
+      <c r="AB207" s="5"/>
+      <c r="AC207" s="5"/>
+      <c r="AD207" s="6"/>
+    </row>
+    <row r="208" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B208" s="4"/>
+      <c r="C208" s="5"/>
+      <c r="D208" s="5"/>
+      <c r="E208" s="5"/>
+      <c r="F208" s="5"/>
+      <c r="G208" s="5"/>
+      <c r="H208" s="5"/>
+      <c r="I208" s="5"/>
+      <c r="J208" s="5"/>
+      <c r="K208" s="5"/>
+      <c r="L208" s="6"/>
+      <c r="X208" s="4"/>
+      <c r="Y208" s="5"/>
+      <c r="Z208" s="5"/>
+      <c r="AA208" s="5"/>
+      <c r="AB208" s="5"/>
+      <c r="AC208" s="5"/>
+      <c r="AD208" s="6"/>
+    </row>
+    <row r="209" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B209" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C209" s="5"/>
+      <c r="D209" s="5"/>
+      <c r="E209" s="5"/>
+      <c r="F209" s="5"/>
+      <c r="G209" s="5"/>
+      <c r="H209" s="5"/>
+      <c r="I209" s="5"/>
+      <c r="J209" s="5"/>
+      <c r="K209" s="5"/>
+      <c r="L209" s="6"/>
+      <c r="X209" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y209" s="5"/>
+      <c r="Z209" s="5"/>
+      <c r="AA209" s="5"/>
+      <c r="AB209" s="5"/>
+      <c r="AC209" s="5"/>
+      <c r="AD209" s="6"/>
+    </row>
+    <row r="210" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B210" s="4"/>
+      <c r="C210" s="5"/>
+      <c r="D210" s="5"/>
+      <c r="E210" s="5"/>
+      <c r="F210" s="5"/>
+      <c r="G210" s="5"/>
+      <c r="H210" s="5"/>
+      <c r="I210" s="5"/>
+      <c r="J210" s="5"/>
+      <c r="K210" s="5"/>
+      <c r="L210" s="6"/>
+      <c r="X210" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y210" s="5"/>
+      <c r="Z210" s="5"/>
+      <c r="AA210" s="5"/>
+      <c r="AB210" s="5"/>
+      <c r="AC210" s="5"/>
+      <c r="AD210" s="6"/>
+    </row>
+    <row r="211" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B211" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C211" s="5"/>
+      <c r="D211" s="5"/>
+      <c r="E211" s="5"/>
+      <c r="F211" s="5"/>
+      <c r="G211" s="5"/>
+      <c r="H211" s="5"/>
+      <c r="I211" s="5"/>
+      <c r="J211" s="5"/>
+      <c r="K211" s="5"/>
+      <c r="L211" s="6"/>
+      <c r="X211" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y211" s="8"/>
+      <c r="Z211" s="8"/>
+      <c r="AA211" s="8"/>
+      <c r="AB211" s="8"/>
+      <c r="AC211" s="8"/>
+      <c r="AD211" s="9"/>
+    </row>
+    <row r="212" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B212" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C212" s="5"/>
+      <c r="D212" s="5"/>
+      <c r="E212" s="5"/>
+      <c r="F212" s="5"/>
+      <c r="G212" s="5"/>
+      <c r="H212" s="5"/>
+      <c r="I212" s="5"/>
+      <c r="J212" s="5"/>
+      <c r="K212" s="5"/>
+      <c r="L212" s="6"/>
+    </row>
+    <row r="213" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B213" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C213" s="5"/>
+      <c r="D213" s="5"/>
+      <c r="E213" s="5"/>
+      <c r="F213" s="5"/>
+      <c r="G213" s="5"/>
+      <c r="H213" s="5"/>
+      <c r="I213" s="5"/>
+      <c r="J213" s="5"/>
+      <c r="K213" s="5"/>
+      <c r="L213" s="6"/>
+    </row>
+    <row r="214" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B214" s="4"/>
+      <c r="C214" s="5"/>
+      <c r="D214" s="5"/>
+      <c r="E214" s="5"/>
+      <c r="F214" s="5"/>
+      <c r="G214" s="5"/>
+      <c r="H214" s="5"/>
+      <c r="I214" s="5"/>
+      <c r="J214" s="5"/>
+      <c r="K214" s="5"/>
+      <c r="L214" s="6"/>
+    </row>
+    <row r="215" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B215" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C215" s="5"/>
+      <c r="D215" s="5"/>
+      <c r="E215" s="5"/>
+      <c r="F215" s="5"/>
+      <c r="G215" s="5"/>
+      <c r="H215" s="5"/>
+      <c r="I215" s="5"/>
+      <c r="J215" s="5"/>
+      <c r="K215" s="5"/>
+      <c r="L215" s="6"/>
+    </row>
+    <row r="216" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B216" s="4"/>
+      <c r="C216" s="5"/>
+      <c r="D216" s="5"/>
+      <c r="E216" s="5"/>
+      <c r="F216" s="5"/>
+      <c r="G216" s="5"/>
+      <c r="H216" s="5"/>
+      <c r="I216" s="5"/>
+      <c r="J216" s="5"/>
+      <c r="K216" s="5"/>
+      <c r="L216" s="6"/>
+    </row>
+    <row r="217" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B217" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C217" s="5"/>
+      <c r="D217" s="5"/>
+      <c r="E217" s="5"/>
+      <c r="F217" s="5"/>
+      <c r="G217" s="5"/>
+      <c r="H217" s="5"/>
+      <c r="I217" s="5"/>
+      <c r="J217" s="5"/>
+      <c r="K217" s="5"/>
+      <c r="L217" s="6"/>
+    </row>
+    <row r="218" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B218" s="4"/>
+      <c r="C218" s="5"/>
+      <c r="D218" s="5"/>
+      <c r="E218" s="5"/>
+      <c r="F218" s="5"/>
+      <c r="G218" s="5"/>
+      <c r="H218" s="5"/>
+      <c r="I218" s="5"/>
+      <c r="J218" s="5"/>
+      <c r="K218" s="5"/>
+      <c r="L218" s="6"/>
+    </row>
+    <row r="219" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B219" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C219" s="5"/>
+      <c r="D219" s="5"/>
+      <c r="E219" s="5"/>
+      <c r="F219" s="5"/>
+      <c r="G219" s="5"/>
+      <c r="H219" s="5"/>
+      <c r="I219" s="5"/>
+      <c r="J219" s="5"/>
+      <c r="K219" s="5"/>
+      <c r="L219" s="6"/>
+    </row>
+    <row r="220" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B220" s="4"/>
+      <c r="C220" s="5"/>
+      <c r="D220" s="5"/>
+      <c r="E220" s="5"/>
+      <c r="F220" s="5"/>
+      <c r="G220" s="5"/>
+      <c r="H220" s="5"/>
+      <c r="I220" s="5"/>
+      <c r="J220" s="5"/>
+      <c r="K220" s="5"/>
+      <c r="L220" s="6"/>
+    </row>
+    <row r="221" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B221" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="C221" s="5"/>
+      <c r="D221" s="5"/>
+      <c r="E221" s="5"/>
+      <c r="F221" s="5"/>
+      <c r="G221" s="5"/>
+      <c r="H221" s="5"/>
+      <c r="I221" s="5"/>
+      <c r="J221" s="5"/>
+      <c r="K221" s="5"/>
+      <c r="L221" s="6"/>
+    </row>
+    <row r="222" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B222" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C222" s="5"/>
+      <c r="D222" s="5"/>
+      <c r="E222" s="5"/>
+      <c r="F222" s="5"/>
+      <c r="G222" s="5"/>
+      <c r="H222" s="5"/>
+      <c r="I222" s="5"/>
+      <c r="J222" s="5"/>
+      <c r="K222" s="5"/>
+      <c r="L222" s="6"/>
+    </row>
+    <row r="223" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B223" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C223" s="5"/>
+      <c r="D223" s="5"/>
+      <c r="E223" s="5"/>
+      <c r="F223" s="5"/>
+      <c r="G223" s="5"/>
+      <c r="H223" s="5"/>
+      <c r="I223" s="5"/>
+      <c r="J223" s="5"/>
+      <c r="K223" s="5"/>
+      <c r="L223" s="6"/>
+    </row>
+    <row r="224" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B224" s="28"/>
+      <c r="C224" s="5"/>
+      <c r="D224" s="5"/>
+      <c r="E224" s="5"/>
+      <c r="F224" s="5"/>
+      <c r="G224" s="5"/>
+      <c r="H224" s="5"/>
+      <c r="I224" s="5"/>
+      <c r="J224" s="5"/>
+      <c r="K224" s="5"/>
+      <c r="L224" s="6"/>
+    </row>
+    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B225" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="C225" s="5"/>
+      <c r="D225" s="5"/>
+      <c r="E225" s="5"/>
+      <c r="F225" s="5"/>
+      <c r="G225" s="5"/>
+      <c r="H225" s="5"/>
+      <c r="I225" s="5"/>
+      <c r="J225" s="5"/>
+      <c r="K225" s="5"/>
+      <c r="L225" s="6"/>
+    </row>
+    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B226" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="C226" s="5"/>
+      <c r="D226" s="5"/>
+      <c r="E226" s="5"/>
+      <c r="F226" s="5"/>
+      <c r="G226" s="5"/>
+      <c r="H226" s="5"/>
+      <c r="I226" s="5"/>
+      <c r="J226" s="5"/>
+      <c r="K226" s="5"/>
+      <c r="L226" s="6"/>
+    </row>
+    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B227" s="4"/>
+      <c r="C227" s="5"/>
+      <c r="D227" s="5"/>
+      <c r="E227" s="5"/>
+      <c r="F227" s="5"/>
+      <c r="G227" s="5"/>
+      <c r="H227" s="5"/>
+      <c r="I227" s="5"/>
+      <c r="J227" s="5"/>
+      <c r="K227" s="5"/>
+      <c r="L227" s="6"/>
+    </row>
+    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B228" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C228" s="5"/>
+      <c r="D228" s="5"/>
+      <c r="E228" s="5"/>
+      <c r="F228" s="5"/>
+      <c r="G228" s="5"/>
+      <c r="H228" s="5"/>
+      <c r="I228" s="5"/>
+      <c r="J228" s="5"/>
+      <c r="K228" s="5"/>
+      <c r="L228" s="6"/>
+    </row>
+    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B229" s="4"/>
+      <c r="C229" s="5"/>
+      <c r="D229" s="5"/>
+      <c r="E229" s="5"/>
+      <c r="F229" s="5"/>
+      <c r="G229" s="5"/>
+      <c r="H229" s="5"/>
+      <c r="I229" s="5"/>
+      <c r="J229" s="5"/>
+      <c r="K229" s="5"/>
+      <c r="L229" s="6"/>
+    </row>
+    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B230" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C230" s="5"/>
+      <c r="D230" s="5"/>
+      <c r="E230" s="5"/>
+      <c r="F230" s="5"/>
+      <c r="G230" s="5"/>
+      <c r="H230" s="5"/>
+      <c r="I230" s="5"/>
+      <c r="J230" s="5"/>
+      <c r="K230" s="5"/>
+      <c r="L230" s="6"/>
+    </row>
+    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B231" s="4"/>
+      <c r="C231" s="5"/>
+      <c r="D231" s="5"/>
+      <c r="E231" s="5"/>
+      <c r="F231" s="5"/>
+      <c r="G231" s="5"/>
+      <c r="H231" s="5"/>
+      <c r="I231" s="5"/>
+      <c r="J231" s="5"/>
+      <c r="K231" s="5"/>
+      <c r="L231" s="6"/>
+    </row>
+    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B232" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C232" s="5"/>
+      <c r="D232" s="5"/>
+      <c r="E232" s="5"/>
+      <c r="F232" s="5"/>
+      <c r="G232" s="5"/>
+      <c r="H232" s="5"/>
+      <c r="I232" s="5"/>
+      <c r="J232" s="5"/>
+      <c r="K232" s="5"/>
+      <c r="L232" s="6"/>
+    </row>
+    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B233" s="4"/>
+      <c r="C233" s="5"/>
+      <c r="D233" s="5"/>
+      <c r="E233" s="5"/>
+      <c r="F233" s="5"/>
+      <c r="G233" s="5"/>
+      <c r="H233" s="5"/>
+      <c r="I233" s="5"/>
+      <c r="J233" s="5"/>
+      <c r="K233" s="5"/>
+      <c r="L233" s="6"/>
+    </row>
+    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B234" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C234" s="8"/>
+      <c r="D234" s="8"/>
+      <c r="E234" s="8"/>
+      <c r="F234" s="8"/>
+      <c r="G234" s="8"/>
+      <c r="H234" s="8"/>
+      <c r="I234" s="8"/>
+      <c r="J234" s="8"/>
+      <c r="K234" s="8"/>
+      <c r="L234" s="9"/>
+    </row>
+    <row r="236" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A237" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B237" s="11"/>
+      <c r="C237" s="11"/>
+      <c r="D237" s="11"/>
+      <c r="E237" s="11"/>
+      <c r="F237" s="11"/>
+      <c r="G237" s="11"/>
+      <c r="H237" s="11"/>
+      <c r="I237" s="11"/>
+      <c r="J237" s="11"/>
+      <c r="K237" s="11"/>
+      <c r="L237" s="11"/>
+      <c r="M237" s="11"/>
+      <c r="N237" s="11"/>
+      <c r="O237" s="11"/>
+      <c r="P237" s="11"/>
+      <c r="Q237" s="11"/>
+      <c r="R237" s="11"/>
+      <c r="S237" s="12"/>
+    </row>
+    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A238" s="13"/>
+      <c r="B238" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C238" s="2"/>
+      <c r="D238" s="2"/>
+      <c r="E238" s="2"/>
+      <c r="F238" s="2"/>
+      <c r="G238" s="2"/>
+      <c r="H238" s="2"/>
+      <c r="I238" s="2"/>
+      <c r="J238" s="2"/>
+      <c r="K238" s="2"/>
+      <c r="L238" s="2"/>
+      <c r="M238" s="2"/>
+      <c r="N238" s="2"/>
+      <c r="O238" s="2"/>
+      <c r="P238" s="2"/>
+      <c r="Q238" s="3"/>
+      <c r="R238" s="5"/>
+      <c r="S238" s="14"/>
+    </row>
+    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A239" s="13"/>
+      <c r="B239" s="4"/>
+      <c r="C239" s="5"/>
+      <c r="D239" s="5"/>
+      <c r="E239" s="5"/>
+      <c r="F239" s="5"/>
+      <c r="G239" s="5"/>
+      <c r="H239" s="5"/>
+      <c r="I239" s="5"/>
+      <c r="J239" s="5"/>
+      <c r="K239" s="5"/>
+      <c r="L239" s="5"/>
+      <c r="M239" s="5"/>
+      <c r="N239" s="5"/>
+      <c r="O239" s="5"/>
+      <c r="P239" s="5"/>
+      <c r="Q239" s="6"/>
+      <c r="R239" s="5"/>
+      <c r="S239" s="14"/>
+    </row>
+    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A240" s="13"/>
+      <c r="B240" s="4"/>
+      <c r="C240" s="5"/>
+      <c r="D240" s="5"/>
+      <c r="E240" s="5"/>
+      <c r="F240" s="5"/>
+      <c r="G240" s="5"/>
+      <c r="H240" s="5"/>
+      <c r="I240" s="5"/>
+      <c r="J240" s="5"/>
+      <c r="K240" s="5"/>
+      <c r="L240" s="5"/>
+      <c r="M240" s="5"/>
+      <c r="N240" s="5"/>
+      <c r="O240" s="5"/>
+      <c r="P240" s="5"/>
+      <c r="Q240" s="6"/>
+      <c r="R240" s="5"/>
+      <c r="S240" s="14"/>
+    </row>
+    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A241" s="13"/>
+      <c r="B241" s="4"/>
+      <c r="C241" s="5"/>
+      <c r="D241" s="5"/>
+      <c r="E241" s="5"/>
+      <c r="F241" s="5"/>
+      <c r="G241" s="5"/>
+      <c r="H241" s="5"/>
+      <c r="I241" s="5"/>
+      <c r="J241" s="5"/>
+      <c r="K241" s="5"/>
+      <c r="L241" s="5"/>
+      <c r="M241" s="5"/>
+      <c r="N241" s="5"/>
+      <c r="O241" s="5"/>
+      <c r="P241" s="5"/>
+      <c r="Q241" s="6"/>
+      <c r="R241" s="5"/>
+      <c r="S241" s="14"/>
+    </row>
+    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A242" s="13"/>
+      <c r="B242" s="4"/>
+      <c r="C242" s="5"/>
+      <c r="D242" s="5"/>
+      <c r="E242" s="5"/>
+      <c r="F242" s="5"/>
+      <c r="G242" s="5"/>
+      <c r="H242" s="5"/>
+      <c r="I242" s="5"/>
+      <c r="J242" s="5"/>
+      <c r="K242" s="5"/>
+      <c r="L242" s="5"/>
+      <c r="M242" s="5"/>
+      <c r="N242" s="5"/>
+      <c r="O242" s="5"/>
+      <c r="P242" s="5"/>
+      <c r="Q242" s="6"/>
+      <c r="R242" s="5"/>
+      <c r="S242" s="14"/>
+    </row>
+    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A243" s="13"/>
+      <c r="B243" s="4"/>
+      <c r="C243" s="5"/>
+      <c r="D243" s="5"/>
+      <c r="E243" s="5"/>
+      <c r="F243" s="5"/>
+      <c r="G243" s="5"/>
+      <c r="H243" s="5"/>
+      <c r="I243" s="5"/>
+      <c r="J243" s="5"/>
+      <c r="K243" s="5"/>
+      <c r="L243" s="5"/>
+      <c r="M243" s="5"/>
+      <c r="N243" s="5"/>
+      <c r="O243" s="5"/>
+      <c r="P243" s="5"/>
+      <c r="Q243" s="6"/>
+      <c r="R243" s="5"/>
+      <c r="S243" s="14"/>
+    </row>
+    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A244" s="13"/>
+      <c r="B244" s="4"/>
+      <c r="C244" s="5"/>
+      <c r="D244" s="5"/>
+      <c r="E244" s="5"/>
+      <c r="F244" s="5"/>
+      <c r="G244" s="5"/>
+      <c r="H244" s="5"/>
+      <c r="I244" s="5"/>
+      <c r="J244" s="5"/>
+      <c r="K244" s="5"/>
+      <c r="L244" s="5"/>
+      <c r="M244" s="5"/>
+      <c r="N244" s="5"/>
+      <c r="O244" s="5"/>
+      <c r="P244" s="5"/>
+      <c r="Q244" s="6"/>
+      <c r="R244" s="5"/>
+      <c r="S244" s="14"/>
+    </row>
+    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A245" s="13"/>
+      <c r="B245" s="4"/>
+      <c r="C245" s="5"/>
+      <c r="D245" s="5"/>
+      <c r="E245" s="5"/>
+      <c r="F245" s="5"/>
+      <c r="G245" s="5"/>
+      <c r="H245" s="5"/>
+      <c r="I245" s="5"/>
+      <c r="J245" s="5"/>
+      <c r="K245" s="5"/>
+      <c r="L245" s="5"/>
+      <c r="M245" s="5"/>
+      <c r="N245" s="5"/>
+      <c r="O245" s="5"/>
+      <c r="P245" s="5"/>
+      <c r="Q245" s="6"/>
+      <c r="R245" s="5"/>
+      <c r="S245" s="14"/>
+    </row>
+    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A246" s="13"/>
+      <c r="B246" s="4"/>
+      <c r="C246" s="5"/>
+      <c r="D246" s="5"/>
+      <c r="E246" s="5"/>
+      <c r="F246" s="5"/>
+      <c r="G246" s="5"/>
+      <c r="H246" s="5"/>
+      <c r="I246" s="5"/>
+      <c r="J246" s="5"/>
+      <c r="K246" s="5"/>
+      <c r="L246" s="5"/>
+      <c r="M246" s="5"/>
+      <c r="N246" s="5"/>
+      <c r="O246" s="5"/>
+      <c r="P246" s="5"/>
+      <c r="Q246" s="6"/>
+      <c r="R246" s="5"/>
+      <c r="S246" s="14"/>
+    </row>
+    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A247" s="13"/>
+      <c r="B247" s="4"/>
+      <c r="C247" s="5"/>
+      <c r="D247" s="5"/>
+      <c r="E247" s="5"/>
+      <c r="F247" s="5"/>
+      <c r="G247" s="5"/>
+      <c r="H247" s="5"/>
+      <c r="I247" s="5"/>
+      <c r="J247" s="5"/>
+      <c r="K247" s="5"/>
+      <c r="L247" s="5"/>
+      <c r="M247" s="5"/>
+      <c r="N247" s="5"/>
+      <c r="O247" s="5"/>
+      <c r="P247" s="5"/>
+      <c r="Q247" s="6"/>
+      <c r="R247" s="5"/>
+      <c r="S247" s="14"/>
+    </row>
+    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A248" s="13"/>
+      <c r="B248" s="4"/>
+      <c r="C248" s="5"/>
+      <c r="D248" s="5"/>
+      <c r="E248" s="5"/>
+      <c r="F248" s="5"/>
+      <c r="G248" s="5"/>
+      <c r="H248" s="5"/>
+      <c r="I248" s="5"/>
+      <c r="J248" s="5"/>
+      <c r="K248" s="5"/>
+      <c r="L248" s="5"/>
+      <c r="M248" s="5"/>
+      <c r="N248" s="5"/>
+      <c r="O248" s="5"/>
+      <c r="P248" s="5"/>
+      <c r="Q248" s="6"/>
+      <c r="R248" s="5"/>
+      <c r="S248" s="14"/>
+    </row>
+    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A249" s="13"/>
+      <c r="B249" s="4"/>
+      <c r="C249" s="5"/>
+      <c r="D249" s="5"/>
+      <c r="E249" s="5"/>
+      <c r="F249" s="5"/>
+      <c r="G249" s="5"/>
+      <c r="H249" s="5"/>
+      <c r="I249" s="5"/>
+      <c r="J249" s="5"/>
+      <c r="K249" s="5"/>
+      <c r="L249" s="5"/>
+      <c r="M249" s="5"/>
+      <c r="N249" s="5"/>
+      <c r="O249" s="5"/>
+      <c r="P249" s="5"/>
+      <c r="Q249" s="6"/>
+      <c r="R249" s="5"/>
+      <c r="S249" s="14"/>
+    </row>
+    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A250" s="13"/>
+      <c r="B250" s="4"/>
+      <c r="C250" s="5"/>
+      <c r="D250" s="5"/>
+      <c r="E250" s="5"/>
+      <c r="F250" s="5"/>
+      <c r="G250" s="5"/>
+      <c r="H250" s="5"/>
+      <c r="I250" s="5"/>
+      <c r="J250" s="5"/>
+      <c r="K250" s="5"/>
+      <c r="L250" s="5"/>
+      <c r="M250" s="5"/>
+      <c r="N250" s="5"/>
+      <c r="O250" s="5"/>
+      <c r="P250" s="5"/>
+      <c r="Q250" s="6"/>
+      <c r="R250" s="5"/>
+      <c r="S250" s="14"/>
+    </row>
+    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A251" s="13"/>
+      <c r="B251" s="4"/>
+      <c r="C251" s="5"/>
+      <c r="D251" s="5"/>
+      <c r="E251" s="5"/>
+      <c r="F251" s="5"/>
+      <c r="G251" s="5"/>
+      <c r="H251" s="5"/>
+      <c r="I251" s="5"/>
+      <c r="J251" s="5"/>
+      <c r="K251" s="5"/>
+      <c r="L251" s="5"/>
+      <c r="M251" s="5"/>
+      <c r="N251" s="5"/>
+      <c r="O251" s="5"/>
+      <c r="P251" s="5"/>
+      <c r="Q251" s="6"/>
+      <c r="R251" s="5"/>
+      <c r="S251" s="14"/>
+    </row>
+    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A252" s="13"/>
+      <c r="B252" s="4"/>
+      <c r="C252" s="5"/>
+      <c r="D252" s="5"/>
+      <c r="E252" s="5"/>
+      <c r="F252" s="5"/>
+      <c r="G252" s="5"/>
+      <c r="H252" s="5"/>
+      <c r="I252" s="5"/>
+      <c r="J252" s="5"/>
+      <c r="K252" s="5"/>
+      <c r="L252" s="5"/>
+      <c r="M252" s="5"/>
+      <c r="N252" s="5"/>
+      <c r="O252" s="5"/>
+      <c r="P252" s="5"/>
+      <c r="Q252" s="6"/>
+      <c r="R252" s="5"/>
+      <c r="S252" s="14"/>
+    </row>
+    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A253" s="13"/>
+      <c r="B253" s="4"/>
+      <c r="C253" s="5"/>
+      <c r="D253" s="5"/>
+      <c r="E253" s="5"/>
+      <c r="F253" s="5"/>
+      <c r="G253" s="5"/>
+      <c r="H253" s="5"/>
+      <c r="I253" s="5"/>
+      <c r="J253" s="5"/>
+      <c r="K253" s="5"/>
+      <c r="L253" s="5"/>
+      <c r="M253" s="5"/>
+      <c r="N253" s="5"/>
+      <c r="O253" s="5"/>
+      <c r="P253" s="5"/>
+      <c r="Q253" s="6"/>
+      <c r="R253" s="5"/>
+      <c r="S253" s="14"/>
+    </row>
+    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A254" s="13"/>
+      <c r="B254" s="4"/>
+      <c r="C254" s="5"/>
+      <c r="D254" s="5"/>
+      <c r="E254" s="5"/>
+      <c r="F254" s="5"/>
+      <c r="G254" s="5"/>
+      <c r="H254" s="5"/>
+      <c r="I254" s="5"/>
+      <c r="J254" s="5"/>
+      <c r="K254" s="5"/>
+      <c r="L254" s="5"/>
+      <c r="M254" s="5"/>
+      <c r="N254" s="5"/>
+      <c r="O254" s="5"/>
+      <c r="P254" s="5"/>
+      <c r="Q254" s="6"/>
+      <c r="R254" s="5"/>
+      <c r="S254" s="14"/>
+    </row>
+    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A255" s="13"/>
+      <c r="B255" s="4"/>
+      <c r="C255" s="5"/>
+      <c r="D255" s="5"/>
+      <c r="E255" s="5"/>
+      <c r="F255" s="5"/>
+      <c r="G255" s="5"/>
+      <c r="H255" s="5"/>
+      <c r="I255" s="5"/>
+      <c r="J255" s="5"/>
+      <c r="K255" s="5"/>
+      <c r="L255" s="5"/>
+      <c r="M255" s="5"/>
+      <c r="N255" s="5"/>
+      <c r="O255" s="5"/>
+      <c r="P255" s="5"/>
+      <c r="Q255" s="6"/>
+      <c r="R255" s="5"/>
+      <c r="S255" s="14"/>
+    </row>
+    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A256" s="13"/>
+      <c r="B256" s="4"/>
+      <c r="C256" s="5"/>
+      <c r="D256" s="5"/>
+      <c r="E256" s="5"/>
+      <c r="F256" s="5"/>
+      <c r="G256" s="5"/>
+      <c r="H256" s="5"/>
+      <c r="I256" s="5"/>
+      <c r="J256" s="5"/>
+      <c r="K256" s="5"/>
+      <c r="L256" s="5"/>
+      <c r="M256" s="5"/>
+      <c r="N256" s="5"/>
+      <c r="O256" s="5"/>
+      <c r="P256" s="5"/>
+      <c r="Q256" s="6"/>
+      <c r="R256" s="5"/>
+      <c r="S256" s="14"/>
+    </row>
+    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A257" s="13"/>
+      <c r="B257" s="4"/>
+      <c r="C257" s="5"/>
+      <c r="D257" s="5"/>
+      <c r="E257" s="5"/>
+      <c r="F257" s="5"/>
+      <c r="G257" s="5"/>
+      <c r="H257" s="5"/>
+      <c r="I257" s="5"/>
+      <c r="J257" s="5"/>
+      <c r="K257" s="5"/>
+      <c r="L257" s="5"/>
+      <c r="M257" s="5"/>
+      <c r="N257" s="5"/>
+      <c r="O257" s="5"/>
+      <c r="P257" s="5"/>
+      <c r="Q257" s="6"/>
+      <c r="R257" s="5"/>
+      <c r="S257" s="14"/>
+    </row>
+    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A258" s="13"/>
+      <c r="B258" s="4"/>
+      <c r="C258" s="5"/>
+      <c r="D258" s="5"/>
+      <c r="E258" s="5"/>
+      <c r="F258" s="5"/>
+      <c r="G258" s="5"/>
+      <c r="H258" s="5"/>
+      <c r="I258" s="5"/>
+      <c r="J258" s="5"/>
+      <c r="K258" s="5"/>
+      <c r="L258" s="5"/>
+      <c r="M258" s="5"/>
+      <c r="N258" s="5"/>
+      <c r="O258" s="5"/>
+      <c r="P258" s="5"/>
+      <c r="Q258" s="6"/>
+      <c r="R258" s="5"/>
+      <c r="S258" s="14"/>
+    </row>
+    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A259" s="13"/>
+      <c r="B259" s="7"/>
+      <c r="C259" s="8"/>
+      <c r="D259" s="8"/>
+      <c r="E259" s="8"/>
+      <c r="F259" s="8"/>
+      <c r="G259" s="8"/>
+      <c r="H259" s="8"/>
+      <c r="I259" s="8"/>
+      <c r="J259" s="8"/>
+      <c r="K259" s="8"/>
+      <c r="L259" s="8"/>
+      <c r="M259" s="8"/>
+      <c r="N259" s="8"/>
+      <c r="O259" s="8"/>
+      <c r="P259" s="8"/>
+      <c r="Q259" s="9"/>
+      <c r="R259" s="5"/>
+      <c r="S259" s="14"/>
+    </row>
+    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A260" s="13"/>
+      <c r="B260" s="5"/>
+      <c r="C260" s="5"/>
+      <c r="D260" s="5"/>
+      <c r="E260" s="5"/>
+      <c r="F260" s="5"/>
+      <c r="G260" s="5"/>
+      <c r="H260" s="5"/>
+      <c r="I260" s="5"/>
+      <c r="J260" s="5"/>
+      <c r="K260" s="5"/>
+      <c r="L260" s="5"/>
+      <c r="M260" s="5"/>
+      <c r="N260" s="5"/>
+      <c r="O260" s="5"/>
+      <c r="P260" s="5"/>
+      <c r="Q260" s="5"/>
+      <c r="R260" s="5"/>
+      <c r="S260" s="14"/>
+    </row>
+    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A261" s="13"/>
+      <c r="B261" s="5"/>
+      <c r="C261" s="5"/>
+      <c r="D261" s="5"/>
+      <c r="E261" s="5"/>
+      <c r="F261" s="5"/>
+      <c r="G261" s="5"/>
+      <c r="H261" s="5"/>
+      <c r="I261" s="5"/>
+      <c r="J261" s="5"/>
+      <c r="K261" s="5"/>
+      <c r="L261" s="5"/>
+      <c r="M261" s="5"/>
+      <c r="N261" s="5"/>
+      <c r="O261" s="5"/>
+      <c r="P261" s="5"/>
+      <c r="Q261" s="5"/>
+      <c r="R261" s="5"/>
+      <c r="S261" s="14"/>
+    </row>
+    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A262" s="13"/>
+      <c r="B262" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C262" s="2"/>
+      <c r="D262" s="2"/>
+      <c r="E262" s="2"/>
+      <c r="F262" s="2"/>
+      <c r="G262" s="2"/>
+      <c r="H262" s="2"/>
+      <c r="I262" s="2"/>
+      <c r="J262" s="2"/>
+      <c r="K262" s="2"/>
+      <c r="L262" s="2"/>
+      <c r="M262" s="2"/>
+      <c r="N262" s="2"/>
+      <c r="O262" s="2"/>
+      <c r="P262" s="2"/>
+      <c r="Q262" s="3"/>
+      <c r="R262" s="5"/>
+      <c r="S262" s="14"/>
+    </row>
+    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A263" s="13"/>
+      <c r="B263" s="4"/>
+      <c r="C263" s="5"/>
+      <c r="D263" s="5"/>
+      <c r="E263" s="5"/>
+      <c r="F263" s="5"/>
+      <c r="G263" s="5"/>
+      <c r="H263" s="5"/>
+      <c r="I263" s="5"/>
+      <c r="J263" s="5"/>
+      <c r="K263" s="5"/>
+      <c r="L263" s="5"/>
+      <c r="M263" s="5"/>
+      <c r="N263" s="5"/>
+      <c r="O263" s="5"/>
+      <c r="P263" s="5"/>
+      <c r="Q263" s="6"/>
+      <c r="R263" s="5"/>
+      <c r="S263" s="14"/>
+    </row>
+    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A264" s="13"/>
+      <c r="B264" s="4"/>
+      <c r="C264" s="5"/>
+      <c r="D264" s="5"/>
+      <c r="E264" s="5"/>
+      <c r="F264" s="5"/>
+      <c r="G264" s="5"/>
+      <c r="H264" s="5"/>
+      <c r="I264" s="5"/>
+      <c r="J264" s="5"/>
+      <c r="K264" s="5"/>
+      <c r="L264" s="5"/>
+      <c r="M264" s="5"/>
+      <c r="N264" s="5"/>
+      <c r="O264" s="5"/>
+      <c r="P264" s="5"/>
+      <c r="Q264" s="6"/>
+      <c r="R264" s="5"/>
+      <c r="S264" s="14"/>
+    </row>
+    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A265" s="13"/>
+      <c r="B265" s="4"/>
+      <c r="C265" s="5"/>
+      <c r="D265" s="5"/>
+      <c r="E265" s="5"/>
+      <c r="F265" s="5"/>
+      <c r="G265" s="5"/>
+      <c r="H265" s="5"/>
+      <c r="I265" s="5"/>
+      <c r="J265" s="5"/>
+      <c r="K265" s="5"/>
+      <c r="L265" s="5"/>
+      <c r="M265" s="5"/>
+      <c r="N265" s="5"/>
+      <c r="O265" s="5"/>
+      <c r="P265" s="5"/>
+      <c r="Q265" s="6"/>
+      <c r="R265" s="5"/>
+      <c r="S265" s="14"/>
+    </row>
+    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A266" s="13"/>
+      <c r="B266" s="4"/>
+      <c r="C266" s="5"/>
+      <c r="D266" s="5"/>
+      <c r="E266" s="5"/>
+      <c r="F266" s="5"/>
+      <c r="G266" s="5"/>
+      <c r="H266" s="5"/>
+      <c r="I266" s="5"/>
+      <c r="J266" s="5"/>
+      <c r="K266" s="5"/>
+      <c r="L266" s="5"/>
+      <c r="M266" s="5"/>
+      <c r="N266" s="5"/>
+      <c r="O266" s="5"/>
+      <c r="P266" s="5"/>
+      <c r="Q266" s="6"/>
+      <c r="R266" s="5"/>
+      <c r="S266" s="14"/>
+    </row>
+    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A267" s="13"/>
+      <c r="B267" s="4"/>
+      <c r="C267" s="5"/>
+      <c r="D267" s="5"/>
+      <c r="E267" s="5"/>
+      <c r="F267" s="5"/>
+      <c r="G267" s="5"/>
+      <c r="H267" s="5"/>
+      <c r="I267" s="5"/>
+      <c r="J267" s="5"/>
+      <c r="K267" s="5"/>
+      <c r="L267" s="5"/>
+      <c r="M267" s="5"/>
+      <c r="N267" s="5"/>
+      <c r="O267" s="5"/>
+      <c r="P267" s="5"/>
+      <c r="Q267" s="6"/>
+      <c r="R267" s="5"/>
+      <c r="S267" s="14"/>
+    </row>
+    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A268" s="13"/>
+      <c r="B268" s="4"/>
+      <c r="C268" s="5"/>
+      <c r="D268" s="5"/>
+      <c r="E268" s="5"/>
+      <c r="F268" s="5"/>
+      <c r="G268" s="5"/>
+      <c r="H268" s="5"/>
+      <c r="I268" s="5"/>
+      <c r="J268" s="5"/>
+      <c r="K268" s="5"/>
+      <c r="L268" s="5"/>
+      <c r="M268" s="5"/>
+      <c r="N268" s="5"/>
+      <c r="O268" s="5"/>
+      <c r="P268" s="5"/>
+      <c r="Q268" s="6"/>
+      <c r="R268" s="5"/>
+      <c r="S268" s="14"/>
+    </row>
+    <row r="269" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A269" s="13"/>
+      <c r="B269" s="4"/>
+      <c r="C269" s="5"/>
+      <c r="D269" s="5"/>
+      <c r="E269" s="5"/>
+      <c r="F269" s="5"/>
+      <c r="G269" s="5"/>
+      <c r="H269" s="5"/>
+      <c r="I269" s="5"/>
+      <c r="J269" s="5"/>
+      <c r="K269" s="5"/>
+      <c r="L269" s="5"/>
+      <c r="M269" s="5"/>
+      <c r="N269" s="5"/>
+      <c r="O269" s="5"/>
+      <c r="P269" s="5"/>
+      <c r="Q269" s="6"/>
+      <c r="R269" s="5"/>
+      <c r="S269" s="14"/>
+    </row>
+    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A270" s="13"/>
+      <c r="B270" s="4"/>
+      <c r="C270" s="5"/>
+      <c r="D270" s="5"/>
+      <c r="E270" s="5"/>
+      <c r="F270" s="5"/>
+      <c r="G270" s="5"/>
+      <c r="H270" s="5"/>
+      <c r="I270" s="5"/>
+      <c r="J270" s="5"/>
+      <c r="K270" s="5"/>
+      <c r="L270" s="5"/>
+      <c r="M270" s="5"/>
+      <c r="N270" s="5"/>
+      <c r="O270" s="5"/>
+      <c r="P270" s="5"/>
+      <c r="Q270" s="6"/>
+      <c r="R270" s="5"/>
+      <c r="S270" s="14"/>
+    </row>
+    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A271" s="13"/>
+      <c r="B271" s="4"/>
+      <c r="C271" s="5"/>
+      <c r="D271" s="5"/>
+      <c r="E271" s="5"/>
+      <c r="F271" s="5"/>
+      <c r="G271" s="5"/>
+      <c r="H271" s="5"/>
+      <c r="I271" s="5"/>
+      <c r="J271" s="5"/>
+      <c r="K271" s="5"/>
+      <c r="L271" s="5"/>
+      <c r="M271" s="5"/>
+      <c r="N271" s="5"/>
+      <c r="O271" s="5"/>
+      <c r="P271" s="5"/>
+      <c r="Q271" s="6"/>
+      <c r="R271" s="5"/>
+      <c r="S271" s="14"/>
+    </row>
+    <row r="272" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A272" s="13"/>
+      <c r="B272" s="4"/>
+      <c r="C272" s="5"/>
+      <c r="D272" s="5"/>
+      <c r="E272" s="5"/>
+      <c r="F272" s="5"/>
+      <c r="G272" s="5"/>
+      <c r="H272" s="5"/>
+      <c r="I272" s="5"/>
+      <c r="J272" s="5"/>
+      <c r="K272" s="5"/>
+      <c r="L272" s="5"/>
+      <c r="M272" s="5"/>
+      <c r="N272" s="5"/>
+      <c r="O272" s="5"/>
+      <c r="P272" s="5"/>
+      <c r="Q272" s="6"/>
+      <c r="R272" s="5"/>
+      <c r="S272" s="14"/>
+    </row>
+    <row r="273" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A273" s="13"/>
+      <c r="B273" s="4"/>
+      <c r="C273" s="5"/>
+      <c r="D273" s="5"/>
+      <c r="E273" s="5"/>
+      <c r="F273" s="5"/>
+      <c r="G273" s="5"/>
+      <c r="H273" s="5"/>
+      <c r="I273" s="5"/>
+      <c r="J273" s="5"/>
+      <c r="K273" s="5"/>
+      <c r="L273" s="5"/>
+      <c r="M273" s="5"/>
+      <c r="N273" s="5"/>
+      <c r="O273" s="5"/>
+      <c r="P273" s="5"/>
+      <c r="Q273" s="6"/>
+      <c r="R273" s="5"/>
+      <c r="S273" s="14"/>
+    </row>
+    <row r="274" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A274" s="13"/>
+      <c r="B274" s="4"/>
+      <c r="C274" s="5"/>
+      <c r="D274" s="5"/>
+      <c r="E274" s="5"/>
+      <c r="F274" s="5"/>
+      <c r="G274" s="5"/>
+      <c r="H274" s="5"/>
+      <c r="I274" s="5"/>
+      <c r="J274" s="5"/>
+      <c r="K274" s="5"/>
+      <c r="L274" s="5"/>
+      <c r="M274" s="5"/>
+      <c r="N274" s="5"/>
+      <c r="O274" s="5"/>
+      <c r="P274" s="5"/>
+      <c r="Q274" s="6"/>
+      <c r="R274" s="5"/>
+      <c r="S274" s="14"/>
+    </row>
+    <row r="275" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A275" s="13"/>
+      <c r="B275" s="4"/>
+      <c r="C275" s="5"/>
+      <c r="D275" s="5"/>
+      <c r="E275" s="5"/>
+      <c r="F275" s="5"/>
+      <c r="G275" s="5"/>
+      <c r="H275" s="5"/>
+      <c r="I275" s="5"/>
+      <c r="J275" s="5"/>
+      <c r="K275" s="5"/>
+      <c r="L275" s="5"/>
+      <c r="M275" s="5"/>
+      <c r="N275" s="5"/>
+      <c r="O275" s="5"/>
+      <c r="P275" s="5"/>
+      <c r="Q275" s="6"/>
+      <c r="R275" s="5"/>
+      <c r="S275" s="14"/>
+    </row>
+    <row r="276" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A276" s="13"/>
+      <c r="B276" s="4"/>
+      <c r="C276" s="5"/>
+      <c r="D276" s="5"/>
+      <c r="E276" s="5"/>
+      <c r="F276" s="5"/>
+      <c r="G276" s="5"/>
+      <c r="H276" s="5"/>
+      <c r="I276" s="5"/>
+      <c r="J276" s="5"/>
+      <c r="K276" s="5"/>
+      <c r="L276" s="5"/>
+      <c r="M276" s="5"/>
+      <c r="N276" s="5"/>
+      <c r="O276" s="5"/>
+      <c r="P276" s="5"/>
+      <c r="Q276" s="6"/>
+      <c r="R276" s="5"/>
+      <c r="S276" s="14"/>
+    </row>
+    <row r="277" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A277" s="13"/>
+      <c r="B277" s="4"/>
+      <c r="C277" s="5"/>
+      <c r="D277" s="5"/>
+      <c r="E277" s="5"/>
+      <c r="F277" s="5"/>
+      <c r="G277" s="5"/>
+      <c r="H277" s="5"/>
+      <c r="I277" s="5"/>
+      <c r="J277" s="5"/>
+      <c r="K277" s="5"/>
+      <c r="L277" s="5"/>
+      <c r="M277" s="5"/>
+      <c r="N277" s="5"/>
+      <c r="O277" s="5"/>
+      <c r="P277" s="5"/>
+      <c r="Q277" s="6"/>
+      <c r="R277" s="5"/>
+      <c r="S277" s="14"/>
+    </row>
+    <row r="278" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A278" s="13"/>
+      <c r="B278" s="4"/>
+      <c r="C278" s="5"/>
+      <c r="D278" s="5"/>
+      <c r="E278" s="5"/>
+      <c r="F278" s="5"/>
+      <c r="G278" s="5"/>
+      <c r="H278" s="5"/>
+      <c r="I278" s="5"/>
+      <c r="J278" s="5"/>
+      <c r="K278" s="5"/>
+      <c r="L278" s="5"/>
+      <c r="M278" s="5"/>
+      <c r="N278" s="5"/>
+      <c r="O278" s="5"/>
+      <c r="P278" s="5"/>
+      <c r="Q278" s="6"/>
+      <c r="R278" s="5"/>
+      <c r="S278" s="14"/>
+    </row>
+    <row r="279" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A279" s="13"/>
+      <c r="B279" s="4"/>
+      <c r="C279" s="5"/>
+      <c r="D279" s="5"/>
+      <c r="E279" s="5"/>
+      <c r="F279" s="5"/>
+      <c r="G279" s="5"/>
+      <c r="H279" s="5"/>
+      <c r="I279" s="5"/>
+      <c r="J279" s="5"/>
+      <c r="K279" s="5"/>
+      <c r="L279" s="5"/>
+      <c r="M279" s="5"/>
+      <c r="N279" s="5"/>
+      <c r="O279" s="5"/>
+      <c r="P279" s="5"/>
+      <c r="Q279" s="6"/>
+      <c r="R279" s="5"/>
+      <c r="S279" s="14"/>
+    </row>
+    <row r="280" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A280" s="13"/>
+      <c r="B280" s="4"/>
+      <c r="C280" s="5"/>
+      <c r="D280" s="5"/>
+      <c r="E280" s="5"/>
+      <c r="F280" s="5"/>
+      <c r="G280" s="5"/>
+      <c r="H280" s="5"/>
+      <c r="I280" s="5"/>
+      <c r="J280" s="5"/>
+      <c r="K280" s="5"/>
+      <c r="L280" s="5"/>
+      <c r="M280" s="5"/>
+      <c r="N280" s="5"/>
+      <c r="O280" s="5"/>
+      <c r="P280" s="5"/>
+      <c r="Q280" s="6"/>
+      <c r="R280" s="5"/>
+      <c r="S280" s="14"/>
+    </row>
+    <row r="281" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A281" s="13"/>
+      <c r="B281" s="4"/>
+      <c r="C281" s="5"/>
+      <c r="D281" s="5"/>
+      <c r="E281" s="5"/>
+      <c r="F281" s="5"/>
+      <c r="G281" s="5"/>
+      <c r="H281" s="5"/>
+      <c r="I281" s="5"/>
+      <c r="J281" s="5"/>
+      <c r="K281" s="5"/>
+      <c r="L281" s="5"/>
+      <c r="M281" s="5"/>
+      <c r="N281" s="5"/>
+      <c r="O281" s="5"/>
+      <c r="P281" s="5"/>
+      <c r="Q281" s="6"/>
+      <c r="R281" s="5"/>
+      <c r="S281" s="14"/>
+    </row>
+    <row r="282" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A282" s="13"/>
+      <c r="B282" s="4"/>
+      <c r="C282" s="5"/>
+      <c r="D282" s="5"/>
+      <c r="E282" s="5"/>
+      <c r="F282" s="5"/>
+      <c r="G282" s="5"/>
+      <c r="H282" s="5"/>
+      <c r="I282" s="5"/>
+      <c r="J282" s="5"/>
+      <c r="K282" s="5"/>
+      <c r="L282" s="5"/>
+      <c r="M282" s="5"/>
+      <c r="N282" s="5"/>
+      <c r="O282" s="5"/>
+      <c r="P282" s="5"/>
+      <c r="Q282" s="6"/>
+      <c r="R282" s="5"/>
+      <c r="S282" s="14"/>
+    </row>
+    <row r="283" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A283" s="13"/>
+      <c r="B283" s="4"/>
+      <c r="C283" s="5"/>
+      <c r="D283" s="5"/>
+      <c r="E283" s="5"/>
+      <c r="F283" s="5"/>
+      <c r="G283" s="5"/>
+      <c r="H283" s="5"/>
+      <c r="I283" s="5"/>
+      <c r="J283" s="5"/>
+      <c r="K283" s="5"/>
+      <c r="L283" s="5"/>
+      <c r="M283" s="5"/>
+      <c r="N283" s="5"/>
+      <c r="O283" s="5"/>
+      <c r="P283" s="5"/>
+      <c r="Q283" s="6"/>
+      <c r="R283" s="5"/>
+      <c r="S283" s="14"/>
+    </row>
+    <row r="284" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A284" s="13"/>
+      <c r="B284" s="4"/>
+      <c r="C284" s="5"/>
+      <c r="D284" s="5"/>
+      <c r="E284" s="5"/>
+      <c r="F284" s="5"/>
+      <c r="G284" s="5"/>
+      <c r="H284" s="5"/>
+      <c r="I284" s="5"/>
+      <c r="J284" s="5"/>
+      <c r="K284" s="5"/>
+      <c r="L284" s="5"/>
+      <c r="M284" s="5"/>
+      <c r="N284" s="5"/>
+      <c r="O284" s="5"/>
+      <c r="P284" s="5"/>
+      <c r="Q284" s="6"/>
+      <c r="R284" s="5"/>
+      <c r="S284" s="14"/>
+    </row>
+    <row r="285" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A285" s="13"/>
+      <c r="B285" s="4"/>
+      <c r="C285" s="5"/>
+      <c r="D285" s="5"/>
+      <c r="E285" s="5"/>
+      <c r="F285" s="5"/>
+      <c r="G285" s="5"/>
+      <c r="H285" s="5"/>
+      <c r="I285" s="5"/>
+      <c r="J285" s="5"/>
+      <c r="K285" s="5"/>
+      <c r="L285" s="5"/>
+      <c r="M285" s="5"/>
+      <c r="N285" s="5"/>
+      <c r="O285" s="5"/>
+      <c r="P285" s="5"/>
+      <c r="Q285" s="6"/>
+      <c r="R285" s="5"/>
+      <c r="S285" s="14"/>
+    </row>
+    <row r="286" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A286" s="13"/>
+      <c r="B286" s="4"/>
+      <c r="C286" s="5"/>
+      <c r="D286" s="5"/>
+      <c r="E286" s="5"/>
+      <c r="F286" s="5"/>
+      <c r="G286" s="5"/>
+      <c r="H286" s="5"/>
+      <c r="I286" s="5"/>
+      <c r="J286" s="5"/>
+      <c r="K286" s="5"/>
+      <c r="L286" s="5"/>
+      <c r="M286" s="5"/>
+      <c r="N286" s="5"/>
+      <c r="O286" s="5"/>
+      <c r="P286" s="5"/>
+      <c r="Q286" s="6"/>
+      <c r="R286" s="5"/>
+      <c r="S286" s="14"/>
+    </row>
+    <row r="287" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A287" s="13"/>
+      <c r="B287" s="4"/>
+      <c r="C287" s="5"/>
+      <c r="D287" s="5"/>
+      <c r="E287" s="5"/>
+      <c r="F287" s="5"/>
+      <c r="G287" s="5"/>
+      <c r="H287" s="5"/>
+      <c r="I287" s="5"/>
+      <c r="J287" s="5"/>
+      <c r="K287" s="5"/>
+      <c r="L287" s="5"/>
+      <c r="M287" s="5"/>
+      <c r="N287" s="5"/>
+      <c r="O287" s="5"/>
+      <c r="P287" s="5"/>
+      <c r="Q287" s="6"/>
+      <c r="R287" s="5"/>
+      <c r="S287" s="14"/>
+    </row>
+    <row r="288" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A288" s="13"/>
+      <c r="B288" s="4"/>
+      <c r="C288" s="5"/>
+      <c r="D288" s="5"/>
+      <c r="E288" s="5"/>
+      <c r="F288" s="5"/>
+      <c r="G288" s="5"/>
+      <c r="H288" s="5"/>
+      <c r="I288" s="5"/>
+      <c r="J288" s="5"/>
+      <c r="K288" s="5"/>
+      <c r="L288" s="5"/>
+      <c r="M288" s="5"/>
+      <c r="N288" s="5"/>
+      <c r="O288" s="5"/>
+      <c r="P288" s="5"/>
+      <c r="Q288" s="6"/>
+      <c r="R288" s="5"/>
+      <c r="S288" s="14"/>
+    </row>
+    <row r="289" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A289" s="13"/>
+      <c r="B289" s="4"/>
+      <c r="C289" s="5"/>
+      <c r="D289" s="5"/>
+      <c r="E289" s="5"/>
+      <c r="F289" s="5"/>
+      <c r="G289" s="5"/>
+      <c r="H289" s="5"/>
+      <c r="I289" s="5"/>
+      <c r="J289" s="5"/>
+      <c r="K289" s="5"/>
+      <c r="L289" s="5"/>
+      <c r="M289" s="5"/>
+      <c r="N289" s="5"/>
+      <c r="O289" s="5"/>
+      <c r="P289" s="5"/>
+      <c r="Q289" s="6"/>
+      <c r="R289" s="5"/>
+      <c r="S289" s="14"/>
+    </row>
+    <row r="290" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A290" s="13"/>
+      <c r="B290" s="7"/>
+      <c r="C290" s="8"/>
+      <c r="D290" s="8"/>
+      <c r="E290" s="8"/>
+      <c r="F290" s="8"/>
+      <c r="G290" s="8"/>
+      <c r="H290" s="8"/>
+      <c r="I290" s="8"/>
+      <c r="J290" s="8"/>
+      <c r="K290" s="8"/>
+      <c r="L290" s="8"/>
+      <c r="M290" s="8"/>
+      <c r="N290" s="8"/>
+      <c r="O290" s="8"/>
+      <c r="P290" s="8"/>
+      <c r="Q290" s="9"/>
+      <c r="R290" s="5"/>
+      <c r="S290" s="14"/>
+    </row>
+    <row r="291" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A291" s="13"/>
+      <c r="B291" s="5"/>
+      <c r="C291" s="5"/>
+      <c r="D291" s="5"/>
+      <c r="E291" s="5"/>
+      <c r="F291" s="5"/>
+      <c r="G291" s="5"/>
+      <c r="H291" s="5"/>
+      <c r="I291" s="5"/>
+      <c r="J291" s="5"/>
+      <c r="K291" s="5"/>
+      <c r="L291" s="5"/>
+      <c r="M291" s="5"/>
+      <c r="N291" s="5"/>
+      <c r="O291" s="5"/>
+      <c r="P291" s="5"/>
+      <c r="Q291" s="5"/>
+      <c r="R291" s="5"/>
+      <c r="S291" s="14"/>
+    </row>
+    <row r="292" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A292" s="13"/>
+      <c r="B292" s="5"/>
+      <c r="C292" s="5"/>
+      <c r="D292" s="5"/>
+      <c r="E292" s="5"/>
+      <c r="F292" s="5"/>
+      <c r="G292" s="5"/>
+      <c r="H292" s="5"/>
+      <c r="I292" s="5"/>
+      <c r="J292" s="5"/>
+      <c r="K292" s="5"/>
+      <c r="L292" s="5"/>
+      <c r="M292" s="5"/>
+      <c r="N292" s="5"/>
+      <c r="O292" s="5"/>
+      <c r="P292" s="5"/>
+      <c r="Q292" s="5"/>
+      <c r="R292" s="5"/>
+      <c r="S292" s="14"/>
+    </row>
+    <row r="293" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A293" s="13"/>
+      <c r="B293" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C293" s="2"/>
+      <c r="D293" s="2"/>
+      <c r="E293" s="2"/>
+      <c r="F293" s="2"/>
+      <c r="G293" s="2"/>
+      <c r="H293" s="2"/>
+      <c r="I293" s="2"/>
+      <c r="J293" s="2"/>
+      <c r="K293" s="2"/>
+      <c r="L293" s="2"/>
+      <c r="M293" s="2"/>
+      <c r="N293" s="2"/>
+      <c r="O293" s="2"/>
+      <c r="P293" s="2"/>
+      <c r="Q293" s="2"/>
+      <c r="R293" s="3"/>
+      <c r="S293" s="14"/>
+    </row>
+    <row r="294" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A294" s="13"/>
+      <c r="B294" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C294" s="5"/>
+      <c r="D294" s="5"/>
+      <c r="E294" s="5"/>
+      <c r="F294" s="5"/>
+      <c r="G294" s="5"/>
+      <c r="H294" s="5"/>
+      <c r="I294" s="5"/>
+      <c r="J294" s="5"/>
+      <c r="K294" s="5"/>
+      <c r="L294" s="5"/>
+      <c r="M294" s="5"/>
+      <c r="N294" s="5"/>
+      <c r="O294" s="5"/>
+      <c r="P294" s="5"/>
+      <c r="Q294" s="5"/>
+      <c r="R294" s="6"/>
+      <c r="S294" s="14"/>
+    </row>
+    <row r="295" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A295" s="13"/>
+      <c r="B295" s="4"/>
+      <c r="C295" s="5"/>
+      <c r="D295" s="5"/>
+      <c r="E295" s="5"/>
+      <c r="F295" s="5"/>
+      <c r="G295" s="5"/>
+      <c r="H295" s="5"/>
+      <c r="I295" s="5"/>
+      <c r="J295" s="5"/>
+      <c r="K295" s="5"/>
+      <c r="L295" s="5"/>
+      <c r="M295" s="5"/>
+      <c r="N295" s="5"/>
+      <c r="O295" s="5"/>
+      <c r="P295" s="5"/>
+      <c r="Q295" s="5"/>
+      <c r="R295" s="6"/>
+      <c r="S295" s="14"/>
+    </row>
+    <row r="296" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A296" s="13"/>
+      <c r="B296" s="4"/>
+      <c r="C296" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="D296" s="5"/>
+      <c r="E296" s="5"/>
+      <c r="F296" s="5"/>
+      <c r="G296" s="5"/>
+      <c r="H296" s="5"/>
+      <c r="I296" s="5"/>
+      <c r="J296" s="5"/>
+      <c r="K296" s="5"/>
+      <c r="L296" s="5"/>
+      <c r="M296" s="5"/>
+      <c r="N296" s="5"/>
+      <c r="O296" s="5"/>
+      <c r="P296" s="5"/>
+      <c r="Q296" s="5"/>
+      <c r="R296" s="6"/>
+      <c r="S296" s="14"/>
+    </row>
+    <row r="297" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A297" s="13"/>
+      <c r="B297" s="4"/>
+      <c r="C297" s="5"/>
+      <c r="D297" s="5"/>
+      <c r="E297" s="5"/>
+      <c r="F297" s="5"/>
+      <c r="G297" s="5"/>
+      <c r="H297" s="5"/>
+      <c r="I297" s="5"/>
+      <c r="J297" s="5"/>
+      <c r="K297" s="5"/>
+      <c r="L297" s="5"/>
+      <c r="M297" s="5"/>
+      <c r="N297" s="5"/>
+      <c r="O297" s="5"/>
+      <c r="P297" s="5"/>
+      <c r="Q297" s="5"/>
+      <c r="R297" s="6"/>
+      <c r="S297" s="14"/>
+    </row>
+    <row r="298" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A298" s="13"/>
+      <c r="B298" s="4"/>
+      <c r="C298" s="5"/>
+      <c r="D298" s="5"/>
+      <c r="E298" s="5"/>
+      <c r="F298" s="5"/>
+      <c r="G298" s="5"/>
+      <c r="H298" s="5"/>
+      <c r="I298" s="5"/>
+      <c r="J298" s="5"/>
+      <c r="K298" s="5"/>
+      <c r="L298" s="5"/>
+      <c r="M298" s="5"/>
+      <c r="N298" s="5"/>
+      <c r="O298" s="5"/>
+      <c r="P298" s="5"/>
+      <c r="Q298" s="5"/>
+      <c r="R298" s="6"/>
+      <c r="S298" s="14"/>
+    </row>
+    <row r="299" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A299" s="13"/>
+      <c r="B299" s="4"/>
+      <c r="C299" s="5"/>
+      <c r="D299" s="5"/>
+      <c r="E299" s="5"/>
+      <c r="F299" s="5"/>
+      <c r="G299" s="5"/>
+      <c r="H299" s="5"/>
+      <c r="I299" s="5"/>
+      <c r="J299" s="5"/>
+      <c r="K299" s="5"/>
+      <c r="L299" s="5"/>
+      <c r="M299" s="5"/>
+      <c r="N299" s="5"/>
+      <c r="O299" s="5"/>
+      <c r="P299" s="5"/>
+      <c r="Q299" s="5"/>
+      <c r="R299" s="6"/>
+      <c r="S299" s="14"/>
+    </row>
+    <row r="300" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A300" s="13"/>
+      <c r="B300" s="4"/>
+      <c r="C300" s="5"/>
+      <c r="D300" s="5"/>
+      <c r="E300" s="5"/>
+      <c r="F300" s="5"/>
+      <c r="G300" s="5"/>
+      <c r="H300" s="5"/>
+      <c r="I300" s="5"/>
+      <c r="J300" s="5"/>
+      <c r="K300" s="5"/>
+      <c r="L300" s="5"/>
+      <c r="M300" s="5"/>
+      <c r="N300" s="5"/>
+      <c r="O300" s="5"/>
+      <c r="P300" s="5"/>
+      <c r="Q300" s="5"/>
+      <c r="R300" s="6"/>
+      <c r="S300" s="14"/>
+    </row>
+    <row r="301" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A301" s="13"/>
+      <c r="B301" s="4"/>
+      <c r="C301" s="5"/>
+      <c r="D301" s="5"/>
+      <c r="E301" s="5"/>
+      <c r="F301" s="5"/>
+      <c r="G301" s="5"/>
+      <c r="H301" s="5"/>
+      <c r="I301" s="5"/>
+      <c r="J301" s="5"/>
+      <c r="K301" s="5"/>
+      <c r="L301" s="5"/>
+      <c r="M301" s="5"/>
+      <c r="N301" s="5"/>
+      <c r="O301" s="5"/>
+      <c r="P301" s="5"/>
+      <c r="Q301" s="5"/>
+      <c r="R301" s="6"/>
+      <c r="S301" s="14"/>
+    </row>
+    <row r="302" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A302" s="13"/>
+      <c r="B302" s="4"/>
+      <c r="C302" s="5"/>
+      <c r="D302" s="5"/>
+      <c r="E302" s="5"/>
+      <c r="F302" s="5"/>
+      <c r="G302" s="5"/>
+      <c r="H302" s="5"/>
+      <c r="I302" s="5"/>
+      <c r="J302" s="5"/>
+      <c r="K302" s="5"/>
+      <c r="L302" s="5"/>
+      <c r="M302" s="5"/>
+      <c r="N302" s="5"/>
+      <c r="O302" s="5"/>
+      <c r="P302" s="5"/>
+      <c r="Q302" s="5"/>
+      <c r="R302" s="6"/>
+      <c r="S302" s="14"/>
+    </row>
+    <row r="303" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A303" s="13"/>
+      <c r="B303" s="4"/>
+      <c r="C303" s="5"/>
+      <c r="D303" s="5"/>
+      <c r="E303" s="5"/>
+      <c r="F303" s="5"/>
+      <c r="G303" s="5"/>
+      <c r="H303" s="5"/>
+      <c r="I303" s="5"/>
+      <c r="J303" s="5"/>
+      <c r="K303" s="5"/>
+      <c r="L303" s="5"/>
+      <c r="M303" s="5"/>
+      <c r="N303" s="5"/>
+      <c r="O303" s="5"/>
+      <c r="P303" s="5"/>
+      <c r="Q303" s="5"/>
+      <c r="R303" s="6"/>
+      <c r="S303" s="14"/>
+    </row>
+    <row r="304" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A304" s="13"/>
+      <c r="B304" s="4"/>
+      <c r="C304" s="5"/>
+      <c r="D304" s="5"/>
+      <c r="E304" s="5"/>
+      <c r="F304" s="5"/>
+      <c r="G304" s="5"/>
+      <c r="H304" s="5"/>
+      <c r="I304" s="5"/>
+      <c r="J304" s="5"/>
+      <c r="K304" s="5"/>
+      <c r="L304" s="5"/>
+      <c r="M304" s="5"/>
+      <c r="N304" s="5"/>
+      <c r="O304" s="5"/>
+      <c r="P304" s="5"/>
+      <c r="Q304" s="5"/>
+      <c r="R304" s="6"/>
+      <c r="S304" s="14"/>
+    </row>
+    <row r="305" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A305" s="13"/>
+      <c r="B305" s="4"/>
+      <c r="C305" s="5"/>
+      <c r="D305" s="5"/>
+      <c r="E305" s="5"/>
+      <c r="F305" s="5"/>
+      <c r="G305" s="5"/>
+      <c r="H305" s="5"/>
+      <c r="I305" s="5"/>
+      <c r="J305" s="5"/>
+      <c r="K305" s="5"/>
+      <c r="L305" s="5"/>
+      <c r="M305" s="5"/>
+      <c r="N305" s="5"/>
+      <c r="O305" s="5"/>
+      <c r="P305" s="5"/>
+      <c r="Q305" s="5"/>
+      <c r="R305" s="6"/>
+      <c r="S305" s="14"/>
+    </row>
+    <row r="306" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A306" s="13"/>
+      <c r="B306" s="4"/>
+      <c r="C306" s="5"/>
+      <c r="D306" s="5"/>
+      <c r="E306" s="5"/>
+      <c r="F306" s="5"/>
+      <c r="G306" s="5"/>
+      <c r="H306" s="5"/>
+      <c r="I306" s="5"/>
+      <c r="J306" s="5"/>
+      <c r="K306" s="5"/>
+      <c r="L306" s="5"/>
+      <c r="M306" s="5"/>
+      <c r="N306" s="5"/>
+      <c r="O306" s="5"/>
+      <c r="P306" s="5"/>
+      <c r="Q306" s="5"/>
+      <c r="R306" s="6"/>
+      <c r="S306" s="14"/>
+    </row>
+    <row r="307" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A307" s="13"/>
+      <c r="B307" s="4"/>
+      <c r="C307" s="5"/>
+      <c r="D307" s="5"/>
+      <c r="E307" s="5"/>
+      <c r="F307" s="5"/>
+      <c r="G307" s="5"/>
+      <c r="H307" s="5"/>
+      <c r="I307" s="5"/>
+      <c r="J307" s="5"/>
+      <c r="K307" s="5"/>
+      <c r="L307" s="5"/>
+      <c r="M307" s="5"/>
+      <c r="N307" s="5"/>
+      <c r="O307" s="5"/>
+      <c r="P307" s="5"/>
+      <c r="Q307" s="5"/>
+      <c r="R307" s="6"/>
+      <c r="S307" s="14"/>
+    </row>
+    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A308" s="13"/>
+      <c r="B308" s="4"/>
+      <c r="C308" s="5"/>
+      <c r="D308" s="5"/>
+      <c r="E308" s="5"/>
+      <c r="F308" s="5"/>
+      <c r="G308" s="5"/>
+      <c r="H308" s="5"/>
+      <c r="I308" s="5"/>
+      <c r="J308" s="5"/>
+      <c r="K308" s="5"/>
+      <c r="L308" s="5"/>
+      <c r="M308" s="5"/>
+      <c r="N308" s="5"/>
+      <c r="O308" s="5"/>
+      <c r="P308" s="5"/>
+      <c r="Q308" s="5"/>
+      <c r="R308" s="6"/>
+      <c r="S308" s="14"/>
+    </row>
+    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A309" s="13"/>
+      <c r="B309" s="4"/>
+      <c r="C309" s="5"/>
+      <c r="D309" s="5"/>
+      <c r="E309" s="5"/>
+      <c r="F309" s="5"/>
+      <c r="G309" s="5"/>
+      <c r="H309" s="5"/>
+      <c r="I309" s="5"/>
+      <c r="J309" s="5"/>
+      <c r="K309" s="5"/>
+      <c r="L309" s="5"/>
+      <c r="M309" s="5"/>
+      <c r="N309" s="5"/>
+      <c r="O309" s="5"/>
+      <c r="P309" s="5"/>
+      <c r="Q309" s="5"/>
+      <c r="R309" s="6"/>
+      <c r="S309" s="14"/>
+    </row>
+    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A310" s="13"/>
+      <c r="B310" s="4"/>
+      <c r="C310" s="5"/>
+      <c r="D310" s="5"/>
+      <c r="E310" s="5"/>
+      <c r="F310" s="5"/>
+      <c r="G310" s="5"/>
+      <c r="H310" s="5"/>
+      <c r="I310" s="5"/>
+      <c r="J310" s="5"/>
+      <c r="K310" s="5"/>
+      <c r="L310" s="5"/>
+      <c r="M310" s="5"/>
+      <c r="N310" s="5"/>
+      <c r="O310" s="5"/>
+      <c r="P310" s="5"/>
+      <c r="Q310" s="5"/>
+      <c r="R310" s="6"/>
+      <c r="S310" s="14"/>
+    </row>
+    <row r="311" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A311" s="13"/>
+      <c r="B311" s="4"/>
+      <c r="C311" s="5"/>
+      <c r="D311" s="5"/>
+      <c r="E311" s="5"/>
+      <c r="F311" s="5"/>
+      <c r="G311" s="5"/>
+      <c r="H311" s="5"/>
+      <c r="I311" s="5"/>
+      <c r="J311" s="5"/>
+      <c r="K311" s="5"/>
+      <c r="L311" s="5"/>
+      <c r="M311" s="5"/>
+      <c r="N311" s="5"/>
+      <c r="O311" s="5"/>
+      <c r="P311" s="5"/>
+      <c r="Q311" s="5"/>
+      <c r="R311" s="6"/>
+      <c r="S311" s="14"/>
+    </row>
+    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A312" s="13"/>
+      <c r="B312" s="4"/>
+      <c r="C312" s="5"/>
+      <c r="D312" s="5"/>
+      <c r="E312" s="5"/>
+      <c r="F312" s="5"/>
+      <c r="G312" s="5"/>
+      <c r="H312" s="5"/>
+      <c r="I312" s="5"/>
+      <c r="J312" s="5"/>
+      <c r="K312" s="5"/>
+      <c r="L312" s="5"/>
+      <c r="M312" s="5"/>
+      <c r="N312" s="5"/>
+      <c r="O312" s="5"/>
+      <c r="P312" s="5"/>
+      <c r="Q312" s="5"/>
+      <c r="R312" s="6"/>
+      <c r="S312" s="14"/>
+    </row>
+    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A313" s="13"/>
+      <c r="B313" s="4"/>
+      <c r="C313" s="5"/>
+      <c r="D313" s="5"/>
+      <c r="E313" s="5"/>
+      <c r="F313" s="5"/>
+      <c r="G313" s="5"/>
+      <c r="H313" s="5"/>
+      <c r="I313" s="5"/>
+      <c r="J313" s="5"/>
+      <c r="K313" s="5"/>
+      <c r="L313" s="5"/>
+      <c r="M313" s="5"/>
+      <c r="N313" s="5"/>
+      <c r="O313" s="5"/>
+      <c r="P313" s="5"/>
+      <c r="Q313" s="5"/>
+      <c r="R313" s="6"/>
+      <c r="S313" s="14"/>
+    </row>
+    <row r="314" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A314" s="13"/>
+      <c r="B314" s="4"/>
+      <c r="C314" s="5"/>
+      <c r="D314" s="5"/>
+      <c r="E314" s="5"/>
+      <c r="F314" s="5"/>
+      <c r="G314" s="5"/>
+      <c r="H314" s="5"/>
+      <c r="I314" s="5"/>
+      <c r="J314" s="5"/>
+      <c r="K314" s="5"/>
+      <c r="L314" s="5"/>
+      <c r="M314" s="5"/>
+      <c r="N314" s="5"/>
+      <c r="O314" s="5"/>
+      <c r="P314" s="5"/>
+      <c r="Q314" s="5"/>
+      <c r="R314" s="6"/>
+      <c r="S314" s="14"/>
+    </row>
+    <row r="315" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A315" s="13"/>
+      <c r="B315" s="4"/>
+      <c r="C315" s="5"/>
+      <c r="D315" s="5"/>
+      <c r="E315" s="5"/>
+      <c r="F315" s="5"/>
+      <c r="G315" s="5"/>
+      <c r="H315" s="5"/>
+      <c r="I315" s="5"/>
+      <c r="J315" s="5"/>
+      <c r="K315" s="5"/>
+      <c r="L315" s="5"/>
+      <c r="M315" s="5"/>
+      <c r="N315" s="5"/>
+      <c r="O315" s="5"/>
+      <c r="P315" s="5"/>
+      <c r="Q315" s="5"/>
+      <c r="R315" s="6"/>
+      <c r="S315" s="14"/>
+    </row>
+    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A316" s="13"/>
+      <c r="B316" s="4"/>
+      <c r="C316" s="5"/>
+      <c r="D316" s="5"/>
+      <c r="E316" s="5"/>
+      <c r="F316" s="5"/>
+      <c r="G316" s="5"/>
+      <c r="H316" s="5"/>
+      <c r="I316" s="5"/>
+      <c r="J316" s="5"/>
+      <c r="K316" s="5"/>
+      <c r="L316" s="5"/>
+      <c r="M316" s="5"/>
+      <c r="N316" s="5"/>
+      <c r="O316" s="5"/>
+      <c r="P316" s="5"/>
+      <c r="Q316" s="5"/>
+      <c r="R316" s="6"/>
+      <c r="S316" s="14"/>
+    </row>
+    <row r="317" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A317" s="13"/>
+      <c r="B317" s="4"/>
+      <c r="C317" s="5"/>
+      <c r="D317" s="5"/>
+      <c r="E317" s="5"/>
+      <c r="F317" s="5"/>
+      <c r="G317" s="5"/>
+      <c r="H317" s="5"/>
+      <c r="I317" s="5"/>
+      <c r="J317" s="5"/>
+      <c r="K317" s="5"/>
+      <c r="L317" s="5"/>
+      <c r="M317" s="5"/>
+      <c r="N317" s="5"/>
+      <c r="O317" s="5"/>
+      <c r="P317" s="5"/>
+      <c r="Q317" s="5"/>
+      <c r="R317" s="6"/>
+      <c r="S317" s="14"/>
+    </row>
+    <row r="318" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A318" s="13"/>
+      <c r="B318" s="4"/>
+      <c r="C318" s="5"/>
+      <c r="D318" s="5"/>
+      <c r="E318" s="5"/>
+      <c r="F318" s="5"/>
+      <c r="G318" s="5"/>
+      <c r="H318" s="5"/>
+      <c r="I318" s="5"/>
+      <c r="J318" s="5"/>
+      <c r="K318" s="5"/>
+      <c r="L318" s="5"/>
+      <c r="M318" s="5"/>
+      <c r="N318" s="5"/>
+      <c r="O318" s="5"/>
+      <c r="P318" s="5"/>
+      <c r="Q318" s="5"/>
+      <c r="R318" s="6"/>
+      <c r="S318" s="14"/>
+    </row>
+    <row r="319" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A319" s="13"/>
+      <c r="B319" s="4"/>
+      <c r="C319" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D319" s="5"/>
+      <c r="E319" s="5"/>
+      <c r="F319" s="5"/>
+      <c r="G319" s="5"/>
+      <c r="H319" s="5"/>
+      <c r="I319" s="5"/>
+      <c r="J319" s="5"/>
+      <c r="K319" s="5"/>
+      <c r="L319" s="5"/>
+      <c r="M319" s="5"/>
+      <c r="N319" s="5"/>
+      <c r="O319" s="5"/>
+      <c r="P319" s="5"/>
+      <c r="Q319" s="5"/>
+      <c r="R319" s="6"/>
+      <c r="S319" s="14"/>
+    </row>
+    <row r="320" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A320" s="13"/>
+      <c r="B320" s="4"/>
+      <c r="C320" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D320" s="5"/>
+      <c r="E320" s="5"/>
+      <c r="F320" s="5"/>
+      <c r="G320" s="5"/>
+      <c r="H320" s="5"/>
+      <c r="I320" s="5"/>
+      <c r="J320" s="5"/>
+      <c r="K320" s="5"/>
+      <c r="L320" s="5"/>
+      <c r="M320" s="5"/>
+      <c r="N320" s="5"/>
+      <c r="O320" s="5"/>
+      <c r="P320" s="5"/>
+      <c r="Q320" s="5"/>
+      <c r="R320" s="6"/>
+      <c r="S320" s="14"/>
+    </row>
+    <row r="321" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A321" s="13"/>
+      <c r="B321" s="4"/>
+      <c r="C321" s="5"/>
+      <c r="D321" s="5"/>
+      <c r="E321" s="5"/>
+      <c r="F321" s="5"/>
+      <c r="G321" s="5"/>
+      <c r="H321" s="5"/>
+      <c r="I321" s="5"/>
+      <c r="J321" s="5"/>
+      <c r="K321" s="5"/>
+      <c r="L321" s="5"/>
+      <c r="M321" s="5"/>
+      <c r="N321" s="5"/>
+      <c r="O321" s="5"/>
+      <c r="P321" s="5"/>
+      <c r="Q321" s="5"/>
+      <c r="R321" s="6"/>
+      <c r="S321" s="14"/>
+    </row>
+    <row r="322" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A322" s="13"/>
+      <c r="B322" s="4"/>
+      <c r="C322" s="5"/>
+      <c r="D322" s="5"/>
+      <c r="E322" s="5"/>
+      <c r="F322" s="5"/>
+      <c r="G322" s="5"/>
+      <c r="H322" s="5"/>
+      <c r="I322" s="5"/>
+      <c r="J322" s="5"/>
+      <c r="K322" s="5"/>
+      <c r="L322" s="5"/>
+      <c r="M322" s="5"/>
+      <c r="N322" s="5"/>
+      <c r="O322" s="5"/>
+      <c r="P322" s="5"/>
+      <c r="Q322" s="5"/>
+      <c r="R322" s="6"/>
+      <c r="S322" s="14"/>
+    </row>
+    <row r="323" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A323" s="13"/>
+      <c r="B323" s="4"/>
+      <c r="C323" s="5"/>
+      <c r="D323" s="5"/>
+      <c r="E323" s="5"/>
+      <c r="F323" s="5"/>
+      <c r="G323" s="5"/>
+      <c r="H323" s="5"/>
+      <c r="I323" s="5"/>
+      <c r="J323" s="5"/>
+      <c r="K323" s="5"/>
+      <c r="L323" s="5"/>
+      <c r="M323" s="5"/>
+      <c r="N323" s="5"/>
+      <c r="O323" s="5"/>
+      <c r="P323" s="5"/>
+      <c r="Q323" s="5"/>
+      <c r="R323" s="6"/>
+      <c r="S323" s="14"/>
+    </row>
+    <row r="324" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A324" s="13"/>
+      <c r="B324" s="4"/>
+      <c r="C324" s="5"/>
+      <c r="D324" s="5"/>
+      <c r="E324" s="5"/>
+      <c r="F324" s="5"/>
+      <c r="G324" s="5"/>
+      <c r="H324" s="5"/>
+      <c r="I324" s="5"/>
+      <c r="J324" s="5"/>
+      <c r="K324" s="5"/>
+      <c r="L324" s="5"/>
+      <c r="M324" s="5"/>
+      <c r="N324" s="5"/>
+      <c r="O324" s="5"/>
+      <c r="P324" s="5"/>
+      <c r="Q324" s="5"/>
+      <c r="R324" s="6"/>
+      <c r="S324" s="14"/>
+    </row>
+    <row r="325" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A325" s="13"/>
+      <c r="B325" s="4"/>
+      <c r="C325" s="5"/>
+      <c r="D325" s="5"/>
+      <c r="E325" s="5"/>
+      <c r="F325" s="5"/>
+      <c r="G325" s="5"/>
+      <c r="H325" s="5"/>
+      <c r="I325" s="5"/>
+      <c r="J325" s="5"/>
+      <c r="K325" s="5"/>
+      <c r="L325" s="5"/>
+      <c r="M325" s="5"/>
+      <c r="N325" s="5"/>
+      <c r="O325" s="5"/>
+      <c r="P325" s="5"/>
+      <c r="Q325" s="5"/>
+      <c r="R325" s="6"/>
+      <c r="S325" s="14"/>
+    </row>
+    <row r="326" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A326" s="13"/>
+      <c r="B326" s="4"/>
+      <c r="C326" s="5"/>
+      <c r="D326" s="5"/>
+      <c r="E326" s="5"/>
+      <c r="F326" s="5"/>
+      <c r="G326" s="5"/>
+      <c r="H326" s="5"/>
+      <c r="I326" s="5"/>
+      <c r="J326" s="5"/>
+      <c r="K326" s="5"/>
+      <c r="L326" s="5"/>
+      <c r="M326" s="5"/>
+      <c r="N326" s="5"/>
+      <c r="O326" s="5"/>
+      <c r="P326" s="5"/>
+      <c r="Q326" s="5"/>
+      <c r="R326" s="6"/>
+      <c r="S326" s="14"/>
+    </row>
+    <row r="327" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A327" s="13"/>
+      <c r="B327" s="4"/>
+      <c r="C327" s="5"/>
+      <c r="D327" s="5"/>
+      <c r="E327" s="5"/>
+      <c r="F327" s="5"/>
+      <c r="G327" s="5"/>
+      <c r="H327" s="5"/>
+      <c r="I327" s="5"/>
+      <c r="J327" s="5"/>
+      <c r="K327" s="5"/>
+      <c r="L327" s="5"/>
+      <c r="M327" s="5"/>
+      <c r="N327" s="5"/>
+      <c r="O327" s="5"/>
+      <c r="P327" s="5"/>
+      <c r="Q327" s="5"/>
+      <c r="R327" s="6"/>
+      <c r="S327" s="14"/>
+    </row>
+    <row r="328" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A328" s="13"/>
+      <c r="B328" s="4"/>
+      <c r="C328" s="5"/>
+      <c r="D328" s="5"/>
+      <c r="E328" s="5"/>
+      <c r="F328" s="5"/>
+      <c r="G328" s="5"/>
+      <c r="H328" s="5"/>
+      <c r="I328" s="5"/>
+      <c r="J328" s="5"/>
+      <c r="K328" s="5"/>
+      <c r="L328" s="5"/>
+      <c r="M328" s="5"/>
+      <c r="N328" s="5"/>
+      <c r="O328" s="5"/>
+      <c r="P328" s="5"/>
+      <c r="Q328" s="5"/>
+      <c r="R328" s="6"/>
+      <c r="S328" s="14"/>
+    </row>
+    <row r="329" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A329" s="13"/>
+      <c r="B329" s="4"/>
+      <c r="C329" s="5"/>
+      <c r="D329" s="5"/>
+      <c r="E329" s="5"/>
+      <c r="F329" s="5"/>
+      <c r="G329" s="5"/>
+      <c r="H329" s="5"/>
+      <c r="I329" s="5"/>
+      <c r="J329" s="5"/>
+      <c r="K329" s="5"/>
+      <c r="L329" s="5"/>
+      <c r="M329" s="5"/>
+      <c r="N329" s="5"/>
+      <c r="O329" s="5"/>
+      <c r="P329" s="5"/>
+      <c r="Q329" s="5"/>
+      <c r="R329" s="6"/>
+      <c r="S329" s="14"/>
+    </row>
+    <row r="330" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A330" s="13"/>
+      <c r="B330" s="4"/>
+      <c r="C330" s="5"/>
+      <c r="D330" s="5"/>
+      <c r="E330" s="5"/>
+      <c r="F330" s="5"/>
+      <c r="G330" s="5"/>
+      <c r="H330" s="5"/>
+      <c r="I330" s="5"/>
+      <c r="J330" s="5"/>
+      <c r="K330" s="5"/>
+      <c r="L330" s="5"/>
+      <c r="M330" s="5"/>
+      <c r="N330" s="5"/>
+      <c r="O330" s="5"/>
+      <c r="P330" s="5"/>
+      <c r="Q330" s="5"/>
+      <c r="R330" s="6"/>
+      <c r="S330" s="14"/>
+    </row>
+    <row r="331" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A331" s="13"/>
+      <c r="B331" s="4"/>
+      <c r="C331" s="5"/>
+      <c r="D331" s="5"/>
+      <c r="E331" s="5"/>
+      <c r="F331" s="5"/>
+      <c r="G331" s="5"/>
+      <c r="H331" s="5"/>
+      <c r="I331" s="5"/>
+      <c r="J331" s="5"/>
+      <c r="K331" s="5"/>
+      <c r="L331" s="5"/>
+      <c r="M331" s="5"/>
+      <c r="N331" s="5"/>
+      <c r="O331" s="5"/>
+      <c r="P331" s="5"/>
+      <c r="Q331" s="5"/>
+      <c r="R331" s="6"/>
+      <c r="S331" s="14"/>
+    </row>
+    <row r="332" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A332" s="13"/>
+      <c r="B332" s="4"/>
+      <c r="C332" s="5"/>
+      <c r="D332" s="5"/>
+      <c r="E332" s="5"/>
+      <c r="F332" s="5"/>
+      <c r="G332" s="5"/>
+      <c r="H332" s="5"/>
+      <c r="I332" s="5"/>
+      <c r="J332" s="5"/>
+      <c r="K332" s="5"/>
+      <c r="L332" s="5"/>
+      <c r="M332" s="5"/>
+      <c r="N332" s="5"/>
+      <c r="O332" s="5"/>
+      <c r="P332" s="5"/>
+      <c r="Q332" s="5"/>
+      <c r="R332" s="6"/>
+      <c r="S332" s="14"/>
+    </row>
+    <row r="333" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A333" s="13"/>
+      <c r="B333" s="4"/>
+      <c r="C333" s="5"/>
+      <c r="D333" s="5"/>
+      <c r="E333" s="5"/>
+      <c r="F333" s="5"/>
+      <c r="G333" s="5"/>
+      <c r="H333" s="5"/>
+      <c r="I333" s="5"/>
+      <c r="J333" s="5"/>
+      <c r="K333" s="5"/>
+      <c r="L333" s="5"/>
+      <c r="M333" s="5"/>
+      <c r="N333" s="5"/>
+      <c r="O333" s="5"/>
+      <c r="P333" s="5"/>
+      <c r="Q333" s="5"/>
+      <c r="R333" s="6"/>
+      <c r="S333" s="14"/>
+    </row>
+    <row r="334" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A334" s="13"/>
+      <c r="B334" s="4"/>
+      <c r="C334" s="5"/>
+      <c r="D334" s="5"/>
+      <c r="E334" s="5"/>
+      <c r="F334" s="5"/>
+      <c r="G334" s="5"/>
+      <c r="H334" s="5"/>
+      <c r="I334" s="5"/>
+      <c r="J334" s="5"/>
+      <c r="K334" s="5"/>
+      <c r="L334" s="5"/>
+      <c r="M334" s="5"/>
+      <c r="N334" s="5"/>
+      <c r="O334" s="5"/>
+      <c r="P334" s="5"/>
+      <c r="Q334" s="5"/>
+      <c r="R334" s="6"/>
+      <c r="S334" s="14"/>
+    </row>
+    <row r="335" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A335" s="13"/>
+      <c r="B335" s="4"/>
+      <c r="C335" s="5"/>
+      <c r="D335" s="5"/>
+      <c r="E335" s="5"/>
+      <c r="F335" s="5"/>
+      <c r="G335" s="5"/>
+      <c r="H335" s="5"/>
+      <c r="I335" s="5"/>
+      <c r="J335" s="5"/>
+      <c r="K335" s="5"/>
+      <c r="L335" s="5"/>
+      <c r="M335" s="5"/>
+      <c r="N335" s="5"/>
+      <c r="O335" s="5"/>
+      <c r="P335" s="5"/>
+      <c r="Q335" s="5"/>
+      <c r="R335" s="6"/>
+      <c r="S335" s="14"/>
+    </row>
+    <row r="336" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A336" s="13"/>
+      <c r="B336" s="4"/>
+      <c r="C336" s="5"/>
+      <c r="D336" s="5"/>
+      <c r="E336" s="5"/>
+      <c r="F336" s="5"/>
+      <c r="G336" s="5"/>
+      <c r="H336" s="5"/>
+      <c r="I336" s="5"/>
+      <c r="J336" s="5"/>
+      <c r="K336" s="5"/>
+      <c r="L336" s="5"/>
+      <c r="M336" s="5"/>
+      <c r="N336" s="5"/>
+      <c r="O336" s="5"/>
+      <c r="P336" s="5"/>
+      <c r="Q336" s="5"/>
+      <c r="R336" s="6"/>
+      <c r="S336" s="14"/>
+    </row>
+    <row r="337" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A337" s="13"/>
+      <c r="B337" s="4"/>
+      <c r="C337" s="5"/>
+      <c r="D337" s="5"/>
+      <c r="E337" s="5"/>
+      <c r="F337" s="5"/>
+      <c r="G337" s="5"/>
+      <c r="H337" s="5"/>
+      <c r="I337" s="5"/>
+      <c r="J337" s="5"/>
+      <c r="K337" s="5"/>
+      <c r="L337" s="5"/>
+      <c r="M337" s="5"/>
+      <c r="N337" s="5"/>
+      <c r="O337" s="5"/>
+      <c r="P337" s="5"/>
+      <c r="Q337" s="5"/>
+      <c r="R337" s="6"/>
+      <c r="S337" s="14"/>
+    </row>
+    <row r="338" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A338" s="13"/>
+      <c r="B338" s="4"/>
+      <c r="C338" s="5"/>
+      <c r="D338" s="5"/>
+      <c r="E338" s="5"/>
+      <c r="F338" s="5"/>
+      <c r="G338" s="5"/>
+      <c r="H338" s="5"/>
+      <c r="I338" s="5"/>
+      <c r="J338" s="5"/>
+      <c r="K338" s="5"/>
+      <c r="L338" s="5"/>
+      <c r="M338" s="5"/>
+      <c r="N338" s="5"/>
+      <c r="O338" s="5"/>
+      <c r="P338" s="5"/>
+      <c r="Q338" s="5"/>
+      <c r="R338" s="6"/>
+      <c r="S338" s="14"/>
+    </row>
+    <row r="339" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A339" s="13"/>
+      <c r="B339" s="4"/>
+      <c r="C339" s="5"/>
+      <c r="D339" s="5"/>
+      <c r="E339" s="5"/>
+      <c r="F339" s="5"/>
+      <c r="G339" s="5"/>
+      <c r="H339" s="5"/>
+      <c r="I339" s="5"/>
+      <c r="J339" s="5"/>
+      <c r="K339" s="5"/>
+      <c r="L339" s="5"/>
+      <c r="M339" s="5"/>
+      <c r="N339" s="5"/>
+      <c r="O339" s="5"/>
+      <c r="P339" s="5"/>
+      <c r="Q339" s="5"/>
+      <c r="R339" s="6"/>
+      <c r="S339" s="14"/>
+    </row>
+    <row r="340" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A340" s="13"/>
+      <c r="B340" s="4"/>
+      <c r="C340" s="5"/>
+      <c r="D340" s="5"/>
+      <c r="E340" s="5"/>
+      <c r="F340" s="5"/>
+      <c r="G340" s="5"/>
+      <c r="H340" s="5"/>
+      <c r="I340" s="5"/>
+      <c r="J340" s="5"/>
+      <c r="K340" s="5"/>
+      <c r="L340" s="5"/>
+      <c r="M340" s="5"/>
+      <c r="N340" s="5"/>
+      <c r="O340" s="5"/>
+      <c r="P340" s="5"/>
+      <c r="Q340" s="5"/>
+      <c r="R340" s="6"/>
+      <c r="S340" s="14"/>
+    </row>
+    <row r="341" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A341" s="13"/>
+      <c r="B341" s="4"/>
+      <c r="C341" s="5"/>
+      <c r="D341" s="5"/>
+      <c r="E341" s="5"/>
+      <c r="F341" s="5"/>
+      <c r="G341" s="5"/>
+      <c r="H341" s="5"/>
+      <c r="I341" s="5"/>
+      <c r="J341" s="5"/>
+      <c r="K341" s="5"/>
+      <c r="L341" s="5"/>
+      <c r="M341" s="5"/>
+      <c r="N341" s="5"/>
+      <c r="O341" s="5"/>
+      <c r="P341" s="5"/>
+      <c r="Q341" s="5"/>
+      <c r="R341" s="6"/>
+      <c r="S341" s="14"/>
+    </row>
+    <row r="342" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A342" s="13"/>
+      <c r="B342" s="4"/>
+      <c r="C342" s="5"/>
+      <c r="D342" s="5"/>
+      <c r="E342" s="5"/>
+      <c r="F342" s="5"/>
+      <c r="G342" s="5"/>
+      <c r="H342" s="5"/>
+      <c r="I342" s="5"/>
+      <c r="J342" s="5"/>
+      <c r="K342" s="5"/>
+      <c r="L342" s="5"/>
+      <c r="M342" s="5"/>
+      <c r="N342" s="5"/>
+      <c r="O342" s="5"/>
+      <c r="P342" s="5"/>
+      <c r="Q342" s="5"/>
+      <c r="R342" s="6"/>
+      <c r="S342" s="14"/>
+    </row>
+    <row r="343" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A343" s="13"/>
+      <c r="B343" s="4"/>
+      <c r="C343" s="5"/>
+      <c r="D343" s="5"/>
+      <c r="E343" s="5"/>
+      <c r="F343" s="5"/>
+      <c r="G343" s="5"/>
+      <c r="H343" s="5"/>
+      <c r="I343" s="5"/>
+      <c r="J343" s="5"/>
+      <c r="K343" s="5"/>
+      <c r="L343" s="5"/>
+      <c r="M343" s="5"/>
+      <c r="N343" s="5"/>
+      <c r="O343" s="5"/>
+      <c r="P343" s="5"/>
+      <c r="Q343" s="5"/>
+      <c r="R343" s="6"/>
+      <c r="S343" s="14"/>
+    </row>
+    <row r="344" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A344" s="13"/>
+      <c r="B344" s="4"/>
+      <c r="C344" s="5"/>
+      <c r="D344" s="5"/>
+      <c r="E344" s="5"/>
+      <c r="F344" s="5"/>
+      <c r="G344" s="5"/>
+      <c r="H344" s="5"/>
+      <c r="I344" s="5"/>
+      <c r="J344" s="5"/>
+      <c r="K344" s="5"/>
+      <c r="L344" s="5"/>
+      <c r="M344" s="5"/>
+      <c r="N344" s="5"/>
+      <c r="O344" s="5"/>
+      <c r="P344" s="5"/>
+      <c r="Q344" s="5"/>
+      <c r="R344" s="6"/>
+      <c r="S344" s="14"/>
+    </row>
+    <row r="345" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A345" s="13"/>
+      <c r="B345" s="4"/>
+      <c r="C345" s="5"/>
+      <c r="D345" s="5"/>
+      <c r="E345" s="5"/>
+      <c r="F345" s="5"/>
+      <c r="G345" s="5"/>
+      <c r="H345" s="5"/>
+      <c r="I345" s="5"/>
+      <c r="J345" s="5"/>
+      <c r="K345" s="5"/>
+      <c r="L345" s="5"/>
+      <c r="M345" s="5"/>
+      <c r="N345" s="5"/>
+      <c r="O345" s="5"/>
+      <c r="P345" s="5"/>
+      <c r="Q345" s="5"/>
+      <c r="R345" s="6"/>
+      <c r="S345" s="14"/>
+    </row>
+    <row r="346" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A346" s="13"/>
+      <c r="B346" s="4"/>
+      <c r="C346" s="5"/>
+      <c r="D346" s="5"/>
+      <c r="E346" s="5"/>
+      <c r="F346" s="5"/>
+      <c r="G346" s="5"/>
+      <c r="H346" s="5"/>
+      <c r="I346" s="5"/>
+      <c r="J346" s="5"/>
+      <c r="K346" s="5"/>
+      <c r="L346" s="5"/>
+      <c r="M346" s="5"/>
+      <c r="N346" s="5"/>
+      <c r="O346" s="5"/>
+      <c r="P346" s="5"/>
+      <c r="Q346" s="5"/>
+      <c r="R346" s="6"/>
+      <c r="S346" s="14"/>
+    </row>
+    <row r="347" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A347" s="13"/>
+      <c r="B347" s="4"/>
+      <c r="C347" s="5"/>
+      <c r="D347" s="5"/>
+      <c r="E347" s="5"/>
+      <c r="F347" s="5"/>
+      <c r="G347" s="5"/>
+      <c r="H347" s="5"/>
+      <c r="I347" s="5"/>
+      <c r="J347" s="5"/>
+      <c r="K347" s="5"/>
+      <c r="L347" s="5"/>
+      <c r="M347" s="5"/>
+      <c r="N347" s="5"/>
+      <c r="O347" s="5"/>
+      <c r="P347" s="5"/>
+      <c r="Q347" s="5"/>
+      <c r="R347" s="6"/>
+      <c r="S347" s="14"/>
+    </row>
+    <row r="348" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A348" s="13"/>
+      <c r="B348" s="4"/>
+      <c r="C348" s="5"/>
+      <c r="D348" s="5"/>
+      <c r="E348" s="5"/>
+      <c r="F348" s="5"/>
+      <c r="G348" s="5"/>
+      <c r="H348" s="5"/>
+      <c r="I348" s="5"/>
+      <c r="J348" s="5"/>
+      <c r="K348" s="5"/>
+      <c r="L348" s="5"/>
+      <c r="M348" s="5"/>
+      <c r="N348" s="5"/>
+      <c r="O348" s="5"/>
+      <c r="P348" s="5"/>
+      <c r="Q348" s="5"/>
+      <c r="R348" s="6"/>
+      <c r="S348" s="14"/>
+    </row>
+    <row r="349" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A349" s="13"/>
+      <c r="B349" s="4"/>
+      <c r="C349" s="5"/>
+      <c r="D349" s="5"/>
+      <c r="E349" s="5"/>
+      <c r="F349" s="5"/>
+      <c r="G349" s="5"/>
+      <c r="H349" s="5"/>
+      <c r="I349" s="5"/>
+      <c r="J349" s="5"/>
+      <c r="K349" s="5"/>
+      <c r="L349" s="5"/>
+      <c r="M349" s="5"/>
+      <c r="N349" s="5"/>
+      <c r="O349" s="5"/>
+      <c r="P349" s="5"/>
+      <c r="Q349" s="5"/>
+      <c r="R349" s="6"/>
+      <c r="S349" s="14"/>
+    </row>
+    <row r="350" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A350" s="13"/>
+      <c r="B350" s="4"/>
+      <c r="C350" s="5"/>
+      <c r="D350" s="5"/>
+      <c r="E350" s="5"/>
+      <c r="F350" s="5"/>
+      <c r="G350" s="5"/>
+      <c r="H350" s="5"/>
+      <c r="I350" s="5"/>
+      <c r="J350" s="5"/>
+      <c r="K350" s="5"/>
+      <c r="L350" s="5"/>
+      <c r="M350" s="5"/>
+      <c r="N350" s="5"/>
+      <c r="O350" s="5"/>
+      <c r="P350" s="5"/>
+      <c r="Q350" s="5"/>
+      <c r="R350" s="6"/>
+      <c r="S350" s="14"/>
+    </row>
+    <row r="351" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A351" s="13"/>
+      <c r="B351" s="4"/>
+      <c r="C351" s="5"/>
+      <c r="D351" s="5"/>
+      <c r="E351" s="5"/>
+      <c r="F351" s="5"/>
+      <c r="G351" s="5"/>
+      <c r="H351" s="5"/>
+      <c r="I351" s="5"/>
+      <c r="J351" s="5"/>
+      <c r="K351" s="5"/>
+      <c r="L351" s="5"/>
+      <c r="M351" s="5"/>
+      <c r="N351" s="5"/>
+      <c r="O351" s="5"/>
+      <c r="P351" s="5"/>
+      <c r="Q351" s="5"/>
+      <c r="R351" s="6"/>
+      <c r="S351" s="14"/>
+    </row>
+    <row r="352" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A352" s="13"/>
+      <c r="B352" s="4"/>
+      <c r="C352" s="5"/>
+      <c r="D352" s="5"/>
+      <c r="E352" s="5"/>
+      <c r="F352" s="5"/>
+      <c r="G352" s="5"/>
+      <c r="H352" s="5"/>
+      <c r="I352" s="5"/>
+      <c r="J352" s="5"/>
+      <c r="K352" s="5"/>
+      <c r="L352" s="5"/>
+      <c r="M352" s="5"/>
+      <c r="N352" s="5"/>
+      <c r="O352" s="5"/>
+      <c r="P352" s="5"/>
+      <c r="Q352" s="5"/>
+      <c r="R352" s="6"/>
+      <c r="S352" s="14"/>
+    </row>
+    <row r="353" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A353" s="13"/>
+      <c r="B353" s="7"/>
+      <c r="C353" s="8"/>
+      <c r="D353" s="8"/>
+      <c r="E353" s="8"/>
+      <c r="F353" s="8"/>
+      <c r="G353" s="8"/>
+      <c r="H353" s="8"/>
+      <c r="I353" s="8"/>
+      <c r="J353" s="8"/>
+      <c r="K353" s="8"/>
+      <c r="L353" s="8"/>
+      <c r="M353" s="8"/>
+      <c r="N353" s="8"/>
+      <c r="O353" s="8"/>
+      <c r="P353" s="8"/>
+      <c r="Q353" s="8"/>
+      <c r="R353" s="9"/>
+      <c r="S353" s="14"/>
+    </row>
+    <row r="354" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A354" s="13"/>
+      <c r="B354" s="5"/>
+      <c r="C354" s="5"/>
+      <c r="D354" s="5"/>
+      <c r="E354" s="5"/>
+      <c r="F354" s="5"/>
+      <c r="G354" s="5"/>
+      <c r="H354" s="5"/>
+      <c r="I354" s="5"/>
+      <c r="J354" s="5"/>
+      <c r="K354" s="5"/>
+      <c r="L354" s="5"/>
+      <c r="M354" s="5"/>
+      <c r="N354" s="5"/>
+      <c r="O354" s="5"/>
+      <c r="P354" s="5"/>
+      <c r="Q354" s="5"/>
+      <c r="R354" s="5"/>
+      <c r="S354" s="14"/>
+    </row>
+    <row r="355" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A355" s="13"/>
+      <c r="B355" s="5"/>
+      <c r="C355" s="5"/>
+      <c r="D355" s="5"/>
+      <c r="E355" s="5"/>
+      <c r="F355" s="5"/>
+      <c r="G355" s="5"/>
+      <c r="H355" s="5"/>
+      <c r="I355" s="5"/>
+      <c r="J355" s="5"/>
+      <c r="K355" s="5"/>
+      <c r="L355" s="5"/>
+      <c r="M355" s="5"/>
+      <c r="N355" s="5"/>
+      <c r="O355" s="5"/>
+      <c r="P355" s="5"/>
+      <c r="Q355" s="5"/>
+      <c r="R355" s="5"/>
+      <c r="S355" s="14"/>
+    </row>
+    <row r="356" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A356" s="13"/>
+      <c r="B356" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C356" s="2"/>
+      <c r="D356" s="2"/>
+      <c r="E356" s="2"/>
+      <c r="F356" s="2"/>
+      <c r="G356" s="2"/>
+      <c r="H356" s="2"/>
+      <c r="I356" s="2"/>
+      <c r="J356" s="2"/>
+      <c r="K356" s="2"/>
+      <c r="L356" s="2"/>
+      <c r="M356" s="2"/>
+      <c r="N356" s="2"/>
+      <c r="O356" s="2"/>
+      <c r="P356" s="2"/>
+      <c r="Q356" s="3"/>
+      <c r="R356" s="5"/>
+      <c r="S356" s="14"/>
+    </row>
+    <row r="357" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A357" s="13"/>
+      <c r="B357" s="4"/>
+      <c r="C357" s="5"/>
+      <c r="D357" s="5"/>
+      <c r="E357" s="5"/>
+      <c r="F357" s="5"/>
+      <c r="G357" s="5"/>
+      <c r="H357" s="5"/>
+      <c r="I357" s="5"/>
+      <c r="J357" s="5"/>
+      <c r="K357" s="5"/>
+      <c r="L357" s="5"/>
+      <c r="M357" s="5"/>
+      <c r="N357" s="5"/>
+      <c r="O357" s="5"/>
+      <c r="P357" s="5"/>
+      <c r="Q357" s="6"/>
+      <c r="R357" s="5"/>
+      <c r="S357" s="14"/>
+    </row>
+    <row r="358" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A358" s="13"/>
+      <c r="B358" s="4"/>
+      <c r="C358" s="5"/>
+      <c r="D358" s="5"/>
+      <c r="E358" s="5"/>
+      <c r="F358" s="5"/>
+      <c r="G358" s="5"/>
+      <c r="H358" s="5"/>
+      <c r="I358" s="5"/>
+      <c r="J358" s="5"/>
+      <c r="K358" s="5"/>
+      <c r="L358" s="5"/>
+      <c r="M358" s="5"/>
+      <c r="N358" s="5"/>
+      <c r="O358" s="5"/>
+      <c r="P358" s="5"/>
+      <c r="Q358" s="6"/>
+      <c r="R358" s="5"/>
+      <c r="S358" s="14"/>
+    </row>
+    <row r="359" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A359" s="13"/>
+      <c r="B359" s="4"/>
+      <c r="C359" s="5"/>
+      <c r="D359" s="5"/>
+      <c r="E359" s="5"/>
+      <c r="F359" s="5"/>
+      <c r="G359" s="5"/>
+      <c r="H359" s="5"/>
+      <c r="I359" s="5"/>
+      <c r="J359" s="5"/>
+      <c r="K359" s="5"/>
+      <c r="L359" s="5"/>
+      <c r="M359" s="5"/>
+      <c r="N359" s="5"/>
+      <c r="O359" s="5"/>
+      <c r="P359" s="5"/>
+      <c r="Q359" s="6"/>
+      <c r="R359" s="5"/>
+      <c r="S359" s="14"/>
+    </row>
+    <row r="360" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A360" s="13"/>
+      <c r="B360" s="4"/>
+      <c r="C360" s="5"/>
+      <c r="D360" s="5"/>
+      <c r="E360" s="5"/>
+      <c r="F360" s="5"/>
+      <c r="G360" s="5"/>
+      <c r="H360" s="5"/>
+      <c r="I360" s="5"/>
+      <c r="J360" s="5"/>
+      <c r="K360" s="5"/>
+      <c r="L360" s="5"/>
+      <c r="M360" s="5"/>
+      <c r="N360" s="5"/>
+      <c r="O360" s="5"/>
+      <c r="P360" s="5"/>
+      <c r="Q360" s="6"/>
+      <c r="R360" s="5"/>
+      <c r="S360" s="14"/>
+    </row>
+    <row r="361" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A361" s="13"/>
+      <c r="B361" s="4"/>
+      <c r="C361" s="5"/>
+      <c r="D361" s="5"/>
+      <c r="E361" s="5"/>
+      <c r="F361" s="5"/>
+      <c r="G361" s="5"/>
+      <c r="H361" s="5"/>
+      <c r="I361" s="5"/>
+      <c r="J361" s="5"/>
+      <c r="K361" s="5"/>
+      <c r="L361" s="5"/>
+      <c r="M361" s="5"/>
+      <c r="N361" s="5"/>
+      <c r="O361" s="5"/>
+      <c r="P361" s="5"/>
+      <c r="Q361" s="6"/>
+      <c r="R361" s="5"/>
+      <c r="S361" s="14"/>
+    </row>
+    <row r="362" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A362" s="13"/>
+      <c r="B362" s="4"/>
+      <c r="C362" s="5"/>
+      <c r="D362" s="5"/>
+      <c r="E362" s="5"/>
+      <c r="F362" s="5"/>
+      <c r="G362" s="5"/>
+      <c r="H362" s="5"/>
+      <c r="I362" s="5"/>
+      <c r="J362" s="5"/>
+      <c r="K362" s="5"/>
+      <c r="L362" s="5"/>
+      <c r="M362" s="5"/>
+      <c r="N362" s="5"/>
+      <c r="O362" s="5"/>
+      <c r="P362" s="5"/>
+      <c r="Q362" s="6"/>
+      <c r="R362" s="5"/>
+      <c r="S362" s="14"/>
+    </row>
+    <row r="363" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A363" s="13"/>
+      <c r="B363" s="4"/>
+      <c r="C363" s="5"/>
+      <c r="D363" s="5"/>
+      <c r="E363" s="5"/>
+      <c r="F363" s="5"/>
+      <c r="G363" s="5"/>
+      <c r="H363" s="5"/>
+      <c r="I363" s="5"/>
+      <c r="J363" s="5"/>
+      <c r="K363" s="5"/>
+      <c r="L363" s="5"/>
+      <c r="M363" s="5"/>
+      <c r="N363" s="5"/>
+      <c r="O363" s="5"/>
+      <c r="P363" s="5"/>
+      <c r="Q363" s="6"/>
+      <c r="R363" s="5"/>
+      <c r="S363" s="14"/>
+    </row>
+    <row r="364" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A364" s="13"/>
+      <c r="B364" s="4"/>
+      <c r="C364" s="5"/>
+      <c r="D364" s="5"/>
+      <c r="E364" s="5"/>
+      <c r="F364" s="5"/>
+      <c r="G364" s="5"/>
+      <c r="H364" s="5"/>
+      <c r="I364" s="5"/>
+      <c r="J364" s="5"/>
+      <c r="K364" s="5"/>
+      <c r="L364" s="5"/>
+      <c r="M364" s="5"/>
+      <c r="N364" s="5"/>
+      <c r="O364" s="5"/>
+      <c r="P364" s="5"/>
+      <c r="Q364" s="6"/>
+      <c r="R364" s="5"/>
+      <c r="S364" s="14"/>
+    </row>
+    <row r="365" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A365" s="13"/>
+      <c r="B365" s="4"/>
+      <c r="C365" s="5"/>
+      <c r="D365" s="5"/>
+      <c r="E365" s="5"/>
+      <c r="F365" s="5"/>
+      <c r="G365" s="5"/>
+      <c r="H365" s="5"/>
+      <c r="I365" s="5"/>
+      <c r="J365" s="5"/>
+      <c r="K365" s="5"/>
+      <c r="L365" s="5"/>
+      <c r="M365" s="5"/>
+      <c r="N365" s="5"/>
+      <c r="O365" s="5"/>
+      <c r="P365" s="5"/>
+      <c r="Q365" s="6"/>
+      <c r="R365" s="5"/>
+      <c r="S365" s="14"/>
+    </row>
+    <row r="366" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A366" s="13"/>
+      <c r="B366" s="4"/>
+      <c r="C366" s="5"/>
+      <c r="D366" s="5"/>
+      <c r="E366" s="5"/>
+      <c r="F366" s="5"/>
+      <c r="G366" s="5"/>
+      <c r="H366" s="5"/>
+      <c r="I366" s="5"/>
+      <c r="J366" s="5"/>
+      <c r="K366" s="5"/>
+      <c r="L366" s="5"/>
+      <c r="M366" s="5"/>
+      <c r="N366" s="5"/>
+      <c r="O366" s="5"/>
+      <c r="P366" s="5"/>
+      <c r="Q366" s="6"/>
+      <c r="R366" s="5"/>
+      <c r="S366" s="14"/>
+    </row>
+    <row r="367" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A367" s="13"/>
+      <c r="B367" s="4"/>
+      <c r="C367" s="5"/>
+      <c r="D367" s="5"/>
+      <c r="E367" s="5"/>
+      <c r="F367" s="5"/>
+      <c r="G367" s="5"/>
+      <c r="H367" s="5"/>
+      <c r="I367" s="5"/>
+      <c r="J367" s="5"/>
+      <c r="K367" s="5"/>
+      <c r="L367" s="5"/>
+      <c r="M367" s="5"/>
+      <c r="N367" s="5"/>
+      <c r="O367" s="5"/>
+      <c r="P367" s="5"/>
+      <c r="Q367" s="6"/>
+      <c r="R367" s="5"/>
+      <c r="S367" s="14"/>
+    </row>
+    <row r="368" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A368" s="13"/>
+      <c r="B368" s="4"/>
+      <c r="C368" s="5"/>
+      <c r="D368" s="5"/>
+      <c r="E368" s="5"/>
+      <c r="F368" s="5"/>
+      <c r="G368" s="5"/>
+      <c r="H368" s="5"/>
+      <c r="I368" s="5"/>
+      <c r="J368" s="5"/>
+      <c r="K368" s="5"/>
+      <c r="L368" s="5"/>
+      <c r="M368" s="5"/>
+      <c r="N368" s="5"/>
+      <c r="O368" s="5"/>
+      <c r="P368" s="5"/>
+      <c r="Q368" s="6"/>
+      <c r="R368" s="5"/>
+      <c r="S368" s="14"/>
+    </row>
+    <row r="369" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A369" s="13"/>
+      <c r="B369" s="4"/>
+      <c r="C369" s="5"/>
+      <c r="D369" s="5"/>
+      <c r="E369" s="5"/>
+      <c r="F369" s="5"/>
+      <c r="G369" s="5"/>
+      <c r="H369" s="5"/>
+      <c r="I369" s="5"/>
+      <c r="J369" s="5"/>
+      <c r="K369" s="5"/>
+      <c r="L369" s="5"/>
+      <c r="M369" s="5"/>
+      <c r="N369" s="5"/>
+      <c r="O369" s="5"/>
+      <c r="P369" s="5"/>
+      <c r="Q369" s="6"/>
+      <c r="R369" s="5"/>
+      <c r="S369" s="14"/>
+    </row>
+    <row r="370" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A370" s="13"/>
+      <c r="B370" s="4"/>
+      <c r="C370" s="5"/>
+      <c r="D370" s="5"/>
+      <c r="E370" s="5"/>
+      <c r="F370" s="5"/>
+      <c r="G370" s="5"/>
+      <c r="H370" s="5"/>
+      <c r="I370" s="5"/>
+      <c r="J370" s="5"/>
+      <c r="K370" s="5"/>
+      <c r="L370" s="5"/>
+      <c r="M370" s="5"/>
+      <c r="N370" s="5"/>
+      <c r="O370" s="5"/>
+      <c r="P370" s="5"/>
+      <c r="Q370" s="6"/>
+      <c r="R370" s="5"/>
+      <c r="S370" s="14"/>
+    </row>
+    <row r="371" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A371" s="13"/>
+      <c r="B371" s="4"/>
+      <c r="C371" s="5"/>
+      <c r="D371" s="5"/>
+      <c r="E371" s="5"/>
+      <c r="F371" s="5"/>
+      <c r="G371" s="5"/>
+      <c r="H371" s="5"/>
+      <c r="I371" s="5"/>
+      <c r="J371" s="5"/>
+      <c r="K371" s="5"/>
+      <c r="L371" s="5"/>
+      <c r="M371" s="5"/>
+      <c r="N371" s="5"/>
+      <c r="O371" s="5"/>
+      <c r="P371" s="5"/>
+      <c r="Q371" s="6"/>
+      <c r="R371" s="5"/>
+      <c r="S371" s="14"/>
+    </row>
+    <row r="372" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A372" s="13"/>
+      <c r="B372" s="4"/>
+      <c r="C372" s="5"/>
+      <c r="D372" s="5"/>
+      <c r="E372" s="5"/>
+      <c r="F372" s="5"/>
+      <c r="G372" s="5"/>
+      <c r="H372" s="5"/>
+      <c r="I372" s="5"/>
+      <c r="J372" s="5"/>
+      <c r="K372" s="5"/>
+      <c r="L372" s="5"/>
+      <c r="M372" s="5"/>
+      <c r="N372" s="5"/>
+      <c r="O372" s="5"/>
+      <c r="P372" s="5"/>
+      <c r="Q372" s="6"/>
+      <c r="R372" s="5"/>
+      <c r="S372" s="14"/>
+    </row>
+    <row r="373" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A373" s="13"/>
+      <c r="B373" s="4"/>
+      <c r="C373" s="5"/>
+      <c r="D373" s="5"/>
+      <c r="E373" s="5"/>
+      <c r="F373" s="5"/>
+      <c r="G373" s="5"/>
+      <c r="H373" s="5"/>
+      <c r="I373" s="5"/>
+      <c r="J373" s="5"/>
+      <c r="K373" s="5"/>
+      <c r="L373" s="5"/>
+      <c r="M373" s="5"/>
+      <c r="N373" s="5"/>
+      <c r="O373" s="5"/>
+      <c r="P373" s="5"/>
+      <c r="Q373" s="6"/>
+      <c r="R373" s="5"/>
+      <c r="S373" s="14"/>
+    </row>
+    <row r="374" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A374" s="13"/>
+      <c r="B374" s="4"/>
+      <c r="C374" s="5"/>
+      <c r="D374" s="5"/>
+      <c r="E374" s="5"/>
+      <c r="F374" s="5"/>
+      <c r="G374" s="5"/>
+      <c r="H374" s="5"/>
+      <c r="I374" s="5"/>
+      <c r="J374" s="5"/>
+      <c r="K374" s="5"/>
+      <c r="L374" s="5"/>
+      <c r="M374" s="5"/>
+      <c r="N374" s="5"/>
+      <c r="O374" s="5"/>
+      <c r="P374" s="5"/>
+      <c r="Q374" s="6"/>
+      <c r="R374" s="5"/>
+      <c r="S374" s="14"/>
+    </row>
+    <row r="375" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A375" s="13"/>
+      <c r="B375" s="4"/>
+      <c r="C375" s="5"/>
+      <c r="D375" s="5"/>
+      <c r="E375" s="5"/>
+      <c r="F375" s="5"/>
+      <c r="G375" s="5"/>
+      <c r="H375" s="5"/>
+      <c r="I375" s="5"/>
+      <c r="J375" s="5"/>
+      <c r="K375" s="5"/>
+      <c r="L375" s="5"/>
+      <c r="M375" s="5"/>
+      <c r="N375" s="5"/>
+      <c r="O375" s="5"/>
+      <c r="P375" s="5"/>
+      <c r="Q375" s="6"/>
+      <c r="R375" s="5"/>
+      <c r="S375" s="14"/>
+    </row>
+    <row r="376" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A376" s="13"/>
+      <c r="B376" s="4"/>
+      <c r="C376" s="5"/>
+      <c r="D376" s="5"/>
+      <c r="E376" s="5"/>
+      <c r="F376" s="5"/>
+      <c r="G376" s="5"/>
+      <c r="H376" s="5"/>
+      <c r="I376" s="5"/>
+      <c r="J376" s="5"/>
+      <c r="K376" s="5"/>
+      <c r="L376" s="5"/>
+      <c r="M376" s="5"/>
+      <c r="N376" s="5"/>
+      <c r="O376" s="5"/>
+      <c r="P376" s="5"/>
+      <c r="Q376" s="6"/>
+      <c r="R376" s="5"/>
+      <c r="S376" s="14"/>
+    </row>
+    <row r="377" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A377" s="13"/>
+      <c r="B377" s="4"/>
+      <c r="C377" s="5"/>
+      <c r="D377" s="5"/>
+      <c r="E377" s="5"/>
+      <c r="F377" s="5"/>
+      <c r="G377" s="5"/>
+      <c r="H377" s="5"/>
+      <c r="I377" s="5"/>
+      <c r="J377" s="5"/>
+      <c r="K377" s="5"/>
+      <c r="L377" s="5"/>
+      <c r="M377" s="5"/>
+      <c r="N377" s="5"/>
+      <c r="O377" s="5"/>
+      <c r="P377" s="5"/>
+      <c r="Q377" s="6"/>
+      <c r="R377" s="5"/>
+      <c r="S377" s="14"/>
+    </row>
+    <row r="378" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A378" s="13"/>
+      <c r="B378" s="4"/>
+      <c r="C378" s="5"/>
+      <c r="D378" s="5"/>
+      <c r="E378" s="5"/>
+      <c r="F378" s="5"/>
+      <c r="G378" s="5"/>
+      <c r="H378" s="5"/>
+      <c r="I378" s="5"/>
+      <c r="J378" s="5"/>
+      <c r="K378" s="5"/>
+      <c r="L378" s="5"/>
+      <c r="M378" s="5"/>
+      <c r="N378" s="5"/>
+      <c r="O378" s="5"/>
+      <c r="P378" s="5"/>
+      <c r="Q378" s="6"/>
+      <c r="R378" s="5"/>
+      <c r="S378" s="14"/>
+    </row>
+    <row r="379" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A379" s="13"/>
+      <c r="B379" s="4"/>
+      <c r="C379" s="5"/>
+      <c r="D379" s="5"/>
+      <c r="E379" s="5"/>
+      <c r="F379" s="5"/>
+      <c r="G379" s="5"/>
+      <c r="H379" s="5"/>
+      <c r="I379" s="5"/>
+      <c r="J379" s="5"/>
+      <c r="K379" s="5"/>
+      <c r="L379" s="5"/>
+      <c r="M379" s="5"/>
+      <c r="N379" s="5"/>
+      <c r="O379" s="5"/>
+      <c r="P379" s="5"/>
+      <c r="Q379" s="6"/>
+      <c r="R379" s="5"/>
+      <c r="S379" s="14"/>
+    </row>
+    <row r="380" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A380" s="13"/>
+      <c r="B380" s="4"/>
+      <c r="C380" s="5"/>
+      <c r="D380" s="5"/>
+      <c r="E380" s="5"/>
+      <c r="F380" s="5"/>
+      <c r="G380" s="5"/>
+      <c r="H380" s="5"/>
+      <c r="I380" s="5"/>
+      <c r="J380" s="5"/>
+      <c r="K380" s="5"/>
+      <c r="L380" s="5"/>
+      <c r="M380" s="5"/>
+      <c r="N380" s="5"/>
+      <c r="O380" s="5"/>
+      <c r="P380" s="5"/>
+      <c r="Q380" s="6"/>
+      <c r="R380" s="5"/>
+      <c r="S380" s="14"/>
+    </row>
+    <row r="381" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A381" s="13"/>
+      <c r="B381" s="4"/>
+      <c r="C381" s="5"/>
+      <c r="D381" s="5"/>
+      <c r="E381" s="5"/>
+      <c r="F381" s="5"/>
+      <c r="G381" s="5"/>
+      <c r="H381" s="5"/>
+      <c r="I381" s="5"/>
+      <c r="J381" s="5"/>
+      <c r="K381" s="5"/>
+      <c r="L381" s="5"/>
+      <c r="M381" s="5"/>
+      <c r="N381" s="5"/>
+      <c r="O381" s="5"/>
+      <c r="P381" s="5"/>
+      <c r="Q381" s="6"/>
+      <c r="R381" s="5"/>
+      <c r="S381" s="14"/>
+    </row>
+    <row r="382" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A382" s="13"/>
+      <c r="B382" s="4"/>
+      <c r="C382" s="5"/>
+      <c r="D382" s="5"/>
+      <c r="E382" s="5"/>
+      <c r="F382" s="5"/>
+      <c r="G382" s="5"/>
+      <c r="H382" s="5"/>
+      <c r="I382" s="5"/>
+      <c r="J382" s="5"/>
+      <c r="K382" s="5"/>
+      <c r="L382" s="5"/>
+      <c r="M382" s="5"/>
+      <c r="N382" s="5"/>
+      <c r="O382" s="5"/>
+      <c r="P382" s="5"/>
+      <c r="Q382" s="6"/>
+      <c r="R382" s="5"/>
+      <c r="S382" s="14"/>
+    </row>
+    <row r="383" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A383" s="13"/>
+      <c r="B383" s="7"/>
+      <c r="C383" s="8"/>
+      <c r="D383" s="8"/>
+      <c r="E383" s="8"/>
+      <c r="F383" s="8"/>
+      <c r="G383" s="8"/>
+      <c r="H383" s="8"/>
+      <c r="I383" s="8"/>
+      <c r="J383" s="8"/>
+      <c r="K383" s="8"/>
+      <c r="L383" s="8"/>
+      <c r="M383" s="8"/>
+      <c r="N383" s="8"/>
+      <c r="O383" s="8"/>
+      <c r="P383" s="8"/>
+      <c r="Q383" s="9"/>
+      <c r="R383" s="5"/>
+      <c r="S383" s="14"/>
+    </row>
+    <row r="384" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A384" s="15"/>
+      <c r="B384" s="16"/>
+      <c r="C384" s="16"/>
+      <c r="D384" s="16"/>
+      <c r="E384" s="16"/>
+      <c r="F384" s="16"/>
+      <c r="G384" s="16"/>
+      <c r="H384" s="16"/>
+      <c r="I384" s="16"/>
+      <c r="J384" s="16"/>
+      <c r="K384" s="16"/>
+      <c r="L384" s="16"/>
+      <c r="M384" s="16"/>
+      <c r="N384" s="16"/>
+      <c r="O384" s="16"/>
+      <c r="P384" s="16"/>
+      <c r="Q384" s="16"/>
+      <c r="R384" s="16"/>
+      <c r="S384" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/4.create-a-restful-api/5.authentication-using-access-tokens.xlsx
+++ b/me/4.create-a-restful-api/5.authentication-using-access-tokens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\rest-api-php\me\4.create-a-restful-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E3A372-8DF1-45BC-9B1E-2D7C207365EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26C827F-FFCA-4C41-A19F-643C2C3BF8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="introduction" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Generate encoded access token" sheetId="5" r:id="rId5"/>
     <sheet name="Pass the access token" sheetId="6" r:id="rId6"/>
     <sheet name="Validate the access token" sheetId="7" r:id="rId7"/>
+    <sheet name="authenticated user data" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="272">
   <si>
     <t>An introduction to authentication using access tokens</t>
   </si>
@@ -928,6 +929,66 @@
   <si>
     <t>call api /tasks sử dụng đúng giá trị access token</t>
   </si>
+  <si>
+    <t>Get the authenticated user data from the access token</t>
+  </si>
+  <si>
+    <t>        $this-&gt;user_id = $data["id"];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giá trị access token được request lên đã được validate, từ access token đó giờ mình có thể get user information. Khi sử dụng api key để authentication thì mình cần phải query DB bằng api key </t>
+  </si>
+  <si>
+    <t>đó để có  được thông  tin user(user_id). Nhưng khi authentication bằng access token thì mình có thể lấy thông tin user trực tiếp từ access token đó</t>
+  </si>
+  <si>
+    <t>call api /login.php để lấy access token của user</t>
+  </si>
+  <si>
+    <t>Dữ liệu bảng user</t>
+  </si>
+  <si>
+    <t>password lúc đăng ký user đều là 123456</t>
+  </si>
+  <si>
+    <t>Dùng access token sau khi login đó để call api /tasks để lấy danh sách task của user đó</t>
+  </si>
+  <si>
+    <t>Check data bảng task</t>
+  </si>
+  <si>
+    <t>test②</t>
+  </si>
+  <si>
+    <t>test①</t>
+  </si>
+  <si>
+    <t>Đăng ký thêm user mới, password cũng như các user khác là 123456</t>
+  </si>
+  <si>
+    <t>call api /login.php với thông tin username và pwd vừa đăng ký để lấy access token</t>
+  </si>
+  <si>
+    <t>Dùng access token vừa lấy được sau khi call api login.php để call api /tasks lấy danh sách task của user đó thì ko nhận được task nào</t>
+  </si>
+  <si>
+    <t>②-①</t>
+  </si>
+  <si>
+    <t>②-②</t>
+  </si>
+  <si>
+    <t>call api /tasks POST để tạo task cho user đó</t>
+  </si>
+  <si>
+    <t>call api /tasks GET để lấy thông tin task vừa tạo cho user đó</t>
+  </si>
+  <si>
+    <t>※access token mình đang tạo dựa vào base64 encoding thông tin user, base64 có hàm decode nên người ta có thể decode nó dễ dàng để lấy được thông tin user rồi dùng nó để encode thành</t>
+  </si>
+  <si>
+    <t>access token. Phần tiếp theo mình sẽ tìm hiểu cách tạo access token 1 cách bảo mật</t>
+  </si>
 </sst>
 </file>
 
@@ -1186,7 +1247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1231,6 +1292,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7003,6 +7066,1590 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>274690</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>152075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1EC285F-7B35-4B2A-0622-6595A8319399}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7505700" y="27460575"/>
+          <a:ext cx="12276190" cy="2600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98B9F98B-B7C9-FAF3-DF79-128D94A87CF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2019300" y="723900"/>
+          <a:ext cx="6705600" cy="20297775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>398870</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>142412</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C4E2E3F-F7EE-B667-8A6B-51ED611BED16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="34537650"/>
+          <a:ext cx="9438095" cy="3704762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>456455</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4631CC35-C16E-3655-E383-28FE70ACDF60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="30746700"/>
+          <a:ext cx="6428630" cy="3200400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C322FD7-0026-A513-81CF-DCE9DE588E3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2038350" y="33423225"/>
+          <a:ext cx="171450" cy="2486025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8BAFB72-A3D1-D16E-B598-813CBFF6C048}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2571750" y="33518475"/>
+          <a:ext cx="6800850" cy="2590800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>408396</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>190346</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82726FAA-C972-2E47-A3B9-5E6FE77C81C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="38966775"/>
+          <a:ext cx="9428571" cy="1228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F9A4B61-5AB6-D977-E0E9-977BD49E177E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3771900" y="37852350"/>
+          <a:ext cx="2809875" cy="1838325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>139063</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D1B547C-0631-02AD-1753-8918B2A06727}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771525" y="40366950"/>
+          <a:ext cx="9439275" cy="5492113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>589732</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>151933</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{794EF4E2-6E17-82F5-FF7E-42692996B420}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752475" y="46329600"/>
+          <a:ext cx="6542857" cy="3733333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16058C88-7063-21D7-F58A-8ACC19D6BE10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1095375" y="33442275"/>
+          <a:ext cx="2505075" cy="15392400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Straight Arrow Connector 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A912607-6976-76C7-93CA-39943FFF13CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1657350" y="43472100"/>
+          <a:ext cx="609600" cy="5934075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78073575-AC09-D23A-F573-8A5D616E08A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1943100" y="49444275"/>
+          <a:ext cx="1666875" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Straight Arrow Connector 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B4A7BED-3215-5936-FF1A-243617F018CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1733550" y="44577000"/>
+          <a:ext cx="552450" cy="4981575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Straight Arrow Connector 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F2259B9-A4AE-21E3-39DA-CDFDDC03878D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1809750" y="49606200"/>
+          <a:ext cx="1828800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>263</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Straight Arrow Connector 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{619CDF2A-0E5B-04A9-457A-B6C5511D335E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1809750" y="45643800"/>
+          <a:ext cx="666750" cy="4086225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>263</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>263</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Straight Arrow Connector 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72CBEA3B-C41F-B304-1FAD-C6B8EB17171F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1809750" y="49777650"/>
+          <a:ext cx="1800225" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>272</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>303</xdr:row>
+      <xdr:rowOff>99392</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Picture 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DEF56E4-4C25-0342-41B3-1B6B41577BCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="51501675"/>
+          <a:ext cx="11353800" cy="5938217"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>180134</xdr:colOff>
+      <xdr:row>312</xdr:row>
+      <xdr:rowOff>37942</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Picture 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BD64051-8CBC-1B0E-A23A-0EFBEC4356AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771525" y="57826275"/>
+          <a:ext cx="6723809" cy="1266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>316</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>398883</xdr:colOff>
+      <xdr:row>335</xdr:row>
+      <xdr:rowOff>151937</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Picture 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{689A6E37-66BA-E4A0-0974-1A6E5D243474}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="819150" y="59883675"/>
+          <a:ext cx="9333333" cy="3704762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>291</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="Straight Arrow Connector 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9E2D956-0D3F-D584-1F9F-B8A8D63C91EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1819275" y="55092600"/>
+          <a:ext cx="447675" cy="6134100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>296</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Straight Arrow Connector 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFE48838-27F2-1788-8A4E-30BAD3E649D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2352675" y="51377850"/>
+          <a:ext cx="1971675" cy="4667250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>296</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>324</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="Straight Arrow Connector 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA7AB202-4800-22ED-1A7C-D0B442253E65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2352675" y="56187975"/>
+          <a:ext cx="114300" cy="5210175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>340</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>446498</xdr:colOff>
+      <xdr:row>347</xdr:row>
+      <xdr:rowOff>56995</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Picture 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{479FAD84-F511-E754-1808-1350F198D8C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781050" y="64541400"/>
+          <a:ext cx="9419048" cy="1238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>333</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>344</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="Straight Arrow Connector 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85CE6BF7-3ACD-AD49-FC33-F613A1EC48F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2609850" y="63141225"/>
+          <a:ext cx="4057650" cy="2143125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>348</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>332205</xdr:colOff>
+      <xdr:row>366</xdr:row>
+      <xdr:rowOff>37689</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Picture 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53BD6D4B-CB11-0F2F-52F5-0393C2ED9A49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="66093975"/>
+          <a:ext cx="9361905" cy="3285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>339</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>363</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="Straight Arrow Connector 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5716A4F-9C93-42C9-2BCF-184DF7379646}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1352550" y="64360425"/>
+          <a:ext cx="6886575" cy="4562475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>372</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>284588</xdr:colOff>
+      <xdr:row>392</xdr:row>
+      <xdr:rowOff>85246</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="Picture 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5D2E717-589E-2868-A476-6187692CDA39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="70742175"/>
+          <a:ext cx="9295238" cy="3828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>395</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>560776</xdr:colOff>
+      <xdr:row>418</xdr:row>
+      <xdr:rowOff>56605</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="Picture 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A507F7D3-0A5F-10F3-E7A3-253F7738AD3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="75133200"/>
+          <a:ext cx="9590476" cy="4361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>380</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>412</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="Straight Arrow Connector 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C38EDD88-99BD-AA81-8DE1-FFE8C5770E1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="72247125"/>
+          <a:ext cx="200025" cy="6105525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>390</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>411</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="Straight Arrow Connector 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7876ACBE-13DB-0A8E-20F1-9CEE9EF3227D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="74218800"/>
+          <a:ext cx="161925" cy="3943350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="Straight Arrow Connector 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CF11F72-BF19-0B02-8EEA-5D16056F5BF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="990600" y="19573875"/>
+          <a:ext cx="866775" cy="1628775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -30300,8 +31947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79FFB60-165F-4C13-BA80-04E4B06CD91C}">
   <dimension ref="A2:AD384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A364" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S235" sqref="S235"/>
+    <sheetView topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83:L115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31698,7 +33345,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="42" t="s">
-        <v>165</v>
+        <v>14</v>
       </c>
       <c r="B83" s="40"/>
       <c r="C83" s="40"/>
@@ -37432,4 +39079,7873 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F3F38B-1341-4161-8CA4-A29647288AED}">
+  <dimension ref="A2:V421"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A409" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
+      <c r="B9" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="39"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="39"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="39"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="39"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="39"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="39"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="39"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="39"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="39"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="39"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="39"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="39"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="39"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="39"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="39"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="39"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="39"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="39"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="39"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="39"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="39"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="39"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="39"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="39"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="39"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="39"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="39"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="39"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="39"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="39"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="3"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="4"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="6"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="6"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="6"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="6"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="6"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="4"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="6"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="6"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="6"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="6"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="6"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="4"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="6"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="6"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="6"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="6"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="4"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="6"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="6"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="6"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="6"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="6"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="4"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="6"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="6"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" s="4"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="6"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="6"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" s="4"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="6"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="6"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70" s="4"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="6"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B71" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="6"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="6"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B73" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="6"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B74" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="6"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B75" s="4"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="6"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B76" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="6"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B77" s="4"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="6"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B78" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="6"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B79" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="6"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B80" s="4"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="6"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="6"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="6"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="6"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="6"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85" s="4"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="6"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="6"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B87" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="6"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="6"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B89" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="6"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B90" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="6"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B91" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="6"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B92" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="6"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B93" s="4"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="6"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B94" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="6"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B95" s="4"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="6"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B96" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="6"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B97" s="4"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="6"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B98" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="6"/>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B99" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="6"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B100" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="6"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B101" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="6"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B102" s="4"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="6"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B103" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="6"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B104" s="4"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="6"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B105" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="6"/>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B106" s="4"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="6"/>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B107" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="6"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B108" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="6"/>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B109" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="6"/>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B110" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="6"/>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B111" s="4"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="6"/>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B112" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="6"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B113" s="4"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="6"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B114" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="6"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B115" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="6"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B116" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="8"/>
+      <c r="J116" s="9"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B120" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="2"/>
+      <c r="L120" s="3"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B121" s="4"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="5"/>
+      <c r="K121" s="5"/>
+      <c r="L121" s="6"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B122" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="5"/>
+      <c r="K122" s="5"/>
+      <c r="L122" s="6"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B123" s="4"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="5"/>
+      <c r="K123" s="5"/>
+      <c r="L123" s="6"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B124" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="5"/>
+      <c r="K124" s="5"/>
+      <c r="L124" s="6"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B125" s="4"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5"/>
+      <c r="K125" s="5"/>
+      <c r="L125" s="6"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B126" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="5"/>
+      <c r="K126" s="5"/>
+      <c r="L126" s="6"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B127" s="4"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
+      <c r="J127" s="5"/>
+      <c r="K127" s="5"/>
+      <c r="L127" s="6"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B128" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
+      <c r="J128" s="5"/>
+      <c r="K128" s="5"/>
+      <c r="L128" s="6"/>
+    </row>
+    <row r="129" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B129" s="4"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="5"/>
+      <c r="J129" s="5"/>
+      <c r="K129" s="5"/>
+      <c r="L129" s="6"/>
+    </row>
+    <row r="130" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B130" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
+      <c r="I130" s="5"/>
+      <c r="J130" s="5"/>
+      <c r="K130" s="5"/>
+      <c r="L130" s="6"/>
+    </row>
+    <row r="131" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B131" s="4"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
+      <c r="I131" s="5"/>
+      <c r="J131" s="5"/>
+      <c r="K131" s="5"/>
+      <c r="L131" s="6"/>
+    </row>
+    <row r="132" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B132" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5"/>
+      <c r="I132" s="5"/>
+      <c r="J132" s="5"/>
+      <c r="K132" s="5"/>
+      <c r="L132" s="6"/>
+    </row>
+    <row r="133" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B133" s="4"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
+      <c r="J133" s="5"/>
+      <c r="K133" s="5"/>
+      <c r="L133" s="6"/>
+    </row>
+    <row r="134" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B134" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5"/>
+      <c r="I134" s="5"/>
+      <c r="J134" s="5"/>
+      <c r="K134" s="5"/>
+      <c r="L134" s="6"/>
+    </row>
+    <row r="135" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B135" s="4"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5"/>
+      <c r="I135" s="5"/>
+      <c r="J135" s="5"/>
+      <c r="K135" s="5"/>
+      <c r="L135" s="6"/>
+    </row>
+    <row r="136" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B136" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="5"/>
+      <c r="J136" s="5"/>
+      <c r="K136" s="5"/>
+      <c r="L136" s="6"/>
+    </row>
+    <row r="137" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B137" s="4"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
+      <c r="I137" s="5"/>
+      <c r="J137" s="5"/>
+      <c r="K137" s="5"/>
+      <c r="L137" s="6"/>
+    </row>
+    <row r="138" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B138" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="5"/>
+      <c r="J138" s="5"/>
+      <c r="K138" s="5"/>
+      <c r="L138" s="6"/>
+    </row>
+    <row r="139" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B139" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5"/>
+      <c r="J139" s="5"/>
+      <c r="K139" s="5"/>
+      <c r="L139" s="6"/>
+    </row>
+    <row r="140" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B140" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="5"/>
+      <c r="I140" s="5"/>
+      <c r="J140" s="5"/>
+      <c r="K140" s="5"/>
+      <c r="L140" s="6"/>
+    </row>
+    <row r="141" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B141" s="4"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5"/>
+      <c r="I141" s="5"/>
+      <c r="J141" s="5"/>
+      <c r="K141" s="5"/>
+      <c r="L141" s="6"/>
+    </row>
+    <row r="142" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B142" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="5"/>
+      <c r="K142" s="5"/>
+      <c r="L142" s="6"/>
+    </row>
+    <row r="143" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B143" s="4"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="5"/>
+      <c r="I143" s="5"/>
+      <c r="J143" s="5"/>
+      <c r="K143" s="5"/>
+      <c r="L143" s="6"/>
+    </row>
+    <row r="144" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B144" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="5"/>
+      <c r="I144" s="5"/>
+      <c r="J144" s="5"/>
+      <c r="K144" s="5"/>
+      <c r="L144" s="6"/>
+    </row>
+    <row r="145" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B145" s="4"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="5"/>
+      <c r="K145" s="5"/>
+      <c r="L145" s="6"/>
+    </row>
+    <row r="146" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B146" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="5"/>
+      <c r="I146" s="5"/>
+      <c r="J146" s="5"/>
+      <c r="K146" s="5"/>
+      <c r="L146" s="6"/>
+    </row>
+    <row r="147" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B147" s="4"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="5"/>
+      <c r="I147" s="5"/>
+      <c r="J147" s="5"/>
+      <c r="K147" s="5"/>
+      <c r="L147" s="6"/>
+    </row>
+    <row r="148" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B148" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="5"/>
+      <c r="I148" s="5"/>
+      <c r="J148" s="5"/>
+      <c r="K148" s="5"/>
+      <c r="L148" s="6"/>
+    </row>
+    <row r="149" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B149" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="5"/>
+      <c r="I149" s="5"/>
+      <c r="J149" s="5"/>
+      <c r="K149" s="5"/>
+      <c r="L149" s="6"/>
+    </row>
+    <row r="150" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B150" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="5"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="5"/>
+      <c r="K150" s="5"/>
+      <c r="L150" s="6"/>
+    </row>
+    <row r="151" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B151" s="4"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
+      <c r="H151" s="5"/>
+      <c r="I151" s="5"/>
+      <c r="J151" s="5"/>
+      <c r="K151" s="5"/>
+      <c r="L151" s="6"/>
+    </row>
+    <row r="152" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B152" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="5"/>
+      <c r="J152" s="5"/>
+      <c r="K152" s="5"/>
+      <c r="L152" s="6"/>
+    </row>
+    <row r="153" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B153" s="4"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
+      <c r="H153" s="5"/>
+      <c r="I153" s="5"/>
+      <c r="J153" s="5"/>
+      <c r="K153" s="5"/>
+      <c r="L153" s="6"/>
+    </row>
+    <row r="154" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B154" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="5"/>
+      <c r="I154" s="5"/>
+      <c r="J154" s="5"/>
+      <c r="K154" s="5"/>
+      <c r="L154" s="6"/>
+    </row>
+    <row r="155" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B155" s="4"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
+      <c r="H155" s="5"/>
+      <c r="I155" s="5"/>
+      <c r="J155" s="5"/>
+      <c r="K155" s="5"/>
+      <c r="L155" s="6"/>
+    </row>
+    <row r="156" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B156" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="5"/>
+      <c r="I156" s="5"/>
+      <c r="J156" s="5"/>
+      <c r="K156" s="5"/>
+      <c r="L156" s="6"/>
+    </row>
+    <row r="157" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B157" s="4"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="5"/>
+      <c r="I157" s="5"/>
+      <c r="J157" s="5"/>
+      <c r="K157" s="5"/>
+      <c r="L157" s="6"/>
+    </row>
+    <row r="158" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B158" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C158" s="8"/>
+      <c r="D158" s="8"/>
+      <c r="E158" s="8"/>
+      <c r="F158" s="8"/>
+      <c r="G158" s="8"/>
+      <c r="H158" s="8"/>
+      <c r="I158" s="8"/>
+      <c r="J158" s="8"/>
+      <c r="K158" s="8"/>
+      <c r="L158" s="9"/>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A161" s="44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A162" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="B162" s="2"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="2"/>
+      <c r="H162" s="2"/>
+      <c r="I162" s="2"/>
+      <c r="J162" s="2"/>
+      <c r="K162" s="2"/>
+      <c r="L162" s="2"/>
+      <c r="M162" s="2"/>
+      <c r="N162" s="2"/>
+      <c r="O162" s="2"/>
+      <c r="P162" s="2"/>
+      <c r="Q162" s="2"/>
+      <c r="R162" s="3"/>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A163" s="4"/>
+      <c r="B163" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
+      <c r="H163" s="2"/>
+      <c r="I163" s="2"/>
+      <c r="J163" s="2"/>
+      <c r="K163" s="2"/>
+      <c r="L163" s="2"/>
+      <c r="M163" s="2"/>
+      <c r="N163" s="2"/>
+      <c r="O163" s="2"/>
+      <c r="P163" s="3"/>
+      <c r="Q163" s="5"/>
+      <c r="R163" s="6"/>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A164" s="4"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5"/>
+      <c r="H164" s="5"/>
+      <c r="I164" s="5"/>
+      <c r="J164" s="5"/>
+      <c r="K164" s="5"/>
+      <c r="L164" s="5"/>
+      <c r="M164" s="5"/>
+      <c r="N164" s="5"/>
+      <c r="O164" s="5"/>
+      <c r="P164" s="6"/>
+      <c r="Q164" s="5"/>
+      <c r="R164" s="6"/>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A165" s="4"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5"/>
+      <c r="H165" s="5"/>
+      <c r="I165" s="5"/>
+      <c r="J165" s="5"/>
+      <c r="K165" s="5"/>
+      <c r="L165" s="5"/>
+      <c r="M165" s="5"/>
+      <c r="N165" s="5"/>
+      <c r="O165" s="5"/>
+      <c r="P165" s="6"/>
+      <c r="Q165" s="5"/>
+      <c r="R165" s="6"/>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A166" s="4"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="5"/>
+      <c r="I166" s="5"/>
+      <c r="J166" s="5"/>
+      <c r="K166" s="5"/>
+      <c r="L166" s="5"/>
+      <c r="M166" s="5"/>
+      <c r="N166" s="5"/>
+      <c r="O166" s="5"/>
+      <c r="P166" s="6"/>
+      <c r="Q166" s="5"/>
+      <c r="R166" s="6"/>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A167" s="4"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="5"/>
+      <c r="G167" s="5"/>
+      <c r="H167" s="5"/>
+      <c r="I167" s="5"/>
+      <c r="J167" s="5"/>
+      <c r="K167" s="5"/>
+      <c r="L167" s="5"/>
+      <c r="M167" s="5"/>
+      <c r="N167" s="5"/>
+      <c r="O167" s="5"/>
+      <c r="P167" s="6"/>
+      <c r="Q167" s="5"/>
+      <c r="R167" s="6"/>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A168" s="4"/>
+      <c r="B168" s="4"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+      <c r="G168" s="5"/>
+      <c r="H168" s="5"/>
+      <c r="I168" s="5"/>
+      <c r="J168" s="5"/>
+      <c r="K168" s="5"/>
+      <c r="L168" s="5"/>
+      <c r="M168" s="5"/>
+      <c r="N168" s="5"/>
+      <c r="O168" s="5"/>
+      <c r="P168" s="6"/>
+      <c r="Q168" s="5"/>
+      <c r="R168" s="6"/>
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A169" s="4"/>
+      <c r="B169" s="4"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
+      <c r="G169" s="5"/>
+      <c r="H169" s="5"/>
+      <c r="I169" s="5"/>
+      <c r="J169" s="5"/>
+      <c r="K169" s="5"/>
+      <c r="L169" s="5"/>
+      <c r="M169" s="5"/>
+      <c r="N169" s="5"/>
+      <c r="O169" s="5"/>
+      <c r="P169" s="6"/>
+      <c r="Q169" s="5"/>
+      <c r="R169" s="6"/>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A170" s="4"/>
+      <c r="B170" s="4"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+      <c r="G170" s="5"/>
+      <c r="H170" s="5"/>
+      <c r="I170" s="5"/>
+      <c r="J170" s="5"/>
+      <c r="K170" s="5"/>
+      <c r="L170" s="5"/>
+      <c r="M170" s="5"/>
+      <c r="N170" s="5"/>
+      <c r="O170" s="5"/>
+      <c r="P170" s="6"/>
+      <c r="Q170" s="5"/>
+      <c r="R170" s="6"/>
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A171" s="4"/>
+      <c r="B171" s="4"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5"/>
+      <c r="F171" s="5"/>
+      <c r="G171" s="5"/>
+      <c r="H171" s="5"/>
+      <c r="I171" s="5"/>
+      <c r="J171" s="5"/>
+      <c r="K171" s="5"/>
+      <c r="L171" s="5"/>
+      <c r="M171" s="5"/>
+      <c r="N171" s="5"/>
+      <c r="O171" s="5"/>
+      <c r="P171" s="6"/>
+      <c r="Q171" s="5"/>
+      <c r="R171" s="6"/>
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A172" s="4"/>
+      <c r="B172" s="4"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="5"/>
+      <c r="F172" s="5"/>
+      <c r="G172" s="5"/>
+      <c r="H172" s="5"/>
+      <c r="I172" s="5"/>
+      <c r="J172" s="5"/>
+      <c r="K172" s="5"/>
+      <c r="L172" s="5"/>
+      <c r="M172" s="5"/>
+      <c r="N172" s="5"/>
+      <c r="O172" s="5"/>
+      <c r="P172" s="6"/>
+      <c r="Q172" s="5"/>
+      <c r="R172" s="6"/>
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A173" s="4"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
+      <c r="F173" s="5"/>
+      <c r="G173" s="5"/>
+      <c r="H173" s="5"/>
+      <c r="I173" s="5"/>
+      <c r="J173" s="5"/>
+      <c r="K173" s="5"/>
+      <c r="L173" s="5"/>
+      <c r="M173" s="5"/>
+      <c r="N173" s="5"/>
+      <c r="O173" s="5"/>
+      <c r="P173" s="6"/>
+      <c r="Q173" s="5"/>
+      <c r="R173" s="6"/>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A174" s="4"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="5"/>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
+      <c r="F174" s="5"/>
+      <c r="G174" s="5"/>
+      <c r="H174" s="5"/>
+      <c r="I174" s="5"/>
+      <c r="J174" s="5"/>
+      <c r="K174" s="5"/>
+      <c r="L174" s="5"/>
+      <c r="M174" s="5"/>
+      <c r="N174" s="5"/>
+      <c r="O174" s="5"/>
+      <c r="P174" s="6"/>
+      <c r="Q174" s="5"/>
+      <c r="R174" s="6"/>
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A175" s="4"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="5"/>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
+      <c r="G175" s="5"/>
+      <c r="H175" s="5"/>
+      <c r="I175" s="5"/>
+      <c r="J175" s="5"/>
+      <c r="K175" s="5"/>
+      <c r="L175" s="5"/>
+      <c r="M175" s="5"/>
+      <c r="N175" s="5"/>
+      <c r="O175" s="5"/>
+      <c r="P175" s="6"/>
+      <c r="Q175" s="5"/>
+      <c r="R175" s="6"/>
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A176" s="4"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5"/>
+      <c r="F176" s="5"/>
+      <c r="G176" s="5"/>
+      <c r="H176" s="5"/>
+      <c r="I176" s="5"/>
+      <c r="J176" s="5"/>
+      <c r="K176" s="5"/>
+      <c r="L176" s="5"/>
+      <c r="M176" s="5"/>
+      <c r="N176" s="5"/>
+      <c r="O176" s="5"/>
+      <c r="P176" s="6"/>
+      <c r="Q176" s="5"/>
+      <c r="R176" s="6"/>
+    </row>
+    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A177" s="4"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5"/>
+      <c r="F177" s="5"/>
+      <c r="G177" s="5"/>
+      <c r="H177" s="5"/>
+      <c r="I177" s="5"/>
+      <c r="J177" s="5"/>
+      <c r="K177" s="5"/>
+      <c r="L177" s="5"/>
+      <c r="M177" s="5"/>
+      <c r="N177" s="5"/>
+      <c r="O177" s="5"/>
+      <c r="P177" s="6"/>
+      <c r="Q177" s="5"/>
+      <c r="R177" s="6"/>
+    </row>
+    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A178" s="4"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="5"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5"/>
+      <c r="F178" s="5"/>
+      <c r="G178" s="5"/>
+      <c r="H178" s="5"/>
+      <c r="I178" s="5"/>
+      <c r="J178" s="5"/>
+      <c r="K178" s="5"/>
+      <c r="L178" s="5"/>
+      <c r="M178" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="N178" s="5"/>
+      <c r="O178" s="5"/>
+      <c r="P178" s="6"/>
+      <c r="Q178" s="5"/>
+      <c r="R178" s="6"/>
+    </row>
+    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A179" s="4"/>
+      <c r="B179" s="4"/>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
+      <c r="F179" s="5"/>
+      <c r="G179" s="5"/>
+      <c r="H179" s="5"/>
+      <c r="I179" s="5"/>
+      <c r="J179" s="5"/>
+      <c r="K179" s="5"/>
+      <c r="L179" s="5"/>
+      <c r="M179" s="5"/>
+      <c r="N179" s="5"/>
+      <c r="O179" s="5"/>
+      <c r="P179" s="6"/>
+      <c r="Q179" s="5"/>
+      <c r="R179" s="6"/>
+    </row>
+    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A180" s="4"/>
+      <c r="B180" s="4"/>
+      <c r="C180" s="5"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
+      <c r="F180" s="5"/>
+      <c r="G180" s="5"/>
+      <c r="H180" s="5"/>
+      <c r="I180" s="5"/>
+      <c r="J180" s="5"/>
+      <c r="K180" s="5"/>
+      <c r="L180" s="5"/>
+      <c r="M180" s="5"/>
+      <c r="N180" s="5"/>
+      <c r="O180" s="5"/>
+      <c r="P180" s="6"/>
+      <c r="Q180" s="5"/>
+      <c r="R180" s="6"/>
+    </row>
+    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A181" s="4"/>
+      <c r="B181" s="7"/>
+      <c r="C181" s="8"/>
+      <c r="D181" s="8"/>
+      <c r="E181" s="8"/>
+      <c r="F181" s="8"/>
+      <c r="G181" s="8"/>
+      <c r="H181" s="8"/>
+      <c r="I181" s="8"/>
+      <c r="J181" s="8"/>
+      <c r="K181" s="8"/>
+      <c r="L181" s="8"/>
+      <c r="M181" s="8"/>
+      <c r="N181" s="8"/>
+      <c r="O181" s="8"/>
+      <c r="P181" s="9"/>
+      <c r="Q181" s="5"/>
+      <c r="R181" s="6"/>
+    </row>
+    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A182" s="4"/>
+      <c r="B182" s="5"/>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5"/>
+      <c r="F182" s="5"/>
+      <c r="G182" s="5"/>
+      <c r="H182" s="5"/>
+      <c r="I182" s="5"/>
+      <c r="J182" s="5"/>
+      <c r="K182" s="5"/>
+      <c r="L182" s="5"/>
+      <c r="M182" s="5"/>
+      <c r="N182" s="5"/>
+      <c r="O182" s="5"/>
+      <c r="P182" s="5"/>
+      <c r="Q182" s="5"/>
+      <c r="R182" s="6"/>
+    </row>
+    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A183" s="4"/>
+      <c r="B183" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
+      <c r="F183" s="2"/>
+      <c r="G183" s="2"/>
+      <c r="H183" s="2"/>
+      <c r="I183" s="2"/>
+      <c r="J183" s="2"/>
+      <c r="K183" s="2"/>
+      <c r="L183" s="2"/>
+      <c r="M183" s="2"/>
+      <c r="N183" s="2"/>
+      <c r="O183" s="2"/>
+      <c r="P183" s="2"/>
+      <c r="Q183" s="3"/>
+      <c r="R183" s="6"/>
+    </row>
+    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A184" s="4"/>
+      <c r="B184" s="4"/>
+      <c r="C184" s="5"/>
+      <c r="D184" s="5"/>
+      <c r="E184" s="5"/>
+      <c r="F184" s="5"/>
+      <c r="G184" s="5"/>
+      <c r="H184" s="5"/>
+      <c r="I184" s="5"/>
+      <c r="J184" s="5"/>
+      <c r="K184" s="5"/>
+      <c r="L184" s="5"/>
+      <c r="M184" s="5"/>
+      <c r="N184" s="5"/>
+      <c r="O184" s="5"/>
+      <c r="P184" s="5"/>
+      <c r="Q184" s="6"/>
+      <c r="R184" s="6"/>
+    </row>
+    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A185" s="4"/>
+      <c r="B185" s="4"/>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
+      <c r="E185" s="5"/>
+      <c r="F185" s="5"/>
+      <c r="G185" s="5"/>
+      <c r="H185" s="5"/>
+      <c r="I185" s="5"/>
+      <c r="J185" s="5"/>
+      <c r="K185" s="5"/>
+      <c r="L185" s="5"/>
+      <c r="M185" s="5"/>
+      <c r="N185" s="5"/>
+      <c r="O185" s="5"/>
+      <c r="P185" s="5"/>
+      <c r="Q185" s="6"/>
+      <c r="R185" s="6"/>
+    </row>
+    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A186" s="4"/>
+      <c r="B186" s="4"/>
+      <c r="C186" s="5"/>
+      <c r="D186" s="5"/>
+      <c r="E186" s="5"/>
+      <c r="F186" s="5"/>
+      <c r="G186" s="5"/>
+      <c r="H186" s="5"/>
+      <c r="I186" s="5"/>
+      <c r="J186" s="5"/>
+      <c r="K186" s="5"/>
+      <c r="L186" s="5"/>
+      <c r="M186" s="5"/>
+      <c r="N186" s="5"/>
+      <c r="O186" s="5"/>
+      <c r="P186" s="5"/>
+      <c r="Q186" s="6"/>
+      <c r="R186" s="6"/>
+    </row>
+    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A187" s="4"/>
+      <c r="B187" s="4"/>
+      <c r="C187" s="5"/>
+      <c r="D187" s="5"/>
+      <c r="E187" s="5"/>
+      <c r="F187" s="5"/>
+      <c r="G187" s="5"/>
+      <c r="H187" s="5"/>
+      <c r="I187" s="5"/>
+      <c r="J187" s="5"/>
+      <c r="K187" s="5"/>
+      <c r="L187" s="5"/>
+      <c r="M187" s="5"/>
+      <c r="N187" s="5"/>
+      <c r="O187" s="5"/>
+      <c r="P187" s="5"/>
+      <c r="Q187" s="6"/>
+      <c r="R187" s="6"/>
+    </row>
+    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A188" s="4"/>
+      <c r="B188" s="4"/>
+      <c r="C188" s="5"/>
+      <c r="D188" s="5"/>
+      <c r="E188" s="5"/>
+      <c r="F188" s="5"/>
+      <c r="G188" s="5"/>
+      <c r="H188" s="5"/>
+      <c r="I188" s="5"/>
+      <c r="J188" s="5"/>
+      <c r="K188" s="5"/>
+      <c r="L188" s="5"/>
+      <c r="M188" s="5"/>
+      <c r="N188" s="5"/>
+      <c r="O188" s="5"/>
+      <c r="P188" s="5"/>
+      <c r="Q188" s="6"/>
+      <c r="R188" s="6"/>
+    </row>
+    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A189" s="4"/>
+      <c r="B189" s="4"/>
+      <c r="C189" s="5"/>
+      <c r="D189" s="5"/>
+      <c r="E189" s="5"/>
+      <c r="F189" s="5"/>
+      <c r="G189" s="5"/>
+      <c r="H189" s="5"/>
+      <c r="I189" s="5"/>
+      <c r="J189" s="5"/>
+      <c r="K189" s="5"/>
+      <c r="L189" s="5"/>
+      <c r="M189" s="5"/>
+      <c r="N189" s="5"/>
+      <c r="O189" s="5"/>
+      <c r="P189" s="5"/>
+      <c r="Q189" s="6"/>
+      <c r="R189" s="6"/>
+    </row>
+    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A190" s="4"/>
+      <c r="B190" s="4"/>
+      <c r="C190" s="5"/>
+      <c r="D190" s="5"/>
+      <c r="E190" s="5"/>
+      <c r="F190" s="5"/>
+      <c r="G190" s="5"/>
+      <c r="H190" s="5"/>
+      <c r="I190" s="5"/>
+      <c r="J190" s="5"/>
+      <c r="K190" s="5"/>
+      <c r="L190" s="5"/>
+      <c r="M190" s="5"/>
+      <c r="N190" s="5"/>
+      <c r="O190" s="5"/>
+      <c r="P190" s="5"/>
+      <c r="Q190" s="6"/>
+      <c r="R190" s="6"/>
+    </row>
+    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A191" s="4"/>
+      <c r="B191" s="4"/>
+      <c r="C191" s="5"/>
+      <c r="D191" s="5"/>
+      <c r="E191" s="5"/>
+      <c r="F191" s="5"/>
+      <c r="G191" s="5"/>
+      <c r="H191" s="5"/>
+      <c r="I191" s="5"/>
+      <c r="J191" s="5"/>
+      <c r="K191" s="5"/>
+      <c r="L191" s="5"/>
+      <c r="M191" s="5"/>
+      <c r="N191" s="5"/>
+      <c r="O191" s="5"/>
+      <c r="P191" s="5"/>
+      <c r="Q191" s="6"/>
+      <c r="R191" s="6"/>
+    </row>
+    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A192" s="4"/>
+      <c r="B192" s="4"/>
+      <c r="C192" s="5"/>
+      <c r="D192" s="5"/>
+      <c r="E192" s="5"/>
+      <c r="F192" s="5"/>
+      <c r="G192" s="5"/>
+      <c r="H192" s="5"/>
+      <c r="I192" s="5"/>
+      <c r="J192" s="5"/>
+      <c r="K192" s="5"/>
+      <c r="L192" s="5"/>
+      <c r="M192" s="5"/>
+      <c r="N192" s="5"/>
+      <c r="O192" s="5"/>
+      <c r="P192" s="5"/>
+      <c r="Q192" s="6"/>
+      <c r="R192" s="6"/>
+    </row>
+    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A193" s="4"/>
+      <c r="B193" s="4"/>
+      <c r="C193" s="5"/>
+      <c r="D193" s="5"/>
+      <c r="E193" s="5"/>
+      <c r="F193" s="5"/>
+      <c r="G193" s="5"/>
+      <c r="H193" s="5"/>
+      <c r="I193" s="5"/>
+      <c r="J193" s="5"/>
+      <c r="K193" s="5"/>
+      <c r="L193" s="5"/>
+      <c r="M193" s="5"/>
+      <c r="N193" s="5"/>
+      <c r="O193" s="5"/>
+      <c r="P193" s="5"/>
+      <c r="Q193" s="6"/>
+      <c r="R193" s="6"/>
+    </row>
+    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A194" s="4"/>
+      <c r="B194" s="4"/>
+      <c r="C194" s="5"/>
+      <c r="D194" s="5"/>
+      <c r="E194" s="5"/>
+      <c r="F194" s="5"/>
+      <c r="G194" s="5"/>
+      <c r="H194" s="5"/>
+      <c r="I194" s="5"/>
+      <c r="J194" s="5"/>
+      <c r="K194" s="5"/>
+      <c r="L194" s="5"/>
+      <c r="M194" s="5"/>
+      <c r="N194" s="5"/>
+      <c r="O194" s="5"/>
+      <c r="P194" s="5"/>
+      <c r="Q194" s="6"/>
+      <c r="R194" s="6"/>
+    </row>
+    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A195" s="4"/>
+      <c r="B195" s="4"/>
+      <c r="C195" s="5"/>
+      <c r="D195" s="5"/>
+      <c r="E195" s="5"/>
+      <c r="F195" s="5"/>
+      <c r="G195" s="5"/>
+      <c r="H195" s="5"/>
+      <c r="I195" s="5"/>
+      <c r="J195" s="5"/>
+      <c r="K195" s="5"/>
+      <c r="L195" s="5"/>
+      <c r="M195" s="5"/>
+      <c r="N195" s="5"/>
+      <c r="O195" s="5"/>
+      <c r="P195" s="5"/>
+      <c r="Q195" s="6"/>
+      <c r="R195" s="6"/>
+    </row>
+    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A196" s="4"/>
+      <c r="B196" s="4"/>
+      <c r="C196" s="5"/>
+      <c r="D196" s="5"/>
+      <c r="E196" s="5"/>
+      <c r="F196" s="5"/>
+      <c r="G196" s="5"/>
+      <c r="H196" s="5"/>
+      <c r="I196" s="5"/>
+      <c r="J196" s="5"/>
+      <c r="K196" s="5"/>
+      <c r="L196" s="5"/>
+      <c r="M196" s="5"/>
+      <c r="N196" s="5"/>
+      <c r="O196" s="5"/>
+      <c r="P196" s="5"/>
+      <c r="Q196" s="6"/>
+      <c r="R196" s="6"/>
+    </row>
+    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A197" s="4"/>
+      <c r="B197" s="4"/>
+      <c r="C197" s="5"/>
+      <c r="D197" s="5"/>
+      <c r="E197" s="5"/>
+      <c r="F197" s="5"/>
+      <c r="G197" s="5"/>
+      <c r="H197" s="5"/>
+      <c r="I197" s="5"/>
+      <c r="J197" s="5"/>
+      <c r="K197" s="5"/>
+      <c r="L197" s="5"/>
+      <c r="M197" s="5"/>
+      <c r="N197" s="5"/>
+      <c r="O197" s="5"/>
+      <c r="P197" s="5"/>
+      <c r="Q197" s="6"/>
+      <c r="R197" s="6"/>
+    </row>
+    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A198" s="4"/>
+      <c r="B198" s="4"/>
+      <c r="C198" s="5"/>
+      <c r="D198" s="5"/>
+      <c r="E198" s="5"/>
+      <c r="F198" s="5"/>
+      <c r="G198" s="5"/>
+      <c r="H198" s="5"/>
+      <c r="I198" s="5"/>
+      <c r="J198" s="5"/>
+      <c r="K198" s="5"/>
+      <c r="L198" s="5"/>
+      <c r="M198" s="5"/>
+      <c r="N198" s="5"/>
+      <c r="O198" s="5"/>
+      <c r="P198" s="5"/>
+      <c r="Q198" s="6"/>
+      <c r="R198" s="6"/>
+    </row>
+    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A199" s="4"/>
+      <c r="B199" s="4"/>
+      <c r="C199" s="5"/>
+      <c r="D199" s="5"/>
+      <c r="E199" s="5"/>
+      <c r="F199" s="5"/>
+      <c r="G199" s="5"/>
+      <c r="H199" s="5"/>
+      <c r="I199" s="5"/>
+      <c r="J199" s="5"/>
+      <c r="K199" s="5"/>
+      <c r="L199" s="5"/>
+      <c r="M199" s="5"/>
+      <c r="N199" s="5"/>
+      <c r="O199" s="5"/>
+      <c r="P199" s="5"/>
+      <c r="Q199" s="6"/>
+      <c r="R199" s="6"/>
+    </row>
+    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A200" s="4"/>
+      <c r="B200" s="4"/>
+      <c r="C200" s="5"/>
+      <c r="D200" s="5"/>
+      <c r="E200" s="5"/>
+      <c r="F200" s="5"/>
+      <c r="G200" s="5"/>
+      <c r="H200" s="5"/>
+      <c r="I200" s="5"/>
+      <c r="J200" s="5"/>
+      <c r="K200" s="5"/>
+      <c r="L200" s="5"/>
+      <c r="M200" s="5"/>
+      <c r="N200" s="5"/>
+      <c r="O200" s="5"/>
+      <c r="P200" s="5"/>
+      <c r="Q200" s="6"/>
+      <c r="R200" s="6"/>
+    </row>
+    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A201" s="4"/>
+      <c r="B201" s="4"/>
+      <c r="C201" s="5"/>
+      <c r="D201" s="5"/>
+      <c r="E201" s="5"/>
+      <c r="F201" s="5"/>
+      <c r="G201" s="5"/>
+      <c r="H201" s="5"/>
+      <c r="I201" s="5"/>
+      <c r="J201" s="5"/>
+      <c r="K201" s="5"/>
+      <c r="L201" s="5"/>
+      <c r="M201" s="5"/>
+      <c r="N201" s="5"/>
+      <c r="O201" s="5"/>
+      <c r="P201" s="5"/>
+      <c r="Q201" s="6"/>
+      <c r="R201" s="6"/>
+    </row>
+    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A202" s="4"/>
+      <c r="B202" s="4"/>
+      <c r="C202" s="5"/>
+      <c r="D202" s="5"/>
+      <c r="E202" s="5"/>
+      <c r="F202" s="5"/>
+      <c r="G202" s="5"/>
+      <c r="H202" s="5"/>
+      <c r="I202" s="5"/>
+      <c r="J202" s="5"/>
+      <c r="K202" s="5"/>
+      <c r="L202" s="5"/>
+      <c r="M202" s="5"/>
+      <c r="N202" s="5"/>
+      <c r="O202" s="5"/>
+      <c r="P202" s="5"/>
+      <c r="Q202" s="6"/>
+      <c r="R202" s="6"/>
+    </row>
+    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A203" s="4"/>
+      <c r="B203" s="7"/>
+      <c r="C203" s="8"/>
+      <c r="D203" s="8"/>
+      <c r="E203" s="8"/>
+      <c r="F203" s="8"/>
+      <c r="G203" s="8"/>
+      <c r="H203" s="8"/>
+      <c r="I203" s="8"/>
+      <c r="J203" s="8"/>
+      <c r="K203" s="8"/>
+      <c r="L203" s="8"/>
+      <c r="M203" s="8"/>
+      <c r="N203" s="8"/>
+      <c r="O203" s="8"/>
+      <c r="P203" s="8"/>
+      <c r="Q203" s="9"/>
+      <c r="R203" s="6"/>
+    </row>
+    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A204" s="4"/>
+      <c r="B204" s="5"/>
+      <c r="C204" s="5"/>
+      <c r="D204" s="5"/>
+      <c r="E204" s="5"/>
+      <c r="F204" s="5"/>
+      <c r="G204" s="5"/>
+      <c r="H204" s="5"/>
+      <c r="I204" s="5"/>
+      <c r="J204" s="5"/>
+      <c r="K204" s="5"/>
+      <c r="L204" s="5"/>
+      <c r="M204" s="5"/>
+      <c r="N204" s="5"/>
+      <c r="O204" s="5"/>
+      <c r="P204" s="5"/>
+      <c r="Q204" s="5"/>
+      <c r="R204" s="6"/>
+    </row>
+    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A205" s="4"/>
+      <c r="B205" s="5"/>
+      <c r="C205" s="5"/>
+      <c r="D205" s="5"/>
+      <c r="E205" s="5"/>
+      <c r="F205" s="5"/>
+      <c r="G205" s="5"/>
+      <c r="H205" s="5"/>
+      <c r="I205" s="5"/>
+      <c r="J205" s="5"/>
+      <c r="K205" s="5"/>
+      <c r="L205" s="5"/>
+      <c r="M205" s="5"/>
+      <c r="N205" s="5"/>
+      <c r="O205" s="5"/>
+      <c r="P205" s="5"/>
+      <c r="Q205" s="5"/>
+      <c r="R205" s="6"/>
+    </row>
+    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A206" s="4"/>
+      <c r="B206" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C206" s="2"/>
+      <c r="D206" s="2"/>
+      <c r="E206" s="2"/>
+      <c r="F206" s="2"/>
+      <c r="G206" s="2"/>
+      <c r="H206" s="2"/>
+      <c r="I206" s="2"/>
+      <c r="J206" s="2"/>
+      <c r="K206" s="2"/>
+      <c r="L206" s="2"/>
+      <c r="M206" s="2"/>
+      <c r="N206" s="2"/>
+      <c r="O206" s="2"/>
+      <c r="P206" s="2"/>
+      <c r="Q206" s="3"/>
+      <c r="R206" s="6"/>
+    </row>
+    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A207" s="4"/>
+      <c r="B207" s="4"/>
+      <c r="C207" s="5"/>
+      <c r="D207" s="5"/>
+      <c r="E207" s="5"/>
+      <c r="F207" s="5"/>
+      <c r="G207" s="5"/>
+      <c r="H207" s="5"/>
+      <c r="I207" s="5"/>
+      <c r="J207" s="5"/>
+      <c r="K207" s="5"/>
+      <c r="L207" s="5"/>
+      <c r="M207" s="5"/>
+      <c r="N207" s="5"/>
+      <c r="O207" s="5"/>
+      <c r="P207" s="5"/>
+      <c r="Q207" s="6"/>
+      <c r="R207" s="6"/>
+    </row>
+    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A208" s="4"/>
+      <c r="B208" s="4"/>
+      <c r="C208" s="5"/>
+      <c r="D208" s="5"/>
+      <c r="E208" s="5"/>
+      <c r="F208" s="5"/>
+      <c r="G208" s="5"/>
+      <c r="H208" s="5"/>
+      <c r="I208" s="5"/>
+      <c r="J208" s="5"/>
+      <c r="K208" s="5"/>
+      <c r="L208" s="5"/>
+      <c r="M208" s="5"/>
+      <c r="N208" s="5"/>
+      <c r="O208" s="5"/>
+      <c r="P208" s="5"/>
+      <c r="Q208" s="6"/>
+      <c r="R208" s="6"/>
+    </row>
+    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A209" s="4"/>
+      <c r="B209" s="4"/>
+      <c r="C209" s="5"/>
+      <c r="D209" s="5"/>
+      <c r="E209" s="5"/>
+      <c r="F209" s="5"/>
+      <c r="G209" s="5"/>
+      <c r="H209" s="5"/>
+      <c r="I209" s="5"/>
+      <c r="J209" s="5"/>
+      <c r="K209" s="5"/>
+      <c r="L209" s="5"/>
+      <c r="M209" s="5"/>
+      <c r="N209" s="5"/>
+      <c r="O209" s="5"/>
+      <c r="P209" s="5"/>
+      <c r="Q209" s="6"/>
+      <c r="R209" s="6"/>
+    </row>
+    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A210" s="4"/>
+      <c r="B210" s="4"/>
+      <c r="C210" s="5"/>
+      <c r="D210" s="5"/>
+      <c r="E210" s="5"/>
+      <c r="F210" s="5"/>
+      <c r="G210" s="5"/>
+      <c r="H210" s="5"/>
+      <c r="I210" s="5"/>
+      <c r="J210" s="5"/>
+      <c r="K210" s="5"/>
+      <c r="L210" s="5"/>
+      <c r="M210" s="5"/>
+      <c r="N210" s="5"/>
+      <c r="O210" s="5"/>
+      <c r="P210" s="5"/>
+      <c r="Q210" s="6"/>
+      <c r="R210" s="6"/>
+    </row>
+    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A211" s="4"/>
+      <c r="B211" s="4"/>
+      <c r="C211" s="5"/>
+      <c r="D211" s="5"/>
+      <c r="E211" s="5"/>
+      <c r="F211" s="5"/>
+      <c r="G211" s="5"/>
+      <c r="H211" s="5"/>
+      <c r="I211" s="5"/>
+      <c r="J211" s="5"/>
+      <c r="K211" s="5"/>
+      <c r="L211" s="5"/>
+      <c r="M211" s="5"/>
+      <c r="N211" s="5"/>
+      <c r="O211" s="5"/>
+      <c r="P211" s="5"/>
+      <c r="Q211" s="6"/>
+      <c r="R211" s="6"/>
+    </row>
+    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A212" s="4"/>
+      <c r="B212" s="4"/>
+      <c r="C212" s="5"/>
+      <c r="D212" s="5"/>
+      <c r="E212" s="5"/>
+      <c r="F212" s="5"/>
+      <c r="G212" s="5"/>
+      <c r="H212" s="5"/>
+      <c r="I212" s="5"/>
+      <c r="J212" s="5"/>
+      <c r="K212" s="5"/>
+      <c r="L212" s="5"/>
+      <c r="M212" s="5"/>
+      <c r="N212" s="5"/>
+      <c r="O212" s="5"/>
+      <c r="P212" s="5"/>
+      <c r="Q212" s="6"/>
+      <c r="R212" s="6"/>
+    </row>
+    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A213" s="4"/>
+      <c r="B213" s="4"/>
+      <c r="C213" s="5"/>
+      <c r="D213" s="5"/>
+      <c r="E213" s="5"/>
+      <c r="F213" s="5"/>
+      <c r="G213" s="5"/>
+      <c r="H213" s="5"/>
+      <c r="I213" s="5"/>
+      <c r="J213" s="5"/>
+      <c r="K213" s="5"/>
+      <c r="L213" s="5"/>
+      <c r="M213" s="5"/>
+      <c r="N213" s="5"/>
+      <c r="O213" s="5"/>
+      <c r="P213" s="5"/>
+      <c r="Q213" s="6"/>
+      <c r="R213" s="6"/>
+    </row>
+    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A214" s="4"/>
+      <c r="B214" s="4"/>
+      <c r="C214" s="5"/>
+      <c r="D214" s="5"/>
+      <c r="E214" s="5"/>
+      <c r="F214" s="5"/>
+      <c r="G214" s="5"/>
+      <c r="H214" s="5"/>
+      <c r="I214" s="5"/>
+      <c r="J214" s="5"/>
+      <c r="K214" s="5"/>
+      <c r="L214" s="5"/>
+      <c r="M214" s="5"/>
+      <c r="N214" s="5"/>
+      <c r="O214" s="5"/>
+      <c r="P214" s="5"/>
+      <c r="Q214" s="6"/>
+      <c r="R214" s="6"/>
+    </row>
+    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A215" s="4"/>
+      <c r="B215" s="4"/>
+      <c r="C215" s="5"/>
+      <c r="D215" s="5"/>
+      <c r="E215" s="5"/>
+      <c r="F215" s="5"/>
+      <c r="G215" s="5"/>
+      <c r="H215" s="5"/>
+      <c r="I215" s="5"/>
+      <c r="J215" s="5"/>
+      <c r="K215" s="5"/>
+      <c r="L215" s="5"/>
+      <c r="M215" s="5"/>
+      <c r="N215" s="5"/>
+      <c r="O215" s="5"/>
+      <c r="P215" s="5"/>
+      <c r="Q215" s="6"/>
+      <c r="R215" s="6"/>
+    </row>
+    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A216" s="4"/>
+      <c r="B216" s="4"/>
+      <c r="C216" s="5"/>
+      <c r="D216" s="5"/>
+      <c r="E216" s="5"/>
+      <c r="F216" s="5"/>
+      <c r="G216" s="5"/>
+      <c r="H216" s="5"/>
+      <c r="I216" s="5"/>
+      <c r="J216" s="5"/>
+      <c r="K216" s="5"/>
+      <c r="L216" s="5"/>
+      <c r="M216" s="5"/>
+      <c r="N216" s="5"/>
+      <c r="O216" s="5"/>
+      <c r="P216" s="5"/>
+      <c r="Q216" s="6"/>
+      <c r="R216" s="6"/>
+    </row>
+    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A217" s="4"/>
+      <c r="B217" s="4"/>
+      <c r="C217" s="5"/>
+      <c r="D217" s="5"/>
+      <c r="E217" s="5"/>
+      <c r="F217" s="5"/>
+      <c r="G217" s="5"/>
+      <c r="H217" s="5"/>
+      <c r="I217" s="5"/>
+      <c r="J217" s="5"/>
+      <c r="K217" s="5"/>
+      <c r="L217" s="5"/>
+      <c r="M217" s="5"/>
+      <c r="N217" s="5"/>
+      <c r="O217" s="5"/>
+      <c r="P217" s="5"/>
+      <c r="Q217" s="6"/>
+      <c r="R217" s="6"/>
+    </row>
+    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A218" s="4"/>
+      <c r="B218" s="4"/>
+      <c r="C218" s="5"/>
+      <c r="D218" s="5"/>
+      <c r="E218" s="5"/>
+      <c r="F218" s="5"/>
+      <c r="G218" s="5"/>
+      <c r="H218" s="5"/>
+      <c r="I218" s="5"/>
+      <c r="J218" s="5"/>
+      <c r="K218" s="5"/>
+      <c r="L218" s="5"/>
+      <c r="M218" s="5"/>
+      <c r="N218" s="5"/>
+      <c r="O218" s="5"/>
+      <c r="P218" s="5"/>
+      <c r="Q218" s="6"/>
+      <c r="R218" s="6"/>
+    </row>
+    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A219" s="4"/>
+      <c r="B219" s="4"/>
+      <c r="C219" s="5"/>
+      <c r="D219" s="5"/>
+      <c r="E219" s="5"/>
+      <c r="F219" s="5"/>
+      <c r="G219" s="5"/>
+      <c r="H219" s="5"/>
+      <c r="I219" s="5"/>
+      <c r="J219" s="5"/>
+      <c r="K219" s="5"/>
+      <c r="L219" s="5"/>
+      <c r="M219" s="5"/>
+      <c r="N219" s="5"/>
+      <c r="O219" s="5"/>
+      <c r="P219" s="5"/>
+      <c r="Q219" s="6"/>
+      <c r="R219" s="6"/>
+    </row>
+    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A220" s="4"/>
+      <c r="B220" s="4"/>
+      <c r="C220" s="5"/>
+      <c r="D220" s="5"/>
+      <c r="E220" s="5"/>
+      <c r="F220" s="5"/>
+      <c r="G220" s="5"/>
+      <c r="H220" s="5"/>
+      <c r="I220" s="5"/>
+      <c r="J220" s="5"/>
+      <c r="K220" s="5"/>
+      <c r="L220" s="5"/>
+      <c r="M220" s="5"/>
+      <c r="N220" s="5"/>
+      <c r="O220" s="5"/>
+      <c r="P220" s="5"/>
+      <c r="Q220" s="6"/>
+      <c r="R220" s="6"/>
+    </row>
+    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A221" s="4"/>
+      <c r="B221" s="4"/>
+      <c r="C221" s="5"/>
+      <c r="D221" s="5"/>
+      <c r="E221" s="5"/>
+      <c r="F221" s="5"/>
+      <c r="G221" s="5"/>
+      <c r="H221" s="5"/>
+      <c r="I221" s="5"/>
+      <c r="J221" s="5"/>
+      <c r="K221" s="5"/>
+      <c r="L221" s="5"/>
+      <c r="M221" s="5"/>
+      <c r="N221" s="5"/>
+      <c r="O221" s="5"/>
+      <c r="P221" s="5"/>
+      <c r="Q221" s="6"/>
+      <c r="R221" s="6"/>
+    </row>
+    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A222" s="4"/>
+      <c r="B222" s="4"/>
+      <c r="C222" s="5"/>
+      <c r="D222" s="5"/>
+      <c r="E222" s="5"/>
+      <c r="F222" s="5"/>
+      <c r="G222" s="5"/>
+      <c r="H222" s="5"/>
+      <c r="I222" s="5"/>
+      <c r="J222" s="5"/>
+      <c r="K222" s="5"/>
+      <c r="L222" s="5"/>
+      <c r="M222" s="5"/>
+      <c r="N222" s="5"/>
+      <c r="O222" s="5"/>
+      <c r="P222" s="5"/>
+      <c r="Q222" s="6"/>
+      <c r="R222" s="6"/>
+    </row>
+    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A223" s="4"/>
+      <c r="B223" s="4"/>
+      <c r="C223" s="5"/>
+      <c r="D223" s="5"/>
+      <c r="E223" s="5"/>
+      <c r="F223" s="5"/>
+      <c r="G223" s="5"/>
+      <c r="H223" s="5"/>
+      <c r="I223" s="5"/>
+      <c r="J223" s="5"/>
+      <c r="K223" s="5"/>
+      <c r="L223" s="5"/>
+      <c r="M223" s="5"/>
+      <c r="N223" s="5"/>
+      <c r="O223" s="5"/>
+      <c r="P223" s="5"/>
+      <c r="Q223" s="6"/>
+      <c r="R223" s="6"/>
+    </row>
+    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A224" s="4"/>
+      <c r="B224" s="4"/>
+      <c r="C224" s="5"/>
+      <c r="D224" s="5"/>
+      <c r="E224" s="5"/>
+      <c r="F224" s="5"/>
+      <c r="G224" s="5"/>
+      <c r="H224" s="5"/>
+      <c r="I224" s="5"/>
+      <c r="J224" s="5"/>
+      <c r="K224" s="5"/>
+      <c r="L224" s="5"/>
+      <c r="M224" s="5"/>
+      <c r="N224" s="5"/>
+      <c r="O224" s="5"/>
+      <c r="P224" s="5"/>
+      <c r="Q224" s="6"/>
+      <c r="R224" s="6"/>
+    </row>
+    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A225" s="4"/>
+      <c r="B225" s="4"/>
+      <c r="C225" s="5"/>
+      <c r="D225" s="5"/>
+      <c r="E225" s="5"/>
+      <c r="F225" s="5"/>
+      <c r="G225" s="5"/>
+      <c r="H225" s="5"/>
+      <c r="I225" s="5"/>
+      <c r="J225" s="5"/>
+      <c r="K225" s="5"/>
+      <c r="L225" s="5"/>
+      <c r="M225" s="5"/>
+      <c r="N225" s="5"/>
+      <c r="O225" s="5"/>
+      <c r="P225" s="5"/>
+      <c r="Q225" s="6"/>
+      <c r="R225" s="6"/>
+    </row>
+    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A226" s="4"/>
+      <c r="B226" s="4"/>
+      <c r="C226" s="5"/>
+      <c r="D226" s="5"/>
+      <c r="E226" s="5"/>
+      <c r="F226" s="5"/>
+      <c r="G226" s="5"/>
+      <c r="H226" s="5"/>
+      <c r="I226" s="5"/>
+      <c r="J226" s="5"/>
+      <c r="K226" s="5"/>
+      <c r="L226" s="5"/>
+      <c r="M226" s="5"/>
+      <c r="N226" s="5"/>
+      <c r="O226" s="5"/>
+      <c r="P226" s="5"/>
+      <c r="Q226" s="6"/>
+      <c r="R226" s="6"/>
+    </row>
+    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A227" s="4"/>
+      <c r="B227" s="4"/>
+      <c r="C227" s="5"/>
+      <c r="D227" s="5"/>
+      <c r="E227" s="5"/>
+      <c r="F227" s="5"/>
+      <c r="G227" s="5"/>
+      <c r="H227" s="5"/>
+      <c r="I227" s="5"/>
+      <c r="J227" s="5"/>
+      <c r="K227" s="5"/>
+      <c r="L227" s="5"/>
+      <c r="M227" s="5"/>
+      <c r="N227" s="5"/>
+      <c r="O227" s="5"/>
+      <c r="P227" s="5"/>
+      <c r="Q227" s="6"/>
+      <c r="R227" s="6"/>
+    </row>
+    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A228" s="4"/>
+      <c r="B228" s="4"/>
+      <c r="C228" s="5"/>
+      <c r="D228" s="5"/>
+      <c r="E228" s="5"/>
+      <c r="F228" s="5"/>
+      <c r="G228" s="5"/>
+      <c r="H228" s="5"/>
+      <c r="I228" s="5"/>
+      <c r="J228" s="5"/>
+      <c r="K228" s="5"/>
+      <c r="L228" s="5"/>
+      <c r="M228" s="5"/>
+      <c r="N228" s="5"/>
+      <c r="O228" s="5"/>
+      <c r="P228" s="5"/>
+      <c r="Q228" s="6"/>
+      <c r="R228" s="6"/>
+    </row>
+    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A229" s="4"/>
+      <c r="B229" s="4"/>
+      <c r="C229" s="5"/>
+      <c r="D229" s="5"/>
+      <c r="E229" s="5"/>
+      <c r="F229" s="5"/>
+      <c r="G229" s="5"/>
+      <c r="H229" s="5"/>
+      <c r="I229" s="5"/>
+      <c r="J229" s="5"/>
+      <c r="K229" s="5"/>
+      <c r="L229" s="5"/>
+      <c r="M229" s="5"/>
+      <c r="N229" s="5"/>
+      <c r="O229" s="5"/>
+      <c r="P229" s="5"/>
+      <c r="Q229" s="6"/>
+      <c r="R229" s="6"/>
+    </row>
+    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A230" s="4"/>
+      <c r="B230" s="4"/>
+      <c r="C230" s="5"/>
+      <c r="D230" s="5"/>
+      <c r="E230" s="5"/>
+      <c r="F230" s="5"/>
+      <c r="G230" s="5"/>
+      <c r="H230" s="5"/>
+      <c r="I230" s="5"/>
+      <c r="J230" s="5"/>
+      <c r="K230" s="5"/>
+      <c r="L230" s="5"/>
+      <c r="M230" s="5"/>
+      <c r="N230" s="5"/>
+      <c r="O230" s="5"/>
+      <c r="P230" s="5"/>
+      <c r="Q230" s="6"/>
+      <c r="R230" s="6"/>
+    </row>
+    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A231" s="4"/>
+      <c r="B231" s="4"/>
+      <c r="C231" s="5"/>
+      <c r="D231" s="5"/>
+      <c r="E231" s="5"/>
+      <c r="F231" s="5"/>
+      <c r="G231" s="5"/>
+      <c r="H231" s="5"/>
+      <c r="I231" s="5"/>
+      <c r="J231" s="5"/>
+      <c r="K231" s="5"/>
+      <c r="L231" s="5"/>
+      <c r="M231" s="5"/>
+      <c r="N231" s="5"/>
+      <c r="O231" s="5"/>
+      <c r="P231" s="5"/>
+      <c r="Q231" s="6"/>
+      <c r="R231" s="6"/>
+    </row>
+    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A232" s="4"/>
+      <c r="B232" s="4"/>
+      <c r="C232" s="5"/>
+      <c r="D232" s="5"/>
+      <c r="E232" s="5"/>
+      <c r="F232" s="5"/>
+      <c r="G232" s="5"/>
+      <c r="H232" s="5"/>
+      <c r="I232" s="5"/>
+      <c r="J232" s="5"/>
+      <c r="K232" s="5"/>
+      <c r="L232" s="5"/>
+      <c r="M232" s="5"/>
+      <c r="N232" s="5"/>
+      <c r="O232" s="5"/>
+      <c r="P232" s="5"/>
+      <c r="Q232" s="6"/>
+      <c r="R232" s="6"/>
+    </row>
+    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A233" s="4"/>
+      <c r="B233" s="4"/>
+      <c r="C233" s="5"/>
+      <c r="D233" s="5"/>
+      <c r="E233" s="5"/>
+      <c r="F233" s="5"/>
+      <c r="G233" s="5"/>
+      <c r="H233" s="5"/>
+      <c r="I233" s="5"/>
+      <c r="J233" s="5"/>
+      <c r="K233" s="5"/>
+      <c r="L233" s="5"/>
+      <c r="M233" s="5"/>
+      <c r="N233" s="5"/>
+      <c r="O233" s="5"/>
+      <c r="P233" s="5"/>
+      <c r="Q233" s="6"/>
+      <c r="R233" s="6"/>
+    </row>
+    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A234" s="4"/>
+      <c r="B234" s="4"/>
+      <c r="C234" s="5"/>
+      <c r="D234" s="5"/>
+      <c r="E234" s="5"/>
+      <c r="F234" s="5"/>
+      <c r="G234" s="5"/>
+      <c r="H234" s="5"/>
+      <c r="I234" s="5"/>
+      <c r="J234" s="5"/>
+      <c r="K234" s="5"/>
+      <c r="L234" s="5"/>
+      <c r="M234" s="5"/>
+      <c r="N234" s="5"/>
+      <c r="O234" s="5"/>
+      <c r="P234" s="5"/>
+      <c r="Q234" s="6"/>
+      <c r="R234" s="6"/>
+    </row>
+    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A235" s="4"/>
+      <c r="B235" s="4"/>
+      <c r="C235" s="5"/>
+      <c r="D235" s="5"/>
+      <c r="E235" s="5"/>
+      <c r="F235" s="5"/>
+      <c r="G235" s="5"/>
+      <c r="H235" s="5"/>
+      <c r="I235" s="5"/>
+      <c r="J235" s="5"/>
+      <c r="K235" s="5"/>
+      <c r="L235" s="5"/>
+      <c r="M235" s="5"/>
+      <c r="N235" s="5"/>
+      <c r="O235" s="5"/>
+      <c r="P235" s="5"/>
+      <c r="Q235" s="6"/>
+      <c r="R235" s="6"/>
+    </row>
+    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A236" s="4"/>
+      <c r="B236" s="4"/>
+      <c r="C236" s="5"/>
+      <c r="D236" s="5"/>
+      <c r="E236" s="5"/>
+      <c r="F236" s="5"/>
+      <c r="G236" s="5"/>
+      <c r="H236" s="5"/>
+      <c r="I236" s="5"/>
+      <c r="J236" s="5"/>
+      <c r="K236" s="5"/>
+      <c r="L236" s="5"/>
+      <c r="M236" s="5"/>
+      <c r="N236" s="5"/>
+      <c r="O236" s="5"/>
+      <c r="P236" s="5"/>
+      <c r="Q236" s="6"/>
+      <c r="R236" s="6"/>
+    </row>
+    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A237" s="4"/>
+      <c r="B237" s="4"/>
+      <c r="C237" s="5"/>
+      <c r="D237" s="5"/>
+      <c r="E237" s="5"/>
+      <c r="F237" s="5"/>
+      <c r="G237" s="5"/>
+      <c r="H237" s="5"/>
+      <c r="I237" s="5"/>
+      <c r="J237" s="5"/>
+      <c r="K237" s="5"/>
+      <c r="L237" s="5"/>
+      <c r="M237" s="5"/>
+      <c r="N237" s="5"/>
+      <c r="O237" s="5"/>
+      <c r="P237" s="5"/>
+      <c r="Q237" s="6"/>
+      <c r="R237" s="6"/>
+    </row>
+    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A238" s="4"/>
+      <c r="B238" s="4"/>
+      <c r="C238" s="5"/>
+      <c r="D238" s="5"/>
+      <c r="E238" s="5"/>
+      <c r="F238" s="5"/>
+      <c r="G238" s="5"/>
+      <c r="H238" s="5"/>
+      <c r="I238" s="5"/>
+      <c r="J238" s="5"/>
+      <c r="K238" s="5"/>
+      <c r="L238" s="5"/>
+      <c r="M238" s="5"/>
+      <c r="N238" s="5"/>
+      <c r="O238" s="5"/>
+      <c r="P238" s="5"/>
+      <c r="Q238" s="6"/>
+      <c r="R238" s="6"/>
+    </row>
+    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A239" s="4"/>
+      <c r="B239" s="4"/>
+      <c r="C239" s="5"/>
+      <c r="D239" s="5"/>
+      <c r="E239" s="5"/>
+      <c r="F239" s="5"/>
+      <c r="G239" s="5"/>
+      <c r="H239" s="5"/>
+      <c r="I239" s="5"/>
+      <c r="J239" s="5"/>
+      <c r="K239" s="5"/>
+      <c r="L239" s="5"/>
+      <c r="M239" s="5"/>
+      <c r="N239" s="5"/>
+      <c r="O239" s="5"/>
+      <c r="P239" s="5"/>
+      <c r="Q239" s="6"/>
+      <c r="R239" s="6"/>
+    </row>
+    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A240" s="4"/>
+      <c r="B240" s="4"/>
+      <c r="C240" s="5"/>
+      <c r="D240" s="5"/>
+      <c r="E240" s="5"/>
+      <c r="F240" s="5"/>
+      <c r="G240" s="5"/>
+      <c r="H240" s="5"/>
+      <c r="I240" s="5"/>
+      <c r="J240" s="5"/>
+      <c r="K240" s="5"/>
+      <c r="L240" s="5"/>
+      <c r="M240" s="5"/>
+      <c r="N240" s="5"/>
+      <c r="O240" s="5"/>
+      <c r="P240" s="5"/>
+      <c r="Q240" s="6"/>
+      <c r="R240" s="6"/>
+    </row>
+    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A241" s="4"/>
+      <c r="B241" s="4"/>
+      <c r="C241" s="5"/>
+      <c r="D241" s="5"/>
+      <c r="E241" s="5"/>
+      <c r="F241" s="5"/>
+      <c r="G241" s="5"/>
+      <c r="H241" s="5"/>
+      <c r="I241" s="5"/>
+      <c r="J241" s="5"/>
+      <c r="K241" s="5"/>
+      <c r="L241" s="5"/>
+      <c r="M241" s="5"/>
+      <c r="N241" s="5"/>
+      <c r="O241" s="5"/>
+      <c r="P241" s="5"/>
+      <c r="Q241" s="6"/>
+      <c r="R241" s="6"/>
+    </row>
+    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A242" s="4"/>
+      <c r="B242" s="4"/>
+      <c r="C242" s="5"/>
+      <c r="D242" s="5"/>
+      <c r="E242" s="5"/>
+      <c r="F242" s="5"/>
+      <c r="G242" s="5"/>
+      <c r="H242" s="5"/>
+      <c r="I242" s="5"/>
+      <c r="J242" s="5"/>
+      <c r="K242" s="5"/>
+      <c r="L242" s="5"/>
+      <c r="M242" s="5"/>
+      <c r="N242" s="5"/>
+      <c r="O242" s="5"/>
+      <c r="P242" s="5"/>
+      <c r="Q242" s="6"/>
+      <c r="R242" s="6"/>
+    </row>
+    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A243" s="4"/>
+      <c r="B243" s="4"/>
+      <c r="C243" s="5"/>
+      <c r="D243" s="5"/>
+      <c r="E243" s="5"/>
+      <c r="F243" s="5"/>
+      <c r="G243" s="5"/>
+      <c r="H243" s="5"/>
+      <c r="I243" s="5"/>
+      <c r="J243" s="5"/>
+      <c r="K243" s="5"/>
+      <c r="L243" s="5"/>
+      <c r="M243" s="5"/>
+      <c r="N243" s="5"/>
+      <c r="O243" s="5"/>
+      <c r="P243" s="5"/>
+      <c r="Q243" s="6"/>
+      <c r="R243" s="6"/>
+    </row>
+    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A244" s="4"/>
+      <c r="B244" s="4"/>
+      <c r="C244" s="5"/>
+      <c r="D244" s="5"/>
+      <c r="E244" s="5"/>
+      <c r="F244" s="5"/>
+      <c r="G244" s="5"/>
+      <c r="H244" s="5"/>
+      <c r="I244" s="5"/>
+      <c r="J244" s="5"/>
+      <c r="K244" s="5"/>
+      <c r="L244" s="5"/>
+      <c r="M244" s="5"/>
+      <c r="N244" s="5"/>
+      <c r="O244" s="5"/>
+      <c r="P244" s="5"/>
+      <c r="Q244" s="6"/>
+      <c r="R244" s="6"/>
+    </row>
+    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A245" s="4"/>
+      <c r="B245" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C245" s="5"/>
+      <c r="D245" s="5"/>
+      <c r="E245" s="5"/>
+      <c r="F245" s="5"/>
+      <c r="G245" s="5"/>
+      <c r="H245" s="5"/>
+      <c r="I245" s="5"/>
+      <c r="J245" s="5"/>
+      <c r="K245" s="5"/>
+      <c r="L245" s="5"/>
+      <c r="M245" s="5"/>
+      <c r="N245" s="5"/>
+      <c r="O245" s="5"/>
+      <c r="P245" s="5"/>
+      <c r="Q245" s="6"/>
+      <c r="R245" s="6"/>
+    </row>
+    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A246" s="4"/>
+      <c r="B246" s="4"/>
+      <c r="C246" s="5"/>
+      <c r="D246" s="5"/>
+      <c r="E246" s="5"/>
+      <c r="F246" s="5"/>
+      <c r="G246" s="5"/>
+      <c r="H246" s="5"/>
+      <c r="I246" s="5"/>
+      <c r="J246" s="5"/>
+      <c r="K246" s="5"/>
+      <c r="L246" s="5"/>
+      <c r="M246" s="5"/>
+      <c r="N246" s="5"/>
+      <c r="O246" s="5"/>
+      <c r="P246" s="5"/>
+      <c r="Q246" s="6"/>
+      <c r="R246" s="6"/>
+    </row>
+    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A247" s="4"/>
+      <c r="B247" s="4"/>
+      <c r="C247" s="5"/>
+      <c r="D247" s="5"/>
+      <c r="E247" s="5"/>
+      <c r="F247" s="5"/>
+      <c r="G247" s="5"/>
+      <c r="H247" s="5"/>
+      <c r="I247" s="5"/>
+      <c r="J247" s="5"/>
+      <c r="K247" s="5"/>
+      <c r="L247" s="5"/>
+      <c r="M247" s="5"/>
+      <c r="N247" s="5"/>
+      <c r="O247" s="5"/>
+      <c r="P247" s="5"/>
+      <c r="Q247" s="6"/>
+      <c r="R247" s="6"/>
+    </row>
+    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A248" s="4"/>
+      <c r="B248" s="4"/>
+      <c r="C248" s="5"/>
+      <c r="D248" s="5"/>
+      <c r="E248" s="5"/>
+      <c r="F248" s="5"/>
+      <c r="G248" s="5"/>
+      <c r="H248" s="5"/>
+      <c r="I248" s="5"/>
+      <c r="J248" s="5"/>
+      <c r="K248" s="5"/>
+      <c r="L248" s="5"/>
+      <c r="M248" s="5"/>
+      <c r="N248" s="5"/>
+      <c r="O248" s="5"/>
+      <c r="P248" s="5"/>
+      <c r="Q248" s="6"/>
+      <c r="R248" s="6"/>
+    </row>
+    <row r="249" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A249" s="4"/>
+      <c r="B249" s="4"/>
+      <c r="C249" s="5"/>
+      <c r="D249" s="5"/>
+      <c r="E249" s="5"/>
+      <c r="F249" s="5"/>
+      <c r="G249" s="5"/>
+      <c r="H249" s="5"/>
+      <c r="I249" s="5"/>
+      <c r="J249" s="5"/>
+      <c r="K249" s="5"/>
+      <c r="L249" s="5"/>
+      <c r="M249" s="5"/>
+      <c r="N249" s="5"/>
+      <c r="O249" s="5"/>
+      <c r="P249" s="5"/>
+      <c r="Q249" s="6"/>
+      <c r="R249" s="6"/>
+    </row>
+    <row r="250" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A250" s="4"/>
+      <c r="B250" s="4"/>
+      <c r="C250" s="5"/>
+      <c r="D250" s="5"/>
+      <c r="E250" s="5"/>
+      <c r="F250" s="5"/>
+      <c r="G250" s="5"/>
+      <c r="H250" s="5"/>
+      <c r="I250" s="5"/>
+      <c r="J250" s="5"/>
+      <c r="K250" s="5"/>
+      <c r="L250" s="5"/>
+      <c r="M250" s="5"/>
+      <c r="N250" s="5"/>
+      <c r="O250" s="5"/>
+      <c r="P250" s="5"/>
+      <c r="Q250" s="6"/>
+      <c r="R250" s="6"/>
+    </row>
+    <row r="251" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A251" s="4"/>
+      <c r="B251" s="4"/>
+      <c r="C251" s="5"/>
+      <c r="D251" s="5"/>
+      <c r="E251" s="5"/>
+      <c r="F251" s="5"/>
+      <c r="G251" s="5"/>
+      <c r="H251" s="5"/>
+      <c r="I251" s="5"/>
+      <c r="J251" s="5"/>
+      <c r="K251" s="5"/>
+      <c r="L251" s="5"/>
+      <c r="M251" s="5"/>
+      <c r="N251" s="5"/>
+      <c r="O251" s="5"/>
+      <c r="P251" s="5"/>
+      <c r="Q251" s="6"/>
+      <c r="R251" s="6"/>
+    </row>
+    <row r="252" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A252" s="4"/>
+      <c r="B252" s="4"/>
+      <c r="C252" s="5"/>
+      <c r="D252" s="5"/>
+      <c r="E252" s="5"/>
+      <c r="F252" s="5"/>
+      <c r="G252" s="5"/>
+      <c r="H252" s="5"/>
+      <c r="I252" s="5"/>
+      <c r="J252" s="5"/>
+      <c r="K252" s="5"/>
+      <c r="L252" s="5"/>
+      <c r="M252" s="5"/>
+      <c r="N252" s="5"/>
+      <c r="O252" s="5"/>
+      <c r="P252" s="5"/>
+      <c r="Q252" s="6"/>
+      <c r="R252" s="6"/>
+    </row>
+    <row r="253" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A253" s="4"/>
+      <c r="B253" s="4"/>
+      <c r="C253" s="5"/>
+      <c r="D253" s="5"/>
+      <c r="E253" s="5"/>
+      <c r="F253" s="5"/>
+      <c r="G253" s="5"/>
+      <c r="H253" s="5"/>
+      <c r="I253" s="5"/>
+      <c r="J253" s="5"/>
+      <c r="K253" s="5"/>
+      <c r="L253" s="5"/>
+      <c r="M253" s="5"/>
+      <c r="N253" s="5"/>
+      <c r="O253" s="5"/>
+      <c r="P253" s="5"/>
+      <c r="Q253" s="6"/>
+      <c r="R253" s="6"/>
+    </row>
+    <row r="254" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A254" s="4"/>
+      <c r="B254" s="4"/>
+      <c r="C254" s="5"/>
+      <c r="D254" s="5"/>
+      <c r="E254" s="5"/>
+      <c r="F254" s="5"/>
+      <c r="G254" s="5"/>
+      <c r="H254" s="5"/>
+      <c r="I254" s="5"/>
+      <c r="J254" s="5"/>
+      <c r="K254" s="5"/>
+      <c r="L254" s="5"/>
+      <c r="M254" s="5"/>
+      <c r="N254" s="5"/>
+      <c r="O254" s="5"/>
+      <c r="P254" s="5"/>
+      <c r="Q254" s="6"/>
+      <c r="R254" s="6"/>
+    </row>
+    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A255" s="4"/>
+      <c r="B255" s="4"/>
+      <c r="C255" s="5"/>
+      <c r="D255" s="5"/>
+      <c r="E255" s="5"/>
+      <c r="F255" s="5"/>
+      <c r="G255" s="5"/>
+      <c r="H255" s="5"/>
+      <c r="I255" s="5"/>
+      <c r="J255" s="5"/>
+      <c r="K255" s="5"/>
+      <c r="L255" s="5"/>
+      <c r="M255" s="5"/>
+      <c r="N255" s="5"/>
+      <c r="O255" s="5"/>
+      <c r="P255" s="5"/>
+      <c r="Q255" s="6"/>
+      <c r="R255" s="6"/>
+    </row>
+    <row r="256" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A256" s="4"/>
+      <c r="B256" s="4"/>
+      <c r="C256" s="5"/>
+      <c r="D256" s="5"/>
+      <c r="E256" s="5"/>
+      <c r="F256" s="5"/>
+      <c r="G256" s="5"/>
+      <c r="H256" s="5"/>
+      <c r="I256" s="5"/>
+      <c r="J256" s="5"/>
+      <c r="K256" s="5"/>
+      <c r="L256" s="5"/>
+      <c r="M256" s="5"/>
+      <c r="N256" s="5"/>
+      <c r="O256" s="5"/>
+      <c r="P256" s="5"/>
+      <c r="Q256" s="6"/>
+      <c r="R256" s="6"/>
+    </row>
+    <row r="257" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A257" s="4"/>
+      <c r="B257" s="4"/>
+      <c r="C257" s="5"/>
+      <c r="D257" s="5"/>
+      <c r="E257" s="5"/>
+      <c r="F257" s="5"/>
+      <c r="G257" s="5"/>
+      <c r="H257" s="5"/>
+      <c r="I257" s="5"/>
+      <c r="J257" s="5"/>
+      <c r="K257" s="5"/>
+      <c r="L257" s="5"/>
+      <c r="M257" s="5"/>
+      <c r="N257" s="5"/>
+      <c r="O257" s="5"/>
+      <c r="P257" s="5"/>
+      <c r="Q257" s="6"/>
+      <c r="R257" s="6"/>
+    </row>
+    <row r="258" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A258" s="4"/>
+      <c r="B258" s="4"/>
+      <c r="C258" s="5"/>
+      <c r="D258" s="5"/>
+      <c r="E258" s="5"/>
+      <c r="F258" s="5"/>
+      <c r="G258" s="5"/>
+      <c r="H258" s="5"/>
+      <c r="I258" s="5"/>
+      <c r="J258" s="5"/>
+      <c r="K258" s="5"/>
+      <c r="L258" s="5"/>
+      <c r="M258" s="5"/>
+      <c r="N258" s="5"/>
+      <c r="O258" s="5"/>
+      <c r="P258" s="5"/>
+      <c r="Q258" s="6"/>
+      <c r="R258" s="6"/>
+    </row>
+    <row r="259" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A259" s="4"/>
+      <c r="B259" s="4"/>
+      <c r="C259" s="5"/>
+      <c r="D259" s="5"/>
+      <c r="E259" s="5"/>
+      <c r="F259" s="5"/>
+      <c r="G259" s="5"/>
+      <c r="H259" s="5"/>
+      <c r="I259" s="5"/>
+      <c r="J259" s="5"/>
+      <c r="K259" s="5"/>
+      <c r="L259" s="5"/>
+      <c r="M259" s="5"/>
+      <c r="N259" s="5"/>
+      <c r="O259" s="5"/>
+      <c r="P259" s="5"/>
+      <c r="Q259" s="6"/>
+      <c r="R259" s="6"/>
+    </row>
+    <row r="260" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A260" s="4"/>
+      <c r="B260" s="4"/>
+      <c r="C260" s="5"/>
+      <c r="D260" s="5"/>
+      <c r="E260" s="5"/>
+      <c r="F260" s="5"/>
+      <c r="G260" s="5"/>
+      <c r="H260" s="5"/>
+      <c r="I260" s="5"/>
+      <c r="J260" s="5"/>
+      <c r="K260" s="5"/>
+      <c r="L260" s="5"/>
+      <c r="M260" s="5"/>
+      <c r="N260" s="5"/>
+      <c r="O260" s="5"/>
+      <c r="P260" s="5"/>
+      <c r="Q260" s="6"/>
+      <c r="R260" s="6"/>
+    </row>
+    <row r="261" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A261" s="4"/>
+      <c r="B261" s="4"/>
+      <c r="C261" s="5"/>
+      <c r="D261" s="5"/>
+      <c r="E261" s="5"/>
+      <c r="F261" s="5"/>
+      <c r="G261" s="5"/>
+      <c r="H261" s="5"/>
+      <c r="I261" s="5"/>
+      <c r="J261" s="5"/>
+      <c r="K261" s="5"/>
+      <c r="L261" s="5"/>
+      <c r="M261" s="5"/>
+      <c r="N261" s="5"/>
+      <c r="O261" s="5"/>
+      <c r="P261" s="5"/>
+      <c r="Q261" s="6"/>
+      <c r="R261" s="6"/>
+    </row>
+    <row r="262" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A262" s="4"/>
+      <c r="B262" s="4"/>
+      <c r="C262" s="5"/>
+      <c r="D262" s="5"/>
+      <c r="E262" s="5"/>
+      <c r="F262" s="5"/>
+      <c r="G262" s="5"/>
+      <c r="H262" s="5"/>
+      <c r="I262" s="5"/>
+      <c r="J262" s="5"/>
+      <c r="K262" s="5"/>
+      <c r="L262" s="5"/>
+      <c r="M262" s="5"/>
+      <c r="N262" s="5"/>
+      <c r="O262" s="5"/>
+      <c r="P262" s="5"/>
+      <c r="Q262" s="6"/>
+      <c r="R262" s="6"/>
+    </row>
+    <row r="263" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A263" s="4"/>
+      <c r="B263" s="4"/>
+      <c r="C263" s="5"/>
+      <c r="D263" s="5"/>
+      <c r="E263" s="5"/>
+      <c r="F263" s="5"/>
+      <c r="G263" s="5"/>
+      <c r="H263" s="5"/>
+      <c r="I263" s="5"/>
+      <c r="J263" s="5"/>
+      <c r="K263" s="5"/>
+      <c r="L263" s="5"/>
+      <c r="M263" s="5"/>
+      <c r="N263" s="5"/>
+      <c r="O263" s="5"/>
+      <c r="P263" s="5"/>
+      <c r="Q263" s="6"/>
+      <c r="R263" s="6"/>
+    </row>
+    <row r="264" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A264" s="4"/>
+      <c r="B264" s="4"/>
+      <c r="C264" s="5"/>
+      <c r="D264" s="5"/>
+      <c r="E264" s="5"/>
+      <c r="F264" s="5"/>
+      <c r="G264" s="5"/>
+      <c r="H264" s="5"/>
+      <c r="I264" s="5"/>
+      <c r="J264" s="5"/>
+      <c r="K264" s="5"/>
+      <c r="L264" s="5"/>
+      <c r="M264" s="5"/>
+      <c r="N264" s="5"/>
+      <c r="O264" s="5"/>
+      <c r="P264" s="5"/>
+      <c r="Q264" s="6"/>
+      <c r="R264" s="6"/>
+    </row>
+    <row r="265" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A265" s="4"/>
+      <c r="B265" s="4"/>
+      <c r="C265" s="5"/>
+      <c r="D265" s="5"/>
+      <c r="E265" s="5"/>
+      <c r="F265" s="5"/>
+      <c r="G265" s="5"/>
+      <c r="H265" s="5"/>
+      <c r="I265" s="5"/>
+      <c r="J265" s="5"/>
+      <c r="K265" s="5"/>
+      <c r="L265" s="5"/>
+      <c r="M265" s="5"/>
+      <c r="N265" s="5"/>
+      <c r="O265" s="5"/>
+      <c r="P265" s="5"/>
+      <c r="Q265" s="6"/>
+      <c r="R265" s="6"/>
+    </row>
+    <row r="266" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A266" s="4"/>
+      <c r="B266" s="7"/>
+      <c r="C266" s="8"/>
+      <c r="D266" s="8"/>
+      <c r="E266" s="8"/>
+      <c r="F266" s="8"/>
+      <c r="G266" s="8"/>
+      <c r="H266" s="8"/>
+      <c r="I266" s="8"/>
+      <c r="J266" s="8"/>
+      <c r="K266" s="8"/>
+      <c r="L266" s="8"/>
+      <c r="M266" s="8"/>
+      <c r="N266" s="8"/>
+      <c r="O266" s="8"/>
+      <c r="P266" s="8"/>
+      <c r="Q266" s="9"/>
+      <c r="R266" s="6"/>
+    </row>
+    <row r="267" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A267" s="7"/>
+      <c r="B267" s="8"/>
+      <c r="C267" s="8"/>
+      <c r="D267" s="8"/>
+      <c r="E267" s="8"/>
+      <c r="F267" s="8"/>
+      <c r="G267" s="8"/>
+      <c r="H267" s="8"/>
+      <c r="I267" s="8"/>
+      <c r="J267" s="8"/>
+      <c r="K267" s="8"/>
+      <c r="L267" s="8"/>
+      <c r="M267" s="8"/>
+      <c r="N267" s="8"/>
+      <c r="O267" s="8"/>
+      <c r="P267" s="8"/>
+      <c r="Q267" s="8"/>
+      <c r="R267" s="9"/>
+    </row>
+    <row r="268" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A268" s="5"/>
+      <c r="B268" s="5"/>
+      <c r="C268" s="5"/>
+      <c r="D268" s="5"/>
+      <c r="E268" s="5"/>
+      <c r="F268" s="5"/>
+      <c r="G268" s="5"/>
+      <c r="H268" s="5"/>
+      <c r="I268" s="5"/>
+      <c r="J268" s="5"/>
+      <c r="K268" s="5"/>
+      <c r="L268" s="5"/>
+      <c r="M268" s="5"/>
+      <c r="N268" s="5"/>
+      <c r="O268" s="5"/>
+      <c r="P268" s="5"/>
+      <c r="Q268" s="5"/>
+      <c r="R268" s="5"/>
+    </row>
+    <row r="270" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B270" s="2"/>
+      <c r="C270" s="2"/>
+      <c r="D270" s="2"/>
+      <c r="E270" s="2"/>
+      <c r="F270" s="2"/>
+      <c r="G270" s="2"/>
+      <c r="H270" s="2"/>
+      <c r="I270" s="2"/>
+      <c r="J270" s="2"/>
+      <c r="K270" s="2"/>
+      <c r="L270" s="2"/>
+      <c r="M270" s="2"/>
+      <c r="N270" s="2"/>
+      <c r="O270" s="2"/>
+      <c r="P270" s="2"/>
+      <c r="Q270" s="2"/>
+      <c r="R270" s="2"/>
+      <c r="S270" s="2"/>
+      <c r="T270" s="2"/>
+      <c r="U270" s="2"/>
+      <c r="V270" s="3"/>
+    </row>
+    <row r="271" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B271" s="2"/>
+      <c r="C271" s="2"/>
+      <c r="D271" s="2"/>
+      <c r="E271" s="2"/>
+      <c r="F271" s="2"/>
+      <c r="G271" s="2"/>
+      <c r="H271" s="2"/>
+      <c r="I271" s="2"/>
+      <c r="J271" s="2"/>
+      <c r="K271" s="2"/>
+      <c r="L271" s="2"/>
+      <c r="M271" s="2"/>
+      <c r="N271" s="2"/>
+      <c r="O271" s="2"/>
+      <c r="P271" s="2"/>
+      <c r="Q271" s="2"/>
+      <c r="R271" s="2"/>
+      <c r="S271" s="2"/>
+      <c r="T271" s="2"/>
+      <c r="U271" s="3"/>
+      <c r="V271" s="6"/>
+    </row>
+    <row r="272" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A272" s="4"/>
+      <c r="B272" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C272" s="2"/>
+      <c r="D272" s="2"/>
+      <c r="E272" s="2"/>
+      <c r="F272" s="2"/>
+      <c r="G272" s="2"/>
+      <c r="H272" s="2"/>
+      <c r="I272" s="2"/>
+      <c r="J272" s="2"/>
+      <c r="K272" s="2"/>
+      <c r="L272" s="2"/>
+      <c r="M272" s="2"/>
+      <c r="N272" s="2"/>
+      <c r="O272" s="2"/>
+      <c r="P272" s="2"/>
+      <c r="Q272" s="2"/>
+      <c r="R272" s="2"/>
+      <c r="S272" s="2"/>
+      <c r="T272" s="3"/>
+      <c r="U272" s="6"/>
+      <c r="V272" s="6"/>
+    </row>
+    <row r="273" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A273" s="4"/>
+      <c r="B273" s="4"/>
+      <c r="C273" s="5"/>
+      <c r="D273" s="5"/>
+      <c r="E273" s="5"/>
+      <c r="F273" s="5"/>
+      <c r="G273" s="5"/>
+      <c r="H273" s="5"/>
+      <c r="I273" s="5"/>
+      <c r="J273" s="5"/>
+      <c r="K273" s="5"/>
+      <c r="L273" s="5"/>
+      <c r="M273" s="5"/>
+      <c r="N273" s="5"/>
+      <c r="O273" s="5"/>
+      <c r="P273" s="5"/>
+      <c r="Q273" s="5"/>
+      <c r="R273" s="5"/>
+      <c r="S273" s="5"/>
+      <c r="T273" s="6"/>
+      <c r="U273" s="6"/>
+      <c r="V273" s="6"/>
+    </row>
+    <row r="274" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A274" s="4"/>
+      <c r="B274" s="4"/>
+      <c r="C274" s="5"/>
+      <c r="D274" s="5"/>
+      <c r="E274" s="5"/>
+      <c r="F274" s="5"/>
+      <c r="G274" s="5"/>
+      <c r="H274" s="5"/>
+      <c r="I274" s="5"/>
+      <c r="J274" s="5"/>
+      <c r="K274" s="5"/>
+      <c r="L274" s="5"/>
+      <c r="M274" s="5"/>
+      <c r="N274" s="5"/>
+      <c r="O274" s="5"/>
+      <c r="P274" s="5"/>
+      <c r="Q274" s="5"/>
+      <c r="R274" s="5"/>
+      <c r="S274" s="5"/>
+      <c r="T274" s="6"/>
+      <c r="U274" s="6"/>
+      <c r="V274" s="6"/>
+    </row>
+    <row r="275" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A275" s="4"/>
+      <c r="B275" s="4"/>
+      <c r="C275" s="5"/>
+      <c r="D275" s="5"/>
+      <c r="E275" s="5"/>
+      <c r="F275" s="5"/>
+      <c r="G275" s="5"/>
+      <c r="H275" s="5"/>
+      <c r="I275" s="5"/>
+      <c r="J275" s="5"/>
+      <c r="K275" s="5"/>
+      <c r="L275" s="5"/>
+      <c r="M275" s="5"/>
+      <c r="N275" s="5"/>
+      <c r="O275" s="5"/>
+      <c r="P275" s="5"/>
+      <c r="Q275" s="5"/>
+      <c r="R275" s="5"/>
+      <c r="S275" s="5"/>
+      <c r="T275" s="6"/>
+      <c r="U275" s="6"/>
+      <c r="V275" s="6"/>
+    </row>
+    <row r="276" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A276" s="4"/>
+      <c r="B276" s="4"/>
+      <c r="C276" s="5"/>
+      <c r="D276" s="5"/>
+      <c r="E276" s="5"/>
+      <c r="F276" s="5"/>
+      <c r="G276" s="5"/>
+      <c r="H276" s="5"/>
+      <c r="I276" s="5"/>
+      <c r="J276" s="5"/>
+      <c r="K276" s="5"/>
+      <c r="L276" s="5"/>
+      <c r="M276" s="5"/>
+      <c r="N276" s="5"/>
+      <c r="O276" s="5"/>
+      <c r="P276" s="5"/>
+      <c r="Q276" s="5"/>
+      <c r="R276" s="5"/>
+      <c r="S276" s="5"/>
+      <c r="T276" s="6"/>
+      <c r="U276" s="6"/>
+      <c r="V276" s="6"/>
+    </row>
+    <row r="277" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A277" s="4"/>
+      <c r="B277" s="4"/>
+      <c r="C277" s="5"/>
+      <c r="D277" s="5"/>
+      <c r="E277" s="5"/>
+      <c r="F277" s="5"/>
+      <c r="G277" s="5"/>
+      <c r="H277" s="5"/>
+      <c r="I277" s="5"/>
+      <c r="J277" s="5"/>
+      <c r="K277" s="5"/>
+      <c r="L277" s="5"/>
+      <c r="M277" s="5"/>
+      <c r="N277" s="5"/>
+      <c r="O277" s="5"/>
+      <c r="P277" s="5"/>
+      <c r="Q277" s="5"/>
+      <c r="R277" s="5"/>
+      <c r="S277" s="5"/>
+      <c r="T277" s="6"/>
+      <c r="U277" s="6"/>
+      <c r="V277" s="6"/>
+    </row>
+    <row r="278" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A278" s="4"/>
+      <c r="B278" s="4"/>
+      <c r="C278" s="5"/>
+      <c r="D278" s="5"/>
+      <c r="E278" s="5"/>
+      <c r="F278" s="5"/>
+      <c r="G278" s="5"/>
+      <c r="H278" s="5"/>
+      <c r="I278" s="5"/>
+      <c r="J278" s="5"/>
+      <c r="K278" s="5"/>
+      <c r="L278" s="5"/>
+      <c r="M278" s="5"/>
+      <c r="N278" s="5"/>
+      <c r="O278" s="5"/>
+      <c r="P278" s="5"/>
+      <c r="Q278" s="5"/>
+      <c r="R278" s="5"/>
+      <c r="S278" s="5"/>
+      <c r="T278" s="6"/>
+      <c r="U278" s="6"/>
+      <c r="V278" s="6"/>
+    </row>
+    <row r="279" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A279" s="4"/>
+      <c r="B279" s="4"/>
+      <c r="C279" s="5"/>
+      <c r="D279" s="5"/>
+      <c r="E279" s="5"/>
+      <c r="F279" s="5"/>
+      <c r="G279" s="5"/>
+      <c r="H279" s="5"/>
+      <c r="I279" s="5"/>
+      <c r="J279" s="5"/>
+      <c r="K279" s="5"/>
+      <c r="L279" s="5"/>
+      <c r="M279" s="5"/>
+      <c r="N279" s="5"/>
+      <c r="O279" s="5"/>
+      <c r="P279" s="5"/>
+      <c r="Q279" s="5"/>
+      <c r="R279" s="5"/>
+      <c r="S279" s="5"/>
+      <c r="T279" s="6"/>
+      <c r="U279" s="6"/>
+      <c r="V279" s="6"/>
+    </row>
+    <row r="280" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A280" s="4"/>
+      <c r="B280" s="4"/>
+      <c r="C280" s="5"/>
+      <c r="D280" s="5"/>
+      <c r="E280" s="5"/>
+      <c r="F280" s="5"/>
+      <c r="G280" s="5"/>
+      <c r="H280" s="5"/>
+      <c r="I280" s="5"/>
+      <c r="J280" s="5"/>
+      <c r="K280" s="5"/>
+      <c r="L280" s="5"/>
+      <c r="M280" s="5"/>
+      <c r="N280" s="5"/>
+      <c r="O280" s="5"/>
+      <c r="P280" s="5"/>
+      <c r="Q280" s="5"/>
+      <c r="R280" s="5"/>
+      <c r="S280" s="5"/>
+      <c r="T280" s="6"/>
+      <c r="U280" s="6"/>
+      <c r="V280" s="6"/>
+    </row>
+    <row r="281" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A281" s="4"/>
+      <c r="B281" s="4"/>
+      <c r="C281" s="5"/>
+      <c r="D281" s="5"/>
+      <c r="E281" s="5"/>
+      <c r="F281" s="5"/>
+      <c r="G281" s="5"/>
+      <c r="H281" s="5"/>
+      <c r="I281" s="5"/>
+      <c r="J281" s="5"/>
+      <c r="K281" s="5"/>
+      <c r="L281" s="5"/>
+      <c r="M281" s="5"/>
+      <c r="N281" s="5"/>
+      <c r="O281" s="5"/>
+      <c r="P281" s="5"/>
+      <c r="Q281" s="5"/>
+      <c r="R281" s="5"/>
+      <c r="S281" s="5"/>
+      <c r="T281" s="6"/>
+      <c r="U281" s="6"/>
+      <c r="V281" s="6"/>
+    </row>
+    <row r="282" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A282" s="4"/>
+      <c r="B282" s="4"/>
+      <c r="C282" s="5"/>
+      <c r="D282" s="5"/>
+      <c r="E282" s="5"/>
+      <c r="F282" s="5"/>
+      <c r="G282" s="5"/>
+      <c r="H282" s="5"/>
+      <c r="I282" s="5"/>
+      <c r="J282" s="5"/>
+      <c r="K282" s="5"/>
+      <c r="L282" s="5"/>
+      <c r="M282" s="5"/>
+      <c r="N282" s="5"/>
+      <c r="O282" s="5"/>
+      <c r="P282" s="5"/>
+      <c r="Q282" s="5"/>
+      <c r="R282" s="5"/>
+      <c r="S282" s="5"/>
+      <c r="T282" s="6"/>
+      <c r="U282" s="6"/>
+      <c r="V282" s="6"/>
+    </row>
+    <row r="283" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A283" s="4"/>
+      <c r="B283" s="4"/>
+      <c r="C283" s="5"/>
+      <c r="D283" s="5"/>
+      <c r="E283" s="5"/>
+      <c r="F283" s="5"/>
+      <c r="G283" s="5"/>
+      <c r="H283" s="5"/>
+      <c r="I283" s="5"/>
+      <c r="J283" s="5"/>
+      <c r="K283" s="5"/>
+      <c r="L283" s="5"/>
+      <c r="M283" s="5"/>
+      <c r="N283" s="5"/>
+      <c r="O283" s="5"/>
+      <c r="P283" s="5"/>
+      <c r="Q283" s="5"/>
+      <c r="R283" s="5"/>
+      <c r="S283" s="5"/>
+      <c r="T283" s="6"/>
+      <c r="U283" s="6"/>
+      <c r="V283" s="6"/>
+    </row>
+    <row r="284" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A284" s="4"/>
+      <c r="B284" s="4"/>
+      <c r="C284" s="5"/>
+      <c r="D284" s="5"/>
+      <c r="E284" s="5"/>
+      <c r="F284" s="5"/>
+      <c r="G284" s="5"/>
+      <c r="H284" s="5"/>
+      <c r="I284" s="5"/>
+      <c r="J284" s="5"/>
+      <c r="K284" s="5"/>
+      <c r="L284" s="5"/>
+      <c r="M284" s="5"/>
+      <c r="N284" s="5"/>
+      <c r="O284" s="5"/>
+      <c r="P284" s="5"/>
+      <c r="Q284" s="5"/>
+      <c r="R284" s="5"/>
+      <c r="S284" s="5"/>
+      <c r="T284" s="6"/>
+      <c r="U284" s="6"/>
+      <c r="V284" s="6"/>
+    </row>
+    <row r="285" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A285" s="4"/>
+      <c r="B285" s="4"/>
+      <c r="C285" s="5"/>
+      <c r="D285" s="5"/>
+      <c r="E285" s="5"/>
+      <c r="F285" s="5"/>
+      <c r="G285" s="5"/>
+      <c r="H285" s="5"/>
+      <c r="I285" s="5"/>
+      <c r="J285" s="5"/>
+      <c r="K285" s="5"/>
+      <c r="L285" s="5"/>
+      <c r="M285" s="5"/>
+      <c r="N285" s="5"/>
+      <c r="O285" s="5"/>
+      <c r="P285" s="5"/>
+      <c r="Q285" s="5"/>
+      <c r="R285" s="5"/>
+      <c r="S285" s="5"/>
+      <c r="T285" s="6"/>
+      <c r="U285" s="6"/>
+      <c r="V285" s="6"/>
+    </row>
+    <row r="286" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A286" s="4"/>
+      <c r="B286" s="4"/>
+      <c r="C286" s="5"/>
+      <c r="D286" s="5"/>
+      <c r="E286" s="5"/>
+      <c r="F286" s="5"/>
+      <c r="G286" s="5"/>
+      <c r="H286" s="5"/>
+      <c r="I286" s="5"/>
+      <c r="J286" s="5"/>
+      <c r="K286" s="5"/>
+      <c r="L286" s="5"/>
+      <c r="M286" s="5"/>
+      <c r="N286" s="5"/>
+      <c r="O286" s="5"/>
+      <c r="P286" s="5"/>
+      <c r="Q286" s="5"/>
+      <c r="R286" s="5"/>
+      <c r="S286" s="5"/>
+      <c r="T286" s="6"/>
+      <c r="U286" s="6"/>
+      <c r="V286" s="6"/>
+    </row>
+    <row r="287" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A287" s="4"/>
+      <c r="B287" s="4"/>
+      <c r="C287" s="5"/>
+      <c r="D287" s="5"/>
+      <c r="E287" s="5"/>
+      <c r="F287" s="5"/>
+      <c r="G287" s="5"/>
+      <c r="H287" s="5"/>
+      <c r="I287" s="5"/>
+      <c r="J287" s="5"/>
+      <c r="K287" s="5"/>
+      <c r="L287" s="5"/>
+      <c r="M287" s="5"/>
+      <c r="N287" s="5"/>
+      <c r="O287" s="5"/>
+      <c r="P287" s="5"/>
+      <c r="Q287" s="5"/>
+      <c r="R287" s="5"/>
+      <c r="S287" s="5"/>
+      <c r="T287" s="6"/>
+      <c r="U287" s="6"/>
+      <c r="V287" s="6"/>
+    </row>
+    <row r="288" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A288" s="4"/>
+      <c r="B288" s="4"/>
+      <c r="C288" s="5"/>
+      <c r="D288" s="5"/>
+      <c r="E288" s="5"/>
+      <c r="F288" s="5"/>
+      <c r="G288" s="5"/>
+      <c r="H288" s="5"/>
+      <c r="I288" s="5"/>
+      <c r="J288" s="5"/>
+      <c r="K288" s="5"/>
+      <c r="L288" s="5"/>
+      <c r="M288" s="5"/>
+      <c r="N288" s="5"/>
+      <c r="O288" s="5"/>
+      <c r="P288" s="5"/>
+      <c r="Q288" s="5"/>
+      <c r="R288" s="5"/>
+      <c r="S288" s="5"/>
+      <c r="T288" s="6"/>
+      <c r="U288" s="6"/>
+      <c r="V288" s="6"/>
+    </row>
+    <row r="289" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A289" s="4"/>
+      <c r="B289" s="4"/>
+      <c r="C289" s="5"/>
+      <c r="D289" s="5"/>
+      <c r="E289" s="5"/>
+      <c r="F289" s="5"/>
+      <c r="G289" s="5"/>
+      <c r="H289" s="5"/>
+      <c r="I289" s="5"/>
+      <c r="J289" s="5"/>
+      <c r="K289" s="5"/>
+      <c r="L289" s="5"/>
+      <c r="M289" s="5"/>
+      <c r="N289" s="5"/>
+      <c r="O289" s="5"/>
+      <c r="P289" s="5"/>
+      <c r="Q289" s="5"/>
+      <c r="R289" s="5"/>
+      <c r="S289" s="5"/>
+      <c r="T289" s="6"/>
+      <c r="U289" s="6"/>
+      <c r="V289" s="6"/>
+    </row>
+    <row r="290" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A290" s="4"/>
+      <c r="B290" s="4"/>
+      <c r="C290" s="5"/>
+      <c r="D290" s="5"/>
+      <c r="E290" s="5"/>
+      <c r="F290" s="5"/>
+      <c r="G290" s="5"/>
+      <c r="H290" s="5"/>
+      <c r="I290" s="5"/>
+      <c r="J290" s="5"/>
+      <c r="K290" s="5"/>
+      <c r="L290" s="5"/>
+      <c r="M290" s="5"/>
+      <c r="N290" s="5"/>
+      <c r="O290" s="5"/>
+      <c r="P290" s="5"/>
+      <c r="Q290" s="5"/>
+      <c r="R290" s="5"/>
+      <c r="S290" s="5"/>
+      <c r="T290" s="6"/>
+      <c r="U290" s="6"/>
+      <c r="V290" s="6"/>
+    </row>
+    <row r="291" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A291" s="4"/>
+      <c r="B291" s="4"/>
+      <c r="C291" s="5"/>
+      <c r="D291" s="5"/>
+      <c r="E291" s="5"/>
+      <c r="F291" s="5"/>
+      <c r="G291" s="5"/>
+      <c r="H291" s="5"/>
+      <c r="I291" s="5"/>
+      <c r="J291" s="5"/>
+      <c r="K291" s="5"/>
+      <c r="L291" s="5"/>
+      <c r="M291" s="5"/>
+      <c r="N291" s="5"/>
+      <c r="O291" s="5"/>
+      <c r="P291" s="5"/>
+      <c r="Q291" s="5"/>
+      <c r="R291" s="5"/>
+      <c r="S291" s="5"/>
+      <c r="T291" s="6"/>
+      <c r="U291" s="6"/>
+      <c r="V291" s="6"/>
+    </row>
+    <row r="292" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A292" s="4"/>
+      <c r="B292" s="4"/>
+      <c r="C292" s="5"/>
+      <c r="D292" s="5"/>
+      <c r="E292" s="5"/>
+      <c r="F292" s="5"/>
+      <c r="G292" s="5"/>
+      <c r="H292" s="5"/>
+      <c r="I292" s="5"/>
+      <c r="J292" s="5"/>
+      <c r="K292" s="5"/>
+      <c r="L292" s="5"/>
+      <c r="M292" s="5"/>
+      <c r="N292" s="5"/>
+      <c r="O292" s="5"/>
+      <c r="P292" s="5"/>
+      <c r="Q292" s="5"/>
+      <c r="R292" s="5"/>
+      <c r="S292" s="5"/>
+      <c r="T292" s="6"/>
+      <c r="U292" s="6"/>
+      <c r="V292" s="6"/>
+    </row>
+    <row r="293" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A293" s="4"/>
+      <c r="B293" s="4"/>
+      <c r="C293" s="5"/>
+      <c r="D293" s="5"/>
+      <c r="E293" s="5"/>
+      <c r="F293" s="5"/>
+      <c r="G293" s="5"/>
+      <c r="H293" s="5"/>
+      <c r="I293" s="5"/>
+      <c r="J293" s="5"/>
+      <c r="K293" s="5"/>
+      <c r="L293" s="5"/>
+      <c r="M293" s="5"/>
+      <c r="N293" s="5"/>
+      <c r="O293" s="5"/>
+      <c r="P293" s="5"/>
+      <c r="Q293" s="5"/>
+      <c r="R293" s="5"/>
+      <c r="S293" s="5"/>
+      <c r="T293" s="6"/>
+      <c r="U293" s="6"/>
+      <c r="V293" s="6"/>
+    </row>
+    <row r="294" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A294" s="4"/>
+      <c r="B294" s="4"/>
+      <c r="C294" s="5"/>
+      <c r="D294" s="5"/>
+      <c r="E294" s="5"/>
+      <c r="F294" s="5"/>
+      <c r="G294" s="5"/>
+      <c r="H294" s="5"/>
+      <c r="I294" s="5"/>
+      <c r="J294" s="5"/>
+      <c r="K294" s="5"/>
+      <c r="L294" s="5"/>
+      <c r="M294" s="5"/>
+      <c r="N294" s="5"/>
+      <c r="O294" s="5"/>
+      <c r="P294" s="5"/>
+      <c r="Q294" s="5"/>
+      <c r="R294" s="5"/>
+      <c r="S294" s="5"/>
+      <c r="T294" s="6"/>
+      <c r="U294" s="6"/>
+      <c r="V294" s="6"/>
+    </row>
+    <row r="295" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A295" s="4"/>
+      <c r="B295" s="4"/>
+      <c r="C295" s="5"/>
+      <c r="D295" s="5"/>
+      <c r="E295" s="5"/>
+      <c r="F295" s="5"/>
+      <c r="G295" s="5"/>
+      <c r="H295" s="5"/>
+      <c r="I295" s="5"/>
+      <c r="J295" s="5"/>
+      <c r="K295" s="5"/>
+      <c r="L295" s="5"/>
+      <c r="M295" s="5"/>
+      <c r="N295" s="5"/>
+      <c r="O295" s="5"/>
+      <c r="P295" s="5"/>
+      <c r="Q295" s="5"/>
+      <c r="R295" s="5"/>
+      <c r="S295" s="5"/>
+      <c r="T295" s="6"/>
+      <c r="U295" s="6"/>
+      <c r="V295" s="6"/>
+    </row>
+    <row r="296" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A296" s="4"/>
+      <c r="B296" s="4"/>
+      <c r="C296" s="5"/>
+      <c r="D296" s="5"/>
+      <c r="E296" s="5"/>
+      <c r="F296" s="5"/>
+      <c r="G296" s="5"/>
+      <c r="H296" s="5"/>
+      <c r="I296" s="5"/>
+      <c r="J296" s="5"/>
+      <c r="K296" s="5"/>
+      <c r="L296" s="5"/>
+      <c r="M296" s="5"/>
+      <c r="N296" s="5"/>
+      <c r="O296" s="5"/>
+      <c r="P296" s="5"/>
+      <c r="Q296" s="5"/>
+      <c r="R296" s="5"/>
+      <c r="S296" s="5"/>
+      <c r="T296" s="6"/>
+      <c r="U296" s="6"/>
+      <c r="V296" s="6"/>
+    </row>
+    <row r="297" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A297" s="4"/>
+      <c r="B297" s="4"/>
+      <c r="C297" s="5"/>
+      <c r="D297" s="5"/>
+      <c r="E297" s="5"/>
+      <c r="F297" s="5"/>
+      <c r="G297" s="5"/>
+      <c r="H297" s="5"/>
+      <c r="I297" s="5"/>
+      <c r="J297" s="5"/>
+      <c r="K297" s="5"/>
+      <c r="L297" s="5"/>
+      <c r="M297" s="5"/>
+      <c r="N297" s="5"/>
+      <c r="O297" s="5"/>
+      <c r="P297" s="5"/>
+      <c r="Q297" s="5"/>
+      <c r="R297" s="5"/>
+      <c r="S297" s="5"/>
+      <c r="T297" s="6"/>
+      <c r="U297" s="6"/>
+      <c r="V297" s="6"/>
+    </row>
+    <row r="298" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A298" s="4"/>
+      <c r="B298" s="4"/>
+      <c r="C298" s="5"/>
+      <c r="D298" s="5"/>
+      <c r="E298" s="5"/>
+      <c r="F298" s="5"/>
+      <c r="G298" s="5"/>
+      <c r="H298" s="5"/>
+      <c r="I298" s="5"/>
+      <c r="J298" s="5"/>
+      <c r="K298" s="5"/>
+      <c r="L298" s="5"/>
+      <c r="M298" s="5"/>
+      <c r="N298" s="5"/>
+      <c r="O298" s="5"/>
+      <c r="P298" s="5"/>
+      <c r="Q298" s="5"/>
+      <c r="R298" s="5"/>
+      <c r="S298" s="5"/>
+      <c r="T298" s="6"/>
+      <c r="U298" s="6"/>
+      <c r="V298" s="6"/>
+    </row>
+    <row r="299" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A299" s="4"/>
+      <c r="B299" s="4"/>
+      <c r="C299" s="5"/>
+      <c r="D299" s="5"/>
+      <c r="E299" s="5"/>
+      <c r="F299" s="5"/>
+      <c r="G299" s="5"/>
+      <c r="H299" s="5"/>
+      <c r="I299" s="5"/>
+      <c r="J299" s="5"/>
+      <c r="K299" s="5"/>
+      <c r="L299" s="5"/>
+      <c r="M299" s="5"/>
+      <c r="N299" s="5"/>
+      <c r="O299" s="5"/>
+      <c r="P299" s="5"/>
+      <c r="Q299" s="5"/>
+      <c r="R299" s="5"/>
+      <c r="S299" s="5"/>
+      <c r="T299" s="6"/>
+      <c r="U299" s="6"/>
+      <c r="V299" s="6"/>
+    </row>
+    <row r="300" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A300" s="4"/>
+      <c r="B300" s="4"/>
+      <c r="C300" s="5"/>
+      <c r="D300" s="5"/>
+      <c r="E300" s="5"/>
+      <c r="F300" s="5"/>
+      <c r="G300" s="5"/>
+      <c r="H300" s="5"/>
+      <c r="I300" s="5"/>
+      <c r="J300" s="5"/>
+      <c r="K300" s="5"/>
+      <c r="L300" s="5"/>
+      <c r="M300" s="5"/>
+      <c r="N300" s="5"/>
+      <c r="O300" s="5"/>
+      <c r="P300" s="5"/>
+      <c r="Q300" s="5"/>
+      <c r="R300" s="5"/>
+      <c r="S300" s="5"/>
+      <c r="T300" s="6"/>
+      <c r="U300" s="6"/>
+      <c r="V300" s="6"/>
+    </row>
+    <row r="301" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A301" s="4"/>
+      <c r="B301" s="4"/>
+      <c r="C301" s="5"/>
+      <c r="D301" s="5"/>
+      <c r="E301" s="5"/>
+      <c r="F301" s="5"/>
+      <c r="G301" s="5"/>
+      <c r="H301" s="5"/>
+      <c r="I301" s="5"/>
+      <c r="J301" s="5"/>
+      <c r="K301" s="5"/>
+      <c r="L301" s="5"/>
+      <c r="M301" s="5"/>
+      <c r="N301" s="5"/>
+      <c r="O301" s="5"/>
+      <c r="P301" s="5"/>
+      <c r="Q301" s="5"/>
+      <c r="R301" s="5"/>
+      <c r="S301" s="5"/>
+      <c r="T301" s="6"/>
+      <c r="U301" s="6"/>
+      <c r="V301" s="6"/>
+    </row>
+    <row r="302" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A302" s="4"/>
+      <c r="B302" s="4"/>
+      <c r="C302" s="5"/>
+      <c r="D302" s="5"/>
+      <c r="E302" s="5"/>
+      <c r="F302" s="5"/>
+      <c r="G302" s="5"/>
+      <c r="H302" s="5"/>
+      <c r="I302" s="5"/>
+      <c r="J302" s="5"/>
+      <c r="K302" s="5"/>
+      <c r="L302" s="5"/>
+      <c r="M302" s="5"/>
+      <c r="N302" s="5"/>
+      <c r="O302" s="5"/>
+      <c r="P302" s="5"/>
+      <c r="Q302" s="5"/>
+      <c r="R302" s="5"/>
+      <c r="S302" s="5"/>
+      <c r="T302" s="6"/>
+      <c r="U302" s="6"/>
+      <c r="V302" s="6"/>
+    </row>
+    <row r="303" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A303" s="4"/>
+      <c r="B303" s="4"/>
+      <c r="C303" s="5"/>
+      <c r="D303" s="5"/>
+      <c r="E303" s="5"/>
+      <c r="F303" s="5"/>
+      <c r="G303" s="5"/>
+      <c r="H303" s="5"/>
+      <c r="I303" s="5"/>
+      <c r="J303" s="5"/>
+      <c r="K303" s="5"/>
+      <c r="L303" s="5"/>
+      <c r="M303" s="5"/>
+      <c r="N303" s="5"/>
+      <c r="O303" s="5"/>
+      <c r="P303" s="5"/>
+      <c r="Q303" s="5"/>
+      <c r="R303" s="5"/>
+      <c r="S303" s="5"/>
+      <c r="T303" s="6"/>
+      <c r="U303" s="6"/>
+      <c r="V303" s="6"/>
+    </row>
+    <row r="304" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A304" s="4"/>
+      <c r="B304" s="4"/>
+      <c r="C304" s="5"/>
+      <c r="D304" s="5"/>
+      <c r="E304" s="5"/>
+      <c r="F304" s="5"/>
+      <c r="G304" s="5"/>
+      <c r="H304" s="5"/>
+      <c r="I304" s="5"/>
+      <c r="J304" s="5"/>
+      <c r="K304" s="5"/>
+      <c r="L304" s="5"/>
+      <c r="M304" s="5"/>
+      <c r="N304" s="5"/>
+      <c r="O304" s="5"/>
+      <c r="P304" s="5"/>
+      <c r="Q304" s="5"/>
+      <c r="R304" s="5"/>
+      <c r="S304" s="5"/>
+      <c r="T304" s="6"/>
+      <c r="U304" s="6"/>
+      <c r="V304" s="6"/>
+    </row>
+    <row r="305" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A305" s="4"/>
+      <c r="B305" s="4"/>
+      <c r="C305" s="5"/>
+      <c r="D305" s="5"/>
+      <c r="E305" s="5"/>
+      <c r="F305" s="5"/>
+      <c r="G305" s="5"/>
+      <c r="H305" s="5"/>
+      <c r="I305" s="5"/>
+      <c r="J305" s="5"/>
+      <c r="K305" s="5"/>
+      <c r="L305" s="5"/>
+      <c r="M305" s="5"/>
+      <c r="N305" s="5"/>
+      <c r="O305" s="5"/>
+      <c r="P305" s="5"/>
+      <c r="Q305" s="5"/>
+      <c r="R305" s="5"/>
+      <c r="S305" s="5"/>
+      <c r="T305" s="6"/>
+      <c r="U305" s="6"/>
+      <c r="V305" s="6"/>
+    </row>
+    <row r="306" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A306" s="4"/>
+      <c r="B306" s="4"/>
+      <c r="C306" s="5"/>
+      <c r="D306" s="5"/>
+      <c r="E306" s="5"/>
+      <c r="F306" s="5"/>
+      <c r="G306" s="5"/>
+      <c r="H306" s="5"/>
+      <c r="I306" s="5"/>
+      <c r="J306" s="5"/>
+      <c r="K306" s="5"/>
+      <c r="L306" s="5"/>
+      <c r="M306" s="5"/>
+      <c r="N306" s="5"/>
+      <c r="O306" s="5"/>
+      <c r="P306" s="5"/>
+      <c r="Q306" s="5"/>
+      <c r="R306" s="5"/>
+      <c r="S306" s="5"/>
+      <c r="T306" s="6"/>
+      <c r="U306" s="6"/>
+      <c r="V306" s="6"/>
+    </row>
+    <row r="307" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A307" s="4"/>
+      <c r="B307" s="4"/>
+      <c r="C307" s="5"/>
+      <c r="D307" s="5"/>
+      <c r="E307" s="5"/>
+      <c r="F307" s="5"/>
+      <c r="G307" s="5"/>
+      <c r="H307" s="5"/>
+      <c r="I307" s="5"/>
+      <c r="J307" s="5"/>
+      <c r="K307" s="5"/>
+      <c r="L307" s="5"/>
+      <c r="M307" s="5"/>
+      <c r="N307" s="5"/>
+      <c r="O307" s="5"/>
+      <c r="P307" s="5"/>
+      <c r="Q307" s="5"/>
+      <c r="R307" s="5"/>
+      <c r="S307" s="5"/>
+      <c r="T307" s="6"/>
+      <c r="U307" s="6"/>
+      <c r="V307" s="6"/>
+    </row>
+    <row r="308" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A308" s="4"/>
+      <c r="B308" s="4"/>
+      <c r="C308" s="5"/>
+      <c r="D308" s="5"/>
+      <c r="E308" s="5"/>
+      <c r="F308" s="5"/>
+      <c r="G308" s="5"/>
+      <c r="H308" s="5"/>
+      <c r="I308" s="5"/>
+      <c r="J308" s="5"/>
+      <c r="K308" s="5"/>
+      <c r="L308" s="5"/>
+      <c r="M308" s="5"/>
+      <c r="N308" s="5"/>
+      <c r="O308" s="5"/>
+      <c r="P308" s="5"/>
+      <c r="Q308" s="5"/>
+      <c r="R308" s="5"/>
+      <c r="S308" s="5"/>
+      <c r="T308" s="6"/>
+      <c r="U308" s="6"/>
+      <c r="V308" s="6"/>
+    </row>
+    <row r="309" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A309" s="4"/>
+      <c r="B309" s="4"/>
+      <c r="C309" s="5"/>
+      <c r="D309" s="5"/>
+      <c r="E309" s="5"/>
+      <c r="F309" s="5"/>
+      <c r="G309" s="5"/>
+      <c r="H309" s="5"/>
+      <c r="I309" s="5"/>
+      <c r="J309" s="5"/>
+      <c r="K309" s="5"/>
+      <c r="L309" s="5"/>
+      <c r="M309" s="5"/>
+      <c r="N309" s="5"/>
+      <c r="O309" s="5"/>
+      <c r="P309" s="5"/>
+      <c r="Q309" s="5"/>
+      <c r="R309" s="5"/>
+      <c r="S309" s="5"/>
+      <c r="T309" s="6"/>
+      <c r="U309" s="6"/>
+      <c r="V309" s="6"/>
+    </row>
+    <row r="310" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A310" s="4"/>
+      <c r="B310" s="4"/>
+      <c r="C310" s="5"/>
+      <c r="D310" s="5"/>
+      <c r="E310" s="5"/>
+      <c r="F310" s="5"/>
+      <c r="G310" s="5"/>
+      <c r="H310" s="5"/>
+      <c r="I310" s="5"/>
+      <c r="J310" s="5"/>
+      <c r="K310" s="5"/>
+      <c r="L310" s="5"/>
+      <c r="M310" s="5"/>
+      <c r="N310" s="5"/>
+      <c r="O310" s="5"/>
+      <c r="P310" s="5"/>
+      <c r="Q310" s="5"/>
+      <c r="R310" s="5"/>
+      <c r="S310" s="5"/>
+      <c r="T310" s="6"/>
+      <c r="U310" s="6"/>
+      <c r="V310" s="6"/>
+    </row>
+    <row r="311" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A311" s="4"/>
+      <c r="B311" s="4"/>
+      <c r="C311" s="5"/>
+      <c r="D311" s="5"/>
+      <c r="E311" s="5"/>
+      <c r="F311" s="5"/>
+      <c r="G311" s="5"/>
+      <c r="H311" s="5"/>
+      <c r="I311" s="5"/>
+      <c r="J311" s="5"/>
+      <c r="K311" s="5"/>
+      <c r="L311" s="5"/>
+      <c r="M311" s="5"/>
+      <c r="N311" s="5"/>
+      <c r="O311" s="5"/>
+      <c r="P311" s="5"/>
+      <c r="Q311" s="5"/>
+      <c r="R311" s="5"/>
+      <c r="S311" s="5"/>
+      <c r="T311" s="6"/>
+      <c r="U311" s="6"/>
+      <c r="V311" s="6"/>
+    </row>
+    <row r="312" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A312" s="4"/>
+      <c r="B312" s="4"/>
+      <c r="C312" s="5"/>
+      <c r="D312" s="5"/>
+      <c r="E312" s="5"/>
+      <c r="F312" s="5"/>
+      <c r="G312" s="5"/>
+      <c r="H312" s="5"/>
+      <c r="I312" s="5"/>
+      <c r="J312" s="5"/>
+      <c r="K312" s="5"/>
+      <c r="L312" s="5"/>
+      <c r="M312" s="5"/>
+      <c r="N312" s="5"/>
+      <c r="O312" s="5"/>
+      <c r="P312" s="5"/>
+      <c r="Q312" s="5"/>
+      <c r="R312" s="5"/>
+      <c r="S312" s="5"/>
+      <c r="T312" s="6"/>
+      <c r="U312" s="6"/>
+      <c r="V312" s="6"/>
+    </row>
+    <row r="313" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A313" s="4"/>
+      <c r="B313" s="7"/>
+      <c r="C313" s="8"/>
+      <c r="D313" s="8"/>
+      <c r="E313" s="8"/>
+      <c r="F313" s="8"/>
+      <c r="G313" s="8"/>
+      <c r="H313" s="8"/>
+      <c r="I313" s="8"/>
+      <c r="J313" s="8"/>
+      <c r="K313" s="8"/>
+      <c r="L313" s="8"/>
+      <c r="M313" s="8"/>
+      <c r="N313" s="8"/>
+      <c r="O313" s="8"/>
+      <c r="P313" s="8"/>
+      <c r="Q313" s="8"/>
+      <c r="R313" s="8"/>
+      <c r="S313" s="8"/>
+      <c r="T313" s="9"/>
+      <c r="U313" s="6"/>
+      <c r="V313" s="6"/>
+    </row>
+    <row r="314" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A314" s="4"/>
+      <c r="B314" s="5"/>
+      <c r="C314" s="5"/>
+      <c r="D314" s="5"/>
+      <c r="E314" s="5"/>
+      <c r="F314" s="5"/>
+      <c r="G314" s="5"/>
+      <c r="H314" s="5"/>
+      <c r="I314" s="5"/>
+      <c r="J314" s="5"/>
+      <c r="K314" s="5"/>
+      <c r="L314" s="5"/>
+      <c r="M314" s="5"/>
+      <c r="N314" s="5"/>
+      <c r="O314" s="5"/>
+      <c r="P314" s="5"/>
+      <c r="Q314" s="5"/>
+      <c r="R314" s="5"/>
+      <c r="S314" s="5"/>
+      <c r="T314" s="5"/>
+      <c r="U314" s="6"/>
+      <c r="V314" s="6"/>
+    </row>
+    <row r="315" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A315" s="4"/>
+      <c r="B315" s="5"/>
+      <c r="C315" s="5"/>
+      <c r="D315" s="5"/>
+      <c r="E315" s="5"/>
+      <c r="F315" s="5"/>
+      <c r="G315" s="5"/>
+      <c r="H315" s="5"/>
+      <c r="I315" s="5"/>
+      <c r="J315" s="5"/>
+      <c r="K315" s="5"/>
+      <c r="L315" s="5"/>
+      <c r="M315" s="5"/>
+      <c r="N315" s="5"/>
+      <c r="O315" s="5"/>
+      <c r="P315" s="5"/>
+      <c r="Q315" s="5"/>
+      <c r="R315" s="5"/>
+      <c r="S315" s="5"/>
+      <c r="T315" s="5"/>
+      <c r="U315" s="6"/>
+      <c r="V315" s="6"/>
+    </row>
+    <row r="316" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A316" s="4"/>
+      <c r="B316" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C316" s="2"/>
+      <c r="D316" s="2"/>
+      <c r="E316" s="2"/>
+      <c r="F316" s="2"/>
+      <c r="G316" s="2"/>
+      <c r="H316" s="2"/>
+      <c r="I316" s="2"/>
+      <c r="J316" s="2"/>
+      <c r="K316" s="2"/>
+      <c r="L316" s="2"/>
+      <c r="M316" s="2"/>
+      <c r="N316" s="2"/>
+      <c r="O316" s="2"/>
+      <c r="P316" s="2"/>
+      <c r="Q316" s="3"/>
+      <c r="R316" s="5"/>
+      <c r="S316" s="5"/>
+      <c r="T316" s="5"/>
+      <c r="U316" s="6"/>
+      <c r="V316" s="6"/>
+    </row>
+    <row r="317" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A317" s="4"/>
+      <c r="B317" s="4"/>
+      <c r="C317" s="5"/>
+      <c r="D317" s="5"/>
+      <c r="E317" s="5"/>
+      <c r="F317" s="5"/>
+      <c r="G317" s="5"/>
+      <c r="H317" s="5"/>
+      <c r="I317" s="5"/>
+      <c r="J317" s="5"/>
+      <c r="K317" s="5"/>
+      <c r="L317" s="5"/>
+      <c r="M317" s="5"/>
+      <c r="N317" s="5"/>
+      <c r="O317" s="5"/>
+      <c r="P317" s="5"/>
+      <c r="Q317" s="6"/>
+      <c r="R317" s="5"/>
+      <c r="S317" s="5"/>
+      <c r="T317" s="5"/>
+      <c r="U317" s="6"/>
+      <c r="V317" s="6"/>
+    </row>
+    <row r="318" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A318" s="4"/>
+      <c r="B318" s="4"/>
+      <c r="C318" s="5"/>
+      <c r="D318" s="5"/>
+      <c r="E318" s="5"/>
+      <c r="F318" s="5"/>
+      <c r="G318" s="5"/>
+      <c r="H318" s="5"/>
+      <c r="I318" s="5"/>
+      <c r="J318" s="5"/>
+      <c r="K318" s="5"/>
+      <c r="L318" s="5"/>
+      <c r="M318" s="5"/>
+      <c r="N318" s="5"/>
+      <c r="O318" s="5"/>
+      <c r="P318" s="5"/>
+      <c r="Q318" s="6"/>
+      <c r="R318" s="5"/>
+      <c r="S318" s="5"/>
+      <c r="T318" s="5"/>
+      <c r="U318" s="6"/>
+      <c r="V318" s="6"/>
+    </row>
+    <row r="319" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A319" s="4"/>
+      <c r="B319" s="4"/>
+      <c r="C319" s="5"/>
+      <c r="D319" s="5"/>
+      <c r="E319" s="5"/>
+      <c r="F319" s="5"/>
+      <c r="G319" s="5"/>
+      <c r="H319" s="5"/>
+      <c r="I319" s="5"/>
+      <c r="J319" s="5"/>
+      <c r="K319" s="5"/>
+      <c r="L319" s="5"/>
+      <c r="M319" s="5"/>
+      <c r="N319" s="5"/>
+      <c r="O319" s="5"/>
+      <c r="P319" s="5"/>
+      <c r="Q319" s="6"/>
+      <c r="R319" s="5"/>
+      <c r="S319" s="5"/>
+      <c r="T319" s="5"/>
+      <c r="U319" s="6"/>
+      <c r="V319" s="6"/>
+    </row>
+    <row r="320" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A320" s="4"/>
+      <c r="B320" s="4"/>
+      <c r="C320" s="5"/>
+      <c r="D320" s="5"/>
+      <c r="E320" s="5"/>
+      <c r="F320" s="5"/>
+      <c r="G320" s="5"/>
+      <c r="H320" s="5"/>
+      <c r="I320" s="5"/>
+      <c r="J320" s="5"/>
+      <c r="K320" s="5"/>
+      <c r="L320" s="5"/>
+      <c r="M320" s="5"/>
+      <c r="N320" s="5"/>
+      <c r="O320" s="5"/>
+      <c r="P320" s="5"/>
+      <c r="Q320" s="6"/>
+      <c r="R320" s="5"/>
+      <c r="S320" s="5"/>
+      <c r="T320" s="5"/>
+      <c r="U320" s="6"/>
+      <c r="V320" s="6"/>
+    </row>
+    <row r="321" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A321" s="4"/>
+      <c r="B321" s="4"/>
+      <c r="C321" s="5"/>
+      <c r="D321" s="5"/>
+      <c r="E321" s="5"/>
+      <c r="F321" s="5"/>
+      <c r="G321" s="5"/>
+      <c r="H321" s="5"/>
+      <c r="I321" s="5"/>
+      <c r="J321" s="5"/>
+      <c r="K321" s="5"/>
+      <c r="L321" s="5"/>
+      <c r="M321" s="5"/>
+      <c r="N321" s="5"/>
+      <c r="O321" s="5"/>
+      <c r="P321" s="5"/>
+      <c r="Q321" s="6"/>
+      <c r="R321" s="5"/>
+      <c r="S321" s="5"/>
+      <c r="T321" s="5"/>
+      <c r="U321" s="6"/>
+      <c r="V321" s="6"/>
+    </row>
+    <row r="322" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A322" s="4"/>
+      <c r="B322" s="4"/>
+      <c r="C322" s="5"/>
+      <c r="D322" s="5"/>
+      <c r="E322" s="5"/>
+      <c r="F322" s="5"/>
+      <c r="G322" s="5"/>
+      <c r="H322" s="5"/>
+      <c r="I322" s="5"/>
+      <c r="J322" s="5"/>
+      <c r="K322" s="5"/>
+      <c r="L322" s="5"/>
+      <c r="M322" s="5"/>
+      <c r="N322" s="5"/>
+      <c r="O322" s="5"/>
+      <c r="P322" s="5"/>
+      <c r="Q322" s="6"/>
+      <c r="R322" s="5"/>
+      <c r="S322" s="5"/>
+      <c r="T322" s="5"/>
+      <c r="U322" s="6"/>
+      <c r="V322" s="6"/>
+    </row>
+    <row r="323" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A323" s="4"/>
+      <c r="B323" s="4"/>
+      <c r="C323" s="5"/>
+      <c r="D323" s="5"/>
+      <c r="E323" s="5"/>
+      <c r="F323" s="5"/>
+      <c r="G323" s="5"/>
+      <c r="H323" s="5"/>
+      <c r="I323" s="5"/>
+      <c r="J323" s="5"/>
+      <c r="K323" s="5"/>
+      <c r="L323" s="5"/>
+      <c r="M323" s="5"/>
+      <c r="N323" s="5"/>
+      <c r="O323" s="5"/>
+      <c r="P323" s="5"/>
+      <c r="Q323" s="6"/>
+      <c r="R323" s="5"/>
+      <c r="S323" s="5"/>
+      <c r="T323" s="5"/>
+      <c r="U323" s="6"/>
+      <c r="V323" s="6"/>
+    </row>
+    <row r="324" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A324" s="4"/>
+      <c r="B324" s="4"/>
+      <c r="C324" s="5"/>
+      <c r="D324" s="5"/>
+      <c r="E324" s="5"/>
+      <c r="F324" s="5"/>
+      <c r="G324" s="5"/>
+      <c r="H324" s="5"/>
+      <c r="I324" s="5"/>
+      <c r="J324" s="5"/>
+      <c r="K324" s="5"/>
+      <c r="L324" s="5"/>
+      <c r="M324" s="5"/>
+      <c r="N324" s="5"/>
+      <c r="O324" s="5"/>
+      <c r="P324" s="5"/>
+      <c r="Q324" s="6"/>
+      <c r="R324" s="5"/>
+      <c r="S324" s="5"/>
+      <c r="T324" s="5"/>
+      <c r="U324" s="6"/>
+      <c r="V324" s="6"/>
+    </row>
+    <row r="325" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A325" s="4"/>
+      <c r="B325" s="4"/>
+      <c r="C325" s="5"/>
+      <c r="D325" s="5"/>
+      <c r="E325" s="5"/>
+      <c r="F325" s="5"/>
+      <c r="G325" s="5"/>
+      <c r="H325" s="5"/>
+      <c r="I325" s="5"/>
+      <c r="J325" s="5"/>
+      <c r="K325" s="5"/>
+      <c r="L325" s="5"/>
+      <c r="M325" s="5"/>
+      <c r="N325" s="5"/>
+      <c r="O325" s="5"/>
+      <c r="P325" s="5"/>
+      <c r="Q325" s="6"/>
+      <c r="R325" s="5"/>
+      <c r="S325" s="5"/>
+      <c r="T325" s="5"/>
+      <c r="U325" s="6"/>
+      <c r="V325" s="6"/>
+    </row>
+    <row r="326" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A326" s="4"/>
+      <c r="B326" s="4"/>
+      <c r="C326" s="5"/>
+      <c r="D326" s="5"/>
+      <c r="E326" s="5"/>
+      <c r="F326" s="5"/>
+      <c r="G326" s="5"/>
+      <c r="H326" s="5"/>
+      <c r="I326" s="5"/>
+      <c r="J326" s="5"/>
+      <c r="K326" s="5"/>
+      <c r="L326" s="5"/>
+      <c r="M326" s="5"/>
+      <c r="N326" s="5"/>
+      <c r="O326" s="5"/>
+      <c r="P326" s="5"/>
+      <c r="Q326" s="6"/>
+      <c r="R326" s="5"/>
+      <c r="S326" s="5"/>
+      <c r="T326" s="5"/>
+      <c r="U326" s="6"/>
+      <c r="V326" s="6"/>
+    </row>
+    <row r="327" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A327" s="4"/>
+      <c r="B327" s="4"/>
+      <c r="C327" s="5"/>
+      <c r="D327" s="5"/>
+      <c r="E327" s="5"/>
+      <c r="F327" s="5"/>
+      <c r="G327" s="5"/>
+      <c r="H327" s="5"/>
+      <c r="I327" s="5"/>
+      <c r="J327" s="5"/>
+      <c r="K327" s="5"/>
+      <c r="L327" s="5"/>
+      <c r="M327" s="5"/>
+      <c r="N327" s="5"/>
+      <c r="O327" s="5"/>
+      <c r="P327" s="5"/>
+      <c r="Q327" s="6"/>
+      <c r="R327" s="5"/>
+      <c r="S327" s="5"/>
+      <c r="T327" s="5"/>
+      <c r="U327" s="6"/>
+      <c r="V327" s="6"/>
+    </row>
+    <row r="328" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A328" s="4"/>
+      <c r="B328" s="4"/>
+      <c r="C328" s="5"/>
+      <c r="D328" s="5"/>
+      <c r="E328" s="5"/>
+      <c r="F328" s="5"/>
+      <c r="G328" s="5"/>
+      <c r="H328" s="5"/>
+      <c r="I328" s="5"/>
+      <c r="J328" s="5"/>
+      <c r="K328" s="5"/>
+      <c r="L328" s="5"/>
+      <c r="M328" s="5"/>
+      <c r="N328" s="5"/>
+      <c r="O328" s="5"/>
+      <c r="P328" s="5"/>
+      <c r="Q328" s="6"/>
+      <c r="R328" s="5"/>
+      <c r="S328" s="5"/>
+      <c r="T328" s="5"/>
+      <c r="U328" s="6"/>
+      <c r="V328" s="6"/>
+    </row>
+    <row r="329" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A329" s="4"/>
+      <c r="B329" s="4"/>
+      <c r="C329" s="5"/>
+      <c r="D329" s="5"/>
+      <c r="E329" s="5"/>
+      <c r="F329" s="5"/>
+      <c r="G329" s="5"/>
+      <c r="H329" s="5"/>
+      <c r="I329" s="5"/>
+      <c r="J329" s="5"/>
+      <c r="K329" s="5"/>
+      <c r="L329" s="5"/>
+      <c r="M329" s="5"/>
+      <c r="N329" s="5"/>
+      <c r="O329" s="5"/>
+      <c r="P329" s="5"/>
+      <c r="Q329" s="6"/>
+      <c r="R329" s="5"/>
+      <c r="S329" s="5"/>
+      <c r="T329" s="5"/>
+      <c r="U329" s="6"/>
+      <c r="V329" s="6"/>
+    </row>
+    <row r="330" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A330" s="4"/>
+      <c r="B330" s="4"/>
+      <c r="C330" s="5"/>
+      <c r="D330" s="5"/>
+      <c r="E330" s="5"/>
+      <c r="F330" s="5"/>
+      <c r="G330" s="5"/>
+      <c r="H330" s="5"/>
+      <c r="I330" s="5"/>
+      <c r="J330" s="5"/>
+      <c r="K330" s="5"/>
+      <c r="L330" s="5"/>
+      <c r="M330" s="5"/>
+      <c r="N330" s="5"/>
+      <c r="O330" s="5"/>
+      <c r="P330" s="5"/>
+      <c r="Q330" s="6"/>
+      <c r="R330" s="5"/>
+      <c r="S330" s="5"/>
+      <c r="T330" s="5"/>
+      <c r="U330" s="6"/>
+      <c r="V330" s="6"/>
+    </row>
+    <row r="331" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A331" s="4"/>
+      <c r="B331" s="4"/>
+      <c r="C331" s="5"/>
+      <c r="D331" s="5"/>
+      <c r="E331" s="5"/>
+      <c r="F331" s="5"/>
+      <c r="G331" s="5"/>
+      <c r="H331" s="5"/>
+      <c r="I331" s="5"/>
+      <c r="J331" s="5"/>
+      <c r="K331" s="5"/>
+      <c r="L331" s="5"/>
+      <c r="M331" s="5"/>
+      <c r="N331" s="5"/>
+      <c r="O331" s="5"/>
+      <c r="P331" s="5"/>
+      <c r="Q331" s="6"/>
+      <c r="R331" s="5"/>
+      <c r="S331" s="5"/>
+      <c r="T331" s="5"/>
+      <c r="U331" s="6"/>
+      <c r="V331" s="6"/>
+    </row>
+    <row r="332" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A332" s="4"/>
+      <c r="B332" s="4"/>
+      <c r="C332" s="5"/>
+      <c r="D332" s="5"/>
+      <c r="E332" s="5"/>
+      <c r="F332" s="5"/>
+      <c r="G332" s="5"/>
+      <c r="H332" s="5"/>
+      <c r="I332" s="5"/>
+      <c r="J332" s="5"/>
+      <c r="K332" s="5"/>
+      <c r="L332" s="5"/>
+      <c r="M332" s="5"/>
+      <c r="N332" s="5"/>
+      <c r="O332" s="5"/>
+      <c r="P332" s="5"/>
+      <c r="Q332" s="6"/>
+      <c r="R332" s="5"/>
+      <c r="S332" s="5"/>
+      <c r="T332" s="5"/>
+      <c r="U332" s="6"/>
+      <c r="V332" s="6"/>
+    </row>
+    <row r="333" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A333" s="4"/>
+      <c r="B333" s="4"/>
+      <c r="C333" s="5"/>
+      <c r="D333" s="5"/>
+      <c r="E333" s="5"/>
+      <c r="F333" s="5"/>
+      <c r="G333" s="5"/>
+      <c r="H333" s="5"/>
+      <c r="I333" s="5"/>
+      <c r="J333" s="5"/>
+      <c r="K333" s="5"/>
+      <c r="L333" s="5"/>
+      <c r="M333" s="5"/>
+      <c r="N333" s="5"/>
+      <c r="O333" s="5"/>
+      <c r="P333" s="5"/>
+      <c r="Q333" s="6"/>
+      <c r="R333" s="5"/>
+      <c r="S333" s="5"/>
+      <c r="T333" s="5"/>
+      <c r="U333" s="6"/>
+      <c r="V333" s="6"/>
+    </row>
+    <row r="334" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A334" s="4"/>
+      <c r="B334" s="4"/>
+      <c r="C334" s="5"/>
+      <c r="D334" s="5"/>
+      <c r="E334" s="5"/>
+      <c r="F334" s="5"/>
+      <c r="G334" s="5"/>
+      <c r="H334" s="5"/>
+      <c r="I334" s="5"/>
+      <c r="J334" s="5"/>
+      <c r="K334" s="5"/>
+      <c r="L334" s="5"/>
+      <c r="M334" s="5"/>
+      <c r="N334" s="5"/>
+      <c r="O334" s="5"/>
+      <c r="P334" s="5"/>
+      <c r="Q334" s="6"/>
+      <c r="R334" s="5"/>
+      <c r="S334" s="5"/>
+      <c r="T334" s="5"/>
+      <c r="U334" s="6"/>
+      <c r="V334" s="6"/>
+    </row>
+    <row r="335" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A335" s="4"/>
+      <c r="B335" s="4"/>
+      <c r="C335" s="5"/>
+      <c r="D335" s="5"/>
+      <c r="E335" s="5"/>
+      <c r="F335" s="5"/>
+      <c r="G335" s="5"/>
+      <c r="H335" s="5"/>
+      <c r="I335" s="5"/>
+      <c r="J335" s="5"/>
+      <c r="K335" s="5"/>
+      <c r="L335" s="5"/>
+      <c r="M335" s="5"/>
+      <c r="N335" s="5"/>
+      <c r="O335" s="5"/>
+      <c r="P335" s="5"/>
+      <c r="Q335" s="6"/>
+      <c r="R335" s="5"/>
+      <c r="S335" s="5"/>
+      <c r="T335" s="5"/>
+      <c r="U335" s="6"/>
+      <c r="V335" s="6"/>
+    </row>
+    <row r="336" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A336" s="4"/>
+      <c r="B336" s="4"/>
+      <c r="C336" s="5"/>
+      <c r="D336" s="5"/>
+      <c r="E336" s="5"/>
+      <c r="F336" s="5"/>
+      <c r="G336" s="5"/>
+      <c r="H336" s="5"/>
+      <c r="I336" s="5"/>
+      <c r="J336" s="5"/>
+      <c r="K336" s="5"/>
+      <c r="L336" s="5"/>
+      <c r="M336" s="5"/>
+      <c r="N336" s="5"/>
+      <c r="O336" s="5"/>
+      <c r="P336" s="5"/>
+      <c r="Q336" s="6"/>
+      <c r="R336" s="5"/>
+      <c r="S336" s="5"/>
+      <c r="T336" s="5"/>
+      <c r="U336" s="6"/>
+      <c r="V336" s="6"/>
+    </row>
+    <row r="337" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A337" s="4"/>
+      <c r="B337" s="7"/>
+      <c r="C337" s="8"/>
+      <c r="D337" s="8"/>
+      <c r="E337" s="8"/>
+      <c r="F337" s="8"/>
+      <c r="G337" s="8"/>
+      <c r="H337" s="8"/>
+      <c r="I337" s="8"/>
+      <c r="J337" s="8"/>
+      <c r="K337" s="8"/>
+      <c r="L337" s="8"/>
+      <c r="M337" s="8"/>
+      <c r="N337" s="8"/>
+      <c r="O337" s="8"/>
+      <c r="P337" s="8"/>
+      <c r="Q337" s="9"/>
+      <c r="R337" s="5"/>
+      <c r="S337" s="5"/>
+      <c r="T337" s="5"/>
+      <c r="U337" s="6"/>
+      <c r="V337" s="6"/>
+    </row>
+    <row r="338" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A338" s="4"/>
+      <c r="B338" s="5"/>
+      <c r="C338" s="5"/>
+      <c r="D338" s="5"/>
+      <c r="E338" s="5"/>
+      <c r="F338" s="5"/>
+      <c r="G338" s="5"/>
+      <c r="H338" s="5"/>
+      <c r="I338" s="5"/>
+      <c r="J338" s="5"/>
+      <c r="K338" s="5"/>
+      <c r="L338" s="5"/>
+      <c r="M338" s="5"/>
+      <c r="N338" s="5"/>
+      <c r="O338" s="5"/>
+      <c r="P338" s="5"/>
+      <c r="Q338" s="5"/>
+      <c r="R338" s="5"/>
+      <c r="S338" s="5"/>
+      <c r="T338" s="5"/>
+      <c r="U338" s="6"/>
+      <c r="V338" s="6"/>
+    </row>
+    <row r="339" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A339" s="4"/>
+      <c r="B339" s="5"/>
+      <c r="C339" s="5"/>
+      <c r="D339" s="5"/>
+      <c r="E339" s="5"/>
+      <c r="F339" s="5"/>
+      <c r="G339" s="5"/>
+      <c r="H339" s="5"/>
+      <c r="I339" s="5"/>
+      <c r="J339" s="5"/>
+      <c r="K339" s="5"/>
+      <c r="L339" s="5"/>
+      <c r="M339" s="5"/>
+      <c r="N339" s="5"/>
+      <c r="O339" s="5"/>
+      <c r="P339" s="5"/>
+      <c r="Q339" s="5"/>
+      <c r="R339" s="5"/>
+      <c r="S339" s="5"/>
+      <c r="T339" s="5"/>
+      <c r="U339" s="6"/>
+      <c r="V339" s="6"/>
+    </row>
+    <row r="340" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A340" s="4"/>
+      <c r="B340" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C340" s="2"/>
+      <c r="D340" s="2"/>
+      <c r="E340" s="2"/>
+      <c r="F340" s="2"/>
+      <c r="G340" s="2"/>
+      <c r="H340" s="2"/>
+      <c r="I340" s="2"/>
+      <c r="J340" s="2"/>
+      <c r="K340" s="2"/>
+      <c r="L340" s="2"/>
+      <c r="M340" s="2"/>
+      <c r="N340" s="2"/>
+      <c r="O340" s="2"/>
+      <c r="P340" s="2"/>
+      <c r="Q340" s="3"/>
+      <c r="R340" s="5"/>
+      <c r="S340" s="5"/>
+      <c r="T340" s="5"/>
+      <c r="U340" s="6"/>
+      <c r="V340" s="6"/>
+    </row>
+    <row r="341" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A341" s="4"/>
+      <c r="B341" s="4"/>
+      <c r="C341" s="5"/>
+      <c r="D341" s="5"/>
+      <c r="E341" s="5"/>
+      <c r="F341" s="5"/>
+      <c r="G341" s="5"/>
+      <c r="H341" s="5"/>
+      <c r="I341" s="5"/>
+      <c r="J341" s="5"/>
+      <c r="K341" s="5"/>
+      <c r="L341" s="5"/>
+      <c r="M341" s="5"/>
+      <c r="N341" s="5"/>
+      <c r="O341" s="5"/>
+      <c r="P341" s="5"/>
+      <c r="Q341" s="6"/>
+      <c r="R341" s="5"/>
+      <c r="S341" s="5"/>
+      <c r="T341" s="5"/>
+      <c r="U341" s="6"/>
+      <c r="V341" s="6"/>
+    </row>
+    <row r="342" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A342" s="4"/>
+      <c r="B342" s="4"/>
+      <c r="C342" s="5"/>
+      <c r="D342" s="5"/>
+      <c r="E342" s="5"/>
+      <c r="F342" s="5"/>
+      <c r="G342" s="5"/>
+      <c r="H342" s="5"/>
+      <c r="I342" s="5"/>
+      <c r="J342" s="5"/>
+      <c r="K342" s="5"/>
+      <c r="L342" s="5"/>
+      <c r="M342" s="5"/>
+      <c r="N342" s="5"/>
+      <c r="O342" s="5"/>
+      <c r="P342" s="5"/>
+      <c r="Q342" s="6"/>
+      <c r="R342" s="5"/>
+      <c r="S342" s="5"/>
+      <c r="T342" s="5"/>
+      <c r="U342" s="6"/>
+      <c r="V342" s="6"/>
+    </row>
+    <row r="343" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A343" s="4"/>
+      <c r="B343" s="4"/>
+      <c r="C343" s="5"/>
+      <c r="D343" s="5"/>
+      <c r="E343" s="5"/>
+      <c r="F343" s="5"/>
+      <c r="G343" s="5"/>
+      <c r="H343" s="5"/>
+      <c r="I343" s="5"/>
+      <c r="J343" s="5"/>
+      <c r="K343" s="5"/>
+      <c r="L343" s="5"/>
+      <c r="M343" s="5"/>
+      <c r="N343" s="5"/>
+      <c r="O343" s="5"/>
+      <c r="P343" s="5"/>
+      <c r="Q343" s="6"/>
+      <c r="R343" s="5"/>
+      <c r="S343" s="5"/>
+      <c r="T343" s="5"/>
+      <c r="U343" s="6"/>
+      <c r="V343" s="6"/>
+    </row>
+    <row r="344" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A344" s="4"/>
+      <c r="B344" s="4"/>
+      <c r="C344" s="5"/>
+      <c r="D344" s="5"/>
+      <c r="E344" s="5"/>
+      <c r="F344" s="5"/>
+      <c r="G344" s="5"/>
+      <c r="H344" s="5"/>
+      <c r="I344" s="5"/>
+      <c r="J344" s="5"/>
+      <c r="K344" s="5"/>
+      <c r="L344" s="5"/>
+      <c r="M344" s="5"/>
+      <c r="N344" s="5"/>
+      <c r="O344" s="5"/>
+      <c r="P344" s="5"/>
+      <c r="Q344" s="6"/>
+      <c r="R344" s="5"/>
+      <c r="S344" s="5"/>
+      <c r="T344" s="5"/>
+      <c r="U344" s="6"/>
+      <c r="V344" s="6"/>
+    </row>
+    <row r="345" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A345" s="4"/>
+      <c r="B345" s="4"/>
+      <c r="C345" s="5"/>
+      <c r="D345" s="5"/>
+      <c r="E345" s="5"/>
+      <c r="F345" s="5"/>
+      <c r="G345" s="5"/>
+      <c r="H345" s="5"/>
+      <c r="I345" s="5"/>
+      <c r="J345" s="5"/>
+      <c r="K345" s="5"/>
+      <c r="L345" s="5"/>
+      <c r="M345" s="5"/>
+      <c r="N345" s="5"/>
+      <c r="O345" s="5"/>
+      <c r="P345" s="5"/>
+      <c r="Q345" s="6"/>
+      <c r="R345" s="5"/>
+      <c r="S345" s="5"/>
+      <c r="T345" s="5"/>
+      <c r="U345" s="6"/>
+      <c r="V345" s="6"/>
+    </row>
+    <row r="346" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A346" s="4"/>
+      <c r="B346" s="4"/>
+      <c r="C346" s="5"/>
+      <c r="D346" s="5"/>
+      <c r="E346" s="5"/>
+      <c r="F346" s="5"/>
+      <c r="G346" s="5"/>
+      <c r="H346" s="5"/>
+      <c r="I346" s="5"/>
+      <c r="J346" s="5"/>
+      <c r="K346" s="5"/>
+      <c r="L346" s="5"/>
+      <c r="M346" s="5"/>
+      <c r="N346" s="5"/>
+      <c r="O346" s="5"/>
+      <c r="P346" s="5"/>
+      <c r="Q346" s="6"/>
+      <c r="R346" s="5"/>
+      <c r="S346" s="5"/>
+      <c r="T346" s="5"/>
+      <c r="U346" s="6"/>
+      <c r="V346" s="6"/>
+    </row>
+    <row r="347" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A347" s="4"/>
+      <c r="B347" s="4"/>
+      <c r="C347" s="5"/>
+      <c r="D347" s="5"/>
+      <c r="E347" s="5"/>
+      <c r="F347" s="5"/>
+      <c r="G347" s="5"/>
+      <c r="H347" s="5"/>
+      <c r="I347" s="5"/>
+      <c r="J347" s="5"/>
+      <c r="K347" s="5"/>
+      <c r="L347" s="5"/>
+      <c r="M347" s="5"/>
+      <c r="N347" s="5"/>
+      <c r="O347" s="5"/>
+      <c r="P347" s="5"/>
+      <c r="Q347" s="6"/>
+      <c r="R347" s="5"/>
+      <c r="S347" s="5"/>
+      <c r="T347" s="5"/>
+      <c r="U347" s="6"/>
+      <c r="V347" s="6"/>
+    </row>
+    <row r="348" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A348" s="4"/>
+      <c r="B348" s="4"/>
+      <c r="C348" s="5"/>
+      <c r="D348" s="5"/>
+      <c r="E348" s="5"/>
+      <c r="F348" s="5"/>
+      <c r="G348" s="5"/>
+      <c r="H348" s="5"/>
+      <c r="I348" s="5"/>
+      <c r="J348" s="5"/>
+      <c r="K348" s="5"/>
+      <c r="L348" s="5"/>
+      <c r="M348" s="5"/>
+      <c r="N348" s="5"/>
+      <c r="O348" s="5"/>
+      <c r="P348" s="5"/>
+      <c r="Q348" s="6"/>
+      <c r="R348" s="5"/>
+      <c r="S348" s="5"/>
+      <c r="T348" s="5"/>
+      <c r="U348" s="6"/>
+      <c r="V348" s="6"/>
+    </row>
+    <row r="349" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A349" s="4"/>
+      <c r="B349" s="4"/>
+      <c r="C349" s="5"/>
+      <c r="D349" s="5"/>
+      <c r="E349" s="5"/>
+      <c r="F349" s="5"/>
+      <c r="G349" s="5"/>
+      <c r="H349" s="5"/>
+      <c r="I349" s="5"/>
+      <c r="J349" s="5"/>
+      <c r="K349" s="5"/>
+      <c r="L349" s="5"/>
+      <c r="M349" s="5"/>
+      <c r="N349" s="5"/>
+      <c r="O349" s="5"/>
+      <c r="P349" s="5"/>
+      <c r="Q349" s="6"/>
+      <c r="R349" s="5"/>
+      <c r="S349" s="5"/>
+      <c r="T349" s="5"/>
+      <c r="U349" s="6"/>
+      <c r="V349" s="6"/>
+    </row>
+    <row r="350" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A350" s="4"/>
+      <c r="B350" s="4"/>
+      <c r="C350" s="5"/>
+      <c r="D350" s="5"/>
+      <c r="E350" s="5"/>
+      <c r="F350" s="5"/>
+      <c r="G350" s="5"/>
+      <c r="H350" s="5"/>
+      <c r="I350" s="5"/>
+      <c r="J350" s="5"/>
+      <c r="K350" s="5"/>
+      <c r="L350" s="5"/>
+      <c r="M350" s="5"/>
+      <c r="N350" s="5"/>
+      <c r="O350" s="5"/>
+      <c r="P350" s="5"/>
+      <c r="Q350" s="6"/>
+      <c r="R350" s="5"/>
+      <c r="S350" s="5"/>
+      <c r="T350" s="5"/>
+      <c r="U350" s="6"/>
+      <c r="V350" s="6"/>
+    </row>
+    <row r="351" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A351" s="4"/>
+      <c r="B351" s="4"/>
+      <c r="C351" s="5"/>
+      <c r="D351" s="5"/>
+      <c r="E351" s="5"/>
+      <c r="F351" s="5"/>
+      <c r="G351" s="5"/>
+      <c r="H351" s="5"/>
+      <c r="I351" s="5"/>
+      <c r="J351" s="5"/>
+      <c r="K351" s="5"/>
+      <c r="L351" s="5"/>
+      <c r="M351" s="5"/>
+      <c r="N351" s="5"/>
+      <c r="O351" s="5"/>
+      <c r="P351" s="5"/>
+      <c r="Q351" s="6"/>
+      <c r="R351" s="5"/>
+      <c r="S351" s="5"/>
+      <c r="T351" s="5"/>
+      <c r="U351" s="6"/>
+      <c r="V351" s="6"/>
+    </row>
+    <row r="352" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A352" s="4"/>
+      <c r="B352" s="4"/>
+      <c r="C352" s="5"/>
+      <c r="D352" s="5"/>
+      <c r="E352" s="5"/>
+      <c r="F352" s="5"/>
+      <c r="G352" s="5"/>
+      <c r="H352" s="5"/>
+      <c r="I352" s="5"/>
+      <c r="J352" s="5"/>
+      <c r="K352" s="5"/>
+      <c r="L352" s="5"/>
+      <c r="M352" s="5"/>
+      <c r="N352" s="5"/>
+      <c r="O352" s="5"/>
+      <c r="P352" s="5"/>
+      <c r="Q352" s="6"/>
+      <c r="R352" s="5"/>
+      <c r="S352" s="5"/>
+      <c r="T352" s="5"/>
+      <c r="U352" s="6"/>
+      <c r="V352" s="6"/>
+    </row>
+    <row r="353" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A353" s="4"/>
+      <c r="B353" s="4"/>
+      <c r="C353" s="5"/>
+      <c r="D353" s="5"/>
+      <c r="E353" s="5"/>
+      <c r="F353" s="5"/>
+      <c r="G353" s="5"/>
+      <c r="H353" s="5"/>
+      <c r="I353" s="5"/>
+      <c r="J353" s="5"/>
+      <c r="K353" s="5"/>
+      <c r="L353" s="5"/>
+      <c r="M353" s="5"/>
+      <c r="N353" s="5"/>
+      <c r="O353" s="5"/>
+      <c r="P353" s="5"/>
+      <c r="Q353" s="6"/>
+      <c r="R353" s="5"/>
+      <c r="S353" s="5"/>
+      <c r="T353" s="5"/>
+      <c r="U353" s="6"/>
+      <c r="V353" s="6"/>
+    </row>
+    <row r="354" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A354" s="4"/>
+      <c r="B354" s="4"/>
+      <c r="C354" s="5"/>
+      <c r="D354" s="5"/>
+      <c r="E354" s="5"/>
+      <c r="F354" s="5"/>
+      <c r="G354" s="5"/>
+      <c r="H354" s="5"/>
+      <c r="I354" s="5"/>
+      <c r="J354" s="5"/>
+      <c r="K354" s="5"/>
+      <c r="L354" s="5"/>
+      <c r="M354" s="5"/>
+      <c r="N354" s="5"/>
+      <c r="O354" s="5"/>
+      <c r="P354" s="5"/>
+      <c r="Q354" s="6"/>
+      <c r="R354" s="5"/>
+      <c r="S354" s="5"/>
+      <c r="T354" s="5"/>
+      <c r="U354" s="6"/>
+      <c r="V354" s="6"/>
+    </row>
+    <row r="355" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A355" s="4"/>
+      <c r="B355" s="4"/>
+      <c r="C355" s="5"/>
+      <c r="D355" s="5"/>
+      <c r="E355" s="5"/>
+      <c r="F355" s="5"/>
+      <c r="G355" s="5"/>
+      <c r="H355" s="5"/>
+      <c r="I355" s="5"/>
+      <c r="J355" s="5"/>
+      <c r="K355" s="5"/>
+      <c r="L355" s="5"/>
+      <c r="M355" s="5"/>
+      <c r="N355" s="5"/>
+      <c r="O355" s="5"/>
+      <c r="P355" s="5"/>
+      <c r="Q355" s="6"/>
+      <c r="R355" s="5"/>
+      <c r="S355" s="5"/>
+      <c r="T355" s="5"/>
+      <c r="U355" s="6"/>
+      <c r="V355" s="6"/>
+    </row>
+    <row r="356" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A356" s="4"/>
+      <c r="B356" s="4"/>
+      <c r="C356" s="5"/>
+      <c r="D356" s="5"/>
+      <c r="E356" s="5"/>
+      <c r="F356" s="5"/>
+      <c r="G356" s="5"/>
+      <c r="H356" s="5"/>
+      <c r="I356" s="5"/>
+      <c r="J356" s="5"/>
+      <c r="K356" s="5"/>
+      <c r="L356" s="5"/>
+      <c r="M356" s="5"/>
+      <c r="N356" s="5"/>
+      <c r="O356" s="5"/>
+      <c r="P356" s="5"/>
+      <c r="Q356" s="6"/>
+      <c r="R356" s="5"/>
+      <c r="S356" s="5"/>
+      <c r="T356" s="5"/>
+      <c r="U356" s="6"/>
+      <c r="V356" s="6"/>
+    </row>
+    <row r="357" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A357" s="4"/>
+      <c r="B357" s="4"/>
+      <c r="C357" s="5"/>
+      <c r="D357" s="5"/>
+      <c r="E357" s="5"/>
+      <c r="F357" s="5"/>
+      <c r="G357" s="5"/>
+      <c r="H357" s="5"/>
+      <c r="I357" s="5"/>
+      <c r="J357" s="5"/>
+      <c r="K357" s="5"/>
+      <c r="L357" s="5"/>
+      <c r="M357" s="5"/>
+      <c r="N357" s="5"/>
+      <c r="O357" s="5"/>
+      <c r="P357" s="5"/>
+      <c r="Q357" s="6"/>
+      <c r="R357" s="5"/>
+      <c r="S357" s="5"/>
+      <c r="T357" s="5"/>
+      <c r="U357" s="6"/>
+      <c r="V357" s="6"/>
+    </row>
+    <row r="358" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A358" s="4"/>
+      <c r="B358" s="4"/>
+      <c r="C358" s="5"/>
+      <c r="D358" s="5"/>
+      <c r="E358" s="5"/>
+      <c r="F358" s="5"/>
+      <c r="G358" s="5"/>
+      <c r="H358" s="5"/>
+      <c r="I358" s="5"/>
+      <c r="J358" s="5"/>
+      <c r="K358" s="5"/>
+      <c r="L358" s="5"/>
+      <c r="M358" s="5"/>
+      <c r="N358" s="5"/>
+      <c r="O358" s="5"/>
+      <c r="P358" s="5"/>
+      <c r="Q358" s="6"/>
+      <c r="R358" s="5"/>
+      <c r="S358" s="5"/>
+      <c r="T358" s="5"/>
+      <c r="U358" s="6"/>
+      <c r="V358" s="6"/>
+    </row>
+    <row r="359" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A359" s="4"/>
+      <c r="B359" s="4"/>
+      <c r="C359" s="5"/>
+      <c r="D359" s="5"/>
+      <c r="E359" s="5"/>
+      <c r="F359" s="5"/>
+      <c r="G359" s="5"/>
+      <c r="H359" s="5"/>
+      <c r="I359" s="5"/>
+      <c r="J359" s="5"/>
+      <c r="K359" s="5"/>
+      <c r="L359" s="5"/>
+      <c r="M359" s="5"/>
+      <c r="N359" s="5"/>
+      <c r="O359" s="5"/>
+      <c r="P359" s="5"/>
+      <c r="Q359" s="6"/>
+      <c r="R359" s="5"/>
+      <c r="S359" s="5"/>
+      <c r="T359" s="5"/>
+      <c r="U359" s="6"/>
+      <c r="V359" s="6"/>
+    </row>
+    <row r="360" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A360" s="4"/>
+      <c r="B360" s="4"/>
+      <c r="C360" s="5"/>
+      <c r="D360" s="5"/>
+      <c r="E360" s="5"/>
+      <c r="F360" s="5"/>
+      <c r="G360" s="5"/>
+      <c r="H360" s="5"/>
+      <c r="I360" s="5"/>
+      <c r="J360" s="5"/>
+      <c r="K360" s="5"/>
+      <c r="L360" s="5"/>
+      <c r="M360" s="5"/>
+      <c r="N360" s="5"/>
+      <c r="O360" s="5"/>
+      <c r="P360" s="5"/>
+      <c r="Q360" s="6"/>
+      <c r="R360" s="5"/>
+      <c r="S360" s="5"/>
+      <c r="T360" s="5"/>
+      <c r="U360" s="6"/>
+      <c r="V360" s="6"/>
+    </row>
+    <row r="361" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A361" s="4"/>
+      <c r="B361" s="4"/>
+      <c r="C361" s="5"/>
+      <c r="D361" s="5"/>
+      <c r="E361" s="5"/>
+      <c r="F361" s="5"/>
+      <c r="G361" s="5"/>
+      <c r="H361" s="5"/>
+      <c r="I361" s="5"/>
+      <c r="J361" s="5"/>
+      <c r="K361" s="5"/>
+      <c r="L361" s="5"/>
+      <c r="M361" s="5"/>
+      <c r="N361" s="5"/>
+      <c r="O361" s="5"/>
+      <c r="P361" s="5"/>
+      <c r="Q361" s="6"/>
+      <c r="R361" s="5"/>
+      <c r="S361" s="5"/>
+      <c r="T361" s="5"/>
+      <c r="U361" s="6"/>
+      <c r="V361" s="6"/>
+    </row>
+    <row r="362" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A362" s="4"/>
+      <c r="B362" s="4"/>
+      <c r="C362" s="5"/>
+      <c r="D362" s="5"/>
+      <c r="E362" s="5"/>
+      <c r="F362" s="5"/>
+      <c r="G362" s="5"/>
+      <c r="H362" s="5"/>
+      <c r="I362" s="5"/>
+      <c r="J362" s="5"/>
+      <c r="K362" s="5"/>
+      <c r="L362" s="5"/>
+      <c r="M362" s="5"/>
+      <c r="N362" s="5"/>
+      <c r="O362" s="5"/>
+      <c r="P362" s="5"/>
+      <c r="Q362" s="6"/>
+      <c r="R362" s="5"/>
+      <c r="S362" s="5"/>
+      <c r="T362" s="5"/>
+      <c r="U362" s="6"/>
+      <c r="V362" s="6"/>
+    </row>
+    <row r="363" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A363" s="4"/>
+      <c r="B363" s="4"/>
+      <c r="C363" s="5"/>
+      <c r="D363" s="5"/>
+      <c r="E363" s="5"/>
+      <c r="F363" s="5"/>
+      <c r="G363" s="5"/>
+      <c r="H363" s="5"/>
+      <c r="I363" s="5"/>
+      <c r="J363" s="5"/>
+      <c r="K363" s="5"/>
+      <c r="L363" s="5"/>
+      <c r="M363" s="5"/>
+      <c r="N363" s="5"/>
+      <c r="O363" s="5"/>
+      <c r="P363" s="5"/>
+      <c r="Q363" s="6"/>
+      <c r="R363" s="5"/>
+      <c r="S363" s="5"/>
+      <c r="T363" s="5"/>
+      <c r="U363" s="6"/>
+      <c r="V363" s="6"/>
+    </row>
+    <row r="364" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A364" s="4"/>
+      <c r="B364" s="4"/>
+      <c r="C364" s="5"/>
+      <c r="D364" s="5"/>
+      <c r="E364" s="5"/>
+      <c r="F364" s="5"/>
+      <c r="G364" s="5"/>
+      <c r="H364" s="5"/>
+      <c r="I364" s="5"/>
+      <c r="J364" s="5"/>
+      <c r="K364" s="5"/>
+      <c r="L364" s="5"/>
+      <c r="M364" s="5"/>
+      <c r="N364" s="5"/>
+      <c r="O364" s="5"/>
+      <c r="P364" s="5"/>
+      <c r="Q364" s="6"/>
+      <c r="R364" s="5"/>
+      <c r="S364" s="5"/>
+      <c r="T364" s="5"/>
+      <c r="U364" s="6"/>
+      <c r="V364" s="6"/>
+    </row>
+    <row r="365" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A365" s="4"/>
+      <c r="B365" s="4"/>
+      <c r="C365" s="5"/>
+      <c r="D365" s="5"/>
+      <c r="E365" s="5"/>
+      <c r="F365" s="5"/>
+      <c r="G365" s="5"/>
+      <c r="H365" s="5"/>
+      <c r="I365" s="5"/>
+      <c r="J365" s="5"/>
+      <c r="K365" s="5"/>
+      <c r="L365" s="5"/>
+      <c r="M365" s="5"/>
+      <c r="N365" s="5"/>
+      <c r="O365" s="5"/>
+      <c r="P365" s="5"/>
+      <c r="Q365" s="6"/>
+      <c r="R365" s="5"/>
+      <c r="S365" s="5"/>
+      <c r="T365" s="5"/>
+      <c r="U365" s="6"/>
+      <c r="V365" s="6"/>
+    </row>
+    <row r="366" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A366" s="4"/>
+      <c r="B366" s="4"/>
+      <c r="C366" s="5"/>
+      <c r="D366" s="5"/>
+      <c r="E366" s="5"/>
+      <c r="F366" s="5"/>
+      <c r="G366" s="5"/>
+      <c r="H366" s="5"/>
+      <c r="I366" s="5"/>
+      <c r="J366" s="5"/>
+      <c r="K366" s="5"/>
+      <c r="L366" s="5"/>
+      <c r="M366" s="5"/>
+      <c r="N366" s="5"/>
+      <c r="O366" s="5"/>
+      <c r="P366" s="5"/>
+      <c r="Q366" s="6"/>
+      <c r="R366" s="5"/>
+      <c r="S366" s="5"/>
+      <c r="T366" s="5"/>
+      <c r="U366" s="6"/>
+      <c r="V366" s="6"/>
+    </row>
+    <row r="367" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A367" s="4"/>
+      <c r="B367" s="7"/>
+      <c r="C367" s="8"/>
+      <c r="D367" s="8"/>
+      <c r="E367" s="8"/>
+      <c r="F367" s="8"/>
+      <c r="G367" s="8"/>
+      <c r="H367" s="8"/>
+      <c r="I367" s="8"/>
+      <c r="J367" s="8"/>
+      <c r="K367" s="8"/>
+      <c r="L367" s="8"/>
+      <c r="M367" s="8"/>
+      <c r="N367" s="8"/>
+      <c r="O367" s="8"/>
+      <c r="P367" s="8"/>
+      <c r="Q367" s="9"/>
+      <c r="R367" s="5"/>
+      <c r="S367" s="5"/>
+      <c r="T367" s="5"/>
+      <c r="U367" s="6"/>
+      <c r="V367" s="6"/>
+    </row>
+    <row r="368" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A368" s="7"/>
+      <c r="B368" s="8"/>
+      <c r="C368" s="8"/>
+      <c r="D368" s="8"/>
+      <c r="E368" s="8"/>
+      <c r="F368" s="8"/>
+      <c r="G368" s="8"/>
+      <c r="H368" s="8"/>
+      <c r="I368" s="8"/>
+      <c r="J368" s="8"/>
+      <c r="K368" s="8"/>
+      <c r="L368" s="8"/>
+      <c r="M368" s="8"/>
+      <c r="N368" s="8"/>
+      <c r="O368" s="8"/>
+      <c r="P368" s="8"/>
+      <c r="Q368" s="8"/>
+      <c r="R368" s="8"/>
+      <c r="S368" s="8"/>
+      <c r="T368" s="8"/>
+      <c r="U368" s="9"/>
+      <c r="V368" s="6"/>
+    </row>
+    <row r="369" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A369" s="4"/>
+      <c r="B369" s="5"/>
+      <c r="C369" s="5"/>
+      <c r="D369" s="5"/>
+      <c r="E369" s="5"/>
+      <c r="F369" s="5"/>
+      <c r="G369" s="5"/>
+      <c r="H369" s="5"/>
+      <c r="I369" s="5"/>
+      <c r="J369" s="5"/>
+      <c r="K369" s="5"/>
+      <c r="L369" s="5"/>
+      <c r="M369" s="5"/>
+      <c r="N369" s="5"/>
+      <c r="O369" s="5"/>
+      <c r="P369" s="5"/>
+      <c r="Q369" s="5"/>
+      <c r="R369" s="5"/>
+      <c r="S369" s="5"/>
+      <c r="T369" s="5"/>
+      <c r="U369" s="5"/>
+      <c r="V369" s="6"/>
+    </row>
+    <row r="370" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A370" s="4"/>
+      <c r="B370" s="5"/>
+      <c r="C370" s="5"/>
+      <c r="D370" s="5"/>
+      <c r="E370" s="5"/>
+      <c r="F370" s="5"/>
+      <c r="G370" s="5"/>
+      <c r="H370" s="5"/>
+      <c r="I370" s="5"/>
+      <c r="J370" s="5"/>
+      <c r="K370" s="5"/>
+      <c r="L370" s="5"/>
+      <c r="M370" s="5"/>
+      <c r="N370" s="5"/>
+      <c r="O370" s="5"/>
+      <c r="P370" s="5"/>
+      <c r="Q370" s="5"/>
+      <c r="R370" s="5"/>
+      <c r="S370" s="5"/>
+      <c r="T370" s="5"/>
+      <c r="U370" s="5"/>
+      <c r="V370" s="6"/>
+    </row>
+    <row r="371" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B371" s="2"/>
+      <c r="C371" s="2"/>
+      <c r="D371" s="2"/>
+      <c r="E371" s="2"/>
+      <c r="F371" s="2"/>
+      <c r="G371" s="2"/>
+      <c r="H371" s="2"/>
+      <c r="I371" s="2"/>
+      <c r="J371" s="2"/>
+      <c r="K371" s="2"/>
+      <c r="L371" s="2"/>
+      <c r="M371" s="2"/>
+      <c r="N371" s="2"/>
+      <c r="O371" s="2"/>
+      <c r="P371" s="2"/>
+      <c r="Q371" s="2"/>
+      <c r="R371" s="3"/>
+      <c r="S371" s="5"/>
+      <c r="T371" s="5"/>
+      <c r="U371" s="5"/>
+      <c r="V371" s="6"/>
+    </row>
+    <row r="372" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A372" s="4"/>
+      <c r="B372" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C372" s="2"/>
+      <c r="D372" s="2"/>
+      <c r="E372" s="2"/>
+      <c r="F372" s="2"/>
+      <c r="G372" s="2"/>
+      <c r="H372" s="2"/>
+      <c r="I372" s="2"/>
+      <c r="J372" s="2"/>
+      <c r="K372" s="2"/>
+      <c r="L372" s="2"/>
+      <c r="M372" s="2"/>
+      <c r="N372" s="2"/>
+      <c r="O372" s="2"/>
+      <c r="P372" s="2"/>
+      <c r="Q372" s="3"/>
+      <c r="R372" s="6"/>
+      <c r="S372" s="5"/>
+      <c r="T372" s="5"/>
+      <c r="U372" s="5"/>
+      <c r="V372" s="6"/>
+    </row>
+    <row r="373" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A373" s="4"/>
+      <c r="B373" s="4"/>
+      <c r="C373" s="5"/>
+      <c r="D373" s="5"/>
+      <c r="E373" s="5"/>
+      <c r="F373" s="5"/>
+      <c r="G373" s="5"/>
+      <c r="H373" s="5"/>
+      <c r="I373" s="5"/>
+      <c r="J373" s="5"/>
+      <c r="K373" s="5"/>
+      <c r="L373" s="5"/>
+      <c r="M373" s="5"/>
+      <c r="N373" s="5"/>
+      <c r="O373" s="5"/>
+      <c r="P373" s="5"/>
+      <c r="Q373" s="6"/>
+      <c r="R373" s="6"/>
+      <c r="S373" s="5"/>
+      <c r="T373" s="5"/>
+      <c r="U373" s="5"/>
+      <c r="V373" s="6"/>
+    </row>
+    <row r="374" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A374" s="4"/>
+      <c r="B374" s="4"/>
+      <c r="C374" s="5"/>
+      <c r="D374" s="5"/>
+      <c r="E374" s="5"/>
+      <c r="F374" s="5"/>
+      <c r="G374" s="5"/>
+      <c r="H374" s="5"/>
+      <c r="I374" s="5"/>
+      <c r="J374" s="5"/>
+      <c r="K374" s="5"/>
+      <c r="L374" s="5"/>
+      <c r="M374" s="5"/>
+      <c r="N374" s="5"/>
+      <c r="O374" s="5"/>
+      <c r="P374" s="5"/>
+      <c r="Q374" s="6"/>
+      <c r="R374" s="6"/>
+      <c r="S374" s="5"/>
+      <c r="T374" s="5"/>
+      <c r="U374" s="5"/>
+      <c r="V374" s="6"/>
+    </row>
+    <row r="375" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A375" s="4"/>
+      <c r="B375" s="4"/>
+      <c r="C375" s="5"/>
+      <c r="D375" s="5"/>
+      <c r="E375" s="5"/>
+      <c r="F375" s="5"/>
+      <c r="G375" s="5"/>
+      <c r="H375" s="5"/>
+      <c r="I375" s="5"/>
+      <c r="J375" s="5"/>
+      <c r="K375" s="5"/>
+      <c r="L375" s="5"/>
+      <c r="M375" s="5"/>
+      <c r="N375" s="5"/>
+      <c r="O375" s="5"/>
+      <c r="P375" s="5"/>
+      <c r="Q375" s="6"/>
+      <c r="R375" s="6"/>
+      <c r="S375" s="5"/>
+      <c r="T375" s="5"/>
+      <c r="U375" s="5"/>
+      <c r="V375" s="6"/>
+    </row>
+    <row r="376" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A376" s="4"/>
+      <c r="B376" s="4"/>
+      <c r="C376" s="5"/>
+      <c r="D376" s="5"/>
+      <c r="E376" s="5"/>
+      <c r="F376" s="5"/>
+      <c r="G376" s="5"/>
+      <c r="H376" s="5"/>
+      <c r="I376" s="5"/>
+      <c r="J376" s="5"/>
+      <c r="K376" s="5"/>
+      <c r="L376" s="5"/>
+      <c r="M376" s="5"/>
+      <c r="N376" s="5"/>
+      <c r="O376" s="5"/>
+      <c r="P376" s="5"/>
+      <c r="Q376" s="6"/>
+      <c r="R376" s="6"/>
+      <c r="S376" s="5"/>
+      <c r="T376" s="5"/>
+      <c r="U376" s="5"/>
+      <c r="V376" s="6"/>
+    </row>
+    <row r="377" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A377" s="4"/>
+      <c r="B377" s="4"/>
+      <c r="C377" s="5"/>
+      <c r="D377" s="5"/>
+      <c r="E377" s="5"/>
+      <c r="F377" s="5"/>
+      <c r="G377" s="5"/>
+      <c r="H377" s="5"/>
+      <c r="I377" s="5"/>
+      <c r="J377" s="5"/>
+      <c r="K377" s="5"/>
+      <c r="L377" s="5"/>
+      <c r="M377" s="5"/>
+      <c r="N377" s="5"/>
+      <c r="O377" s="5"/>
+      <c r="P377" s="5"/>
+      <c r="Q377" s="6"/>
+      <c r="R377" s="6"/>
+      <c r="S377" s="5"/>
+      <c r="T377" s="5"/>
+      <c r="U377" s="5"/>
+      <c r="V377" s="6"/>
+    </row>
+    <row r="378" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A378" s="4"/>
+      <c r="B378" s="4"/>
+      <c r="C378" s="5"/>
+      <c r="D378" s="5"/>
+      <c r="E378" s="5"/>
+      <c r="F378" s="5"/>
+      <c r="G378" s="5"/>
+      <c r="H378" s="5"/>
+      <c r="I378" s="5"/>
+      <c r="J378" s="5"/>
+      <c r="K378" s="5"/>
+      <c r="L378" s="5"/>
+      <c r="M378" s="5"/>
+      <c r="N378" s="5"/>
+      <c r="O378" s="5"/>
+      <c r="P378" s="5"/>
+      <c r="Q378" s="6"/>
+      <c r="R378" s="6"/>
+      <c r="S378" s="5"/>
+      <c r="T378" s="5"/>
+      <c r="U378" s="5"/>
+      <c r="V378" s="6"/>
+    </row>
+    <row r="379" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A379" s="4"/>
+      <c r="B379" s="4"/>
+      <c r="C379" s="5"/>
+      <c r="D379" s="5"/>
+      <c r="E379" s="5"/>
+      <c r="F379" s="5"/>
+      <c r="G379" s="5"/>
+      <c r="H379" s="5"/>
+      <c r="I379" s="5"/>
+      <c r="J379" s="5"/>
+      <c r="K379" s="5"/>
+      <c r="L379" s="5"/>
+      <c r="M379" s="5"/>
+      <c r="N379" s="5"/>
+      <c r="O379" s="5"/>
+      <c r="P379" s="5"/>
+      <c r="Q379" s="6"/>
+      <c r="R379" s="6"/>
+      <c r="S379" s="5"/>
+      <c r="T379" s="5"/>
+      <c r="U379" s="5"/>
+      <c r="V379" s="6"/>
+    </row>
+    <row r="380" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A380" s="4"/>
+      <c r="B380" s="4"/>
+      <c r="C380" s="5"/>
+      <c r="D380" s="5"/>
+      <c r="E380" s="5"/>
+      <c r="F380" s="5"/>
+      <c r="G380" s="5"/>
+      <c r="H380" s="5"/>
+      <c r="I380" s="5"/>
+      <c r="J380" s="5"/>
+      <c r="K380" s="5"/>
+      <c r="L380" s="5"/>
+      <c r="M380" s="5"/>
+      <c r="N380" s="5"/>
+      <c r="O380" s="5"/>
+      <c r="P380" s="5"/>
+      <c r="Q380" s="6"/>
+      <c r="R380" s="6"/>
+      <c r="S380" s="5"/>
+      <c r="T380" s="5"/>
+      <c r="U380" s="5"/>
+      <c r="V380" s="6"/>
+    </row>
+    <row r="381" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A381" s="4"/>
+      <c r="B381" s="4"/>
+      <c r="C381" s="5"/>
+      <c r="D381" s="5"/>
+      <c r="E381" s="5"/>
+      <c r="F381" s="5"/>
+      <c r="G381" s="5"/>
+      <c r="H381" s="5"/>
+      <c r="I381" s="5"/>
+      <c r="J381" s="5"/>
+      <c r="K381" s="5"/>
+      <c r="L381" s="5"/>
+      <c r="M381" s="5"/>
+      <c r="N381" s="5"/>
+      <c r="O381" s="5"/>
+      <c r="P381" s="5"/>
+      <c r="Q381" s="6"/>
+      <c r="R381" s="6"/>
+      <c r="S381" s="5"/>
+      <c r="T381" s="5"/>
+      <c r="U381" s="5"/>
+      <c r="V381" s="6"/>
+    </row>
+    <row r="382" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A382" s="4"/>
+      <c r="B382" s="4"/>
+      <c r="C382" s="5"/>
+      <c r="D382" s="5"/>
+      <c r="E382" s="5"/>
+      <c r="F382" s="5"/>
+      <c r="G382" s="5"/>
+      <c r="H382" s="5"/>
+      <c r="I382" s="5"/>
+      <c r="J382" s="5"/>
+      <c r="K382" s="5"/>
+      <c r="L382" s="5"/>
+      <c r="M382" s="5"/>
+      <c r="N382" s="5"/>
+      <c r="O382" s="5"/>
+      <c r="P382" s="5"/>
+      <c r="Q382" s="6"/>
+      <c r="R382" s="6"/>
+      <c r="S382" s="5"/>
+      <c r="T382" s="5"/>
+      <c r="U382" s="5"/>
+      <c r="V382" s="6"/>
+    </row>
+    <row r="383" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A383" s="4"/>
+      <c r="B383" s="4"/>
+      <c r="C383" s="5"/>
+      <c r="D383" s="5"/>
+      <c r="E383" s="5"/>
+      <c r="F383" s="5"/>
+      <c r="G383" s="5"/>
+      <c r="H383" s="5"/>
+      <c r="I383" s="5"/>
+      <c r="J383" s="5"/>
+      <c r="K383" s="5"/>
+      <c r="L383" s="5"/>
+      <c r="M383" s="5"/>
+      <c r="N383" s="5"/>
+      <c r="O383" s="5"/>
+      <c r="P383" s="5"/>
+      <c r="Q383" s="6"/>
+      <c r="R383" s="6"/>
+      <c r="S383" s="5"/>
+      <c r="T383" s="5"/>
+      <c r="U383" s="5"/>
+      <c r="V383" s="6"/>
+    </row>
+    <row r="384" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A384" s="4"/>
+      <c r="B384" s="4"/>
+      <c r="C384" s="5"/>
+      <c r="D384" s="5"/>
+      <c r="E384" s="5"/>
+      <c r="F384" s="5"/>
+      <c r="G384" s="5"/>
+      <c r="H384" s="5"/>
+      <c r="I384" s="5"/>
+      <c r="J384" s="5"/>
+      <c r="K384" s="5"/>
+      <c r="L384" s="5"/>
+      <c r="M384" s="5"/>
+      <c r="N384" s="5"/>
+      <c r="O384" s="5"/>
+      <c r="P384" s="5"/>
+      <c r="Q384" s="6"/>
+      <c r="R384" s="6"/>
+      <c r="S384" s="5"/>
+      <c r="T384" s="5"/>
+      <c r="U384" s="5"/>
+      <c r="V384" s="6"/>
+    </row>
+    <row r="385" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A385" s="4"/>
+      <c r="B385" s="4"/>
+      <c r="C385" s="5"/>
+      <c r="D385" s="5"/>
+      <c r="E385" s="5"/>
+      <c r="F385" s="5"/>
+      <c r="G385" s="5"/>
+      <c r="H385" s="5"/>
+      <c r="I385" s="5"/>
+      <c r="J385" s="5"/>
+      <c r="K385" s="5"/>
+      <c r="L385" s="5"/>
+      <c r="M385" s="5"/>
+      <c r="N385" s="5"/>
+      <c r="O385" s="5"/>
+      <c r="P385" s="5"/>
+      <c r="Q385" s="6"/>
+      <c r="R385" s="6"/>
+      <c r="S385" s="5"/>
+      <c r="T385" s="5"/>
+      <c r="U385" s="5"/>
+      <c r="V385" s="6"/>
+    </row>
+    <row r="386" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A386" s="4"/>
+      <c r="B386" s="4"/>
+      <c r="C386" s="5"/>
+      <c r="D386" s="5"/>
+      <c r="E386" s="5"/>
+      <c r="F386" s="5"/>
+      <c r="G386" s="5"/>
+      <c r="H386" s="5"/>
+      <c r="I386" s="5"/>
+      <c r="J386" s="5"/>
+      <c r="K386" s="5"/>
+      <c r="L386" s="5"/>
+      <c r="M386" s="5"/>
+      <c r="N386" s="5"/>
+      <c r="O386" s="5"/>
+      <c r="P386" s="5"/>
+      <c r="Q386" s="6"/>
+      <c r="R386" s="6"/>
+      <c r="S386" s="5"/>
+      <c r="T386" s="5"/>
+      <c r="U386" s="5"/>
+      <c r="V386" s="6"/>
+    </row>
+    <row r="387" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A387" s="4"/>
+      <c r="B387" s="4"/>
+      <c r="C387" s="5"/>
+      <c r="D387" s="5"/>
+      <c r="E387" s="5"/>
+      <c r="F387" s="5"/>
+      <c r="G387" s="5"/>
+      <c r="H387" s="5"/>
+      <c r="I387" s="5"/>
+      <c r="J387" s="5"/>
+      <c r="K387" s="5"/>
+      <c r="L387" s="5"/>
+      <c r="M387" s="5"/>
+      <c r="N387" s="5"/>
+      <c r="O387" s="5"/>
+      <c r="P387" s="5"/>
+      <c r="Q387" s="6"/>
+      <c r="R387" s="6"/>
+      <c r="S387" s="5"/>
+      <c r="T387" s="5"/>
+      <c r="U387" s="5"/>
+      <c r="V387" s="6"/>
+    </row>
+    <row r="388" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A388" s="4"/>
+      <c r="B388" s="4"/>
+      <c r="C388" s="5"/>
+      <c r="D388" s="5"/>
+      <c r="E388" s="5"/>
+      <c r="F388" s="5"/>
+      <c r="G388" s="5"/>
+      <c r="H388" s="5"/>
+      <c r="I388" s="5"/>
+      <c r="J388" s="5"/>
+      <c r="K388" s="5"/>
+      <c r="L388" s="5"/>
+      <c r="M388" s="5"/>
+      <c r="N388" s="5"/>
+      <c r="O388" s="5"/>
+      <c r="P388" s="5"/>
+      <c r="Q388" s="6"/>
+      <c r="R388" s="6"/>
+      <c r="S388" s="5"/>
+      <c r="T388" s="5"/>
+      <c r="U388" s="5"/>
+      <c r="V388" s="6"/>
+    </row>
+    <row r="389" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A389" s="4"/>
+      <c r="B389" s="4"/>
+      <c r="C389" s="5"/>
+      <c r="D389" s="5"/>
+      <c r="E389" s="5"/>
+      <c r="F389" s="5"/>
+      <c r="G389" s="5"/>
+      <c r="H389" s="5"/>
+      <c r="I389" s="5"/>
+      <c r="J389" s="5"/>
+      <c r="K389" s="5"/>
+      <c r="L389" s="5"/>
+      <c r="M389" s="5"/>
+      <c r="N389" s="5"/>
+      <c r="O389" s="5"/>
+      <c r="P389" s="5"/>
+      <c r="Q389" s="6"/>
+      <c r="R389" s="6"/>
+      <c r="S389" s="5"/>
+      <c r="T389" s="5"/>
+      <c r="U389" s="5"/>
+      <c r="V389" s="6"/>
+    </row>
+    <row r="390" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A390" s="4"/>
+      <c r="B390" s="4"/>
+      <c r="C390" s="5"/>
+      <c r="D390" s="5"/>
+      <c r="E390" s="5"/>
+      <c r="F390" s="5"/>
+      <c r="G390" s="5"/>
+      <c r="H390" s="5"/>
+      <c r="I390" s="5"/>
+      <c r="J390" s="5"/>
+      <c r="K390" s="5"/>
+      <c r="L390" s="5"/>
+      <c r="M390" s="5"/>
+      <c r="N390" s="5"/>
+      <c r="O390" s="5"/>
+      <c r="P390" s="5"/>
+      <c r="Q390" s="6"/>
+      <c r="R390" s="6"/>
+      <c r="S390" s="5"/>
+      <c r="T390" s="5"/>
+      <c r="U390" s="5"/>
+      <c r="V390" s="6"/>
+    </row>
+    <row r="391" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A391" s="4"/>
+      <c r="B391" s="4"/>
+      <c r="C391" s="5"/>
+      <c r="D391" s="5"/>
+      <c r="E391" s="5"/>
+      <c r="F391" s="5"/>
+      <c r="G391" s="5"/>
+      <c r="H391" s="5"/>
+      <c r="I391" s="5"/>
+      <c r="J391" s="5"/>
+      <c r="K391" s="5"/>
+      <c r="L391" s="5"/>
+      <c r="M391" s="5"/>
+      <c r="N391" s="5"/>
+      <c r="O391" s="5"/>
+      <c r="P391" s="5"/>
+      <c r="Q391" s="6"/>
+      <c r="R391" s="6"/>
+      <c r="S391" s="5"/>
+      <c r="T391" s="5"/>
+      <c r="U391" s="5"/>
+      <c r="V391" s="6"/>
+    </row>
+    <row r="392" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A392" s="4"/>
+      <c r="B392" s="4"/>
+      <c r="C392" s="5"/>
+      <c r="D392" s="5"/>
+      <c r="E392" s="5"/>
+      <c r="F392" s="5"/>
+      <c r="G392" s="5"/>
+      <c r="H392" s="5"/>
+      <c r="I392" s="5"/>
+      <c r="J392" s="5"/>
+      <c r="K392" s="5"/>
+      <c r="L392" s="5"/>
+      <c r="M392" s="5"/>
+      <c r="N392" s="5"/>
+      <c r="O392" s="5"/>
+      <c r="P392" s="5"/>
+      <c r="Q392" s="6"/>
+      <c r="R392" s="6"/>
+      <c r="S392" s="5"/>
+      <c r="T392" s="5"/>
+      <c r="U392" s="5"/>
+      <c r="V392" s="6"/>
+    </row>
+    <row r="393" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A393" s="4"/>
+      <c r="B393" s="7"/>
+      <c r="C393" s="8"/>
+      <c r="D393" s="8"/>
+      <c r="E393" s="8"/>
+      <c r="F393" s="8"/>
+      <c r="G393" s="8"/>
+      <c r="H393" s="8"/>
+      <c r="I393" s="8"/>
+      <c r="J393" s="8"/>
+      <c r="K393" s="8"/>
+      <c r="L393" s="8"/>
+      <c r="M393" s="8"/>
+      <c r="N393" s="8"/>
+      <c r="O393" s="8"/>
+      <c r="P393" s="8"/>
+      <c r="Q393" s="9"/>
+      <c r="R393" s="6"/>
+      <c r="S393" s="5"/>
+      <c r="T393" s="5"/>
+      <c r="U393" s="5"/>
+      <c r="V393" s="6"/>
+    </row>
+    <row r="394" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A394" s="4"/>
+      <c r="B394" s="5"/>
+      <c r="C394" s="5"/>
+      <c r="D394" s="5"/>
+      <c r="E394" s="5"/>
+      <c r="F394" s="5"/>
+      <c r="G394" s="5"/>
+      <c r="H394" s="5"/>
+      <c r="I394" s="5"/>
+      <c r="J394" s="5"/>
+      <c r="K394" s="5"/>
+      <c r="L394" s="5"/>
+      <c r="M394" s="5"/>
+      <c r="N394" s="5"/>
+      <c r="O394" s="5"/>
+      <c r="P394" s="5"/>
+      <c r="Q394" s="5"/>
+      <c r="R394" s="6"/>
+      <c r="S394" s="5"/>
+      <c r="T394" s="5"/>
+      <c r="U394" s="5"/>
+      <c r="V394" s="6"/>
+    </row>
+    <row r="395" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A395" s="4"/>
+      <c r="B395" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C395" s="2"/>
+      <c r="D395" s="2"/>
+      <c r="E395" s="2"/>
+      <c r="F395" s="2"/>
+      <c r="G395" s="2"/>
+      <c r="H395" s="2"/>
+      <c r="I395" s="2"/>
+      <c r="J395" s="2"/>
+      <c r="K395" s="2"/>
+      <c r="L395" s="2"/>
+      <c r="M395" s="2"/>
+      <c r="N395" s="2"/>
+      <c r="O395" s="2"/>
+      <c r="P395" s="2"/>
+      <c r="Q395" s="3"/>
+      <c r="R395" s="6"/>
+      <c r="S395" s="5"/>
+      <c r="T395" s="5"/>
+      <c r="U395" s="5"/>
+      <c r="V395" s="6"/>
+    </row>
+    <row r="396" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A396" s="4"/>
+      <c r="B396" s="4"/>
+      <c r="C396" s="5"/>
+      <c r="D396" s="5"/>
+      <c r="E396" s="5"/>
+      <c r="F396" s="5"/>
+      <c r="G396" s="5"/>
+      <c r="H396" s="5"/>
+      <c r="I396" s="5"/>
+      <c r="J396" s="5"/>
+      <c r="K396" s="5"/>
+      <c r="L396" s="5"/>
+      <c r="M396" s="5"/>
+      <c r="N396" s="5"/>
+      <c r="O396" s="5"/>
+      <c r="P396" s="5"/>
+      <c r="Q396" s="6"/>
+      <c r="R396" s="6"/>
+      <c r="S396" s="5"/>
+      <c r="T396" s="5"/>
+      <c r="U396" s="5"/>
+      <c r="V396" s="6"/>
+    </row>
+    <row r="397" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A397" s="4"/>
+      <c r="B397" s="4"/>
+      <c r="C397" s="5"/>
+      <c r="D397" s="5"/>
+      <c r="E397" s="5"/>
+      <c r="F397" s="5"/>
+      <c r="G397" s="5"/>
+      <c r="H397" s="5"/>
+      <c r="I397" s="5"/>
+      <c r="J397" s="5"/>
+      <c r="K397" s="5"/>
+      <c r="L397" s="5"/>
+      <c r="M397" s="5"/>
+      <c r="N397" s="5"/>
+      <c r="O397" s="5"/>
+      <c r="P397" s="5"/>
+      <c r="Q397" s="6"/>
+      <c r="R397" s="6"/>
+      <c r="S397" s="5"/>
+      <c r="T397" s="5"/>
+      <c r="U397" s="5"/>
+      <c r="V397" s="6"/>
+    </row>
+    <row r="398" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A398" s="4"/>
+      <c r="B398" s="4"/>
+      <c r="C398" s="5"/>
+      <c r="D398" s="5"/>
+      <c r="E398" s="5"/>
+      <c r="F398" s="5"/>
+      <c r="G398" s="5"/>
+      <c r="H398" s="5"/>
+      <c r="I398" s="5"/>
+      <c r="J398" s="5"/>
+      <c r="K398" s="5"/>
+      <c r="L398" s="5"/>
+      <c r="M398" s="5"/>
+      <c r="N398" s="5"/>
+      <c r="O398" s="5"/>
+      <c r="P398" s="5"/>
+      <c r="Q398" s="6"/>
+      <c r="R398" s="6"/>
+      <c r="S398" s="5"/>
+      <c r="T398" s="5"/>
+      <c r="U398" s="5"/>
+      <c r="V398" s="6"/>
+    </row>
+    <row r="399" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A399" s="4"/>
+      <c r="B399" s="4"/>
+      <c r="C399" s="5"/>
+      <c r="D399" s="5"/>
+      <c r="E399" s="5"/>
+      <c r="F399" s="5"/>
+      <c r="G399" s="5"/>
+      <c r="H399" s="5"/>
+      <c r="I399" s="5"/>
+      <c r="J399" s="5"/>
+      <c r="K399" s="5"/>
+      <c r="L399" s="5"/>
+      <c r="M399" s="5"/>
+      <c r="N399" s="5"/>
+      <c r="O399" s="5"/>
+      <c r="P399" s="5"/>
+      <c r="Q399" s="6"/>
+      <c r="R399" s="6"/>
+      <c r="S399" s="5"/>
+      <c r="T399" s="5"/>
+      <c r="U399" s="5"/>
+      <c r="V399" s="6"/>
+    </row>
+    <row r="400" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A400" s="4"/>
+      <c r="B400" s="4"/>
+      <c r="C400" s="5"/>
+      <c r="D400" s="5"/>
+      <c r="E400" s="5"/>
+      <c r="F400" s="5"/>
+      <c r="G400" s="5"/>
+      <c r="H400" s="5"/>
+      <c r="I400" s="5"/>
+      <c r="J400" s="5"/>
+      <c r="K400" s="5"/>
+      <c r="L400" s="5"/>
+      <c r="M400" s="5"/>
+      <c r="N400" s="5"/>
+      <c r="O400" s="5"/>
+      <c r="P400" s="5"/>
+      <c r="Q400" s="6"/>
+      <c r="R400" s="6"/>
+      <c r="S400" s="5"/>
+      <c r="T400" s="5"/>
+      <c r="U400" s="5"/>
+      <c r="V400" s="6"/>
+    </row>
+    <row r="401" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A401" s="4"/>
+      <c r="B401" s="4"/>
+      <c r="C401" s="5"/>
+      <c r="D401" s="5"/>
+      <c r="E401" s="5"/>
+      <c r="F401" s="5"/>
+      <c r="G401" s="5"/>
+      <c r="H401" s="5"/>
+      <c r="I401" s="5"/>
+      <c r="J401" s="5"/>
+      <c r="K401" s="5"/>
+      <c r="L401" s="5"/>
+      <c r="M401" s="5"/>
+      <c r="N401" s="5"/>
+      <c r="O401" s="5"/>
+      <c r="P401" s="5"/>
+      <c r="Q401" s="6"/>
+      <c r="R401" s="6"/>
+      <c r="S401" s="5"/>
+      <c r="T401" s="5"/>
+      <c r="U401" s="5"/>
+      <c r="V401" s="6"/>
+    </row>
+    <row r="402" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A402" s="4"/>
+      <c r="B402" s="4"/>
+      <c r="C402" s="5"/>
+      <c r="D402" s="5"/>
+      <c r="E402" s="5"/>
+      <c r="F402" s="5"/>
+      <c r="G402" s="5"/>
+      <c r="H402" s="5"/>
+      <c r="I402" s="5"/>
+      <c r="J402" s="5"/>
+      <c r="K402" s="5"/>
+      <c r="L402" s="5"/>
+      <c r="M402" s="5"/>
+      <c r="N402" s="5"/>
+      <c r="O402" s="5"/>
+      <c r="P402" s="5"/>
+      <c r="Q402" s="6"/>
+      <c r="R402" s="6"/>
+      <c r="S402" s="5"/>
+      <c r="T402" s="5"/>
+      <c r="U402" s="5"/>
+      <c r="V402" s="6"/>
+    </row>
+    <row r="403" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A403" s="4"/>
+      <c r="B403" s="4"/>
+      <c r="C403" s="5"/>
+      <c r="D403" s="5"/>
+      <c r="E403" s="5"/>
+      <c r="F403" s="5"/>
+      <c r="G403" s="5"/>
+      <c r="H403" s="5"/>
+      <c r="I403" s="5"/>
+      <c r="J403" s="5"/>
+      <c r="K403" s="5"/>
+      <c r="L403" s="5"/>
+      <c r="M403" s="5"/>
+      <c r="N403" s="5"/>
+      <c r="O403" s="5"/>
+      <c r="P403" s="5"/>
+      <c r="Q403" s="6"/>
+      <c r="R403" s="6"/>
+      <c r="S403" s="5"/>
+      <c r="T403" s="5"/>
+      <c r="U403" s="5"/>
+      <c r="V403" s="6"/>
+    </row>
+    <row r="404" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A404" s="4"/>
+      <c r="B404" s="4"/>
+      <c r="C404" s="5"/>
+      <c r="D404" s="5"/>
+      <c r="E404" s="5"/>
+      <c r="F404" s="5"/>
+      <c r="G404" s="5"/>
+      <c r="H404" s="5"/>
+      <c r="I404" s="5"/>
+      <c r="J404" s="5"/>
+      <c r="K404" s="5"/>
+      <c r="L404" s="5"/>
+      <c r="M404" s="5"/>
+      <c r="N404" s="5"/>
+      <c r="O404" s="5"/>
+      <c r="P404" s="5"/>
+      <c r="Q404" s="6"/>
+      <c r="R404" s="6"/>
+      <c r="S404" s="5"/>
+      <c r="T404" s="5"/>
+      <c r="U404" s="5"/>
+      <c r="V404" s="6"/>
+    </row>
+    <row r="405" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A405" s="4"/>
+      <c r="B405" s="4"/>
+      <c r="C405" s="5"/>
+      <c r="D405" s="5"/>
+      <c r="E405" s="5"/>
+      <c r="F405" s="5"/>
+      <c r="G405" s="5"/>
+      <c r="H405" s="5"/>
+      <c r="I405" s="5"/>
+      <c r="J405" s="5"/>
+      <c r="K405" s="5"/>
+      <c r="L405" s="5"/>
+      <c r="M405" s="5"/>
+      <c r="N405" s="5"/>
+      <c r="O405" s="5"/>
+      <c r="P405" s="5"/>
+      <c r="Q405" s="6"/>
+      <c r="R405" s="6"/>
+      <c r="S405" s="5"/>
+      <c r="T405" s="5"/>
+      <c r="U405" s="5"/>
+      <c r="V405" s="6"/>
+    </row>
+    <row r="406" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A406" s="4"/>
+      <c r="B406" s="4"/>
+      <c r="C406" s="5"/>
+      <c r="D406" s="5"/>
+      <c r="E406" s="5"/>
+      <c r="F406" s="5"/>
+      <c r="G406" s="5"/>
+      <c r="H406" s="5"/>
+      <c r="I406" s="5"/>
+      <c r="J406" s="5"/>
+      <c r="K406" s="5"/>
+      <c r="L406" s="5"/>
+      <c r="M406" s="5"/>
+      <c r="N406" s="5"/>
+      <c r="O406" s="5"/>
+      <c r="P406" s="5"/>
+      <c r="Q406" s="6"/>
+      <c r="R406" s="6"/>
+      <c r="S406" s="5"/>
+      <c r="T406" s="5"/>
+      <c r="U406" s="5"/>
+      <c r="V406" s="6"/>
+    </row>
+    <row r="407" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A407" s="4"/>
+      <c r="B407" s="4"/>
+      <c r="C407" s="5"/>
+      <c r="D407" s="5"/>
+      <c r="E407" s="5"/>
+      <c r="F407" s="5"/>
+      <c r="G407" s="5"/>
+      <c r="H407" s="5"/>
+      <c r="I407" s="5"/>
+      <c r="J407" s="5"/>
+      <c r="K407" s="5"/>
+      <c r="L407" s="5"/>
+      <c r="M407" s="5"/>
+      <c r="N407" s="5"/>
+      <c r="O407" s="5"/>
+      <c r="P407" s="5"/>
+      <c r="Q407" s="6"/>
+      <c r="R407" s="6"/>
+      <c r="S407" s="5"/>
+      <c r="T407" s="5"/>
+      <c r="U407" s="5"/>
+      <c r="V407" s="6"/>
+    </row>
+    <row r="408" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A408" s="4"/>
+      <c r="B408" s="4"/>
+      <c r="C408" s="5"/>
+      <c r="D408" s="5"/>
+      <c r="E408" s="5"/>
+      <c r="F408" s="5"/>
+      <c r="G408" s="5"/>
+      <c r="H408" s="5"/>
+      <c r="I408" s="5"/>
+      <c r="J408" s="5"/>
+      <c r="K408" s="5"/>
+      <c r="L408" s="5"/>
+      <c r="M408" s="5"/>
+      <c r="N408" s="5"/>
+      <c r="O408" s="5"/>
+      <c r="P408" s="5"/>
+      <c r="Q408" s="6"/>
+      <c r="R408" s="6"/>
+      <c r="S408" s="5"/>
+      <c r="T408" s="5"/>
+      <c r="U408" s="5"/>
+      <c r="V408" s="6"/>
+    </row>
+    <row r="409" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A409" s="4"/>
+      <c r="B409" s="4"/>
+      <c r="C409" s="5"/>
+      <c r="D409" s="5"/>
+      <c r="E409" s="5"/>
+      <c r="F409" s="5"/>
+      <c r="G409" s="5"/>
+      <c r="H409" s="5"/>
+      <c r="I409" s="5"/>
+      <c r="J409" s="5"/>
+      <c r="K409" s="5"/>
+      <c r="L409" s="5"/>
+      <c r="M409" s="5"/>
+      <c r="N409" s="5"/>
+      <c r="O409" s="5"/>
+      <c r="P409" s="5"/>
+      <c r="Q409" s="6"/>
+      <c r="R409" s="6"/>
+      <c r="S409" s="5"/>
+      <c r="T409" s="5"/>
+      <c r="U409" s="5"/>
+      <c r="V409" s="6"/>
+    </row>
+    <row r="410" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A410" s="4"/>
+      <c r="B410" s="4"/>
+      <c r="C410" s="5"/>
+      <c r="D410" s="5"/>
+      <c r="E410" s="5"/>
+      <c r="F410" s="5"/>
+      <c r="G410" s="5"/>
+      <c r="H410" s="5"/>
+      <c r="I410" s="5"/>
+      <c r="J410" s="5"/>
+      <c r="K410" s="5"/>
+      <c r="L410" s="5"/>
+      <c r="M410" s="5"/>
+      <c r="N410" s="5"/>
+      <c r="O410" s="5"/>
+      <c r="P410" s="5"/>
+      <c r="Q410" s="6"/>
+      <c r="R410" s="6"/>
+      <c r="S410" s="5"/>
+      <c r="T410" s="5"/>
+      <c r="U410" s="5"/>
+      <c r="V410" s="6"/>
+    </row>
+    <row r="411" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A411" s="4"/>
+      <c r="B411" s="4"/>
+      <c r="C411" s="5"/>
+      <c r="D411" s="5"/>
+      <c r="E411" s="5"/>
+      <c r="F411" s="5"/>
+      <c r="G411" s="5"/>
+      <c r="H411" s="5"/>
+      <c r="I411" s="5"/>
+      <c r="J411" s="5"/>
+      <c r="K411" s="5"/>
+      <c r="L411" s="5"/>
+      <c r="M411" s="5"/>
+      <c r="N411" s="5"/>
+      <c r="O411" s="5"/>
+      <c r="P411" s="5"/>
+      <c r="Q411" s="6"/>
+      <c r="R411" s="6"/>
+      <c r="S411" s="5"/>
+      <c r="T411" s="5"/>
+      <c r="U411" s="5"/>
+      <c r="V411" s="6"/>
+    </row>
+    <row r="412" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A412" s="4"/>
+      <c r="B412" s="4"/>
+      <c r="C412" s="5"/>
+      <c r="D412" s="5"/>
+      <c r="E412" s="5"/>
+      <c r="F412" s="5"/>
+      <c r="G412" s="5"/>
+      <c r="H412" s="5"/>
+      <c r="I412" s="5"/>
+      <c r="J412" s="5"/>
+      <c r="K412" s="5"/>
+      <c r="L412" s="5"/>
+      <c r="M412" s="5"/>
+      <c r="N412" s="5"/>
+      <c r="O412" s="5"/>
+      <c r="P412" s="5"/>
+      <c r="Q412" s="6"/>
+      <c r="R412" s="6"/>
+      <c r="S412" s="5"/>
+      <c r="T412" s="5"/>
+      <c r="U412" s="5"/>
+      <c r="V412" s="6"/>
+    </row>
+    <row r="413" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A413" s="4"/>
+      <c r="B413" s="4"/>
+      <c r="C413" s="5"/>
+      <c r="D413" s="5"/>
+      <c r="E413" s="5"/>
+      <c r="F413" s="5"/>
+      <c r="G413" s="5"/>
+      <c r="H413" s="5"/>
+      <c r="I413" s="5"/>
+      <c r="J413" s="5"/>
+      <c r="K413" s="5"/>
+      <c r="L413" s="5"/>
+      <c r="M413" s="5"/>
+      <c r="N413" s="5"/>
+      <c r="O413" s="5"/>
+      <c r="P413" s="5"/>
+      <c r="Q413" s="6"/>
+      <c r="R413" s="6"/>
+      <c r="S413" s="5"/>
+      <c r="T413" s="5"/>
+      <c r="U413" s="5"/>
+      <c r="V413" s="6"/>
+    </row>
+    <row r="414" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A414" s="4"/>
+      <c r="B414" s="4"/>
+      <c r="C414" s="5"/>
+      <c r="D414" s="5"/>
+      <c r="E414" s="5"/>
+      <c r="F414" s="5"/>
+      <c r="G414" s="5"/>
+      <c r="H414" s="5"/>
+      <c r="I414" s="5"/>
+      <c r="J414" s="5"/>
+      <c r="K414" s="5"/>
+      <c r="L414" s="5"/>
+      <c r="M414" s="5"/>
+      <c r="N414" s="5"/>
+      <c r="O414" s="5"/>
+      <c r="P414" s="5"/>
+      <c r="Q414" s="6"/>
+      <c r="R414" s="6"/>
+      <c r="S414" s="5"/>
+      <c r="T414" s="5"/>
+      <c r="U414" s="5"/>
+      <c r="V414" s="6"/>
+    </row>
+    <row r="415" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A415" s="4"/>
+      <c r="B415" s="4"/>
+      <c r="C415" s="5"/>
+      <c r="D415" s="5"/>
+      <c r="E415" s="5"/>
+      <c r="F415" s="5"/>
+      <c r="G415" s="5"/>
+      <c r="H415" s="5"/>
+      <c r="I415" s="5"/>
+      <c r="J415" s="5"/>
+      <c r="K415" s="5"/>
+      <c r="L415" s="5"/>
+      <c r="M415" s="5"/>
+      <c r="N415" s="5"/>
+      <c r="O415" s="5"/>
+      <c r="P415" s="5"/>
+      <c r="Q415" s="6"/>
+      <c r="R415" s="6"/>
+      <c r="S415" s="5"/>
+      <c r="T415" s="5"/>
+      <c r="U415" s="5"/>
+      <c r="V415" s="6"/>
+    </row>
+    <row r="416" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A416" s="4"/>
+      <c r="B416" s="4"/>
+      <c r="C416" s="5"/>
+      <c r="D416" s="5"/>
+      <c r="E416" s="5"/>
+      <c r="F416" s="5"/>
+      <c r="G416" s="5"/>
+      <c r="H416" s="5"/>
+      <c r="I416" s="5"/>
+      <c r="J416" s="5"/>
+      <c r="K416" s="5"/>
+      <c r="L416" s="5"/>
+      <c r="M416" s="5"/>
+      <c r="N416" s="5"/>
+      <c r="O416" s="5"/>
+      <c r="P416" s="5"/>
+      <c r="Q416" s="6"/>
+      <c r="R416" s="6"/>
+      <c r="S416" s="5"/>
+      <c r="T416" s="5"/>
+      <c r="U416" s="5"/>
+      <c r="V416" s="6"/>
+    </row>
+    <row r="417" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A417" s="4"/>
+      <c r="B417" s="4"/>
+      <c r="C417" s="5"/>
+      <c r="D417" s="5"/>
+      <c r="E417" s="5"/>
+      <c r="F417" s="5"/>
+      <c r="G417" s="5"/>
+      <c r="H417" s="5"/>
+      <c r="I417" s="5"/>
+      <c r="J417" s="5"/>
+      <c r="K417" s="5"/>
+      <c r="L417" s="5"/>
+      <c r="M417" s="5"/>
+      <c r="N417" s="5"/>
+      <c r="O417" s="5"/>
+      <c r="P417" s="5"/>
+      <c r="Q417" s="6"/>
+      <c r="R417" s="6"/>
+      <c r="S417" s="5"/>
+      <c r="T417" s="5"/>
+      <c r="U417" s="5"/>
+      <c r="V417" s="6"/>
+    </row>
+    <row r="418" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A418" s="4"/>
+      <c r="B418" s="4"/>
+      <c r="C418" s="5"/>
+      <c r="D418" s="5"/>
+      <c r="E418" s="5"/>
+      <c r="F418" s="5"/>
+      <c r="G418" s="5"/>
+      <c r="H418" s="5"/>
+      <c r="I418" s="5"/>
+      <c r="J418" s="5"/>
+      <c r="K418" s="5"/>
+      <c r="L418" s="5"/>
+      <c r="M418" s="5"/>
+      <c r="N418" s="5"/>
+      <c r="O418" s="5"/>
+      <c r="P418" s="5"/>
+      <c r="Q418" s="6"/>
+      <c r="R418" s="6"/>
+      <c r="S418" s="5"/>
+      <c r="T418" s="5"/>
+      <c r="U418" s="5"/>
+      <c r="V418" s="6"/>
+    </row>
+    <row r="419" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A419" s="4"/>
+      <c r="B419" s="7"/>
+      <c r="C419" s="8"/>
+      <c r="D419" s="8"/>
+      <c r="E419" s="8"/>
+      <c r="F419" s="8"/>
+      <c r="G419" s="8"/>
+      <c r="H419" s="8"/>
+      <c r="I419" s="8"/>
+      <c r="J419" s="8"/>
+      <c r="K419" s="8"/>
+      <c r="L419" s="8"/>
+      <c r="M419" s="8"/>
+      <c r="N419" s="8"/>
+      <c r="O419" s="8"/>
+      <c r="P419" s="8"/>
+      <c r="Q419" s="9"/>
+      <c r="R419" s="6"/>
+      <c r="S419" s="5"/>
+      <c r="T419" s="5"/>
+      <c r="U419" s="5"/>
+      <c r="V419" s="6"/>
+    </row>
+    <row r="420" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A420" s="7"/>
+      <c r="B420" s="8"/>
+      <c r="C420" s="8"/>
+      <c r="D420" s="8"/>
+      <c r="E420" s="8"/>
+      <c r="F420" s="8"/>
+      <c r="G420" s="8"/>
+      <c r="H420" s="8"/>
+      <c r="I420" s="8"/>
+      <c r="J420" s="8"/>
+      <c r="K420" s="8"/>
+      <c r="L420" s="8"/>
+      <c r="M420" s="8"/>
+      <c r="N420" s="8"/>
+      <c r="O420" s="8"/>
+      <c r="P420" s="8"/>
+      <c r="Q420" s="8"/>
+      <c r="R420" s="9"/>
+      <c r="S420" s="5"/>
+      <c r="T420" s="5"/>
+      <c r="U420" s="5"/>
+      <c r="V420" s="6"/>
+    </row>
+    <row r="421" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A421" s="7"/>
+      <c r="B421" s="8"/>
+      <c r="C421" s="8"/>
+      <c r="D421" s="8"/>
+      <c r="E421" s="8"/>
+      <c r="F421" s="8"/>
+      <c r="G421" s="8"/>
+      <c r="H421" s="8"/>
+      <c r="I421" s="8"/>
+      <c r="J421" s="8"/>
+      <c r="K421" s="8"/>
+      <c r="L421" s="8"/>
+      <c r="M421" s="8"/>
+      <c r="N421" s="8"/>
+      <c r="O421" s="8"/>
+      <c r="P421" s="8"/>
+      <c r="Q421" s="8"/>
+      <c r="R421" s="8"/>
+      <c r="S421" s="8"/>
+      <c r="T421" s="8"/>
+      <c r="U421" s="8"/>
+      <c r="V421" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>